--- a/ZBP_10_kontakty_aktivity.xlsx
+++ b/ZBP_10_kontakty_aktivity.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
   <si>
     <t>trideni</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>5. 1. 2021</t>
+  </si>
+  <si>
+    <t>26. 1. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -188,10 +191,10 @@
     <t>Žena, 55 a více let</t>
   </si>
   <si>
-    <t>Život během pandemie, Kontakty vs. protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 12. 1. 2021</t>
+    <t>Život během pandemie, Kontakty vs. protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 2. 2. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Kontakty vs. protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 12. 1. 2021</t>
+    <t>Život během pandemie, Kontakty vs. protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 2. 2. 2021</t>
   </si>
 </sst>
 </file>
@@ -566,7 +569,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W112"/>
+  <dimension ref="A1:X112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,7 +577,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -644,16 +647,19 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
         <v>0.26</v>
@@ -715,16 +721,19 @@
       <c r="W2" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
         <v>0.31</v>
@@ -786,16 +795,19 @@
       <c r="W3" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
         <v>0.05</v>
@@ -857,16 +869,19 @@
       <c r="W4" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="X4" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
         <v>0.32</v>
@@ -928,16 +943,19 @@
       <c r="W5" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="X5" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
         <v>0.05999999999999983</v>
@@ -999,16 +1017,19 @@
       <c r="W6" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="X6" t="n">
+        <v>0.1599999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
         <v>0.14</v>
@@ -1070,16 +1091,19 @@
       <c r="W7" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="X7" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="n">
         <v>0.33</v>
@@ -1141,16 +1165,19 @@
       <c r="W8" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="X8" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" t="n">
         <v>0.06</v>
@@ -1212,16 +1239,19 @@
       <c r="W9" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="X9" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" t="n">
         <v>0.41</v>
@@ -1283,16 +1313,19 @@
       <c r="W10" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="X10" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
         <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
       </c>
       <c r="D11" t="n">
         <v>0.06000000000000005</v>
@@ -1354,16 +1387,19 @@
       <c r="W11" t="n">
         <v>0.2100000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="X11" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="n">
         <v>0.19</v>
@@ -1425,16 +1461,19 @@
       <c r="W12" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="X12" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="n">
         <v>0.27</v>
@@ -1496,16 +1535,19 @@
       <c r="W13" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="X13" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" t="n">
         <v>0.03</v>
@@ -1567,16 +1609,19 @@
       <c r="W14" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="X14" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15" t="n">
         <v>0.42</v>
@@ -1638,16 +1683,19 @@
       <c r="W15" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="X15" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
       </c>
       <c r="D16" t="n">
         <v>0.09000000000000008</v>
@@ -1709,16 +1757,19 @@
       <c r="W16" t="n">
         <v>0.1399999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="X16" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="n">
         <v>0.41</v>
@@ -1780,16 +1831,19 @@
       <c r="W17" t="n">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="X17" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="n">
         <v>0.34</v>
@@ -1851,16 +1905,19 @@
       <c r="W18" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="X18" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" t="n">
         <v>0.06</v>
@@ -1922,16 +1979,19 @@
       <c r="W19" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="X19" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" t="n">
         <v>0.17</v>
@@ -1993,16 +2053,19 @@
       <c r="W20" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="X20" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
         <v>30</v>
-      </c>
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" t="s">
-        <v>29</v>
       </c>
       <c r="D21" t="n">
         <v>0.01999999999999991</v>
@@ -2064,16 +2127,19 @@
       <c r="W21" t="n">
         <v>0.04000000000000004</v>
       </c>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="X21" t="n">
+        <v>0.05000000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="n">
         <v>0.27</v>
@@ -2135,16 +2201,19 @@
       <c r="W22" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="X22" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="n">
         <v>0.3</v>
@@ -2206,16 +2275,19 @@
       <c r="W23" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="24" spans="1:23">
+      <c r="X23" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" t="n">
         <v>0.07000000000000001</v>
@@ -2277,16 +2349,19 @@
       <c r="W24" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="25" spans="1:23">
+      <c r="X24" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D25" t="n">
         <v>0.25</v>
@@ -2348,16 +2423,19 @@
       <c r="W25" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="26" spans="1:23">
+      <c r="X25" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D26" t="n">
         <v>0.1099999999999999</v>
@@ -2419,16 +2497,19 @@
       <c r="W26" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="27" spans="1:23">
+      <c r="X26" t="n">
+        <v>0.2799999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D27" t="n">
         <v>0.24</v>
@@ -2490,16 +2571,19 @@
       <c r="W27" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="28" spans="1:23">
+      <c r="X27" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="n">
         <v>0.3</v>
@@ -2561,16 +2645,19 @@
       <c r="W28" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="29" spans="1:23">
+      <c r="X28" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" t="n">
         <v>0.05</v>
@@ -2632,16 +2719,19 @@
       <c r="W29" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="30" spans="1:23">
+      <c r="X29" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D30" t="n">
         <v>0.35</v>
@@ -2703,16 +2793,19 @@
       <c r="W30" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="31" spans="1:23">
+      <c r="X30" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D31" t="n">
         <v>0.05999999999999994</v>
@@ -2774,16 +2867,19 @@
       <c r="W31" t="n">
         <v>0.09999999999999998</v>
       </c>
-    </row>
-    <row r="32" spans="1:23">
+      <c r="X31" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D32" t="n">
         <v>0.27</v>
@@ -2845,16 +2941,19 @@
       <c r="W32" t="n">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="33" spans="1:23">
+      <c r="X32" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D33" t="n">
         <v>0.33</v>
@@ -2916,16 +3015,19 @@
       <c r="W33" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="34" spans="1:23">
+      <c r="X33" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D34" t="n">
         <v>0.04</v>
@@ -2987,16 +3089,19 @@
       <c r="W34" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="35" spans="1:23">
+      <c r="X34" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D35" t="n">
         <v>0.33</v>
@@ -3058,16 +3163,19 @@
       <c r="W35" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="36" spans="1:23">
+      <c r="X35" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D36" t="n">
         <v>0.0299999999999998</v>
@@ -3129,25 +3237,28 @@
       <c r="W36" t="n">
         <v>0.06000000000000005</v>
       </c>
-    </row>
-    <row r="37" spans="1:23">
+      <c r="X36" t="n">
+        <v>0.09999999999999987</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D37" t="n">
         <v>0.03</v>
       </c>
       <c r="E37" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="G37" t="n">
         <v>0.31</v>
@@ -3156,19 +3267,19 @@
         <v>0.29</v>
       </c>
       <c r="I37" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="J37" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="K37" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L37" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="M37" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="N37" t="n">
         <v>0.11</v>
@@ -3177,7 +3288,7 @@
         <v>0.11</v>
       </c>
       <c r="P37" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="Q37" t="n">
         <v>0.14</v>
@@ -3195,30 +3306,33 @@
         <v>0.17</v>
       </c>
       <c r="V37" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="W37" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="38" spans="1:23">
+      <c r="X37" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D38" t="n">
         <v>0.52</v>
       </c>
       <c r="E38" t="n">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
       <c r="F38" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="G38" t="n">
         <v>0.26</v>
@@ -3227,13 +3341,13 @@
         <v>0.21</v>
       </c>
       <c r="I38" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="J38" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="K38" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="L38" t="n">
         <v>0.13</v>
@@ -3251,7 +3365,7 @@
         <v>0.12</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="R38" t="n">
         <v>0.24</v>
@@ -3271,22 +3385,25 @@
       <c r="W38" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="39" spans="1:23">
+      <c r="X38" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D39" t="n">
         <v>0.03</v>
       </c>
       <c r="E39" t="n">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="F39" t="n">
         <v>0.11</v>
@@ -3307,16 +3424,16 @@
         <v>0.11</v>
       </c>
       <c r="L39" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="M39" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="N39" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="O39" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="P39" t="n">
         <v>0.13</v>
@@ -3325,7 +3442,7 @@
         <v>0.12</v>
       </c>
       <c r="R39" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="S39" t="n">
         <v>0.12</v>
@@ -3340,18 +3457,21 @@
         <v>0.12</v>
       </c>
       <c r="W39" t="n">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23">
+        <v>0.17</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D40" t="n">
         <v>0.34</v>
@@ -3369,22 +3489,22 @@
         <v>0.39</v>
       </c>
       <c r="I40" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="J40" t="n">
         <v>0.29</v>
       </c>
       <c r="K40" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="L40" t="n">
         <v>0.15</v>
       </c>
       <c r="M40" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="N40" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="O40" t="n">
         <v>0.35</v>
@@ -3413,25 +3533,28 @@
       <c r="W40" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="41" spans="1:23">
+      <c r="X40" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D41" t="n">
         <v>0.07999999999999985</v>
       </c>
       <c r="E41" t="n">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="F41" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G41" t="n">
         <v>0.1199999999999999</v>
@@ -3440,34 +3563,34 @@
         <v>0.06999999999999995</v>
       </c>
       <c r="I41" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="J41" t="n">
         <v>0.37</v>
       </c>
       <c r="K41" t="n">
-        <v>0.43</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="L41" t="n">
-        <v>0.4299999999999999</v>
+        <v>0.46</v>
       </c>
       <c r="M41" t="n">
-        <v>0.4299999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="N41" t="n">
         <v>0.48</v>
       </c>
       <c r="O41" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="P41" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="R41" t="n">
-        <v>0.1900000000000001</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="S41" t="n">
         <v>0.13</v>
@@ -3479,21 +3602,24 @@
         <v>0.23</v>
       </c>
       <c r="V41" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="W41" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23">
+        <v>0.1599999999999999</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D42" t="n">
         <v>0.14</v>
@@ -3532,16 +3658,16 @@
         <v>0.1</v>
       </c>
       <c r="P42" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="Q42" t="n">
         <v>0.13</v>
       </c>
       <c r="R42" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="S42" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="T42" t="n">
         <v>0.26</v>
@@ -3550,21 +3676,24 @@
         <v>0.2</v>
       </c>
       <c r="V42" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="W42" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="43" spans="1:23">
+      <c r="X42" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D43" t="n">
         <v>0.46</v>
@@ -3612,7 +3741,7 @@
         <v>0.28</v>
       </c>
       <c r="S43" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="T43" t="n">
         <v>0.28</v>
@@ -3626,16 +3755,19 @@
       <c r="W43" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="44" spans="1:23">
+      <c r="X43" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D44" t="n">
         <v>0.02</v>
@@ -3665,7 +3797,7 @@
         <v>0.13</v>
       </c>
       <c r="M44" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="N44" t="n">
         <v>0.11</v>
@@ -3677,10 +3809,10 @@
         <v>0.13</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="R44" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="S44" t="n">
         <v>0.13</v>
@@ -3697,16 +3829,19 @@
       <c r="W44" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="45" spans="1:23">
+      <c r="X44" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D45" t="n">
         <v>0.29</v>
@@ -3724,7 +3859,7 @@
         <v>0.33</v>
       </c>
       <c r="I45" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="J45" t="n">
         <v>0.34</v>
@@ -3760,7 +3895,7 @@
         <v>0.2</v>
       </c>
       <c r="U45" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="V45" t="n">
         <v>0.23</v>
@@ -3768,16 +3903,19 @@
       <c r="W45" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="46" spans="1:23">
+      <c r="X45" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B46" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D46" t="n">
         <v>0.08999999999999986</v>
@@ -3795,7 +3933,7 @@
         <v>0.1699999999999999</v>
       </c>
       <c r="I46" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.1799999999999999</v>
       </c>
       <c r="J46" t="n">
         <v>0.3</v>
@@ -3807,7 +3945,7 @@
         <v>0.39</v>
       </c>
       <c r="M46" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="N46" t="n">
         <v>0.41</v>
@@ -3816,10 +3954,10 @@
         <v>0.3100000000000001</v>
       </c>
       <c r="P46" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="R46" t="n">
         <v>0.11</v>
@@ -3831,24 +3969,27 @@
         <v>0.1299999999999999</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.1599999999999999</v>
       </c>
       <c r="V46" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="W46" t="n">
         <v>0.09999999999999998</v>
       </c>
-    </row>
-    <row r="47" spans="1:23">
+      <c r="X46" t="n">
+        <v>0.1299999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C47" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D47" t="n">
         <v>0.27</v>
@@ -3910,16 +4051,19 @@
       <c r="W47" t="n">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="48" spans="1:23">
+      <c r="X47" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D48" t="n">
         <v>0.31</v>
@@ -3981,16 +4125,19 @@
       <c r="W48" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="49" spans="1:23">
+      <c r="X48" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B49" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D49" t="n">
         <v>0.05</v>
@@ -4052,16 +4199,19 @@
       <c r="W49" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="50" spans="1:23">
+      <c r="X49" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D50" t="n">
         <v>0.32</v>
@@ -4073,7 +4223,7 @@
         <v>0.15</v>
       </c>
       <c r="G50" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="H50" t="n">
         <v>0.18</v>
@@ -4103,7 +4253,7 @@
         <v>0.24</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="R50" t="n">
         <v>0.15</v>
@@ -4123,16 +4273,19 @@
       <c r="W50" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:23">
+      <c r="X50" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D51" t="n">
         <v>0.04999999999999982</v>
@@ -4144,7 +4297,7 @@
         <v>0.02999999999999992</v>
       </c>
       <c r="G51" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="H51" t="n">
         <v>0.1099999999999999</v>
@@ -4174,7 +4327,7 @@
         <v>0.25</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.1900000000000001</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="R51" t="n">
         <v>0.1499999999999999</v>
@@ -4194,16 +4347,19 @@
       <c r="W51" t="n">
         <v>0.08999999999999986</v>
       </c>
-    </row>
-    <row r="52" spans="1:23">
+      <c r="X51" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C52" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D52" t="n">
         <v>0.22</v>
@@ -4265,16 +4421,19 @@
       <c r="W52" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="53" spans="1:23">
+      <c r="X52" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C53" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D53" t="n">
         <v>0.3</v>
@@ -4336,16 +4495,19 @@
       <c r="W53" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="54" spans="1:23">
+      <c r="X53" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D54" t="n">
         <v>0.05</v>
@@ -4407,16 +4569,19 @@
       <c r="W54" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="55" spans="1:23">
+      <c r="X54" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D55" t="n">
         <v>0.34</v>
@@ -4478,16 +4643,19 @@
       <c r="W55" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="56" spans="1:23">
+      <c r="X55" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24">
       <c r="A56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D56" t="n">
         <v>0.08999999999999986</v>
@@ -4549,16 +4717,19 @@
       <c r="W56" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="57" spans="1:23">
+      <c r="X56" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24">
       <c r="A57" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C57" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D57" t="n">
         <v>0.31</v>
@@ -4620,16 +4791,19 @@
       <c r="W57" t="n">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="58" spans="1:23">
+      <c r="X57" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24">
       <c r="A58" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C58" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D58" t="n">
         <v>0.32</v>
@@ -4691,16 +4865,19 @@
       <c r="W58" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="59" spans="1:23">
+      <c r="X58" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24">
       <c r="A59" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D59" t="n">
         <v>0.05</v>
@@ -4762,16 +4939,19 @@
       <c r="W59" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="60" spans="1:23">
+      <c r="X59" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24">
       <c r="A60" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D60" t="n">
         <v>0.29</v>
@@ -4833,16 +5013,19 @@
       <c r="W60" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="61" spans="1:23">
+      <c r="X60" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24">
       <c r="A61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D61" t="n">
         <v>0.03000000000000003</v>
@@ -4904,16 +5087,19 @@
       <c r="W61" t="n">
         <v>0.07999999999999996</v>
       </c>
-    </row>
-    <row r="62" spans="1:23">
+      <c r="X61" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24">
       <c r="A62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C62" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D62" t="n">
         <v>0.25</v>
@@ -4975,16 +5161,19 @@
       <c r="W62" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="63" spans="1:23">
+      <c r="X62" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24">
       <c r="A63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C63" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D63" t="n">
         <v>0.31</v>
@@ -5046,16 +5235,19 @@
       <c r="W63" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="64" spans="1:23">
+      <c r="X63" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24">
       <c r="A64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D64" t="n">
         <v>0.05</v>
@@ -5117,16 +5309,19 @@
       <c r="W64" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="65" spans="1:23">
+      <c r="X64" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24">
       <c r="A65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D65" t="n">
         <v>0.32</v>
@@ -5188,16 +5383,19 @@
       <c r="W65" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="66" spans="1:23">
+      <c r="X65" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24">
       <c r="A66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D66" t="n">
         <v>0.06999999999999984</v>
@@ -5259,16 +5457,19 @@
       <c r="W66" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="67" spans="1:23">
+      <c r="X66" t="n">
+        <v>0.1499999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24">
       <c r="A67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C67" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D67" t="n">
         <v>0.28</v>
@@ -5330,16 +5531,19 @@
       <c r="W67" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="68" spans="1:23">
+      <c r="X67" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24">
       <c r="A68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C68" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D68" t="n">
         <v>0.3</v>
@@ -5401,16 +5605,19 @@
       <c r="W68" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="69" spans="1:23">
+      <c r="X68" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24">
       <c r="A69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D69" t="n">
         <v>0.03</v>
@@ -5472,16 +5679,19 @@
       <c r="W69" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="70" spans="1:23">
+      <c r="X69" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24">
       <c r="A70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C70" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D70" t="n">
         <v>0.33</v>
@@ -5543,16 +5753,19 @@
       <c r="W70" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="71" spans="1:23">
+      <c r="X70" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24">
       <c r="A71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C71" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D71" t="n">
         <v>0.05999999999999983</v>
@@ -5614,16 +5827,19 @@
       <c r="W71" t="n">
         <v>0.07999999999999996</v>
       </c>
-    </row>
-    <row r="72" spans="1:23">
+      <c r="X71" t="n">
+        <v>0.1499999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24">
       <c r="A72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B72" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C72" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D72" t="n">
         <v>0.29</v>
@@ -5685,16 +5901,19 @@
       <c r="W72" t="n">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="73" spans="1:23">
+      <c r="X72" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24">
       <c r="A73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B73" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C73" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D73" t="n">
         <v>0.3</v>
@@ -5756,16 +5975,19 @@
       <c r="W73" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="74" spans="1:23">
+      <c r="X73" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24">
       <c r="A74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D74" t="n">
         <v>0.04</v>
@@ -5827,16 +6049,19 @@
       <c r="W74" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="75" spans="1:23">
+      <c r="X74" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24">
       <c r="A75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C75" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D75" t="n">
         <v>0.29</v>
@@ -5898,16 +6123,19 @@
       <c r="W75" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="76" spans="1:23">
+      <c r="X75" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24">
       <c r="A76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B76" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C76" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D76" t="n">
         <v>0.08000000000000007</v>
@@ -5969,16 +6197,19 @@
       <c r="W76" t="n">
         <v>0.08999999999999997</v>
       </c>
-    </row>
-    <row r="77" spans="1:23">
+      <c r="X76" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24">
       <c r="A77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B77" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C77" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D77" t="n">
         <v>0.27</v>
@@ -6040,16 +6271,19 @@
       <c r="W77" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="78" spans="1:23">
+      <c r="X77" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24">
       <c r="A78" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B78" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C78" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D78" t="n">
         <v>0.33</v>
@@ -6111,16 +6345,19 @@
       <c r="W78" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="79" spans="1:23">
+      <c r="X78" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24">
       <c r="A79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B79" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D79" t="n">
         <v>0.04</v>
@@ -6182,16 +6419,19 @@
       <c r="W79" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="80" spans="1:23">
+      <c r="X79" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24">
       <c r="A80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B80" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C80" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D80" t="n">
         <v>0.3</v>
@@ -6253,16 +6493,19 @@
       <c r="W80" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="81" spans="1:23">
+      <c r="X80" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24">
       <c r="A81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B81" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C81" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D81" t="n">
         <v>0.05999999999999983</v>
@@ -6324,16 +6567,19 @@
       <c r="W81" t="n">
         <v>0.09999999999999998</v>
       </c>
-    </row>
-    <row r="82" spans="1:23">
+      <c r="X81" t="n">
+        <v>0.1899999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24">
       <c r="A82" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B82" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C82" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D82" t="n">
         <v>0.11</v>
@@ -6395,16 +6641,19 @@
       <c r="W82" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="83" spans="1:23">
+      <c r="X82" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24">
       <c r="A83" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B83" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C83" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D83" t="n">
         <v>0.32</v>
@@ -6466,16 +6715,19 @@
       <c r="W83" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="84" spans="1:23">
+      <c r="X83" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24">
       <c r="A84" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B84" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D84" t="n">
         <v>0.07000000000000001</v>
@@ -6537,16 +6789,19 @@
       <c r="W84" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="85" spans="1:23">
+      <c r="X84" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24">
       <c r="A85" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B85" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C85" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D85" t="n">
         <v>0.42</v>
@@ -6608,16 +6863,19 @@
       <c r="W85" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="86" spans="1:23">
+      <c r="X85" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24">
       <c r="A86" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B86" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C86" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D86" t="n">
         <v>0.08000000000000007</v>
@@ -6679,16 +6937,19 @@
       <c r="W86" t="n">
         <v>0.1799999999999999</v>
       </c>
-    </row>
-    <row r="87" spans="1:23">
+      <c r="X86" t="n">
+        <v>0.2499999999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24">
       <c r="A87" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B87" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C87" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D87" t="n">
         <v>0.14</v>
@@ -6750,16 +7011,19 @@
       <c r="W87" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="88" spans="1:23">
+      <c r="X87" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24">
       <c r="A88" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B88" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C88" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D88" t="n">
         <v>0.25</v>
@@ -6821,16 +7085,19 @@
       <c r="W88" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="89" spans="1:23">
+      <c r="X88" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24">
       <c r="A89" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B89" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D89" t="n">
         <v>0.03</v>
@@ -6892,16 +7159,19 @@
       <c r="W89" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="90" spans="1:23">
+      <c r="X89" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24">
       <c r="A90" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B90" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C90" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D90" t="n">
         <v>0.44</v>
@@ -6963,16 +7233,19 @@
       <c r="W90" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="91" spans="1:23">
+      <c r="X90" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24">
       <c r="A91" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B91" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C91" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D91" t="n">
         <v>0.1399999999999999</v>
@@ -7034,16 +7307,19 @@
       <c r="W91" t="n">
         <v>0.1799999999999999</v>
       </c>
-    </row>
-    <row r="92" spans="1:23">
+      <c r="X91" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24">
       <c r="A92" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C92" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D92" t="n">
         <v>0.38</v>
@@ -7105,16 +7381,19 @@
       <c r="W92" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="93" spans="1:23">
+      <c r="X92" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24">
       <c r="A93" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B93" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C93" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D93" t="n">
         <v>0.35</v>
@@ -7176,16 +7455,19 @@
       <c r="W93" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="94" spans="1:23">
+      <c r="X93" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24">
       <c r="A94" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D94" t="n">
         <v>0.05</v>
@@ -7247,16 +7529,19 @@
       <c r="W94" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="95" spans="1:23">
+      <c r="X94" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24">
       <c r="A95" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B95" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C95" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D95" t="n">
         <v>0.18</v>
@@ -7318,16 +7603,19 @@
       <c r="W95" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="96" spans="1:23">
+      <c r="X95" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24">
       <c r="A96" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B96" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C96" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D96" t="n">
         <v>0.04000000000000004</v>
@@ -7389,16 +7677,19 @@
       <c r="W96" t="n">
         <v>0.06000000000000005</v>
       </c>
-    </row>
-    <row r="97" spans="1:23">
+      <c r="X96" t="n">
+        <v>0.08999999999999997</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24">
       <c r="A97" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B97" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C97" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D97" t="n">
         <v>0.17</v>
@@ -7460,16 +7751,19 @@
       <c r="W97" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="98" spans="1:23">
+      <c r="X97" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24">
       <c r="A98" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B98" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C98" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D98" t="n">
         <v>0.34</v>
@@ -7531,16 +7825,19 @@
       <c r="W98" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="99" spans="1:23">
+      <c r="X98" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24">
       <c r="A99" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B99" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D99" t="n">
         <v>0.04</v>
@@ -7602,16 +7899,19 @@
       <c r="W99" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="100" spans="1:23">
+      <c r="X99" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24">
       <c r="A100" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B100" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C100" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D100" t="n">
         <v>0.39</v>
@@ -7673,16 +7973,19 @@
       <c r="W100" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="101" spans="1:23">
+      <c r="X100" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24">
       <c r="A101" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B101" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C101" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D101" t="n">
         <v>0.05999999999999994</v>
@@ -7744,16 +8047,19 @@
       <c r="W101" t="n">
         <v>0.2000000000000001</v>
       </c>
-    </row>
-    <row r="102" spans="1:23">
+      <c r="X101" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24">
       <c r="A102" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B102" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C102" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D102" t="n">
         <v>0.25</v>
@@ -7815,16 +8121,19 @@
       <c r="W102" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="103" spans="1:23">
+      <c r="X102" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24">
       <c r="A103" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B103" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C103" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D103" t="n">
         <v>0.3</v>
@@ -7886,16 +8195,19 @@
       <c r="W103" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="104" spans="1:23">
+      <c r="X103" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24">
       <c r="A104" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B104" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D104" t="n">
         <v>0.03</v>
@@ -7957,16 +8269,19 @@
       <c r="W104" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="105" spans="1:23">
+      <c r="X104" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24">
       <c r="A105" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B105" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C105" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D105" t="n">
         <v>0.39</v>
@@ -8028,16 +8343,19 @@
       <c r="W105" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="106" spans="1:23">
+      <c r="X105" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24">
       <c r="A106" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B106" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C106" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D106" t="n">
         <v>0.02999999999999992</v>
@@ -8099,16 +8417,19 @@
       <c r="W106" t="n">
         <v>0.08999999999999997</v>
       </c>
-    </row>
-    <row r="107" spans="1:23">
+      <c r="X106" t="n">
+        <v>0.1599999999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24">
       <c r="A107" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B107" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C107" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D107" t="n">
         <v>0.43</v>
@@ -8170,16 +8491,19 @@
       <c r="W107" t="n">
         <v>0.55</v>
       </c>
-    </row>
-    <row r="108" spans="1:23">
+      <c r="X107" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24">
       <c r="A108" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B108" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C108" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D108" t="n">
         <v>0.33</v>
@@ -8241,16 +8565,19 @@
       <c r="W108" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="109" spans="1:23">
+      <c r="X108" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24">
       <c r="A109" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B109" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D109" t="n">
         <v>0.06</v>
@@ -8312,16 +8639,19 @@
       <c r="W109" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="110" spans="1:23">
+      <c r="X109" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24">
       <c r="A110" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B110" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C110" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D110" t="n">
         <v>0.16</v>
@@ -8383,16 +8713,19 @@
       <c r="W110" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="111" spans="1:23">
+      <c r="X110" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24">
       <c r="A111" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B111" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D111" t="n">
         <v>0.01999999999999991</v>
@@ -8454,10 +8787,13 @@
       <c r="W111" t="n">
         <v>0.01000000000000001</v>
       </c>
-    </row>
-    <row r="112" spans="1:23">
+      <c r="X111" t="n">
+        <v>0.03000000000000003</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24">
       <c r="A112" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -8471,7 +8807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V24"/>
+  <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8479,7 +8815,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8546,13 +8882,16 @@
       <c r="V1" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="n">
         <v>2404</v>
@@ -8614,13 +8953,16 @@
       <c r="V2" t="n">
         <v>1974</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2" t="n">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="n">
         <v>587</v>
@@ -8682,13 +9024,16 @@
       <c r="V3" t="n">
         <v>457</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3" t="n">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="n">
         <v>874</v>
@@ -8750,13 +9095,16 @@
       <c r="V4" t="n">
         <v>704</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4" t="n">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" t="n">
         <v>943</v>
@@ -8818,13 +9166,16 @@
       <c r="V5" t="n">
         <v>813</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5" t="n">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" t="n">
         <v>542</v>
@@ -8886,13 +9237,16 @@
       <c r="V6" t="n">
         <v>360</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6" t="n">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" t="n">
         <v>669</v>
@@ -8954,13 +9308,16 @@
       <c r="V7" t="n">
         <v>702</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7" t="n">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" t="n">
         <v>1193</v>
@@ -9022,81 +9379,87 @@
       <c r="V8" t="n">
         <v>912</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8" t="n">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" t="n">
         <v>10</v>
       </c>
       <c r="D9" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E9" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" t="n">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G9" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H9" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I9" t="n">
+        <v>71</v>
+      </c>
+      <c r="J9" t="n">
         <v>73</v>
       </c>
-      <c r="J9" t="n">
-        <v>77</v>
-      </c>
       <c r="K9" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L9" t="n">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M9" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="N9" t="n">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="O9" t="n">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="P9" t="n">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="Q9" t="n">
-        <v>553</v>
+        <v>530</v>
       </c>
       <c r="R9" t="n">
-        <v>658</v>
+        <v>637</v>
       </c>
       <c r="S9" t="n">
-        <v>659</v>
+        <v>644</v>
       </c>
       <c r="T9" t="n">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="U9" t="n">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="V9" t="n">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
+        <v>580</v>
+      </c>
+      <c r="W9" t="n">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" t="n">
         <v>81</v>
@@ -9108,131 +9471,137 @@
         <v>238</v>
       </c>
       <c r="F10" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G10" t="n">
         <v>256</v>
       </c>
       <c r="H10" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="I10" t="n">
         <v>255</v>
       </c>
       <c r="J10" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K10" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L10" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M10" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N10" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O10" t="n">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="P10" t="n">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="Q10" t="n">
-        <v>715</v>
+        <v>736</v>
       </c>
       <c r="R10" t="n">
-        <v>719</v>
+        <v>735</v>
       </c>
       <c r="S10" t="n">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="T10" t="n">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="U10" t="n">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="V10" t="n">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
+        <v>706</v>
+      </c>
+      <c r="W10" t="n">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" t="n">
         <v>2313</v>
       </c>
       <c r="D11" t="n">
-        <v>2036</v>
+        <v>2041</v>
       </c>
       <c r="E11" t="n">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="F11" t="n">
-        <v>2060</v>
+        <v>2063</v>
       </c>
       <c r="G11" t="n">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="H11" t="n">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="I11" t="n">
-        <v>1941</v>
+        <v>1943</v>
       </c>
       <c r="J11" t="n">
-        <v>1843</v>
+        <v>1845</v>
       </c>
       <c r="K11" t="n">
         <v>1782</v>
       </c>
       <c r="L11" t="n">
-        <v>1711</v>
+        <v>1714</v>
       </c>
       <c r="M11" t="n">
-        <v>1651</v>
+        <v>1654</v>
       </c>
       <c r="N11" t="n">
-        <v>1447</v>
+        <v>1452</v>
       </c>
       <c r="O11" t="n">
-        <v>1303</v>
+        <v>1314</v>
       </c>
       <c r="P11" t="n">
-        <v>1074</v>
+        <v>1084</v>
       </c>
       <c r="Q11" t="n">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="R11" t="n">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="S11" t="n">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="T11" t="n">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="U11" t="n">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="V11" t="n">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
+        <v>688</v>
+      </c>
+      <c r="W11" t="n">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" t="n">
         <v>1210</v>
@@ -9294,13 +9663,16 @@
       <c r="V12" t="n">
         <v>963</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12" t="n">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" t="n">
         <v>1194</v>
@@ -9362,13 +9734,16 @@
       <c r="V13" t="n">
         <v>1011</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13" t="n">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" t="n">
         <v>1316</v>
@@ -9430,13 +9805,16 @@
       <c r="V14" t="n">
         <v>1028</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14" t="n">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" t="n">
         <v>519</v>
@@ -9498,13 +9876,16 @@
       <c r="V15" t="n">
         <v>444</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15" t="n">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" t="n">
         <v>279</v>
@@ -9566,13 +9947,16 @@
       <c r="V16" t="n">
         <v>237</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16" t="n">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" t="n">
         <v>290</v>
@@ -9634,13 +10018,16 @@
       <c r="V17" t="n">
         <v>265</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17" t="n">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" t="n">
         <v>307</v>
@@ -9702,13 +10089,16 @@
       <c r="V18" t="n">
         <v>231</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" t="n">
         <v>479</v>
@@ -9770,13 +10160,16 @@
       <c r="V19" t="n">
         <v>375</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C20" t="n">
         <v>423</v>
@@ -9838,13 +10231,16 @@
       <c r="V20" t="n">
         <v>357</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C21" t="n">
         <v>280</v>
@@ -9906,13 +10302,16 @@
       <c r="V21" t="n">
         <v>225</v>
       </c>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="W21" t="n">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" t="n">
         <v>395</v>
@@ -9974,13 +10373,16 @@
       <c r="V22" t="n">
         <v>329</v>
       </c>
-    </row>
-    <row r="23" spans="1:22">
+      <c r="W22" t="n">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" t="n">
         <v>520</v>
@@ -10042,10 +10444,13 @@
       <c r="V23" t="n">
         <v>457</v>
       </c>
-    </row>
-    <row r="24" spans="1:22">
+      <c r="W23" t="n">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s"/>
       <c r="C24" t="s"/>
@@ -10068,6 +10473,7 @@
       <c r="T24" t="s"/>
       <c r="U24" t="s"/>
       <c r="V24" t="s"/>
+      <c r="W24" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_10_kontakty_aktivity.xlsx
+++ b/ZBP_10_kontakty_aktivity.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
   <si>
     <t>trideni</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>26. 1. 2021</t>
+  </si>
+  <si>
+    <t>16. 2. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -176,7 +179,7 @@
     <t>Muž, 18–34 let</t>
   </si>
   <si>
-    <t>Muž, 35–44 let</t>
+    <t>Muž, 35–54 let</t>
   </si>
   <si>
     <t>Muž, 55 a více let</t>
@@ -185,16 +188,16 @@
     <t>Žena, 18–34 let</t>
   </si>
   <si>
-    <t>Žena, 35–44 let</t>
+    <t>Žena, 35–54 let</t>
   </si>
   <si>
     <t>Žena, 55 a více let</t>
   </si>
   <si>
-    <t>Život během pandemie, Kontakty vs. protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 2. 2. 2021</t>
+    <t>Život během pandemie, Kontakty vs. protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 23. 2. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Kontakty vs. protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 2. 2. 2021</t>
+    <t>Život během pandemie, Kontakty vs. protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 23. 2. 2021</t>
   </si>
 </sst>
 </file>
@@ -569,7 +572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X112"/>
+  <dimension ref="A1:Y112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,7 +580,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -650,16 +653,19 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
         <v>0.26</v>
@@ -724,16 +730,19 @@
       <c r="X2" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="Y2" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
         <v>0.31</v>
@@ -798,16 +807,19 @@
       <c r="X3" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="Y3" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
         <v>0.05</v>
@@ -872,16 +884,19 @@
       <c r="X4" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="Y4" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
         <v>0.32</v>
@@ -946,34 +961,37 @@
       <c r="X5" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="Y5" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05999999999999983</v>
+        <v>0.06</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02999999999999992</v>
+        <v>0.03</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02999999999999992</v>
+        <v>0.03</v>
       </c>
       <c r="G6" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.08</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1199999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="J6" t="n">
         <v>0.25</v>
@@ -982,13 +1000,13 @@
         <v>0.3</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3599999999999999</v>
+        <v>0.36</v>
       </c>
       <c r="M6" t="n">
         <v>0.34</v>
       </c>
       <c r="N6" t="n">
-        <v>0.3500000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="O6" t="n">
         <v>0.28</v>
@@ -1000,13 +1018,13 @@
         <v>0.21</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1399999999999999</v>
+        <v>0.14</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1199999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1599999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="U6" t="n">
         <v>0.18</v>
@@ -1018,18 +1036,21 @@
         <v>0.12</v>
       </c>
       <c r="X6" t="n">
-        <v>0.1599999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
+        <v>0.16</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="n">
         <v>0.14</v>
@@ -1094,16 +1115,19 @@
       <c r="X7" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="8" spans="1:24">
+      <c r="Y7" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" t="n">
         <v>0.33</v>
@@ -1168,16 +1192,19 @@
       <c r="X8" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="Y8" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" t="n">
         <v>0.06</v>
@@ -1242,16 +1269,19 @@
       <c r="X9" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="Y9" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" t="n">
         <v>0.41</v>
@@ -1316,31 +1346,34 @@
       <c r="X10" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="11" spans="1:24">
+      <c r="Y10" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
         <v>31</v>
       </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
       <c r="D11" t="n">
-        <v>0.06000000000000005</v>
+        <v>0.06</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01999999999999991</v>
+        <v>0.02</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04000000000000004</v>
+        <v>0.04</v>
       </c>
       <c r="G11" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="I11" t="n">
         <v>0.25</v>
@@ -1349,7 +1382,7 @@
         <v>0.37</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4299999999999999</v>
+        <v>0.43</v>
       </c>
       <c r="L11" t="n">
         <v>0.47</v>
@@ -1361,13 +1394,13 @@
         <v>0.53</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4299999999999999</v>
+        <v>0.43</v>
       </c>
       <c r="P11" t="n">
-        <v>0.4099999999999999</v>
+        <v>0.41</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.3099999999999999</v>
+        <v>0.31</v>
       </c>
       <c r="R11" t="n">
         <v>0.2</v>
@@ -1379,27 +1412,30 @@
         <v>0.22</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2899999999999999</v>
+        <v>0.29</v>
       </c>
       <c r="V11" t="n">
         <v>0.27</v>
       </c>
       <c r="W11" t="n">
-        <v>0.2100000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="X11" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="Y11" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="n">
         <v>0.19</v>
@@ -1464,16 +1500,19 @@
       <c r="X12" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:24">
+      <c r="Y12" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" t="n">
         <v>0.27</v>
@@ -1538,16 +1577,19 @@
       <c r="X13" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="14" spans="1:24">
+      <c r="Y13" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" t="n">
         <v>0.03</v>
@@ -1612,16 +1654,19 @@
       <c r="X14" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="15" spans="1:24">
+      <c r="Y14" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15" t="n">
         <v>0.42</v>
@@ -1686,28 +1731,31 @@
       <c r="X15" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="16" spans="1:24">
+      <c r="Y15" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
         <v>31</v>
       </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
       <c r="D16" t="n">
-        <v>0.09000000000000008</v>
+        <v>0.09</v>
       </c>
       <c r="E16" t="n">
-        <v>0.03999999999999992</v>
+        <v>0.04</v>
       </c>
       <c r="F16" t="n">
-        <v>0.06000000000000005</v>
+        <v>0.06</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.08</v>
       </c>
       <c r="H16" t="n">
         <v>0.15</v>
@@ -1716,13 +1764,13 @@
         <v>0.21</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3100000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="K16" t="n">
         <v>0.35</v>
       </c>
       <c r="L16" t="n">
-        <v>0.4299999999999999</v>
+        <v>0.43</v>
       </c>
       <c r="M16" t="n">
         <v>0.37</v>
@@ -1731,16 +1779,16 @@
         <v>0.37</v>
       </c>
       <c r="O16" t="n">
-        <v>0.3100000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="P16" t="n">
-        <v>0.3100000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="Q16" t="n">
         <v>0.24</v>
       </c>
       <c r="R16" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="S16" t="n">
         <v>0.16</v>
@@ -1755,21 +1803,24 @@
         <v>0.23</v>
       </c>
       <c r="W16" t="n">
-        <v>0.1399999999999999</v>
+        <v>0.14</v>
       </c>
       <c r="X16" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="17" spans="1:24">
+      <c r="Y16" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="n">
         <v>0.41</v>
@@ -1834,16 +1885,19 @@
       <c r="X17" t="n">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="18" spans="1:24">
+      <c r="Y17" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" t="n">
         <v>0.34</v>
@@ -1908,16 +1962,19 @@
       <c r="X18" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="19" spans="1:24">
+      <c r="Y18" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D19" t="n">
         <v>0.06</v>
@@ -1982,16 +2039,19 @@
       <c r="X19" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="20" spans="1:24">
+      <c r="Y19" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D20" t="n">
         <v>0.17</v>
@@ -2056,37 +2116,40 @@
       <c r="X20" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="21" spans="1:24">
+      <c r="Y20" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
         <v>31</v>
       </c>
-      <c r="B21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" t="s">
-        <v>30</v>
-      </c>
       <c r="D21" t="n">
-        <v>0.01999999999999991</v>
+        <v>0.02</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="F21" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.02</v>
       </c>
       <c r="G21" t="n">
-        <v>0.05000000000000004</v>
+        <v>0.05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.06000000000000005</v>
+        <v>0.06</v>
       </c>
       <c r="I21" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.08</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1399999999999999</v>
+        <v>0.14</v>
       </c>
       <c r="K21" t="n">
         <v>0.2</v>
@@ -2110,36 +2173,39 @@
         <v>0.11</v>
       </c>
       <c r="R21" t="n">
-        <v>0.05000000000000004</v>
+        <v>0.05</v>
       </c>
       <c r="S21" t="n">
-        <v>0.05000000000000004</v>
+        <v>0.05</v>
       </c>
       <c r="T21" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.08</v>
       </c>
       <c r="U21" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.08</v>
       </c>
       <c r="V21" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.08</v>
       </c>
       <c r="W21" t="n">
-        <v>0.04000000000000004</v>
+        <v>0.04</v>
       </c>
       <c r="X21" t="n">
-        <v>0.05000000000000004</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24">
+        <v>0.05</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="n">
         <v>0.27</v>
@@ -2204,16 +2270,19 @@
       <c r="X22" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="23" spans="1:24">
+      <c r="Y22" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" t="n">
         <v>0.3</v>
@@ -2278,16 +2347,19 @@
       <c r="X23" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="24" spans="1:24">
+      <c r="Y23" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D24" t="n">
         <v>0.07000000000000001</v>
@@ -2352,16 +2424,19 @@
       <c r="X24" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="25" spans="1:24">
+      <c r="Y24" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D25" t="n">
         <v>0.25</v>
@@ -2426,28 +2501,31 @@
       <c r="X25" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="26" spans="1:24">
+      <c r="Y25" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1099999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="E26" t="n">
-        <v>0.05000000000000004</v>
+        <v>0.05</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.08</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="H26" t="n">
         <v>0.2</v>
@@ -2456,10 +2534,10 @@
         <v>0.23</v>
       </c>
       <c r="J26" t="n">
-        <v>0.3699999999999999</v>
+        <v>0.37</v>
       </c>
       <c r="K26" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="L26" t="n">
         <v>0.46</v>
@@ -2471,7 +2549,7 @@
         <v>0.5</v>
       </c>
       <c r="O26" t="n">
-        <v>0.4399999999999999</v>
+        <v>0.44</v>
       </c>
       <c r="P26" t="n">
         <v>0.42</v>
@@ -2486,7 +2564,7 @@
         <v>0.26</v>
       </c>
       <c r="T26" t="n">
-        <v>0.2599999999999999</v>
+        <v>0.26</v>
       </c>
       <c r="U26" t="n">
         <v>0.32</v>
@@ -2498,18 +2576,21 @@
         <v>0.24</v>
       </c>
       <c r="X26" t="n">
-        <v>0.2799999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24">
+        <v>0.28</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="n">
         <v>0.24</v>
@@ -2574,16 +2655,19 @@
       <c r="X27" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="28" spans="1:24">
+      <c r="Y27" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" t="n">
         <v>0.3</v>
@@ -2648,16 +2732,19 @@
       <c r="X28" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="29" spans="1:24">
+      <c r="Y28" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D29" t="n">
         <v>0.05</v>
@@ -2722,16 +2809,19 @@
       <c r="X29" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="30" spans="1:24">
+      <c r="Y29" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D30" t="n">
         <v>0.35</v>
@@ -2796,31 +2886,34 @@
       <c r="X30" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="31" spans="1:24">
+      <c r="Y30" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D31" t="n">
-        <v>0.05999999999999994</v>
+        <v>0.06</v>
       </c>
       <c r="E31" t="n">
-        <v>0.02999999999999992</v>
+        <v>0.03</v>
       </c>
       <c r="F31" t="n">
-        <v>0.03999999999999992</v>
+        <v>0.04</v>
       </c>
       <c r="G31" t="n">
-        <v>0.06000000000000005</v>
+        <v>0.06</v>
       </c>
       <c r="H31" t="n">
-        <v>0.07000000000000006</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I31" t="n">
         <v>0.16</v>
@@ -2832,13 +2925,13 @@
         <v>0.27</v>
       </c>
       <c r="L31" t="n">
-        <v>0.3200000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="M31" t="n">
         <v>0.3</v>
       </c>
       <c r="N31" t="n">
-        <v>0.3100000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="O31" t="n">
         <v>0.25</v>
@@ -2853,33 +2946,36 @@
         <v>0.14</v>
       </c>
       <c r="S31" t="n">
-        <v>0.1199999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="T31" t="n">
-        <v>0.1499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="U31" t="n">
         <v>0.17</v>
       </c>
       <c r="V31" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="W31" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="X31" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="32" spans="1:24">
+      <c r="Y31" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D32" t="n">
         <v>0.27</v>
@@ -2944,16 +3040,19 @@
       <c r="X32" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="33" spans="1:24">
+      <c r="Y32" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D33" t="n">
         <v>0.33</v>
@@ -3018,16 +3117,19 @@
       <c r="X33" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="34" spans="1:24">
+      <c r="Y33" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D34" t="n">
         <v>0.04</v>
@@ -3092,16 +3194,19 @@
       <c r="X34" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="35" spans="1:24">
+      <c r="Y34" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D35" t="n">
         <v>0.33</v>
@@ -3166,40 +3271,43 @@
       <c r="X35" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="36" spans="1:24">
+      <c r="Y35" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0299999999999998</v>
+        <v>0.03</v>
       </c>
       <c r="E36" t="n">
-        <v>0.009999999999999898</v>
+        <v>0.01</v>
       </c>
       <c r="F36" t="n">
-        <v>0.009999999999999898</v>
+        <v>0.01</v>
       </c>
       <c r="G36" t="n">
-        <v>0.04000000000000004</v>
+        <v>0.04</v>
       </c>
       <c r="H36" t="n">
-        <v>0.09000000000000008</v>
+        <v>0.09</v>
       </c>
       <c r="I36" t="n">
         <v>0.11</v>
       </c>
       <c r="J36" t="n">
-        <v>0.1399999999999999</v>
+        <v>0.14</v>
       </c>
       <c r="K36" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="L36" t="n">
         <v>0.3</v>
@@ -3211,45 +3319,48 @@
         <v>0.24</v>
       </c>
       <c r="O36" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="P36" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.1200000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="R36" t="n">
-        <v>0.09000000000000008</v>
+        <v>0.09</v>
       </c>
       <c r="S36" t="n">
-        <v>0.05999999999999994</v>
+        <v>0.06</v>
       </c>
       <c r="T36" t="n">
-        <v>0.08999999999999997</v>
+        <v>0.09</v>
       </c>
       <c r="U36" t="n">
         <v>0.11</v>
       </c>
       <c r="V36" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="W36" t="n">
-        <v>0.06000000000000005</v>
+        <v>0.06</v>
       </c>
       <c r="X36" t="n">
-        <v>0.09999999999999987</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24">
+        <v>0.1</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D37" t="n">
         <v>0.03</v>
@@ -3314,16 +3425,19 @@
       <c r="X37" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="38" spans="1:24">
+      <c r="Y37" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D38" t="n">
         <v>0.52</v>
@@ -3388,16 +3502,19 @@
       <c r="X38" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="39" spans="1:24">
+      <c r="Y38" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D39" t="n">
         <v>0.03</v>
@@ -3462,16 +3579,19 @@
       <c r="X39" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="40" spans="1:24">
+      <c r="Y39" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D40" t="n">
         <v>0.34</v>
@@ -3536,31 +3656,34 @@
       <c r="X40" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="41" spans="1:24">
+      <c r="Y40" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D41" t="n">
-        <v>0.07999999999999985</v>
+        <v>0.08</v>
       </c>
       <c r="E41" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.03</v>
       </c>
       <c r="F41" t="n">
-        <v>0.04000000000000004</v>
+        <v>0.04</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1199999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="H41" t="n">
-        <v>0.06999999999999995</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I41" t="n">
         <v>0.2</v>
@@ -3569,7 +3692,7 @@
         <v>0.37</v>
       </c>
       <c r="K41" t="n">
-        <v>0.4399999999999999</v>
+        <v>0.44</v>
       </c>
       <c r="L41" t="n">
         <v>0.46</v>
@@ -3590,13 +3713,13 @@
         <v>0.25</v>
       </c>
       <c r="R41" t="n">
-        <v>0.2000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="S41" t="n">
         <v>0.13</v>
       </c>
       <c r="T41" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="U41" t="n">
         <v>0.23</v>
@@ -3605,21 +3728,24 @@
         <v>0.24</v>
       </c>
       <c r="W41" t="n">
-        <v>0.1599999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="X41" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="42" spans="1:24">
+      <c r="Y41" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D42" t="n">
         <v>0.14</v>
@@ -3684,16 +3810,19 @@
       <c r="X42" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="43" spans="1:24">
+      <c r="Y42" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D43" t="n">
         <v>0.46</v>
@@ -3758,16 +3887,19 @@
       <c r="X43" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="44" spans="1:24">
+      <c r="Y43" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D44" t="n">
         <v>0.02</v>
@@ -3832,16 +3964,19 @@
       <c r="X44" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="45" spans="1:24">
+      <c r="Y44" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25">
       <c r="A45" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D45" t="n">
         <v>0.29</v>
@@ -3906,40 +4041,43 @@
       <c r="X45" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="46" spans="1:24">
+      <c r="Y45" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25">
       <c r="A46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D46" t="n">
-        <v>0.08999999999999986</v>
+        <v>0.09</v>
       </c>
       <c r="E46" t="n">
-        <v>0.05000000000000004</v>
+        <v>0.05</v>
       </c>
       <c r="F46" t="n">
-        <v>0.04000000000000004</v>
+        <v>0.04</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06999999999999995</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H46" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="I46" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="J46" t="n">
         <v>0.3</v>
       </c>
       <c r="K46" t="n">
-        <v>0.3200000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="L46" t="n">
         <v>0.39</v>
@@ -3951,7 +4089,7 @@
         <v>0.41</v>
       </c>
       <c r="O46" t="n">
-        <v>0.3100000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="P46" t="n">
         <v>0.25</v>
@@ -3963,33 +4101,36 @@
         <v>0.11</v>
       </c>
       <c r="S46" t="n">
-        <v>0.1199999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="T46" t="n">
-        <v>0.1299999999999999</v>
+        <v>0.13</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1599999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="V46" t="n">
         <v>0.15</v>
       </c>
       <c r="W46" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="X46" t="n">
-        <v>0.1299999999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24">
+        <v>0.13</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D47" t="n">
         <v>0.27</v>
@@ -4054,16 +4195,19 @@
       <c r="X47" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="48" spans="1:24">
+      <c r="Y47" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25">
       <c r="A48" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D48" t="n">
         <v>0.31</v>
@@ -4128,16 +4272,19 @@
       <c r="X48" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="49" spans="1:24">
+      <c r="Y48" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25">
       <c r="A49" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D49" t="n">
         <v>0.05</v>
@@ -4202,16 +4349,19 @@
       <c r="X49" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="50" spans="1:24">
+      <c r="Y49" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25">
       <c r="A50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D50" t="n">
         <v>0.32</v>
@@ -4276,31 +4426,34 @@
       <c r="X50" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="51" spans="1:24">
+      <c r="Y50" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25">
       <c r="A51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D51" t="n">
-        <v>0.04999999999999982</v>
+        <v>0.05</v>
       </c>
       <c r="E51" t="n">
-        <v>0.02999999999999992</v>
+        <v>0.03</v>
       </c>
       <c r="F51" t="n">
-        <v>0.02999999999999992</v>
+        <v>0.03</v>
       </c>
       <c r="G51" t="n">
-        <v>0.06999999999999995</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H51" t="n">
-        <v>0.1099999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="I51" t="n">
         <v>0.17</v>
@@ -4312,13 +4465,13 @@
         <v>0.29</v>
       </c>
       <c r="L51" t="n">
-        <v>0.3499999999999999</v>
+        <v>0.35</v>
       </c>
       <c r="M51" t="n">
-        <v>0.3200000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="N51" t="n">
-        <v>0.3200000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="O51" t="n">
         <v>0.27</v>
@@ -4327,10 +4480,10 @@
         <v>0.25</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.2000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="R51" t="n">
-        <v>0.1499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="S51" t="n">
         <v>0.13</v>
@@ -4339,27 +4492,30 @@
         <v>0.16</v>
       </c>
       <c r="U51" t="n">
-        <v>0.1399999999999999</v>
+        <v>0.14</v>
       </c>
       <c r="V51" t="n">
-        <v>0.1599999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="W51" t="n">
-        <v>0.08999999999999986</v>
+        <v>0.09</v>
       </c>
       <c r="X51" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="52" spans="1:24">
+      <c r="Y51" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25">
       <c r="A52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C52" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D52" t="n">
         <v>0.22</v>
@@ -4424,16 +4580,19 @@
       <c r="X52" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="53" spans="1:24">
+      <c r="Y52" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25">
       <c r="A53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D53" t="n">
         <v>0.3</v>
@@ -4498,16 +4657,19 @@
       <c r="X53" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="54" spans="1:24">
+      <c r="Y53" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25">
       <c r="A54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D54" t="n">
         <v>0.05</v>
@@ -4572,16 +4734,19 @@
       <c r="X54" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="55" spans="1:24">
+      <c r="Y54" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25">
       <c r="A55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D55" t="n">
         <v>0.34</v>
@@ -4646,25 +4811,28 @@
       <c r="X55" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="56" spans="1:24">
+      <c r="Y55" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25">
       <c r="A56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D56" t="n">
-        <v>0.08999999999999986</v>
+        <v>0.09</v>
       </c>
       <c r="E56" t="n">
-        <v>0.03999999999999992</v>
+        <v>0.04</v>
       </c>
       <c r="F56" t="n">
-        <v>0.05000000000000004</v>
+        <v>0.05</v>
       </c>
       <c r="G56" t="n">
         <v>0.12</v>
@@ -4682,13 +4850,13 @@
         <v>0.35</v>
       </c>
       <c r="L56" t="n">
-        <v>0.3999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="M56" t="n">
-        <v>0.3799999999999999</v>
+        <v>0.38</v>
       </c>
       <c r="N56" t="n">
-        <v>0.4099999999999999</v>
+        <v>0.41</v>
       </c>
       <c r="O56" t="n">
         <v>0.33</v>
@@ -4703,7 +4871,7 @@
         <v>0.18</v>
       </c>
       <c r="S56" t="n">
-        <v>0.1599999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="T56" t="n">
         <v>0.18</v>
@@ -4712,7 +4880,7 @@
         <v>0.22</v>
       </c>
       <c r="V56" t="n">
-        <v>0.2000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="W56" t="n">
         <v>0.14</v>
@@ -4720,16 +4888,19 @@
       <c r="X56" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="57" spans="1:24">
+      <c r="Y56" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25">
       <c r="A57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C57" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D57" t="n">
         <v>0.31</v>
@@ -4794,16 +4965,19 @@
       <c r="X57" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="58" spans="1:24">
+      <c r="Y57" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25">
       <c r="A58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D58" t="n">
         <v>0.32</v>
@@ -4868,16 +5042,19 @@
       <c r="X58" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="59" spans="1:24">
+      <c r="Y58" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25">
       <c r="A59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D59" t="n">
         <v>0.05</v>
@@ -4942,16 +5119,19 @@
       <c r="X59" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="60" spans="1:24">
+      <c r="Y59" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25">
       <c r="A60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D60" t="n">
         <v>0.29</v>
@@ -5016,31 +5196,34 @@
       <c r="X60" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="61" spans="1:24">
+      <c r="Y60" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25">
       <c r="A61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C61" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D61" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.03</v>
       </c>
       <c r="E61" t="n">
-        <v>0.01000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="F61" t="n">
-        <v>0.02999999999999992</v>
+        <v>0.03</v>
       </c>
       <c r="G61" t="n">
-        <v>0.04000000000000004</v>
+        <v>0.04</v>
       </c>
       <c r="H61" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.08</v>
       </c>
       <c r="I61" t="n">
         <v>0.12</v>
@@ -5052,7 +5235,7 @@
         <v>0.27</v>
       </c>
       <c r="L61" t="n">
-        <v>0.3199999999999998</v>
+        <v>0.32</v>
       </c>
       <c r="M61" t="n">
         <v>0.29</v>
@@ -5067,39 +5250,42 @@
         <v>0.21</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.1599999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="R61" t="n">
-        <v>0.1099999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="S61" t="n">
-        <v>0.08999999999999986</v>
+        <v>0.09</v>
       </c>
       <c r="T61" t="n">
-        <v>0.1199999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="U61" t="n">
         <v>0.14</v>
       </c>
       <c r="V61" t="n">
-        <v>0.1399999999999999</v>
+        <v>0.14</v>
       </c>
       <c r="W61" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.08</v>
       </c>
       <c r="X61" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="62" spans="1:24">
+      <c r="Y61" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25">
       <c r="A62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C62" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D62" t="n">
         <v>0.25</v>
@@ -5164,16 +5350,19 @@
       <c r="X62" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="63" spans="1:24">
+      <c r="Y62" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25">
       <c r="A63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D63" t="n">
         <v>0.31</v>
@@ -5238,16 +5427,19 @@
       <c r="X63" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="64" spans="1:24">
+      <c r="Y63" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25">
       <c r="A64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D64" t="n">
         <v>0.05</v>
@@ -5312,16 +5504,19 @@
       <c r="X64" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="65" spans="1:24">
+      <c r="Y64" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25">
       <c r="A65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D65" t="n">
         <v>0.32</v>
@@ -5386,34 +5581,37 @@
       <c r="X65" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="66" spans="1:24">
+      <c r="Y65" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25">
       <c r="A66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C66" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D66" t="n">
-        <v>0.06999999999999984</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E66" t="n">
-        <v>0.04999999999999993</v>
+        <v>0.05</v>
       </c>
       <c r="F66" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.02</v>
       </c>
       <c r="G66" t="n">
-        <v>0.07999999999999985</v>
+        <v>0.08</v>
       </c>
       <c r="H66" t="n">
-        <v>0.1499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="I66" t="n">
-        <v>0.1900000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="J66" t="n">
         <v>0.28</v>
@@ -5428,7 +5626,7 @@
         <v>0.34</v>
       </c>
       <c r="N66" t="n">
-        <v>0.3799999999999999</v>
+        <v>0.38</v>
       </c>
       <c r="O66" t="n">
         <v>0.3</v>
@@ -5443,10 +5641,10 @@
         <v>0.15</v>
       </c>
       <c r="S66" t="n">
-        <v>0.1199999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="T66" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="U66" t="n">
         <v>0.17</v>
@@ -5458,18 +5656,21 @@
         <v>0.12</v>
       </c>
       <c r="X66" t="n">
-        <v>0.1499999999999999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:24">
+        <v>0.15</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25">
       <c r="A67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B67" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C67" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D67" t="n">
         <v>0.28</v>
@@ -5534,16 +5735,19 @@
       <c r="X67" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="68" spans="1:24">
+      <c r="Y67" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25">
       <c r="A68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B68" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D68" t="n">
         <v>0.3</v>
@@ -5608,16 +5812,19 @@
       <c r="X68" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="69" spans="1:24">
+      <c r="Y68" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25">
       <c r="A69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B69" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C69" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D69" t="n">
         <v>0.03</v>
@@ -5682,16 +5889,19 @@
       <c r="X69" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="70" spans="1:24">
+      <c r="Y69" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25">
       <c r="A70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B70" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C70" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D70" t="n">
         <v>0.33</v>
@@ -5756,31 +5966,34 @@
       <c r="X70" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="71" spans="1:24">
+      <c r="Y70" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25">
       <c r="A71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B71" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C71" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D71" t="n">
-        <v>0.05999999999999983</v>
+        <v>0.06</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.02999999999999992</v>
+        <v>0.03</v>
       </c>
       <c r="G71" t="n">
-        <v>0.05000000000000004</v>
+        <v>0.05</v>
       </c>
       <c r="H71" t="n">
-        <v>0.06999999999999995</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I71" t="n">
         <v>0.15</v>
@@ -5792,13 +6005,13 @@
         <v>0.3</v>
       </c>
       <c r="L71" t="n">
-        <v>0.3300000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="M71" t="n">
         <v>0.33</v>
       </c>
       <c r="N71" t="n">
-        <v>0.3200000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="O71" t="n">
         <v>0.27</v>
@@ -5813,33 +6026,36 @@
         <v>0.12</v>
       </c>
       <c r="S71" t="n">
-        <v>0.09999999999999987</v>
+        <v>0.1</v>
       </c>
       <c r="T71" t="n">
         <v>0.12</v>
       </c>
       <c r="U71" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="V71" t="n">
         <v>0.16</v>
       </c>
       <c r="W71" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.08</v>
       </c>
       <c r="X71" t="n">
-        <v>0.1499999999999999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:24">
+        <v>0.15</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25">
       <c r="A72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B72" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C72" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D72" t="n">
         <v>0.29</v>
@@ -5904,16 +6120,19 @@
       <c r="X72" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="73" spans="1:24">
+      <c r="Y72" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25">
       <c r="A73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B73" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D73" t="n">
         <v>0.3</v>
@@ -5978,16 +6197,19 @@
       <c r="X73" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="74" spans="1:24">
+      <c r="Y73" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25">
       <c r="A74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B74" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C74" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D74" t="n">
         <v>0.04</v>
@@ -6052,16 +6274,19 @@
       <c r="X74" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="75" spans="1:24">
+      <c r="Y74" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25">
       <c r="A75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B75" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C75" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D75" t="n">
         <v>0.29</v>
@@ -6126,31 +6351,34 @@
       <c r="X75" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="76" spans="1:24">
+      <c r="Y75" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25">
       <c r="A76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B76" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C76" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D76" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.08</v>
       </c>
       <c r="E76" t="n">
-        <v>0.02999999999999992</v>
+        <v>0.03</v>
       </c>
       <c r="F76" t="n">
-        <v>0.02999999999999992</v>
+        <v>0.03</v>
       </c>
       <c r="G76" t="n">
-        <v>0.08999999999999997</v>
+        <v>0.09</v>
       </c>
       <c r="H76" t="n">
-        <v>0.1099999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="I76" t="n">
         <v>0.15</v>
@@ -6162,10 +6390,10 @@
         <v>0.27</v>
       </c>
       <c r="L76" t="n">
-        <v>0.3400000000000001</v>
+        <v>0.34</v>
       </c>
       <c r="M76" t="n">
-        <v>0.2899999999999999</v>
+        <v>0.29</v>
       </c>
       <c r="N76" t="n">
         <v>0.3</v>
@@ -6177,13 +6405,13 @@
         <v>0.25</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="R76" t="n">
-        <v>0.1199999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="S76" t="n">
-        <v>0.1399999999999999</v>
+        <v>0.14</v>
       </c>
       <c r="T76" t="n">
         <v>0.15</v>
@@ -6195,21 +6423,24 @@
         <v>0.16</v>
       </c>
       <c r="W76" t="n">
-        <v>0.08999999999999997</v>
+        <v>0.09</v>
       </c>
       <c r="X76" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="77" spans="1:24">
+      <c r="Y76" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25">
       <c r="A77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B77" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C77" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D77" t="n">
         <v>0.27</v>
@@ -6274,16 +6505,19 @@
       <c r="X77" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="78" spans="1:24">
+      <c r="Y77" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25">
       <c r="A78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B78" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D78" t="n">
         <v>0.33</v>
@@ -6348,16 +6582,19 @@
       <c r="X78" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="79" spans="1:24">
+      <c r="Y78" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25">
       <c r="A79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B79" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C79" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D79" t="n">
         <v>0.04</v>
@@ -6422,16 +6659,19 @@
       <c r="X79" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="80" spans="1:24">
+      <c r="Y79" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25">
       <c r="A80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B80" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C80" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D80" t="n">
         <v>0.3</v>
@@ -6496,31 +6736,34 @@
       <c r="X80" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="81" spans="1:24">
+      <c r="Y80" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25">
       <c r="A81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B81" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C81" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D81" t="n">
-        <v>0.05999999999999983</v>
+        <v>0.06</v>
       </c>
       <c r="E81" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.02</v>
       </c>
       <c r="F81" t="n">
-        <v>0.05000000000000004</v>
+        <v>0.05</v>
       </c>
       <c r="G81" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.08</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1200000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="I81" t="n">
         <v>0.14</v>
@@ -6535,10 +6778,10 @@
         <v>0.34</v>
       </c>
       <c r="M81" t="n">
-        <v>0.3399999999999999</v>
+        <v>0.34</v>
       </c>
       <c r="N81" t="n">
-        <v>0.3100000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="O81" t="n">
         <v>0.27</v>
@@ -6550,36 +6793,39 @@
         <v>0.21</v>
       </c>
       <c r="R81" t="n">
-        <v>0.1099999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="S81" t="n">
-        <v>0.1199999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="T81" t="n">
-        <v>0.1599999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="U81" t="n">
         <v>0.2</v>
       </c>
       <c r="V81" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="W81" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="X81" t="n">
-        <v>0.1899999999999999</v>
-      </c>
-    </row>
-    <row r="82" spans="1:24">
+        <v>0.19</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25">
       <c r="A82" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B82" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C82" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D82" t="n">
         <v>0.11</v>
@@ -6644,16 +6890,19 @@
       <c r="X82" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="83" spans="1:24">
+      <c r="Y82" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25">
       <c r="A83" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B83" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D83" t="n">
         <v>0.32</v>
@@ -6718,16 +6967,19 @@
       <c r="X83" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="84" spans="1:24">
+      <c r="Y83" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25">
       <c r="A84" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B84" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C84" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D84" t="n">
         <v>0.07000000000000001</v>
@@ -6792,16 +7044,19 @@
       <c r="X84" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="85" spans="1:24">
+      <c r="Y84" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25">
       <c r="A85" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B85" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C85" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D85" t="n">
         <v>0.42</v>
@@ -6866,40 +7121,43 @@
       <c r="X85" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="86" spans="1:24">
+      <c r="Y85" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25">
       <c r="A86" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B86" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C86" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D86" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.08</v>
       </c>
       <c r="E86" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.03</v>
       </c>
       <c r="F86" t="n">
-        <v>0.06000000000000005</v>
+        <v>0.06</v>
       </c>
       <c r="G86" t="n">
         <v>0.15</v>
       </c>
       <c r="H86" t="n">
-        <v>0.1499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="I86" t="n">
-        <v>0.2899999999999999</v>
+        <v>0.29</v>
       </c>
       <c r="J86" t="n">
         <v>0.38</v>
       </c>
       <c r="K86" t="n">
-        <v>0.4299999999999999</v>
+        <v>0.43</v>
       </c>
       <c r="L86" t="n">
         <v>0.48</v>
@@ -6908,13 +7166,13 @@
         <v>0.53</v>
       </c>
       <c r="N86" t="n">
-        <v>0.5599999999999999</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O86" t="n">
         <v>0.45</v>
       </c>
       <c r="P86" t="n">
-        <v>0.4399999999999999</v>
+        <v>0.44</v>
       </c>
       <c r="Q86" t="n">
         <v>0.35</v>
@@ -6929,27 +7187,30 @@
         <v>0.23</v>
       </c>
       <c r="U86" t="n">
-        <v>0.2999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="V86" t="n">
-        <v>0.2899999999999999</v>
+        <v>0.29</v>
       </c>
       <c r="W86" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="X86" t="n">
-        <v>0.2499999999999999</v>
-      </c>
-    </row>
-    <row r="87" spans="1:24">
+        <v>0.25</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25">
       <c r="A87" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B87" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C87" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D87" t="n">
         <v>0.14</v>
@@ -7014,16 +7275,19 @@
       <c r="X87" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="88" spans="1:24">
+      <c r="Y87" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25">
       <c r="A88" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D88" t="n">
         <v>0.25</v>
@@ -7088,16 +7352,19 @@
       <c r="X88" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="89" spans="1:24">
+      <c r="Y88" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25">
       <c r="A89" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B89" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C89" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D89" t="n">
         <v>0.03</v>
@@ -7162,16 +7429,19 @@
       <c r="X89" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="90" spans="1:24">
+      <c r="Y89" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25">
       <c r="A90" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B90" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C90" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D90" t="n">
         <v>0.44</v>
@@ -7236,28 +7506,31 @@
       <c r="X90" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="91" spans="1:24">
+      <c r="Y90" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25">
       <c r="A91" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B91" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C91" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D91" t="n">
-        <v>0.1399999999999999</v>
+        <v>0.14</v>
       </c>
       <c r="E91" t="n">
-        <v>0.06000000000000005</v>
+        <v>0.06</v>
       </c>
       <c r="F91" t="n">
-        <v>0.06999999999999995</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1399999999999999</v>
+        <v>0.14</v>
       </c>
       <c r="H91" t="n">
         <v>0.21</v>
@@ -7269,13 +7542,13 @@
         <v>0.37</v>
       </c>
       <c r="K91" t="n">
-        <v>0.3999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="L91" t="n">
         <v>0.5</v>
       </c>
       <c r="M91" t="n">
-        <v>0.4399999999999999</v>
+        <v>0.44</v>
       </c>
       <c r="N91" t="n">
         <v>0.45</v>
@@ -7305,21 +7578,24 @@
         <v>0.27</v>
       </c>
       <c r="W91" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="X91" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="92" spans="1:24">
+      <c r="Y91" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25">
       <c r="A92" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B92" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C92" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D92" t="n">
         <v>0.38</v>
@@ -7384,16 +7660,19 @@
       <c r="X92" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="93" spans="1:24">
+      <c r="Y92" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25">
       <c r="A93" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B93" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D93" t="n">
         <v>0.35</v>
@@ -7458,16 +7737,19 @@
       <c r="X93" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="94" spans="1:24">
+      <c r="Y93" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25">
       <c r="A94" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B94" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C94" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D94" t="n">
         <v>0.05</v>
@@ -7532,16 +7814,19 @@
       <c r="X94" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="95" spans="1:24">
+      <c r="Y94" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25">
       <c r="A95" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B95" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C95" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D95" t="n">
         <v>0.18</v>
@@ -7606,37 +7891,40 @@
       <c r="X95" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="96" spans="1:24">
+      <c r="Y95" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25">
       <c r="A96" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B96" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C96" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D96" t="n">
-        <v>0.04000000000000004</v>
+        <v>0.04</v>
       </c>
       <c r="E96" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.02</v>
       </c>
       <c r="F96" t="n">
-        <v>0.009999999999999898</v>
+        <v>0.01</v>
       </c>
       <c r="G96" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.08</v>
       </c>
       <c r="H96" t="n">
-        <v>0.1100000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="I96" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="J96" t="n">
-        <v>0.1499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="K96" t="n">
         <v>0.22</v>
@@ -7657,16 +7945,16 @@
         <v>0.18</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="R96" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="S96" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.08</v>
       </c>
       <c r="T96" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="U96" t="n">
         <v>0.11</v>
@@ -7675,21 +7963,24 @@
         <v>0.11</v>
       </c>
       <c r="W96" t="n">
-        <v>0.06000000000000005</v>
+        <v>0.06</v>
       </c>
       <c r="X96" t="n">
-        <v>0.08999999999999997</v>
-      </c>
-    </row>
-    <row r="97" spans="1:24">
+        <v>0.09</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25">
       <c r="A97" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B97" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C97" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D97" t="n">
         <v>0.17</v>
@@ -7754,16 +8045,19 @@
       <c r="X97" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="98" spans="1:24">
+      <c r="Y97" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25">
       <c r="A98" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B98" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D98" t="n">
         <v>0.34</v>
@@ -7828,16 +8122,19 @@
       <c r="X98" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="99" spans="1:24">
+      <c r="Y98" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25">
       <c r="A99" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B99" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C99" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D99" t="n">
         <v>0.04</v>
@@ -7902,16 +8199,19 @@
       <c r="X99" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="100" spans="1:24">
+      <c r="Y99" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25">
       <c r="A100" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B100" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C100" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D100" t="n">
         <v>0.39</v>
@@ -7976,28 +8276,31 @@
       <c r="X100" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="101" spans="1:24">
+      <c r="Y100" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25">
       <c r="A101" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B101" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C101" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D101" t="n">
-        <v>0.05999999999999994</v>
+        <v>0.06</v>
       </c>
       <c r="E101" t="n">
-        <v>0.03999999999999992</v>
+        <v>0.04</v>
       </c>
       <c r="F101" t="n">
-        <v>0.01000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05999999999999994</v>
+        <v>0.06</v>
       </c>
       <c r="H101" t="n">
         <v>0.16</v>
@@ -8009,7 +8312,7 @@
         <v>0.34</v>
       </c>
       <c r="K101" t="n">
-        <v>0.4099999999999999</v>
+        <v>0.41</v>
       </c>
       <c r="L101" t="n">
         <v>0.47</v>
@@ -8045,21 +8348,24 @@
         <v>0.26</v>
       </c>
       <c r="W101" t="n">
-        <v>0.2000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="X101" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="102" spans="1:24">
+      <c r="Y101" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25">
       <c r="A102" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B102" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C102" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D102" t="n">
         <v>0.25</v>
@@ -8124,16 +8430,19 @@
       <c r="X102" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="103" spans="1:24">
+      <c r="Y102" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25">
       <c r="A103" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B103" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D103" t="n">
         <v>0.3</v>
@@ -8198,16 +8507,19 @@
       <c r="X103" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="104" spans="1:24">
+      <c r="Y103" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25">
       <c r="A104" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B104" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C104" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D104" t="n">
         <v>0.03</v>
@@ -8272,16 +8584,19 @@
       <c r="X104" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="105" spans="1:24">
+      <c r="Y104" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25">
       <c r="A105" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B105" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C105" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D105" t="n">
         <v>0.39</v>
@@ -8346,31 +8661,34 @@
       <c r="X105" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="106" spans="1:24">
+      <c r="Y105" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25">
       <c r="A106" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B106" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C106" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D106" t="n">
-        <v>0.02999999999999992</v>
+        <v>0.03</v>
       </c>
       <c r="E106" t="n">
-        <v>0.02999999999999992</v>
+        <v>0.03</v>
       </c>
       <c r="F106" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.03</v>
       </c>
       <c r="G106" t="n">
-        <v>0.04000000000000004</v>
+        <v>0.04</v>
       </c>
       <c r="H106" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="I106" t="n">
         <v>0.17</v>
@@ -8379,13 +8697,13 @@
         <v>0.24</v>
       </c>
       <c r="K106" t="n">
-        <v>0.3099999999999999</v>
+        <v>0.31</v>
       </c>
       <c r="L106" t="n">
         <v>0.37</v>
       </c>
       <c r="M106" t="n">
-        <v>0.3200000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="N106" t="n">
         <v>0.29</v>
@@ -8403,33 +8721,36 @@
         <v>0.14</v>
       </c>
       <c r="S106" t="n">
-        <v>0.08999999999999997</v>
+        <v>0.09</v>
       </c>
       <c r="T106" t="n">
         <v>0.17</v>
       </c>
       <c r="U106" t="n">
-        <v>0.1599999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="V106" t="n">
-        <v>0.1599999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="W106" t="n">
-        <v>0.08999999999999997</v>
+        <v>0.09</v>
       </c>
       <c r="X106" t="n">
-        <v>0.1599999999999999</v>
-      </c>
-    </row>
-    <row r="107" spans="1:24">
+        <v>0.16</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25">
       <c r="A107" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B107" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C107" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D107" t="n">
         <v>0.43</v>
@@ -8494,16 +8815,19 @@
       <c r="X107" t="n">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="108" spans="1:24">
+      <c r="Y107" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25">
       <c r="A108" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B108" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D108" t="n">
         <v>0.33</v>
@@ -8568,16 +8892,19 @@
       <c r="X108" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="109" spans="1:24">
+      <c r="Y108" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25">
       <c r="A109" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B109" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C109" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D109" t="n">
         <v>0.06</v>
@@ -8642,16 +8969,19 @@
       <c r="X109" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="110" spans="1:24">
+      <c r="Y109" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25">
       <c r="A110" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B110" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C110" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D110" t="n">
         <v>0.16</v>
@@ -8716,84 +9046,90 @@
       <c r="X110" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="111" spans="1:24">
+      <c r="Y110" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25">
       <c r="A111" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B111" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C111" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D111" t="n">
-        <v>0.01999999999999991</v>
+        <v>0.02</v>
       </c>
       <c r="E111" t="n">
-        <v>0.01000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="F111" t="n">
-        <v>0.01000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="G111" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.02</v>
       </c>
       <c r="H111" t="n">
-        <v>0.04000000000000004</v>
+        <v>0.04</v>
       </c>
       <c r="I111" t="n">
-        <v>0.06000000000000005</v>
+        <v>0.06</v>
       </c>
       <c r="J111" t="n">
-        <v>0.1299999999999999</v>
+        <v>0.13</v>
       </c>
       <c r="K111" t="n">
         <v>0.17</v>
       </c>
       <c r="L111" t="n">
-        <v>0.2000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="M111" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="O111" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="P111" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="Q111" t="n">
-        <v>0.05999999999999994</v>
+        <v>0.06</v>
       </c>
       <c r="R111" t="n">
-        <v>0.04000000000000004</v>
+        <v>0.04</v>
       </c>
       <c r="S111" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.03</v>
       </c>
       <c r="T111" t="n">
-        <v>0.04000000000000004</v>
+        <v>0.04</v>
       </c>
       <c r="U111" t="n">
-        <v>0.04000000000000004</v>
+        <v>0.04</v>
       </c>
       <c r="V111" t="n">
-        <v>0.06000000000000005</v>
+        <v>0.06</v>
       </c>
       <c r="W111" t="n">
-        <v>0.01000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="X111" t="n">
-        <v>0.03000000000000003</v>
-      </c>
-    </row>
-    <row r="112" spans="1:24">
+        <v>0.03</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25">
       <c r="A112" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -8807,7 +9143,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8815,7 +9151,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8885,13 +9221,16 @@
       <c r="W1" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="n">
         <v>2404</v>
@@ -8956,13 +9295,16 @@
       <c r="W2" t="n">
         <v>1913</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2" t="n">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="n">
         <v>587</v>
@@ -9027,13 +9369,16 @@
       <c r="W3" t="n">
         <v>433</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3" t="n">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" t="n">
         <v>874</v>
@@ -9098,13 +9443,16 @@
       <c r="W4" t="n">
         <v>684</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="X4" t="n">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" t="n">
         <v>943</v>
@@ -9169,13 +9517,16 @@
       <c r="W5" t="n">
         <v>796</v>
       </c>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="X5" t="n">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" t="n">
         <v>542</v>
@@ -9240,13 +9591,16 @@
       <c r="W6" t="n">
         <v>355</v>
       </c>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="X6" t="n">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" t="n">
         <v>669</v>
@@ -9311,13 +9665,16 @@
       <c r="W7" t="n">
         <v>663</v>
       </c>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="X7" t="n">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" t="n">
         <v>1193</v>
@@ -9382,13 +9739,16 @@
       <c r="W8" t="n">
         <v>895</v>
       </c>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="X8" t="n">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" t="n">
         <v>10</v>
@@ -9453,13 +9813,16 @@
       <c r="W9" t="n">
         <v>605</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="X9" t="n">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" t="n">
         <v>81</v>
@@ -9524,13 +9887,16 @@
       <c r="W10" t="n">
         <v>679</v>
       </c>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="X10" t="n">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" t="n">
         <v>2313</v>
@@ -9595,13 +9961,16 @@
       <c r="W11" t="n">
         <v>629</v>
       </c>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="X11" t="n">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" t="n">
         <v>1210</v>
@@ -9666,13 +10035,16 @@
       <c r="W12" t="n">
         <v>933</v>
       </c>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="X12" t="n">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" t="n">
         <v>1194</v>
@@ -9737,13 +10109,16 @@
       <c r="W13" t="n">
         <v>980</v>
       </c>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="X13" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" t="n">
         <v>1316</v>
@@ -9808,13 +10183,16 @@
       <c r="W14" t="n">
         <v>992</v>
       </c>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="X14" t="n">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" t="n">
         <v>519</v>
@@ -9879,13 +10257,16 @@
       <c r="W15" t="n">
         <v>438</v>
       </c>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="X15" t="n">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" t="n">
         <v>279</v>
@@ -9950,13 +10331,16 @@
       <c r="W16" t="n">
         <v>229</v>
       </c>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="X16" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" t="n">
         <v>290</v>
@@ -10021,13 +10405,16 @@
       <c r="W17" t="n">
         <v>254</v>
       </c>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="X17" t="n">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C18" t="n">
         <v>307</v>
@@ -10092,13 +10479,16 @@
       <c r="W18" t="n">
         <v>220</v>
       </c>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="X18" t="n">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" t="n">
         <v>479</v>
@@ -10163,13 +10553,16 @@
       <c r="W19" t="n">
         <v>361</v>
       </c>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="X19" t="n">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" t="n">
         <v>423</v>
@@ -10234,13 +10627,16 @@
       <c r="W20" t="n">
         <v>353</v>
       </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="X20" t="n">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C21" t="n">
         <v>280</v>
@@ -10305,13 +10701,16 @@
       <c r="W21" t="n">
         <v>213</v>
       </c>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="X21" t="n">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C22" t="n">
         <v>395</v>
@@ -10376,13 +10775,16 @@
       <c r="W22" t="n">
         <v>324</v>
       </c>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="X22" t="n">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" t="n">
         <v>520</v>
@@ -10447,10 +10849,13 @@
       <c r="W23" t="n">
         <v>442</v>
       </c>
-    </row>
-    <row r="24" spans="1:23">
+      <c r="X23" t="n">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s"/>
       <c r="C24" t="s"/>
@@ -10474,6 +10879,7 @@
       <c r="U24" t="s"/>
       <c r="V24" t="s"/>
       <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_10_kontakty_aktivity.xlsx
+++ b/ZBP_10_kontakty_aktivity.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
   <si>
     <t>trideni</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>16. 2. 2021</t>
+  </si>
+  <si>
+    <t>2. 3. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -194,10 +197,10 @@
     <t>Žena, 55 a více let</t>
   </si>
   <si>
-    <t>Život během pandemie, Kontakty vs. protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 23. 2. 2021</t>
+    <t>Život během pandemie, Kontakty vs. protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 9. 3. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Kontakty vs. protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 23. 2. 2021</t>
+    <t>Život během pandemie, Kontakty vs. protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 9. 3. 2021</t>
   </si>
 </sst>
 </file>
@@ -572,7 +575,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y112"/>
+  <dimension ref="A1:Z112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,7 +583,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -656,16 +659,19 @@
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="n">
         <v>0.26</v>
@@ -733,16 +739,19 @@
       <c r="Y2" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="3" spans="1:25">
+      <c r="Z2" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
         <v>0.31</v>
@@ -810,16 +819,19 @@
       <c r="Y3" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="Z3" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
         <v>0.05</v>
@@ -887,16 +899,19 @@
       <c r="Y4" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="Z4" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" t="n">
         <v>0.32</v>
@@ -964,16 +979,19 @@
       <c r="Y5" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="Z5" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" t="n">
         <v>0.06</v>
@@ -1041,16 +1059,19 @@
       <c r="Y6" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="7" spans="1:25">
+      <c r="Z6" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" t="n">
         <v>0.14</v>
@@ -1118,16 +1139,19 @@
       <c r="Y7" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="8" spans="1:25">
+      <c r="Z7" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" t="n">
         <v>0.33</v>
@@ -1195,16 +1219,19 @@
       <c r="Y8" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="9" spans="1:25">
+      <c r="Z8" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
         <v>0.06</v>
@@ -1272,16 +1299,19 @@
       <c r="Y9" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="Z9" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" t="n">
         <v>0.41</v>
@@ -1349,16 +1379,19 @@
       <c r="Y10" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="11" spans="1:25">
+      <c r="Z10" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
         <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
       </c>
       <c r="D11" t="n">
         <v>0.06</v>
@@ -1426,16 +1459,19 @@
       <c r="Y11" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="12" spans="1:25">
+      <c r="Z11" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" t="n">
         <v>0.19</v>
@@ -1503,16 +1539,19 @@
       <c r="Y12" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:25">
+      <c r="Z12" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" t="n">
         <v>0.27</v>
@@ -1580,16 +1619,19 @@
       <c r="Y13" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:25">
+      <c r="Z13" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" t="n">
         <v>0.03</v>
@@ -1657,16 +1699,19 @@
       <c r="Y14" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="15" spans="1:25">
+      <c r="Z14" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D15" t="n">
         <v>0.42</v>
@@ -1734,16 +1779,19 @@
       <c r="Y15" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="16" spans="1:25">
+      <c r="Z15" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
         <v>32</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
       </c>
       <c r="D16" t="n">
         <v>0.09</v>
@@ -1811,16 +1859,19 @@
       <c r="Y16" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:25">
+      <c r="Z16" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" t="n">
         <v>0.41</v>
@@ -1888,16 +1939,19 @@
       <c r="Y17" t="n">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="18" spans="1:25">
+      <c r="Z17" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" t="n">
         <v>0.34</v>
@@ -1965,16 +2019,19 @@
       <c r="Y18" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="19" spans="1:25">
+      <c r="Z18" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D19" t="n">
         <v>0.06</v>
@@ -2042,16 +2099,19 @@
       <c r="Y19" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="20" spans="1:25">
+      <c r="Z19" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D20" t="n">
         <v>0.17</v>
@@ -2119,16 +2179,19 @@
       <c r="Y20" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="21" spans="1:25">
+      <c r="Z20" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
         <v>32</v>
-      </c>
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" t="s">
-        <v>31</v>
       </c>
       <c r="D21" t="n">
         <v>0.02</v>
@@ -2196,16 +2259,19 @@
       <c r="Y21" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:25">
+      <c r="Z21" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" t="n">
         <v>0.27</v>
@@ -2273,16 +2339,19 @@
       <c r="Y22" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="23" spans="1:25">
+      <c r="Z22" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D23" t="n">
         <v>0.3</v>
@@ -2350,16 +2419,19 @@
       <c r="Y23" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="24" spans="1:25">
+      <c r="Z23" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D24" t="n">
         <v>0.07000000000000001</v>
@@ -2427,16 +2499,19 @@
       <c r="Y24" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="25" spans="1:25">
+      <c r="Z24" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D25" t="n">
         <v>0.25</v>
@@ -2504,16 +2579,19 @@
       <c r="Y25" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="26" spans="1:25">
+      <c r="Z25" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D26" t="n">
         <v>0.11</v>
@@ -2581,16 +2659,19 @@
       <c r="Y26" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="27" spans="1:25">
+      <c r="Z26" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" t="n">
         <v>0.24</v>
@@ -2658,16 +2739,19 @@
       <c r="Y27" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="28" spans="1:25">
+      <c r="Z27" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D28" t="n">
         <v>0.3</v>
@@ -2735,16 +2819,19 @@
       <c r="Y28" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="29" spans="1:25">
+      <c r="Z28" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D29" t="n">
         <v>0.05</v>
@@ -2812,16 +2899,19 @@
       <c r="Y29" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="30" spans="1:25">
+      <c r="Z29" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D30" t="n">
         <v>0.35</v>
@@ -2889,16 +2979,19 @@
       <c r="Y30" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="31" spans="1:25">
+      <c r="Z30" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D31" t="n">
         <v>0.06</v>
@@ -2966,16 +3059,19 @@
       <c r="Y31" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="32" spans="1:25">
+      <c r="Z31" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" t="n">
         <v>0.27</v>
@@ -3043,16 +3139,19 @@
       <c r="Y32" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="33" spans="1:25">
+      <c r="Z32" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D33" t="n">
         <v>0.33</v>
@@ -3120,16 +3219,19 @@
       <c r="Y33" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="34" spans="1:25">
+      <c r="Z33" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D34" t="n">
         <v>0.04</v>
@@ -3197,16 +3299,19 @@
       <c r="Y34" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="35" spans="1:25">
+      <c r="Z34" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D35" t="n">
         <v>0.33</v>
@@ -3274,16 +3379,19 @@
       <c r="Y35" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="36" spans="1:25">
+      <c r="Z35" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D36" t="n">
         <v>0.03</v>
@@ -3351,16 +3459,19 @@
       <c r="Y36" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="37" spans="1:25">
+      <c r="Z36" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D37" t="n">
         <v>0.03</v>
@@ -3428,16 +3539,19 @@
       <c r="Y37" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="38" spans="1:25">
+      <c r="Z37" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D38" t="n">
         <v>0.52</v>
@@ -3505,16 +3619,19 @@
       <c r="Y38" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="39" spans="1:25">
+      <c r="Z38" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D39" t="n">
         <v>0.03</v>
@@ -3582,16 +3699,19 @@
       <c r="Y39" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="40" spans="1:25">
+      <c r="Z39" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D40" t="n">
         <v>0.34</v>
@@ -3659,16 +3779,19 @@
       <c r="Y40" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="41" spans="1:25">
+      <c r="Z40" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D41" t="n">
         <v>0.08</v>
@@ -3736,16 +3859,19 @@
       <c r="Y41" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="42" spans="1:25">
+      <c r="Z41" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D42" t="n">
         <v>0.14</v>
@@ -3813,16 +3939,19 @@
       <c r="Y42" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="43" spans="1:25">
+      <c r="Z42" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D43" t="n">
         <v>0.46</v>
@@ -3890,16 +4019,19 @@
       <c r="Y43" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="44" spans="1:25">
+      <c r="Z43" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D44" t="n">
         <v>0.02</v>
@@ -3967,16 +4099,19 @@
       <c r="Y44" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="45" spans="1:25">
+      <c r="Z44" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D45" t="n">
         <v>0.29</v>
@@ -4044,16 +4179,19 @@
       <c r="Y45" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="46" spans="1:25">
+      <c r="Z45" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D46" t="n">
         <v>0.09</v>
@@ -4121,16 +4259,19 @@
       <c r="Y46" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="47" spans="1:25">
+      <c r="Z46" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26">
       <c r="A47" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D47" t="n">
         <v>0.27</v>
@@ -4198,16 +4339,19 @@
       <c r="Y47" t="n">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="48" spans="1:25">
+      <c r="Z47" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26">
       <c r="A48" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D48" t="n">
         <v>0.31</v>
@@ -4275,16 +4419,19 @@
       <c r="Y48" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="49" spans="1:25">
+      <c r="Z48" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26">
       <c r="A49" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D49" t="n">
         <v>0.05</v>
@@ -4352,16 +4499,19 @@
       <c r="Y49" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="50" spans="1:25">
+      <c r="Z49" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26">
       <c r="A50" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D50" t="n">
         <v>0.32</v>
@@ -4429,16 +4579,19 @@
       <c r="Y50" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="51" spans="1:25">
+      <c r="Z50" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26">
       <c r="A51" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D51" t="n">
         <v>0.05</v>
@@ -4506,16 +4659,19 @@
       <c r="Y51" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="52" spans="1:25">
+      <c r="Z51" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26">
       <c r="A52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D52" t="n">
         <v>0.22</v>
@@ -4583,16 +4739,19 @@
       <c r="Y52" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="53" spans="1:25">
+      <c r="Z52" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26">
       <c r="A53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D53" t="n">
         <v>0.3</v>
@@ -4660,16 +4819,19 @@
       <c r="Y53" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="54" spans="1:25">
+      <c r="Z53" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26">
       <c r="A54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D54" t="n">
         <v>0.05</v>
@@ -4737,16 +4899,19 @@
       <c r="Y54" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="55" spans="1:25">
+      <c r="Z54" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26">
       <c r="A55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D55" t="n">
         <v>0.34</v>
@@ -4814,16 +4979,19 @@
       <c r="Y55" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="56" spans="1:25">
+      <c r="Z55" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26">
       <c r="A56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C56" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D56" t="n">
         <v>0.09</v>
@@ -4891,16 +5059,19 @@
       <c r="Y56" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="57" spans="1:25">
+      <c r="Z56" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26">
       <c r="A57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D57" t="n">
         <v>0.31</v>
@@ -4968,16 +5139,19 @@
       <c r="Y57" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="58" spans="1:25">
+      <c r="Z57" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26">
       <c r="A58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D58" t="n">
         <v>0.32</v>
@@ -5045,16 +5219,19 @@
       <c r="Y58" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="59" spans="1:25">
+      <c r="Z58" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26">
       <c r="A59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D59" t="n">
         <v>0.05</v>
@@ -5122,16 +5299,19 @@
       <c r="Y59" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="60" spans="1:25">
+      <c r="Z59" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26">
       <c r="A60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D60" t="n">
         <v>0.29</v>
@@ -5199,16 +5379,19 @@
       <c r="Y60" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="61" spans="1:25">
+      <c r="Z60" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26">
       <c r="A61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D61" t="n">
         <v>0.03</v>
@@ -5276,16 +5459,19 @@
       <c r="Y61" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="62" spans="1:25">
+      <c r="Z61" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26">
       <c r="A62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D62" t="n">
         <v>0.25</v>
@@ -5353,16 +5539,19 @@
       <c r="Y62" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="63" spans="1:25">
+      <c r="Z62" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26">
       <c r="A63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C63" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D63" t="n">
         <v>0.31</v>
@@ -5430,16 +5619,19 @@
       <c r="Y63" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="64" spans="1:25">
+      <c r="Z63" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26">
       <c r="A64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B64" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D64" t="n">
         <v>0.05</v>
@@ -5507,16 +5699,19 @@
       <c r="Y64" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="65" spans="1:25">
+      <c r="Z64" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26">
       <c r="A65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B65" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D65" t="n">
         <v>0.32</v>
@@ -5584,16 +5779,19 @@
       <c r="Y65" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="66" spans="1:25">
+      <c r="Z65" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26">
       <c r="A66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B66" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D66" t="n">
         <v>0.07000000000000001</v>
@@ -5661,16 +5859,19 @@
       <c r="Y66" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="67" spans="1:25">
+      <c r="Z66" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26">
       <c r="A67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B67" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D67" t="n">
         <v>0.28</v>
@@ -5738,16 +5939,19 @@
       <c r="Y67" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="68" spans="1:25">
+      <c r="Z67" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26">
       <c r="A68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B68" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D68" t="n">
         <v>0.3</v>
@@ -5815,16 +6019,19 @@
       <c r="Y68" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="69" spans="1:25">
+      <c r="Z68" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26">
       <c r="A69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B69" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D69" t="n">
         <v>0.03</v>
@@ -5892,16 +6099,19 @@
       <c r="Y69" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="70" spans="1:25">
+      <c r="Z69" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26">
       <c r="A70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B70" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C70" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D70" t="n">
         <v>0.33</v>
@@ -5969,16 +6179,19 @@
       <c r="Y70" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="71" spans="1:25">
+      <c r="Z70" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26">
       <c r="A71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B71" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C71" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D71" t="n">
         <v>0.06</v>
@@ -6046,16 +6259,19 @@
       <c r="Y71" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="72" spans="1:25">
+      <c r="Z71" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26">
       <c r="A72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B72" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D72" t="n">
         <v>0.29</v>
@@ -6123,16 +6339,19 @@
       <c r="Y72" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="73" spans="1:25">
+      <c r="Z72" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26">
       <c r="A73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B73" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C73" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D73" t="n">
         <v>0.3</v>
@@ -6200,16 +6419,19 @@
       <c r="Y73" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="74" spans="1:25">
+      <c r="Z73" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26">
       <c r="A74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B74" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C74" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D74" t="n">
         <v>0.04</v>
@@ -6277,16 +6499,19 @@
       <c r="Y74" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="75" spans="1:25">
+      <c r="Z74" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26">
       <c r="A75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B75" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C75" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D75" t="n">
         <v>0.29</v>
@@ -6354,16 +6579,19 @@
       <c r="Y75" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="76" spans="1:25">
+      <c r="Z75" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26">
       <c r="A76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B76" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C76" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D76" t="n">
         <v>0.08</v>
@@ -6431,16 +6659,19 @@
       <c r="Y76" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="77" spans="1:25">
+      <c r="Z76" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26">
       <c r="A77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B77" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D77" t="n">
         <v>0.27</v>
@@ -6508,16 +6739,19 @@
       <c r="Y77" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="78" spans="1:25">
+      <c r="Z77" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26">
       <c r="A78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B78" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C78" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D78" t="n">
         <v>0.33</v>
@@ -6585,16 +6819,19 @@
       <c r="Y78" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="79" spans="1:25">
+      <c r="Z78" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26">
       <c r="A79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B79" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D79" t="n">
         <v>0.04</v>
@@ -6662,16 +6899,19 @@
       <c r="Y79" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="80" spans="1:25">
+      <c r="Z79" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26">
       <c r="A80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B80" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C80" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D80" t="n">
         <v>0.3</v>
@@ -6739,16 +6979,19 @@
       <c r="Y80" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="81" spans="1:25">
+      <c r="Z80" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26">
       <c r="A81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B81" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C81" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D81" t="n">
         <v>0.06</v>
@@ -6816,16 +7059,19 @@
       <c r="Y81" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="82" spans="1:25">
+      <c r="Z81" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26">
       <c r="A82" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D82" t="n">
         <v>0.11</v>
@@ -6893,16 +7139,19 @@
       <c r="Y82" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="83" spans="1:25">
+      <c r="Z82" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26">
       <c r="A83" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C83" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D83" t="n">
         <v>0.32</v>
@@ -6970,16 +7219,19 @@
       <c r="Y83" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="84" spans="1:25">
+      <c r="Z83" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26">
       <c r="A84" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B84" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C84" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D84" t="n">
         <v>0.07000000000000001</v>
@@ -7047,16 +7299,19 @@
       <c r="Y84" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="85" spans="1:25">
+      <c r="Z84" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26">
       <c r="A85" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C85" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D85" t="n">
         <v>0.42</v>
@@ -7124,16 +7379,19 @@
       <c r="Y85" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="86" spans="1:25">
+      <c r="Z85" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26">
       <c r="A86" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C86" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D86" t="n">
         <v>0.08</v>
@@ -7201,16 +7459,19 @@
       <c r="Y86" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="87" spans="1:25">
+      <c r="Z86" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26">
       <c r="A87" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B87" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D87" t="n">
         <v>0.14</v>
@@ -7278,16 +7539,19 @@
       <c r="Y87" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="88" spans="1:25">
+      <c r="Z87" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26">
       <c r="A88" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B88" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C88" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D88" t="n">
         <v>0.25</v>
@@ -7355,16 +7619,19 @@
       <c r="Y88" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="89" spans="1:25">
+      <c r="Z88" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26">
       <c r="A89" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B89" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C89" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D89" t="n">
         <v>0.03</v>
@@ -7432,16 +7699,19 @@
       <c r="Y89" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="90" spans="1:25">
+      <c r="Z89" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26">
       <c r="A90" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B90" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C90" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D90" t="n">
         <v>0.44</v>
@@ -7509,16 +7779,19 @@
       <c r="Y90" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="91" spans="1:25">
+      <c r="Z90" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26">
       <c r="A91" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B91" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C91" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D91" t="n">
         <v>0.14</v>
@@ -7586,16 +7859,19 @@
       <c r="Y91" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="92" spans="1:25">
+      <c r="Z91" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26">
       <c r="A92" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B92" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D92" t="n">
         <v>0.38</v>
@@ -7663,16 +7939,19 @@
       <c r="Y92" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="93" spans="1:25">
+      <c r="Z92" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26">
       <c r="A93" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B93" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C93" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D93" t="n">
         <v>0.35</v>
@@ -7740,16 +8019,19 @@
       <c r="Y93" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="94" spans="1:25">
+      <c r="Z93" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26">
       <c r="A94" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B94" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C94" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D94" t="n">
         <v>0.05</v>
@@ -7817,16 +8099,19 @@
       <c r="Y94" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="95" spans="1:25">
+      <c r="Z94" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26">
       <c r="A95" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B95" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C95" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D95" t="n">
         <v>0.18</v>
@@ -7894,16 +8179,19 @@
       <c r="Y95" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="96" spans="1:25">
+      <c r="Z95" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26">
       <c r="A96" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B96" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C96" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D96" t="n">
         <v>0.04</v>
@@ -7971,16 +8259,19 @@
       <c r="Y96" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="97" spans="1:25">
+      <c r="Z96" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26">
       <c r="A97" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B97" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D97" t="n">
         <v>0.17</v>
@@ -8048,16 +8339,19 @@
       <c r="Y97" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="98" spans="1:25">
+      <c r="Z97" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26">
       <c r="A98" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B98" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C98" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D98" t="n">
         <v>0.34</v>
@@ -8125,16 +8419,19 @@
       <c r="Y98" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="99" spans="1:25">
+      <c r="Z98" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26">
       <c r="A99" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B99" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C99" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D99" t="n">
         <v>0.04</v>
@@ -8202,16 +8499,19 @@
       <c r="Y99" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="100" spans="1:25">
+      <c r="Z99" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26">
       <c r="A100" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B100" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C100" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D100" t="n">
         <v>0.39</v>
@@ -8279,16 +8579,19 @@
       <c r="Y100" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="101" spans="1:25">
+      <c r="Z100" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26">
       <c r="A101" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B101" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C101" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D101" t="n">
         <v>0.06</v>
@@ -8356,16 +8659,19 @@
       <c r="Y101" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="102" spans="1:25">
+      <c r="Z101" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26">
       <c r="A102" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B102" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D102" t="n">
         <v>0.25</v>
@@ -8433,16 +8739,19 @@
       <c r="Y102" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="103" spans="1:25">
+      <c r="Z102" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26">
       <c r="A103" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B103" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C103" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D103" t="n">
         <v>0.3</v>
@@ -8510,16 +8819,19 @@
       <c r="Y103" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="104" spans="1:25">
+      <c r="Z103" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26">
       <c r="A104" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B104" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C104" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D104" t="n">
         <v>0.03</v>
@@ -8587,16 +8899,19 @@
       <c r="Y104" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="105" spans="1:25">
+      <c r="Z104" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26">
       <c r="A105" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B105" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C105" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D105" t="n">
         <v>0.39</v>
@@ -8664,16 +8979,19 @@
       <c r="Y105" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="106" spans="1:25">
+      <c r="Z105" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26">
       <c r="A106" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B106" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C106" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D106" t="n">
         <v>0.03</v>
@@ -8741,16 +9059,19 @@
       <c r="Y106" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="107" spans="1:25">
+      <c r="Z106" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26">
       <c r="A107" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B107" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D107" t="n">
         <v>0.43</v>
@@ -8818,16 +9139,19 @@
       <c r="Y107" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="108" spans="1:25">
+      <c r="Z107" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26">
       <c r="A108" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B108" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C108" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D108" t="n">
         <v>0.33</v>
@@ -8895,16 +9219,19 @@
       <c r="Y108" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="109" spans="1:25">
+      <c r="Z108" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26">
       <c r="A109" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B109" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C109" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D109" t="n">
         <v>0.06</v>
@@ -8972,16 +9299,19 @@
       <c r="Y109" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="110" spans="1:25">
+      <c r="Z109" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="110" spans="1:26">
       <c r="A110" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B110" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C110" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D110" t="n">
         <v>0.16</v>
@@ -9049,16 +9379,19 @@
       <c r="Y110" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="111" spans="1:25">
+      <c r="Z110" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:26">
       <c r="A111" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B111" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C111" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D111" t="n">
         <v>0.02</v>
@@ -9126,10 +9459,13 @@
       <c r="Y111" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="112" spans="1:25">
+      <c r="Z111" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="112" spans="1:26">
       <c r="A112" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -9143,7 +9479,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:Y24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9151,7 +9487,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9224,13 +9560,16 @@
       <c r="X1" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="n">
         <v>2404</v>
@@ -9298,13 +9637,16 @@
       <c r="X2" t="n">
         <v>1889</v>
       </c>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="Y2" t="n">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" t="n">
         <v>587</v>
@@ -9372,13 +9714,16 @@
       <c r="X3" t="n">
         <v>435</v>
       </c>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="Y3" t="n">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" t="n">
         <v>874</v>
@@ -9446,13 +9791,16 @@
       <c r="X4" t="n">
         <v>674</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="Y4" t="n">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" t="n">
         <v>943</v>
@@ -9520,13 +9868,16 @@
       <c r="X5" t="n">
         <v>780</v>
       </c>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="Y5" t="n">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" t="n">
         <v>542</v>
@@ -9594,13 +9945,16 @@
       <c r="X6" t="n">
         <v>370</v>
       </c>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="Y6" t="n">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" t="n">
         <v>669</v>
@@ -9668,13 +10022,16 @@
       <c r="X7" t="n">
         <v>633</v>
       </c>
-    </row>
-    <row r="8" spans="1:24">
+      <c r="Y7" t="n">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" t="n">
         <v>1193</v>
@@ -9742,13 +10099,16 @@
       <c r="X8" t="n">
         <v>886</v>
       </c>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="Y8" t="n">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" t="n">
         <v>10</v>
@@ -9816,13 +10176,16 @@
       <c r="X9" t="n">
         <v>634</v>
       </c>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="Y9" t="n">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" t="n">
         <v>81</v>
@@ -9890,13 +10253,16 @@
       <c r="X10" t="n">
         <v>618</v>
       </c>
-    </row>
-    <row r="11" spans="1:24">
+      <c r="Y10" t="n">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" t="n">
         <v>2313</v>
@@ -9964,13 +10330,16 @@
       <c r="X11" t="n">
         <v>637</v>
       </c>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="Y11" t="n">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" t="n">
         <v>1210</v>
@@ -10038,13 +10407,16 @@
       <c r="X12" t="n">
         <v>916</v>
       </c>
-    </row>
-    <row r="13" spans="1:24">
+      <c r="Y12" t="n">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" t="n">
         <v>1194</v>
@@ -10112,13 +10484,16 @@
       <c r="X13" t="n">
         <v>973</v>
       </c>
-    </row>
-    <row r="14" spans="1:24">
+      <c r="Y13" t="n">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" t="n">
         <v>1316</v>
@@ -10186,13 +10561,16 @@
       <c r="X14" t="n">
         <v>984</v>
       </c>
-    </row>
-    <row r="15" spans="1:24">
+      <c r="Y14" t="n">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" t="n">
         <v>519</v>
@@ -10260,13 +10638,16 @@
       <c r="X15" t="n">
         <v>434</v>
       </c>
-    </row>
-    <row r="16" spans="1:24">
+      <c r="Y15" t="n">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" t="n">
         <v>279</v>
@@ -10334,13 +10715,16 @@
       <c r="X16" t="n">
         <v>224</v>
       </c>
-    </row>
-    <row r="17" spans="1:24">
+      <c r="Y16" t="n">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17" t="n">
         <v>290</v>
@@ -10408,13 +10792,16 @@
       <c r="X17" t="n">
         <v>247</v>
       </c>
-    </row>
-    <row r="18" spans="1:24">
+      <c r="Y17" t="n">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18" t="n">
         <v>307</v>
@@ -10482,13 +10869,16 @@
       <c r="X18" t="n">
         <v>218</v>
       </c>
-    </row>
-    <row r="19" spans="1:24">
+      <c r="Y18" t="n">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" t="n">
         <v>479</v>
@@ -10556,13 +10946,16 @@
       <c r="X19" t="n">
         <v>352</v>
       </c>
-    </row>
-    <row r="20" spans="1:24">
+      <c r="Y19" t="n">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20" t="n">
         <v>423</v>
@@ -10630,13 +11023,16 @@
       <c r="X20" t="n">
         <v>347</v>
       </c>
-    </row>
-    <row r="21" spans="1:24">
+      <c r="Y20" t="n">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C21" t="n">
         <v>280</v>
@@ -10704,13 +11100,16 @@
       <c r="X21" t="n">
         <v>217</v>
       </c>
-    </row>
-    <row r="22" spans="1:24">
+      <c r="Y21" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C22" t="n">
         <v>395</v>
@@ -10778,13 +11177,16 @@
       <c r="X22" t="n">
         <v>322</v>
       </c>
-    </row>
-    <row r="23" spans="1:24">
+      <c r="Y22" t="n">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" t="n">
         <v>520</v>
@@ -10852,10 +11254,13 @@
       <c r="X23" t="n">
         <v>433</v>
       </c>
-    </row>
-    <row r="24" spans="1:24">
+      <c r="Y23" t="n">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s"/>
       <c r="C24" t="s"/>
@@ -10880,6 +11285,7 @@
       <c r="V24" t="s"/>
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
+      <c r="Y24" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_10_kontakty_aktivity.xlsx
+++ b/ZBP_10_kontakty_aktivity.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
   <si>
     <t>trideni</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>2. 3. 2021</t>
+  </si>
+  <si>
+    <t>16. 3. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -197,10 +200,10 @@
     <t>Žena, 55 a více let</t>
   </si>
   <si>
-    <t>Život během pandemie, Kontakty vs. protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 9. 3. 2021</t>
+    <t>Život během pandemie, Kontakty vs. protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 23. 3. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Kontakty vs. protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 9. 3. 2021</t>
+    <t>Život během pandemie, Kontakty vs. protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 23. 3. 2021</t>
   </si>
 </sst>
 </file>
@@ -575,7 +578,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z112"/>
+  <dimension ref="A1:AA112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -583,7 +586,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,16 +665,19 @@
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
         <v>0.26</v>
@@ -742,16 +748,19 @@
       <c r="Z2" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="AA2" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
         <v>0.31</v>
@@ -822,16 +831,19 @@
       <c r="Z3" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="AA3" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" t="n">
         <v>0.05</v>
@@ -902,16 +914,19 @@
       <c r="Z4" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="AA4" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" t="n">
         <v>0.32</v>
@@ -982,16 +997,19 @@
       <c r="Z5" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="AA5" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" t="n">
         <v>0.06</v>
@@ -1062,16 +1080,19 @@
       <c r="Z6" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="AA6" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" t="n">
         <v>0.14</v>
@@ -1142,16 +1163,19 @@
       <c r="Z7" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="AA7" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
         <v>0.33</v>
@@ -1222,16 +1246,19 @@
       <c r="Z8" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="AA8" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" t="n">
         <v>0.06</v>
@@ -1302,16 +1329,19 @@
       <c r="Z9" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="AA9" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" t="n">
         <v>0.41</v>
@@ -1382,16 +1412,19 @@
       <c r="Z10" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="AA10" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
         <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
       </c>
       <c r="D11" t="n">
         <v>0.06</v>
@@ -1462,16 +1495,19 @@
       <c r="Z11" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="AA11" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" t="n">
         <v>0.19</v>
@@ -1542,16 +1578,19 @@
       <c r="Z12" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="AA12" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13" t="n">
         <v>0.27</v>
@@ -1622,16 +1661,19 @@
       <c r="Z13" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="AA13" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D14" t="n">
         <v>0.03</v>
@@ -1702,16 +1744,19 @@
       <c r="Z14" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="AA14" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D15" t="n">
         <v>0.42</v>
@@ -1782,16 +1827,19 @@
       <c r="Z15" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="16" spans="1:26">
+      <c r="AA15" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
         <v>33</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
       </c>
       <c r="D16" t="n">
         <v>0.09</v>
@@ -1862,16 +1910,19 @@
       <c r="Z16" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="17" spans="1:26">
+      <c r="AA16" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17" t="n">
         <v>0.41</v>
@@ -1942,16 +1993,19 @@
       <c r="Z17" t="n">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="18" spans="1:26">
+      <c r="AA17" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18" t="n">
         <v>0.34</v>
@@ -2022,16 +2076,19 @@
       <c r="Z18" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="19" spans="1:26">
+      <c r="AA18" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D19" t="n">
         <v>0.06</v>
@@ -2102,16 +2159,19 @@
       <c r="Z19" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="20" spans="1:26">
+      <c r="AA19" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D20" t="n">
         <v>0.17</v>
@@ -2182,16 +2242,19 @@
       <c r="Z20" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="21" spans="1:26">
+      <c r="AA20" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
         <v>33</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" t="s">
-        <v>32</v>
       </c>
       <c r="D21" t="n">
         <v>0.02</v>
@@ -2262,16 +2325,19 @@
       <c r="Z21" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="22" spans="1:26">
+      <c r="AA21" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D22" t="n">
         <v>0.27</v>
@@ -2342,16 +2408,19 @@
       <c r="Z22" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="23" spans="1:26">
+      <c r="AA22" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D23" t="n">
         <v>0.3</v>
@@ -2422,16 +2491,19 @@
       <c r="Z23" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="24" spans="1:26">
+      <c r="AA23" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D24" t="n">
         <v>0.07000000000000001</v>
@@ -2502,16 +2574,19 @@
       <c r="Z24" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="25" spans="1:26">
+      <c r="AA24" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D25" t="n">
         <v>0.25</v>
@@ -2582,16 +2657,19 @@
       <c r="Z25" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="26" spans="1:26">
+      <c r="AA25" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D26" t="n">
         <v>0.11</v>
@@ -2662,16 +2740,19 @@
       <c r="Z26" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="27" spans="1:26">
+      <c r="AA26" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D27" t="n">
         <v>0.24</v>
@@ -2742,16 +2823,19 @@
       <c r="Z27" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="28" spans="1:26">
+      <c r="AA27" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D28" t="n">
         <v>0.3</v>
@@ -2822,16 +2906,19 @@
       <c r="Z28" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="29" spans="1:26">
+      <c r="AA28" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D29" t="n">
         <v>0.05</v>
@@ -2902,16 +2989,19 @@
       <c r="Z29" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="30" spans="1:26">
+      <c r="AA29" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D30" t="n">
         <v>0.35</v>
@@ -2982,16 +3072,19 @@
       <c r="Z30" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="31" spans="1:26">
+      <c r="AA30" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D31" t="n">
         <v>0.06</v>
@@ -3062,16 +3155,19 @@
       <c r="Z31" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="32" spans="1:26">
+      <c r="AA31" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D32" t="n">
         <v>0.27</v>
@@ -3142,16 +3238,19 @@
       <c r="Z32" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="33" spans="1:26">
+      <c r="AA32" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D33" t="n">
         <v>0.33</v>
@@ -3222,16 +3321,19 @@
       <c r="Z33" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="34" spans="1:26">
+      <c r="AA33" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D34" t="n">
         <v>0.04</v>
@@ -3302,16 +3404,19 @@
       <c r="Z34" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="35" spans="1:26">
+      <c r="AA34" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D35" t="n">
         <v>0.33</v>
@@ -3382,16 +3487,19 @@
       <c r="Z35" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="36" spans="1:26">
+      <c r="AA35" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D36" t="n">
         <v>0.03</v>
@@ -3462,16 +3570,19 @@
       <c r="Z36" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="37" spans="1:26">
+      <c r="AA36" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D37" t="n">
         <v>0.03</v>
@@ -3542,16 +3653,19 @@
       <c r="Z37" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="38" spans="1:26">
+      <c r="AA37" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D38" t="n">
         <v>0.52</v>
@@ -3622,16 +3736,19 @@
       <c r="Z38" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="39" spans="1:26">
+      <c r="AA38" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D39" t="n">
         <v>0.03</v>
@@ -3702,16 +3819,19 @@
       <c r="Z39" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="40" spans="1:26">
+      <c r="AA39" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D40" t="n">
         <v>0.34</v>
@@ -3782,16 +3902,19 @@
       <c r="Z40" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="41" spans="1:26">
+      <c r="AA40" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D41" t="n">
         <v>0.08</v>
@@ -3862,16 +3985,19 @@
       <c r="Z41" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="42" spans="1:26">
+      <c r="AA41" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D42" t="n">
         <v>0.14</v>
@@ -3942,16 +4068,19 @@
       <c r="Z42" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="43" spans="1:26">
+      <c r="AA42" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D43" t="n">
         <v>0.46</v>
@@ -4022,16 +4151,19 @@
       <c r="Z43" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="44" spans="1:26">
+      <c r="AA43" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D44" t="n">
         <v>0.02</v>
@@ -4102,16 +4234,19 @@
       <c r="Z44" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="45" spans="1:26">
+      <c r="AA44" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D45" t="n">
         <v>0.29</v>
@@ -4182,16 +4317,19 @@
       <c r="Z45" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="46" spans="1:26">
+      <c r="AA45" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D46" t="n">
         <v>0.09</v>
@@ -4262,16 +4400,19 @@
       <c r="Z46" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="47" spans="1:26">
+      <c r="AA46" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27">
       <c r="A47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D47" t="n">
         <v>0.27</v>
@@ -4342,16 +4483,19 @@
       <c r="Z47" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="48" spans="1:26">
+      <c r="AA47" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27">
       <c r="A48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D48" t="n">
         <v>0.31</v>
@@ -4422,16 +4566,19 @@
       <c r="Z48" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="49" spans="1:26">
+      <c r="AA48" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27">
       <c r="A49" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D49" t="n">
         <v>0.05</v>
@@ -4502,16 +4649,19 @@
       <c r="Z49" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="50" spans="1:26">
+      <c r="AA49" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27">
       <c r="A50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D50" t="n">
         <v>0.32</v>
@@ -4582,16 +4732,19 @@
       <c r="Z50" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="51" spans="1:26">
+      <c r="AA50" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27">
       <c r="A51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D51" t="n">
         <v>0.05</v>
@@ -4662,16 +4815,19 @@
       <c r="Z51" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="52" spans="1:26">
+      <c r="AA51" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27">
       <c r="A52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D52" t="n">
         <v>0.22</v>
@@ -4742,16 +4898,19 @@
       <c r="Z52" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="53" spans="1:26">
+      <c r="AA52" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27">
       <c r="A53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D53" t="n">
         <v>0.3</v>
@@ -4822,16 +4981,19 @@
       <c r="Z53" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="54" spans="1:26">
+      <c r="AA53" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27">
       <c r="A54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C54" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D54" t="n">
         <v>0.05</v>
@@ -4902,16 +5064,19 @@
       <c r="Z54" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="55" spans="1:26">
+      <c r="AA54" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27">
       <c r="A55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D55" t="n">
         <v>0.34</v>
@@ -4982,16 +5147,19 @@
       <c r="Z55" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="56" spans="1:26">
+      <c r="AA55" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27">
       <c r="A56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D56" t="n">
         <v>0.09</v>
@@ -5062,16 +5230,19 @@
       <c r="Z56" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="57" spans="1:26">
+      <c r="AA56" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27">
       <c r="A57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D57" t="n">
         <v>0.31</v>
@@ -5142,16 +5313,19 @@
       <c r="Z57" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="58" spans="1:26">
+      <c r="AA57" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27">
       <c r="A58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D58" t="n">
         <v>0.32</v>
@@ -5222,16 +5396,19 @@
       <c r="Z58" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="59" spans="1:26">
+      <c r="AA58" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27">
       <c r="A59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C59" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D59" t="n">
         <v>0.05</v>
@@ -5302,16 +5479,19 @@
       <c r="Z59" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="60" spans="1:26">
+      <c r="AA59" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27">
       <c r="A60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C60" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D60" t="n">
         <v>0.29</v>
@@ -5382,16 +5562,19 @@
       <c r="Z60" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="61" spans="1:26">
+      <c r="AA60" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27">
       <c r="A61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D61" t="n">
         <v>0.03</v>
@@ -5462,16 +5645,19 @@
       <c r="Z61" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="62" spans="1:26">
+      <c r="AA61" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27">
       <c r="A62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B62" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D62" t="n">
         <v>0.25</v>
@@ -5542,16 +5728,19 @@
       <c r="Z62" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="63" spans="1:26">
+      <c r="AA62" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27">
       <c r="A63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B63" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D63" t="n">
         <v>0.31</v>
@@ -5622,16 +5811,19 @@
       <c r="Z63" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="64" spans="1:26">
+      <c r="AA63" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27">
       <c r="A64" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B64" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D64" t="n">
         <v>0.05</v>
@@ -5702,16 +5894,19 @@
       <c r="Z64" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="65" spans="1:26">
+      <c r="AA64" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27">
       <c r="A65" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B65" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D65" t="n">
         <v>0.32</v>
@@ -5782,16 +5977,19 @@
       <c r="Z65" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="66" spans="1:26">
+      <c r="AA65" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27">
       <c r="A66" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B66" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C66" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D66" t="n">
         <v>0.07000000000000001</v>
@@ -5862,16 +6060,19 @@
       <c r="Z66" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="67" spans="1:26">
+      <c r="AA66" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27">
       <c r="A67" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B67" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D67" t="n">
         <v>0.28</v>
@@ -5942,16 +6143,19 @@
       <c r="Z67" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="68" spans="1:26">
+      <c r="AA67" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27">
       <c r="A68" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B68" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D68" t="n">
         <v>0.3</v>
@@ -6022,16 +6226,19 @@
       <c r="Z68" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="69" spans="1:26">
+      <c r="AA68" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27">
       <c r="A69" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B69" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D69" t="n">
         <v>0.03</v>
@@ -6102,16 +6309,19 @@
       <c r="Z69" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="70" spans="1:26">
+      <c r="AA69" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27">
       <c r="A70" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B70" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D70" t="n">
         <v>0.33</v>
@@ -6182,16 +6392,19 @@
       <c r="Z70" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="71" spans="1:26">
+      <c r="AA70" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27">
       <c r="A71" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B71" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C71" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D71" t="n">
         <v>0.06</v>
@@ -6262,16 +6475,19 @@
       <c r="Z71" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="72" spans="1:26">
+      <c r="AA71" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27">
       <c r="A72" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B72" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D72" t="n">
         <v>0.29</v>
@@ -6342,16 +6558,19 @@
       <c r="Z72" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="73" spans="1:26">
+      <c r="AA72" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27">
       <c r="A73" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B73" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C73" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D73" t="n">
         <v>0.3</v>
@@ -6422,16 +6641,19 @@
       <c r="Z73" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="74" spans="1:26">
+      <c r="AA73" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27">
       <c r="A74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B74" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D74" t="n">
         <v>0.04</v>
@@ -6502,16 +6724,19 @@
       <c r="Z74" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="75" spans="1:26">
+      <c r="AA74" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27">
       <c r="A75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B75" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D75" t="n">
         <v>0.29</v>
@@ -6582,16 +6807,19 @@
       <c r="Z75" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="76" spans="1:26">
+      <c r="AA75" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27">
       <c r="A76" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B76" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C76" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D76" t="n">
         <v>0.08</v>
@@ -6662,16 +6890,19 @@
       <c r="Z76" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="77" spans="1:26">
+      <c r="AA76" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27">
       <c r="A77" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B77" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C77" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D77" t="n">
         <v>0.27</v>
@@ -6742,16 +6973,19 @@
       <c r="Z77" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="78" spans="1:26">
+      <c r="AA77" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27">
       <c r="A78" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B78" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C78" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D78" t="n">
         <v>0.33</v>
@@ -6822,16 +7056,19 @@
       <c r="Z78" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="79" spans="1:26">
+      <c r="AA78" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27">
       <c r="A79" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B79" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C79" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D79" t="n">
         <v>0.04</v>
@@ -6902,16 +7139,19 @@
       <c r="Z79" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="80" spans="1:26">
+      <c r="AA79" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27">
       <c r="A80" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B80" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C80" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D80" t="n">
         <v>0.3</v>
@@ -6982,16 +7222,19 @@
       <c r="Z80" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="81" spans="1:26">
+      <c r="AA80" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27">
       <c r="A81" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B81" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C81" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D81" t="n">
         <v>0.06</v>
@@ -7062,16 +7305,19 @@
       <c r="Z81" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="82" spans="1:26">
+      <c r="AA81" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27">
       <c r="A82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B82" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C82" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D82" t="n">
         <v>0.11</v>
@@ -7142,16 +7388,19 @@
       <c r="Z82" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="83" spans="1:26">
+      <c r="AA82" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27">
       <c r="A83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B83" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C83" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D83" t="n">
         <v>0.32</v>
@@ -7222,16 +7471,19 @@
       <c r="Z83" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="84" spans="1:26">
+      <c r="AA83" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27">
       <c r="A84" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B84" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D84" t="n">
         <v>0.07000000000000001</v>
@@ -7302,16 +7554,19 @@
       <c r="Z84" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="85" spans="1:26">
+      <c r="AA84" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27">
       <c r="A85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B85" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C85" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D85" t="n">
         <v>0.42</v>
@@ -7382,16 +7637,19 @@
       <c r="Z85" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="86" spans="1:26">
+      <c r="AA85" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27">
       <c r="A86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B86" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C86" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D86" t="n">
         <v>0.08</v>
@@ -7462,16 +7720,19 @@
       <c r="Z86" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="87" spans="1:26">
+      <c r="AA86" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27">
       <c r="A87" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B87" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D87" t="n">
         <v>0.14</v>
@@ -7542,16 +7803,19 @@
       <c r="Z87" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="88" spans="1:26">
+      <c r="AA87" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27">
       <c r="A88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B88" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C88" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D88" t="n">
         <v>0.25</v>
@@ -7622,16 +7886,19 @@
       <c r="Z88" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="89" spans="1:26">
+      <c r="AA88" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27">
       <c r="A89" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B89" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C89" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D89" t="n">
         <v>0.03</v>
@@ -7702,16 +7969,19 @@
       <c r="Z89" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="90" spans="1:26">
+      <c r="AA89" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27">
       <c r="A90" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B90" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C90" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D90" t="n">
         <v>0.44</v>
@@ -7782,16 +8052,19 @@
       <c r="Z90" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="91" spans="1:26">
+      <c r="AA90" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27">
       <c r="A91" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B91" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C91" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D91" t="n">
         <v>0.14</v>
@@ -7862,16 +8135,19 @@
       <c r="Z91" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="92" spans="1:26">
+      <c r="AA91" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27">
       <c r="A92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B92" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C92" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D92" t="n">
         <v>0.38</v>
@@ -7942,16 +8218,19 @@
       <c r="Z92" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="93" spans="1:26">
+      <c r="AA92" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27">
       <c r="A93" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B93" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C93" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D93" t="n">
         <v>0.35</v>
@@ -8022,16 +8301,19 @@
       <c r="Z93" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="94" spans="1:26">
+      <c r="AA93" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27">
       <c r="A94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B94" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C94" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D94" t="n">
         <v>0.05</v>
@@ -8102,16 +8384,19 @@
       <c r="Z94" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="95" spans="1:26">
+      <c r="AA94" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27">
       <c r="A95" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B95" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C95" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D95" t="n">
         <v>0.18</v>
@@ -8182,16 +8467,19 @@
       <c r="Z95" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="96" spans="1:26">
+      <c r="AA95" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="96" spans="1:27">
       <c r="A96" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B96" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C96" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D96" t="n">
         <v>0.04</v>
@@ -8262,16 +8550,19 @@
       <c r="Z96" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="97" spans="1:26">
+      <c r="AA96" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27">
       <c r="A97" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B97" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C97" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D97" t="n">
         <v>0.17</v>
@@ -8342,16 +8633,19 @@
       <c r="Z97" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="98" spans="1:26">
+      <c r="AA97" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27">
       <c r="A98" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B98" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C98" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D98" t="n">
         <v>0.34</v>
@@ -8422,16 +8716,19 @@
       <c r="Z98" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="99" spans="1:26">
+      <c r="AA98" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27">
       <c r="A99" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C99" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D99" t="n">
         <v>0.04</v>
@@ -8502,16 +8799,19 @@
       <c r="Z99" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="100" spans="1:26">
+      <c r="AA99" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="100" spans="1:27">
       <c r="A100" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B100" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D100" t="n">
         <v>0.39</v>
@@ -8582,16 +8882,19 @@
       <c r="Z100" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="101" spans="1:26">
+      <c r="AA100" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="101" spans="1:27">
       <c r="A101" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C101" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D101" t="n">
         <v>0.06</v>
@@ -8662,16 +8965,19 @@
       <c r="Z101" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="102" spans="1:26">
+      <c r="AA101" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:27">
       <c r="A102" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B102" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C102" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D102" t="n">
         <v>0.25</v>
@@ -8742,16 +9048,19 @@
       <c r="Z102" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="103" spans="1:26">
+      <c r="AA102" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="103" spans="1:27">
       <c r="A103" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B103" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C103" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D103" t="n">
         <v>0.3</v>
@@ -8822,16 +9131,19 @@
       <c r="Z103" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="104" spans="1:26">
+      <c r="AA103" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="104" spans="1:27">
       <c r="A104" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B104" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C104" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D104" t="n">
         <v>0.03</v>
@@ -8902,16 +9214,19 @@
       <c r="Z104" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="105" spans="1:26">
+      <c r="AA104" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:27">
       <c r="A105" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B105" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C105" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D105" t="n">
         <v>0.39</v>
@@ -8982,16 +9297,19 @@
       <c r="Z105" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="106" spans="1:26">
+      <c r="AA105" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:27">
       <c r="A106" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B106" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C106" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D106" t="n">
         <v>0.03</v>
@@ -9062,16 +9380,19 @@
       <c r="Z106" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="107" spans="1:26">
+      <c r="AA106" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:27">
       <c r="A107" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B107" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C107" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D107" t="n">
         <v>0.43</v>
@@ -9142,16 +9463,19 @@
       <c r="Z107" t="n">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="108" spans="1:26">
+      <c r="AA107" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="108" spans="1:27">
       <c r="A108" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B108" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C108" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D108" t="n">
         <v>0.33</v>
@@ -9222,16 +9546,19 @@
       <c r="Z108" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="109" spans="1:26">
+      <c r="AA108" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="109" spans="1:27">
       <c r="A109" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B109" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C109" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D109" t="n">
         <v>0.06</v>
@@ -9302,16 +9629,19 @@
       <c r="Z109" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="110" spans="1:26">
+      <c r="AA109" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="110" spans="1:27">
       <c r="A110" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B110" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C110" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D110" t="n">
         <v>0.16</v>
@@ -9382,16 +9712,19 @@
       <c r="Z110" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="111" spans="1:26">
+      <c r="AA110" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="111" spans="1:27">
       <c r="A111" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B111" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C111" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D111" t="n">
         <v>0.02</v>
@@ -9462,10 +9795,13 @@
       <c r="Z111" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="112" spans="1:26">
+      <c r="AA111" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="112" spans="1:27">
       <c r="A112" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -9479,7 +9815,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y24"/>
+  <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9487,7 +9823,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9563,13 +9899,16 @@
       <c r="Y1" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="Z1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="n">
         <v>2404</v>
@@ -9640,13 +9979,16 @@
       <c r="Y2" t="n">
         <v>1924</v>
       </c>
-    </row>
-    <row r="3" spans="1:25">
+      <c r="Z2" t="n">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" t="n">
         <v>587</v>
@@ -9717,13 +10059,16 @@
       <c r="Y3" t="n">
         <v>449</v>
       </c>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="Z3" t="n">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="n">
         <v>874</v>
@@ -9794,13 +10139,16 @@
       <c r="Y4" t="n">
         <v>670</v>
       </c>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="Z4" t="n">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" t="n">
         <v>943</v>
@@ -9871,13 +10219,16 @@
       <c r="Y5" t="n">
         <v>805</v>
       </c>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="Z5" t="n">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" t="n">
         <v>542</v>
@@ -9948,13 +10299,16 @@
       <c r="Y6" t="n">
         <v>341</v>
       </c>
-    </row>
-    <row r="7" spans="1:25">
+      <c r="Z6" t="n">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" t="n">
         <v>669</v>
@@ -10025,13 +10379,16 @@
       <c r="Y7" t="n">
         <v>598</v>
       </c>
-    </row>
-    <row r="8" spans="1:25">
+      <c r="Z7" t="n">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" t="n">
         <v>1193</v>
@@ -10102,13 +10459,16 @@
       <c r="Y8" t="n">
         <v>985</v>
       </c>
-    </row>
-    <row r="9" spans="1:25">
+      <c r="Z8" t="n">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" t="n">
         <v>10</v>
@@ -10179,13 +10539,16 @@
       <c r="Y9" t="n">
         <v>645</v>
       </c>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="Z9" t="n">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" t="n">
         <v>81</v>
@@ -10256,13 +10619,16 @@
       <c r="Y10" t="n">
         <v>682</v>
       </c>
-    </row>
-    <row r="11" spans="1:25">
+      <c r="Z10" t="n">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" t="n">
         <v>2313</v>
@@ -10333,13 +10699,16 @@
       <c r="Y11" t="n">
         <v>597</v>
       </c>
-    </row>
-    <row r="12" spans="1:25">
+      <c r="Z11" t="n">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" t="n">
         <v>1210</v>
@@ -10410,13 +10779,16 @@
       <c r="Y12" t="n">
         <v>945</v>
       </c>
-    </row>
-    <row r="13" spans="1:25">
+      <c r="Z12" t="n">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" t="n">
         <v>1194</v>
@@ -10487,13 +10859,16 @@
       <c r="Y13" t="n">
         <v>979</v>
       </c>
-    </row>
-    <row r="14" spans="1:25">
+      <c r="Z13" t="n">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" t="n">
         <v>1316</v>
@@ -10564,13 +10939,16 @@
       <c r="Y14" t="n">
         <v>1001</v>
       </c>
-    </row>
-    <row r="15" spans="1:25">
+      <c r="Z14" t="n">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C15" t="n">
         <v>519</v>
@@ -10641,13 +11019,16 @@
       <c r="Y15" t="n">
         <v>443</v>
       </c>
-    </row>
-    <row r="16" spans="1:25">
+      <c r="Z15" t="n">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16" t="n">
         <v>279</v>
@@ -10718,13 +11099,16 @@
       <c r="Y16" t="n">
         <v>231</v>
       </c>
-    </row>
-    <row r="17" spans="1:25">
+      <c r="Z16" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17" t="n">
         <v>290</v>
@@ -10795,13 +11179,16 @@
       <c r="Y17" t="n">
         <v>249</v>
       </c>
-    </row>
-    <row r="18" spans="1:25">
+      <c r="Z17" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C18" t="n">
         <v>307</v>
@@ -10872,13 +11259,16 @@
       <c r="Y18" t="n">
         <v>234</v>
       </c>
-    </row>
-    <row r="19" spans="1:25">
+      <c r="Z18" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19" t="n">
         <v>479</v>
@@ -10949,13 +11339,16 @@
       <c r="Y19" t="n">
         <v>354</v>
       </c>
-    </row>
-    <row r="20" spans="1:25">
+      <c r="Z19" t="n">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C20" t="n">
         <v>423</v>
@@ -11026,13 +11419,16 @@
       <c r="Y20" t="n">
         <v>357</v>
       </c>
-    </row>
-    <row r="21" spans="1:25">
+      <c r="Z20" t="n">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21" t="n">
         <v>280</v>
@@ -11103,13 +11499,16 @@
       <c r="Y21" t="n">
         <v>216</v>
       </c>
-    </row>
-    <row r="22" spans="1:25">
+      <c r="Z21" t="n">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C22" t="n">
         <v>395</v>
@@ -11180,13 +11579,16 @@
       <c r="Y22" t="n">
         <v>316</v>
       </c>
-    </row>
-    <row r="23" spans="1:25">
+      <c r="Z22" t="n">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C23" t="n">
         <v>520</v>
@@ -11257,10 +11659,13 @@
       <c r="Y23" t="n">
         <v>447</v>
       </c>
-    </row>
-    <row r="24" spans="1:25">
+      <c r="Z23" t="n">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s"/>
       <c r="C24" t="s"/>
@@ -11286,6 +11691,7 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s"/>
+      <c r="Z24" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_10_kontakty_aktivity.xlsx
+++ b/ZBP_10_kontakty_aktivity.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
   <si>
     <t>trideni</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>16. 3. 2021</t>
+  </si>
+  <si>
+    <t>30. 3. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -200,10 +203,10 @@
     <t>Žena, 55 a více let</t>
   </si>
   <si>
-    <t>Život během pandemie, Kontakty vs. protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 23. 3. 2021</t>
+    <t>Život během pandemie, Kontakty vs. protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 7. 4. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Kontakty vs. protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 23. 3. 2021</t>
+    <t>Život během pandemie, Kontakty vs. protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 7. 4. 2021</t>
   </si>
 </sst>
 </file>
@@ -578,7 +581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA112"/>
+  <dimension ref="A1:AB112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,7 +589,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -668,16 +671,19 @@
       <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
         <v>0.26</v>
@@ -751,16 +757,19 @@
       <c r="AA2" t="n">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AB2" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="n">
         <v>0.31</v>
@@ -834,16 +843,19 @@
       <c r="AA3" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AB3" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" t="n">
         <v>0.05</v>
@@ -917,16 +929,19 @@
       <c r="AA4" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AB4" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
         <v>0.32</v>
@@ -1000,16 +1015,19 @@
       <c r="AA5" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AB5" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" t="n">
         <v>0.06</v>
@@ -1083,16 +1101,19 @@
       <c r="AA6" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AB6" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
         <v>0.14</v>
@@ -1166,16 +1187,19 @@
       <c r="AA7" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AB7" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" t="n">
         <v>0.33</v>
@@ -1249,16 +1273,19 @@
       <c r="AA8" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AB8" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" t="n">
         <v>0.06</v>
@@ -1332,16 +1359,19 @@
       <c r="AA9" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AB9" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" t="n">
         <v>0.41</v>
@@ -1415,16 +1445,19 @@
       <c r="AA10" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="AB10" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
         <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
       </c>
       <c r="D11" t="n">
         <v>0.06</v>
@@ -1498,16 +1531,19 @@
       <c r="AA11" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AB11" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" t="n">
         <v>0.19</v>
@@ -1581,16 +1617,19 @@
       <c r="AA12" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="AB12" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13" t="n">
         <v>0.27</v>
@@ -1664,16 +1703,19 @@
       <c r="AA13" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AB13" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D14" t="n">
         <v>0.03</v>
@@ -1747,16 +1789,19 @@
       <c r="AA14" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AB14" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" t="n">
         <v>0.42</v>
@@ -1830,16 +1875,19 @@
       <c r="AA15" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AB15" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
         <v>34</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
       </c>
       <c r="D16" t="n">
         <v>0.09</v>
@@ -1913,16 +1961,19 @@
       <c r="AA16" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="AB16" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" t="n">
         <v>0.41</v>
@@ -1996,16 +2047,19 @@
       <c r="AA17" t="n">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="AB17" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D18" t="n">
         <v>0.34</v>
@@ -2079,16 +2133,19 @@
       <c r="AA18" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="AB18" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19" t="n">
         <v>0.06</v>
@@ -2162,16 +2219,19 @@
       <c r="AA19" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="AB19" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20" t="n">
         <v>0.17</v>
@@ -2245,16 +2305,19 @@
       <c r="AA20" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="AB20" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
         <v>34</v>
-      </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
       </c>
       <c r="D21" t="n">
         <v>0.02</v>
@@ -2328,16 +2391,19 @@
       <c r="AA21" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="AB21" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D22" t="n">
         <v>0.27</v>
@@ -2411,16 +2477,19 @@
       <c r="AA22" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="AB22" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D23" t="n">
         <v>0.3</v>
@@ -2494,16 +2563,19 @@
       <c r="AA23" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="AB23" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D24" t="n">
         <v>0.07000000000000001</v>
@@ -2577,16 +2649,19 @@
       <c r="AA24" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="25" spans="1:27">
+      <c r="AB24" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D25" t="n">
         <v>0.25</v>
@@ -2660,16 +2735,19 @@
       <c r="AA25" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="26" spans="1:27">
+      <c r="AB25" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D26" t="n">
         <v>0.11</v>
@@ -2743,16 +2821,19 @@
       <c r="AA26" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="27" spans="1:27">
+      <c r="AB26" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D27" t="n">
         <v>0.24</v>
@@ -2826,16 +2907,19 @@
       <c r="AA27" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="28" spans="1:27">
+      <c r="AB27" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D28" t="n">
         <v>0.3</v>
@@ -2909,16 +2993,19 @@
       <c r="AA28" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="29" spans="1:27">
+      <c r="AB28" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D29" t="n">
         <v>0.05</v>
@@ -2992,16 +3079,19 @@
       <c r="AA29" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="30" spans="1:27">
+      <c r="AB29" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D30" t="n">
         <v>0.35</v>
@@ -3075,16 +3165,19 @@
       <c r="AA30" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="31" spans="1:27">
+      <c r="AB30" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D31" t="n">
         <v>0.06</v>
@@ -3158,16 +3251,19 @@
       <c r="AA31" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="32" spans="1:27">
+      <c r="AB31" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D32" t="n">
         <v>0.27</v>
@@ -3241,16 +3337,19 @@
       <c r="AA32" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="33" spans="1:27">
+      <c r="AB32" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D33" t="n">
         <v>0.33</v>
@@ -3324,16 +3423,19 @@
       <c r="AA33" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="34" spans="1:27">
+      <c r="AB33" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D34" t="n">
         <v>0.04</v>
@@ -3407,16 +3509,19 @@
       <c r="AA34" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="35" spans="1:27">
+      <c r="AB34" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D35" t="n">
         <v>0.33</v>
@@ -3490,16 +3595,19 @@
       <c r="AA35" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="36" spans="1:27">
+      <c r="AB35" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D36" t="n">
         <v>0.03</v>
@@ -3573,16 +3681,19 @@
       <c r="AA36" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="37" spans="1:27">
+      <c r="AB36" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D37" t="n">
         <v>0.03</v>
@@ -3656,16 +3767,19 @@
       <c r="AA37" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="38" spans="1:27">
+      <c r="AB37" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D38" t="n">
         <v>0.52</v>
@@ -3737,18 +3851,21 @@
         <v>0.21</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27">
+        <v>0.23</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D39" t="n">
         <v>0.03</v>
@@ -3822,16 +3939,19 @@
       <c r="AA39" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="40" spans="1:27">
+      <c r="AB39" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D40" t="n">
         <v>0.34</v>
@@ -3903,18 +4023,21 @@
         <v>0.21</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27">
+        <v>0.17</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D41" t="n">
         <v>0.08</v>
@@ -3988,16 +4111,19 @@
       <c r="AA41" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="42" spans="1:27">
+      <c r="AB41" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D42" t="n">
         <v>0.14</v>
@@ -4071,16 +4197,19 @@
       <c r="AA42" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="43" spans="1:27">
+      <c r="AB42" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D43" t="n">
         <v>0.46</v>
@@ -4154,16 +4283,19 @@
       <c r="AA43" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="44" spans="1:27">
+      <c r="AB43" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D44" t="n">
         <v>0.02</v>
@@ -4237,16 +4369,19 @@
       <c r="AA44" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="45" spans="1:27">
+      <c r="AB44" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D45" t="n">
         <v>0.29</v>
@@ -4320,16 +4455,19 @@
       <c r="AA45" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="46" spans="1:27">
+      <c r="AB45" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D46" t="n">
         <v>0.09</v>
@@ -4403,16 +4541,19 @@
       <c r="AA46" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="47" spans="1:27">
+      <c r="AB46" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D47" t="n">
         <v>0.27</v>
@@ -4486,16 +4627,19 @@
       <c r="AA47" t="n">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="48" spans="1:27">
+      <c r="AB47" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D48" t="n">
         <v>0.31</v>
@@ -4569,16 +4713,19 @@
       <c r="AA48" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="49" spans="1:27">
+      <c r="AB48" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D49" t="n">
         <v>0.05</v>
@@ -4652,16 +4799,19 @@
       <c r="AA49" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="50" spans="1:27">
+      <c r="AB49" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D50" t="n">
         <v>0.32</v>
@@ -4735,16 +4885,19 @@
       <c r="AA50" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="51" spans="1:27">
+      <c r="AB50" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
       <c r="A51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D51" t="n">
         <v>0.05</v>
@@ -4818,16 +4971,19 @@
       <c r="AA51" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="52" spans="1:27">
+      <c r="AB51" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D52" t="n">
         <v>0.22</v>
@@ -4901,16 +5057,19 @@
       <c r="AA52" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="53" spans="1:27">
+      <c r="AB52" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
       <c r="A53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C53" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D53" t="n">
         <v>0.3</v>
@@ -4984,16 +5143,19 @@
       <c r="AA53" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="54" spans="1:27">
+      <c r="AB53" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
       <c r="A54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C54" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D54" t="n">
         <v>0.05</v>
@@ -5067,16 +5229,19 @@
       <c r="AA54" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="55" spans="1:27">
+      <c r="AB54" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
       <c r="A55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C55" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D55" t="n">
         <v>0.34</v>
@@ -5150,16 +5315,19 @@
       <c r="AA55" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="56" spans="1:27">
+      <c r="AB55" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
       <c r="A56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D56" t="n">
         <v>0.09</v>
@@ -5233,16 +5401,19 @@
       <c r="AA56" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="57" spans="1:27">
+      <c r="AB56" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
       <c r="A57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D57" t="n">
         <v>0.31</v>
@@ -5316,16 +5487,19 @@
       <c r="AA57" t="n">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="58" spans="1:27">
+      <c r="AB57" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
       <c r="A58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B58" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C58" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D58" t="n">
         <v>0.32</v>
@@ -5399,16 +5573,19 @@
       <c r="AA58" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="59" spans="1:27">
+      <c r="AB58" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
       <c r="A59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B59" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D59" t="n">
         <v>0.05</v>
@@ -5482,16 +5659,19 @@
       <c r="AA59" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="60" spans="1:27">
+      <c r="AB59" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28">
       <c r="A60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B60" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D60" t="n">
         <v>0.29</v>
@@ -5565,16 +5745,19 @@
       <c r="AA60" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="61" spans="1:27">
+      <c r="AB60" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28">
       <c r="A61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B61" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D61" t="n">
         <v>0.03</v>
@@ -5648,16 +5831,19 @@
       <c r="AA61" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="62" spans="1:27">
+      <c r="AB61" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28">
       <c r="A62" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B62" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D62" t="n">
         <v>0.25</v>
@@ -5731,16 +5917,19 @@
       <c r="AA62" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="63" spans="1:27">
+      <c r="AB62" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28">
       <c r="A63" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B63" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D63" t="n">
         <v>0.31</v>
@@ -5814,16 +6003,19 @@
       <c r="AA63" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="64" spans="1:27">
+      <c r="AB63" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28">
       <c r="A64" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B64" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C64" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D64" t="n">
         <v>0.05</v>
@@ -5897,16 +6089,19 @@
       <c r="AA64" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="65" spans="1:27">
+      <c r="AB64" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28">
       <c r="A65" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B65" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D65" t="n">
         <v>0.32</v>
@@ -5980,16 +6175,19 @@
       <c r="AA65" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="66" spans="1:27">
+      <c r="AB65" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28">
       <c r="A66" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B66" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C66" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D66" t="n">
         <v>0.07000000000000001</v>
@@ -6063,16 +6261,19 @@
       <c r="AA66" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="67" spans="1:27">
+      <c r="AB66" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28">
       <c r="A67" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B67" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D67" t="n">
         <v>0.28</v>
@@ -6146,16 +6347,19 @@
       <c r="AA67" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="68" spans="1:27">
+      <c r="AB67" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28">
       <c r="A68" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B68" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C68" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D68" t="n">
         <v>0.3</v>
@@ -6229,16 +6433,19 @@
       <c r="AA68" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="69" spans="1:27">
+      <c r="AB68" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28">
       <c r="A69" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B69" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C69" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D69" t="n">
         <v>0.03</v>
@@ -6312,16 +6519,19 @@
       <c r="AA69" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="70" spans="1:27">
+      <c r="AB69" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28">
       <c r="A70" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B70" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D70" t="n">
         <v>0.33</v>
@@ -6395,16 +6605,19 @@
       <c r="AA70" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="71" spans="1:27">
+      <c r="AB70" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28">
       <c r="A71" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B71" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C71" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D71" t="n">
         <v>0.06</v>
@@ -6478,16 +6691,19 @@
       <c r="AA71" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="72" spans="1:27">
+      <c r="AB71" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28">
       <c r="A72" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B72" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D72" t="n">
         <v>0.29</v>
@@ -6561,16 +6777,19 @@
       <c r="AA72" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="73" spans="1:27">
+      <c r="AB72" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28">
       <c r="A73" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B73" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D73" t="n">
         <v>0.3</v>
@@ -6644,16 +6863,19 @@
       <c r="AA73" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="74" spans="1:27">
+      <c r="AB73" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28">
       <c r="A74" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B74" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D74" t="n">
         <v>0.04</v>
@@ -6727,16 +6949,19 @@
       <c r="AA74" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="75" spans="1:27">
+      <c r="AB74" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28">
       <c r="A75" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B75" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C75" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D75" t="n">
         <v>0.29</v>
@@ -6810,16 +7035,19 @@
       <c r="AA75" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="76" spans="1:27">
+      <c r="AB75" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28">
       <c r="A76" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B76" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C76" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D76" t="n">
         <v>0.08</v>
@@ -6893,16 +7121,19 @@
       <c r="AA76" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="77" spans="1:27">
+      <c r="AB76" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28">
       <c r="A77" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C77" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D77" t="n">
         <v>0.27</v>
@@ -6976,16 +7207,19 @@
       <c r="AA77" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="78" spans="1:27">
+      <c r="AB77" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28">
       <c r="A78" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C78" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D78" t="n">
         <v>0.33</v>
@@ -7059,16 +7293,19 @@
       <c r="AA78" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="79" spans="1:27">
+      <c r="AB78" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28">
       <c r="A79" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C79" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D79" t="n">
         <v>0.04</v>
@@ -7142,16 +7379,19 @@
       <c r="AA79" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="80" spans="1:27">
+      <c r="AB79" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28">
       <c r="A80" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C80" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D80" t="n">
         <v>0.3</v>
@@ -7225,16 +7465,19 @@
       <c r="AA80" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="81" spans="1:27">
+      <c r="AB80" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28">
       <c r="A81" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C81" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D81" t="n">
         <v>0.06</v>
@@ -7308,16 +7551,19 @@
       <c r="AA81" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="82" spans="1:27">
+      <c r="AB81" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28">
       <c r="A82" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B82" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C82" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D82" t="n">
         <v>0.11</v>
@@ -7391,16 +7637,19 @@
       <c r="AA82" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="83" spans="1:27">
+      <c r="AB82" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28">
       <c r="A83" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B83" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C83" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D83" t="n">
         <v>0.32</v>
@@ -7474,16 +7723,19 @@
       <c r="AA83" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="84" spans="1:27">
+      <c r="AB83" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28">
       <c r="A84" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B84" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C84" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D84" t="n">
         <v>0.07000000000000001</v>
@@ -7557,16 +7809,19 @@
       <c r="AA84" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="85" spans="1:27">
+      <c r="AB84" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28">
       <c r="A85" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B85" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C85" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D85" t="n">
         <v>0.42</v>
@@ -7640,16 +7895,19 @@
       <c r="AA85" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="86" spans="1:27">
+      <c r="AB85" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28">
       <c r="A86" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B86" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C86" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D86" t="n">
         <v>0.08</v>
@@ -7723,16 +7981,19 @@
       <c r="AA86" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="87" spans="1:27">
+      <c r="AB86" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28">
       <c r="A87" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B87" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D87" t="n">
         <v>0.14</v>
@@ -7806,16 +8067,19 @@
       <c r="AA87" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="88" spans="1:27">
+      <c r="AB87" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28">
       <c r="A88" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B88" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C88" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D88" t="n">
         <v>0.25</v>
@@ -7889,16 +8153,19 @@
       <c r="AA88" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="89" spans="1:27">
+      <c r="AB88" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28">
       <c r="A89" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B89" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C89" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D89" t="n">
         <v>0.03</v>
@@ -7970,18 +8237,21 @@
         <v>0.13</v>
       </c>
       <c r="AA89" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="90" spans="1:27">
+        <v>0.16</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28">
       <c r="A90" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B90" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C90" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D90" t="n">
         <v>0.44</v>
@@ -8055,16 +8325,19 @@
       <c r="AA90" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="91" spans="1:27">
+      <c r="AB90" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28">
       <c r="A91" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B91" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C91" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D91" t="n">
         <v>0.14</v>
@@ -8136,18 +8409,21 @@
         <v>0.25</v>
       </c>
       <c r="AA91" t="n">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="92" spans="1:27">
+        <v>0.21</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28">
       <c r="A92" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B92" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C92" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D92" t="n">
         <v>0.38</v>
@@ -8221,16 +8497,19 @@
       <c r="AA92" t="n">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="93" spans="1:27">
+      <c r="AB92" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28">
       <c r="A93" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B93" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C93" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D93" t="n">
         <v>0.35</v>
@@ -8304,16 +8583,19 @@
       <c r="AA93" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="94" spans="1:27">
+      <c r="AB93" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28">
       <c r="A94" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B94" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C94" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D94" t="n">
         <v>0.05</v>
@@ -8387,16 +8669,19 @@
       <c r="AA94" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="95" spans="1:27">
+      <c r="AB94" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28">
       <c r="A95" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B95" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C95" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D95" t="n">
         <v>0.18</v>
@@ -8470,16 +8755,19 @@
       <c r="AA95" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="96" spans="1:27">
+      <c r="AB95" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28">
       <c r="A96" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B96" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C96" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D96" t="n">
         <v>0.04</v>
@@ -8553,16 +8841,19 @@
       <c r="AA96" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="97" spans="1:27">
+      <c r="AB96" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28">
       <c r="A97" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B97" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C97" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D97" t="n">
         <v>0.17</v>
@@ -8636,16 +8927,19 @@
       <c r="AA97" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="98" spans="1:27">
+      <c r="AB97" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28">
       <c r="A98" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B98" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C98" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D98" t="n">
         <v>0.34</v>
@@ -8719,16 +9013,19 @@
       <c r="AA98" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="99" spans="1:27">
+      <c r="AB98" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28">
       <c r="A99" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C99" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D99" t="n">
         <v>0.04</v>
@@ -8802,16 +9099,19 @@
       <c r="AA99" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="100" spans="1:27">
+      <c r="AB99" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28">
       <c r="A100" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B100" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C100" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D100" t="n">
         <v>0.39</v>
@@ -8885,16 +9185,19 @@
       <c r="AA100" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="101" spans="1:27">
+      <c r="AB100" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28">
       <c r="A101" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C101" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D101" t="n">
         <v>0.06</v>
@@ -8968,16 +9271,19 @@
       <c r="AA101" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="102" spans="1:27">
+      <c r="AB101" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28">
       <c r="A102" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B102" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C102" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D102" t="n">
         <v>0.25</v>
@@ -9051,16 +9357,19 @@
       <c r="AA102" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="103" spans="1:27">
+      <c r="AB102" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28">
       <c r="A103" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B103" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C103" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D103" t="n">
         <v>0.3</v>
@@ -9134,16 +9443,19 @@
       <c r="AA103" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="104" spans="1:27">
+      <c r="AB103" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28">
       <c r="A104" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B104" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C104" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D104" t="n">
         <v>0.03</v>
@@ -9217,16 +9529,19 @@
       <c r="AA104" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="105" spans="1:27">
+      <c r="AB104" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28">
       <c r="A105" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B105" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C105" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D105" t="n">
         <v>0.39</v>
@@ -9300,16 +9615,19 @@
       <c r="AA105" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="106" spans="1:27">
+      <c r="AB105" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28">
       <c r="A106" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B106" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C106" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D106" t="n">
         <v>0.03</v>
@@ -9383,16 +9701,19 @@
       <c r="AA106" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="107" spans="1:27">
+      <c r="AB106" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28">
       <c r="A107" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B107" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C107" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D107" t="n">
         <v>0.43</v>
@@ -9466,16 +9787,19 @@
       <c r="AA107" t="n">
         <v>0.55</v>
       </c>
-    </row>
-    <row r="108" spans="1:27">
+      <c r="AB107" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28">
       <c r="A108" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B108" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C108" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D108" t="n">
         <v>0.33</v>
@@ -9549,16 +9873,19 @@
       <c r="AA108" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="109" spans="1:27">
+      <c r="AB108" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28">
       <c r="A109" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B109" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C109" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D109" t="n">
         <v>0.06</v>
@@ -9632,16 +9959,19 @@
       <c r="AA109" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="110" spans="1:27">
+      <c r="AB109" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28">
       <c r="A110" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B110" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C110" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D110" t="n">
         <v>0.16</v>
@@ -9715,16 +10045,19 @@
       <c r="AA110" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="111" spans="1:27">
+      <c r="AB110" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28">
       <c r="A111" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B111" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C111" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D111" t="n">
         <v>0.02</v>
@@ -9798,10 +10131,13 @@
       <c r="AA111" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="112" spans="1:27">
+      <c r="AB111" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28">
       <c r="A112" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -9815,7 +10151,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:AA24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9823,7 +10159,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9902,13 +10238,16 @@
       <c r="Z1" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="AA1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="n">
         <v>2404</v>
@@ -9980,15 +10319,18 @@
         <v>1924</v>
       </c>
       <c r="Z2" t="n">
-        <v>1872</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
+        <v>1869</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" t="n">
         <v>587</v>
@@ -10062,13 +10404,16 @@
       <c r="Z3" t="n">
         <v>431</v>
       </c>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="AA3" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" t="n">
         <v>874</v>
@@ -10140,15 +10485,18 @@
         <v>670</v>
       </c>
       <c r="Z4" t="n">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26">
+        <v>663</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" t="n">
         <v>943</v>
@@ -10222,13 +10570,16 @@
       <c r="Z5" t="n">
         <v>775</v>
       </c>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="AA5" t="n">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" t="n">
         <v>542</v>
@@ -10302,13 +10653,16 @@
       <c r="Z6" t="n">
         <v>316</v>
       </c>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="AA6" t="n">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" t="n">
         <v>669</v>
@@ -10380,15 +10734,18 @@
         <v>598</v>
       </c>
       <c r="Z7" t="n">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
+        <v>616</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" t="n">
         <v>1193</v>
@@ -10462,13 +10819,16 @@
       <c r="Z8" t="n">
         <v>937</v>
       </c>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="AA8" t="n">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" t="n">
         <v>10</v>
@@ -10540,15 +10900,18 @@
         <v>645</v>
       </c>
       <c r="Z9" t="n">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26">
+        <v>625</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" t="n">
         <v>81</v>
@@ -10620,15 +10983,18 @@
         <v>682</v>
       </c>
       <c r="Z10" t="n">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
+        <v>691</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" t="n">
         <v>2313</v>
@@ -10702,13 +11068,16 @@
       <c r="Z11" t="n">
         <v>553</v>
       </c>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="AA11" t="n">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" t="n">
         <v>1210</v>
@@ -10780,15 +11149,18 @@
         <v>945</v>
       </c>
       <c r="Z12" t="n">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
+        <v>906</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" t="n">
         <v>1194</v>
@@ -10862,13 +11234,16 @@
       <c r="Z13" t="n">
         <v>963</v>
       </c>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="AA13" t="n">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" t="n">
         <v>1316</v>
@@ -10940,15 +11315,18 @@
         <v>1001</v>
       </c>
       <c r="Z14" t="n">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
+        <v>976</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" t="n">
         <v>519</v>
@@ -11020,15 +11398,18 @@
         <v>443</v>
       </c>
       <c r="Z15" t="n">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26">
+        <v>424</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C16" t="n">
         <v>279</v>
@@ -11102,13 +11483,16 @@
       <c r="Z16" t="n">
         <v>225</v>
       </c>
-    </row>
-    <row r="17" spans="1:26">
+      <c r="AA16" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" t="n">
         <v>290</v>
@@ -11182,13 +11566,16 @@
       <c r="Z17" t="n">
         <v>244</v>
       </c>
-    </row>
-    <row r="18" spans="1:26">
+      <c r="AA17" t="n">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C18" t="n">
         <v>307</v>
@@ -11262,13 +11649,16 @@
       <c r="Z18" t="n">
         <v>220</v>
       </c>
-    </row>
-    <row r="19" spans="1:26">
+      <c r="AA18" t="n">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C19" t="n">
         <v>479</v>
@@ -11340,15 +11730,18 @@
         <v>354</v>
       </c>
       <c r="Z19" t="n">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26">
+        <v>342</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20" t="n">
         <v>423</v>
@@ -11422,13 +11815,16 @@
       <c r="Z20" t="n">
         <v>344</v>
       </c>
-    </row>
-    <row r="21" spans="1:26">
+      <c r="AA20" t="n">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C21" t="n">
         <v>280</v>
@@ -11502,13 +11898,16 @@
       <c r="Z21" t="n">
         <v>211</v>
       </c>
-    </row>
-    <row r="22" spans="1:26">
+      <c r="AA21" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C22" t="n">
         <v>395</v>
@@ -11582,13 +11981,16 @@
       <c r="Z22" t="n">
         <v>321</v>
       </c>
-    </row>
-    <row r="23" spans="1:26">
+      <c r="AA22" t="n">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C23" t="n">
         <v>520</v>
@@ -11660,12 +12062,15 @@
         <v>447</v>
       </c>
       <c r="Z23" t="n">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26">
+        <v>431</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B24" t="s"/>
       <c r="C24" t="s"/>
@@ -11692,6 +12097,7 @@
       <c r="X24" t="s"/>
       <c r="Y24" t="s"/>
       <c r="Z24" t="s"/>
+      <c r="AA24" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_10_kontakty_aktivity.xlsx
+++ b/ZBP_10_kontakty_aktivity.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
   <si>
     <t>trideni</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>30. 3. 2021</t>
+  </si>
+  <si>
+    <t>13. 4. 2021</t>
+  </si>
+  <si>
+    <t>4. 5. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -203,10 +209,10 @@
     <t>Žena, 55 a více let</t>
   </si>
   <si>
-    <t>Život během pandemie, Kontakty vs. protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 7. 4. 2021</t>
+    <t>Život během pandemie, Kontakty vs. protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 11. 5. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Kontakty vs. protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 7. 4. 2021</t>
+    <t>Život během pandemie, Kontakty vs. protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 11. 5. 2021</t>
   </si>
 </sst>
 </file>
@@ -581,7 +587,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB112"/>
+  <dimension ref="A1:AD112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -589,7 +595,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -674,16 +680,22 @@
       <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:28">
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
         <v>0.26</v>
@@ -760,16 +772,22 @@
       <c r="AB2" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="3" spans="1:28">
+      <c r="AC2" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" t="n">
         <v>0.31</v>
@@ -846,16 +864,22 @@
       <c r="AB3" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="4" spans="1:28">
+      <c r="AC3" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
         <v>0.05</v>
@@ -932,16 +956,22 @@
       <c r="AB4" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="5" spans="1:28">
+      <c r="AC4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D5" t="n">
         <v>0.32</v>
@@ -1018,16 +1048,22 @@
       <c r="AB5" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="6" spans="1:28">
+      <c r="AC5" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D6" t="n">
         <v>0.06</v>
@@ -1104,16 +1140,22 @@
       <c r="AB6" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="7" spans="1:28">
+      <c r="AC6" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7" t="n">
         <v>0.14</v>
@@ -1190,16 +1232,22 @@
       <c r="AB7" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="8" spans="1:28">
+      <c r="AC7" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8" t="n">
         <v>0.33</v>
@@ -1276,16 +1324,22 @@
       <c r="AB8" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="9" spans="1:28">
+      <c r="AC8" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D9" t="n">
         <v>0.06</v>
@@ -1362,16 +1416,22 @@
       <c r="AB9" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="10" spans="1:28">
+      <c r="AC9" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
         <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
       </c>
       <c r="D10" t="n">
         <v>0.41</v>
@@ -1448,16 +1508,22 @@
       <c r="AB10" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="11" spans="1:28">
+      <c r="AC10" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
         <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
       </c>
       <c r="D11" t="n">
         <v>0.06</v>
@@ -1534,16 +1600,22 @@
       <c r="AB11" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:28">
+      <c r="AC11" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D12" t="n">
         <v>0.19</v>
@@ -1620,16 +1692,22 @@
       <c r="AB12" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="13" spans="1:28">
+      <c r="AC12" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D13" t="n">
         <v>0.27</v>
@@ -1706,16 +1784,22 @@
       <c r="AB13" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="14" spans="1:28">
+      <c r="AC13" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D14" t="n">
         <v>0.03</v>
@@ -1792,16 +1876,22 @@
       <c r="AB14" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="15" spans="1:28">
+      <c r="AC14" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
       <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
         <v>35</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
       </c>
       <c r="D15" t="n">
         <v>0.42</v>
@@ -1878,16 +1968,22 @@
       <c r="AB15" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="16" spans="1:28">
+      <c r="AC15" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D16" t="n">
         <v>0.09</v>
@@ -1964,16 +2060,22 @@
       <c r="AB16" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="17" spans="1:28">
+      <c r="AC16" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D17" t="n">
         <v>0.41</v>
@@ -2050,16 +2152,22 @@
       <c r="AB17" t="n">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="18" spans="1:28">
+      <c r="AC17" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D18" t="n">
         <v>0.34</v>
@@ -2136,16 +2244,22 @@
       <c r="AB18" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="19" spans="1:28">
+      <c r="AC18" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D19" t="n">
         <v>0.06</v>
@@ -2222,16 +2336,22 @@
       <c r="AB19" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="20" spans="1:28">
+      <c r="AC19" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
       <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
         <v>35</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" t="s">
-        <v>33</v>
       </c>
       <c r="D20" t="n">
         <v>0.17</v>
@@ -2308,16 +2428,22 @@
       <c r="AB20" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="21" spans="1:28">
+      <c r="AC20" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D21" t="n">
         <v>0.02</v>
@@ -2394,16 +2520,22 @@
       <c r="AB21" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:28">
+      <c r="AC21" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D22" t="n">
         <v>0.27</v>
@@ -2480,16 +2612,22 @@
       <c r="AB22" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="23" spans="1:28">
+      <c r="AC22" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D23" t="n">
         <v>0.3</v>
@@ -2566,16 +2704,22 @@
       <c r="AB23" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="24" spans="1:28">
+      <c r="AC23" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D24" t="n">
         <v>0.07000000000000001</v>
@@ -2652,16 +2796,22 @@
       <c r="AB24" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="25" spans="1:28">
+      <c r="AC24" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D25" t="n">
         <v>0.25</v>
@@ -2738,16 +2888,22 @@
       <c r="AB25" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:28">
+      <c r="AC25" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D26" t="n">
         <v>0.11</v>
@@ -2824,16 +2980,22 @@
       <c r="AB26" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="27" spans="1:28">
+      <c r="AC26" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D27" t="n">
         <v>0.24</v>
@@ -2910,16 +3072,22 @@
       <c r="AB27" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="28" spans="1:28">
+      <c r="AC27" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D28" t="n">
         <v>0.3</v>
@@ -2996,16 +3164,22 @@
       <c r="AB28" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="29" spans="1:28">
+      <c r="AC28" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D29" t="n">
         <v>0.05</v>
@@ -3082,16 +3256,22 @@
       <c r="AB29" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="30" spans="1:28">
+      <c r="AC29" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D30" t="n">
         <v>0.35</v>
@@ -3168,16 +3348,22 @@
       <c r="AB30" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="31" spans="1:28">
+      <c r="AC30" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D31" t="n">
         <v>0.06</v>
@@ -3254,16 +3440,22 @@
       <c r="AB31" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="32" spans="1:28">
+      <c r="AC31" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D32" t="n">
         <v>0.27</v>
@@ -3340,16 +3532,22 @@
       <c r="AB32" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="33" spans="1:28">
+      <c r="AC32" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D33" t="n">
         <v>0.33</v>
@@ -3426,16 +3624,22 @@
       <c r="AB33" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="34" spans="1:28">
+      <c r="AC33" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D34" t="n">
         <v>0.04</v>
@@ -3512,16 +3716,22 @@
       <c r="AB34" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="35" spans="1:28">
+      <c r="AC34" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D35" t="n">
         <v>0.33</v>
@@ -3598,16 +3808,22 @@
       <c r="AB35" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="36" spans="1:28">
+      <c r="AC35" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D36" t="n">
         <v>0.03</v>
@@ -3684,16 +3900,22 @@
       <c r="AB36" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="37" spans="1:28">
+      <c r="AC36" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D37" t="n">
         <v>0.03</v>
@@ -3770,16 +3992,22 @@
       <c r="AB37" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="38" spans="1:28">
+      <c r="AC37" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D38" t="n">
         <v>0.52</v>
@@ -3856,16 +4084,22 @@
       <c r="AB38" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="39" spans="1:28">
+      <c r="AC38" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D39" t="n">
         <v>0.03</v>
@@ -3942,16 +4176,22 @@
       <c r="AB39" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="40" spans="1:28">
+      <c r="AC39" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D40" t="n">
         <v>0.34</v>
@@ -4028,16 +4268,22 @@
       <c r="AB40" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="41" spans="1:28">
+      <c r="AC40" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D41" t="n">
         <v>0.08</v>
@@ -4114,16 +4360,22 @@
       <c r="AB41" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="42" spans="1:28">
+      <c r="AC41" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D42" t="n">
         <v>0.14</v>
@@ -4200,16 +4452,22 @@
       <c r="AB42" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="43" spans="1:28">
+      <c r="AC42" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D43" t="n">
         <v>0.46</v>
@@ -4286,16 +4544,22 @@
       <c r="AB43" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="44" spans="1:28">
+      <c r="AC43" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D44" t="n">
         <v>0.02</v>
@@ -4372,16 +4636,22 @@
       <c r="AB44" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="45" spans="1:28">
+      <c r="AC44" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D45" t="n">
         <v>0.29</v>
@@ -4458,16 +4728,22 @@
       <c r="AB45" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="46" spans="1:28">
+      <c r="AC45" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D46" t="n">
         <v>0.09</v>
@@ -4544,16 +4820,22 @@
       <c r="AB46" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="47" spans="1:28">
+      <c r="AC46" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D47" t="n">
         <v>0.27</v>
@@ -4630,16 +4912,22 @@
       <c r="AB47" t="n">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="48" spans="1:28">
+      <c r="AC47" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D48" t="n">
         <v>0.31</v>
@@ -4716,16 +5004,22 @@
       <c r="AB48" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="49" spans="1:28">
+      <c r="AC48" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D49" t="n">
         <v>0.05</v>
@@ -4802,16 +5096,22 @@
       <c r="AB49" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="50" spans="1:28">
+      <c r="AC49" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30">
       <c r="A50" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D50" t="n">
         <v>0.32</v>
@@ -4888,16 +5188,22 @@
       <c r="AB50" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="51" spans="1:28">
+      <c r="AC50" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B51" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D51" t="n">
         <v>0.05</v>
@@ -4974,16 +5280,22 @@
       <c r="AB51" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="52" spans="1:28">
+      <c r="AC51" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D52" t="n">
         <v>0.22</v>
@@ -5060,16 +5372,22 @@
       <c r="AB52" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="53" spans="1:28">
+      <c r="AC52" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C53" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D53" t="n">
         <v>0.3</v>
@@ -5146,16 +5464,22 @@
       <c r="AB53" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="54" spans="1:28">
+      <c r="AC53" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D54" t="n">
         <v>0.05</v>
@@ -5232,16 +5556,22 @@
       <c r="AB54" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="55" spans="1:28">
+      <c r="AC54" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30">
       <c r="A55" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C55" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D55" t="n">
         <v>0.34</v>
@@ -5318,16 +5648,22 @@
       <c r="AB55" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="56" spans="1:28">
+      <c r="AC55" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30">
       <c r="A56" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B56" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C56" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D56" t="n">
         <v>0.09</v>
@@ -5404,16 +5740,22 @@
       <c r="AB56" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="57" spans="1:28">
+      <c r="AC56" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30">
       <c r="A57" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B57" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C57" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D57" t="n">
         <v>0.31</v>
@@ -5490,16 +5832,22 @@
       <c r="AB57" t="n">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="58" spans="1:28">
+      <c r="AC57" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30">
       <c r="A58" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B58" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D58" t="n">
         <v>0.32</v>
@@ -5576,16 +5924,22 @@
       <c r="AB58" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="59" spans="1:28">
+      <c r="AC58" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30">
       <c r="A59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B59" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C59" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D59" t="n">
         <v>0.05</v>
@@ -5662,16 +6016,22 @@
       <c r="AB59" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="60" spans="1:28">
+      <c r="AC59" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30">
       <c r="A60" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B60" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C60" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D60" t="n">
         <v>0.29</v>
@@ -5748,16 +6108,22 @@
       <c r="AB60" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="61" spans="1:28">
+      <c r="AC60" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30">
       <c r="A61" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B61" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C61" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D61" t="n">
         <v>0.03</v>
@@ -5834,16 +6200,22 @@
       <c r="AB61" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="62" spans="1:28">
+      <c r="AC61" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30">
       <c r="A62" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B62" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C62" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D62" t="n">
         <v>0.25</v>
@@ -5920,16 +6292,22 @@
       <c r="AB62" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="63" spans="1:28">
+      <c r="AC62" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30">
       <c r="A63" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B63" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C63" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D63" t="n">
         <v>0.31</v>
@@ -6006,16 +6384,22 @@
       <c r="AB63" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="64" spans="1:28">
+      <c r="AC63" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30">
       <c r="A64" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B64" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C64" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D64" t="n">
         <v>0.05</v>
@@ -6092,16 +6476,22 @@
       <c r="AB64" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="65" spans="1:28">
+      <c r="AC64" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30">
       <c r="A65" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B65" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C65" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D65" t="n">
         <v>0.32</v>
@@ -6178,16 +6568,22 @@
       <c r="AB65" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="66" spans="1:28">
+      <c r="AC65" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30">
       <c r="A66" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B66" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C66" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D66" t="n">
         <v>0.07000000000000001</v>
@@ -6264,16 +6660,22 @@
       <c r="AB66" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="67" spans="1:28">
+      <c r="AC66" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30">
       <c r="A67" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B67" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C67" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D67" t="n">
         <v>0.28</v>
@@ -6350,16 +6752,22 @@
       <c r="AB67" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="68" spans="1:28">
+      <c r="AC67" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30">
       <c r="A68" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B68" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C68" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D68" t="n">
         <v>0.3</v>
@@ -6436,16 +6844,22 @@
       <c r="AB68" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="69" spans="1:28">
+      <c r="AC68" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30">
       <c r="A69" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B69" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C69" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D69" t="n">
         <v>0.03</v>
@@ -6522,16 +6936,22 @@
       <c r="AB69" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="70" spans="1:28">
+      <c r="AC69" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30">
       <c r="A70" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B70" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C70" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D70" t="n">
         <v>0.33</v>
@@ -6608,16 +7028,22 @@
       <c r="AB70" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="71" spans="1:28">
+      <c r="AC70" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30">
       <c r="A71" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B71" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C71" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D71" t="n">
         <v>0.06</v>
@@ -6694,16 +7120,22 @@
       <c r="AB71" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="72" spans="1:28">
+      <c r="AC71" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30">
       <c r="A72" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B72" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C72" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D72" t="n">
         <v>0.29</v>
@@ -6780,16 +7212,22 @@
       <c r="AB72" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="73" spans="1:28">
+      <c r="AC72" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30">
       <c r="A73" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B73" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C73" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D73" t="n">
         <v>0.3</v>
@@ -6866,16 +7304,22 @@
       <c r="AB73" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="74" spans="1:28">
+      <c r="AC73" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30">
       <c r="A74" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B74" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C74" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D74" t="n">
         <v>0.04</v>
@@ -6952,16 +7396,22 @@
       <c r="AB74" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="75" spans="1:28">
+      <c r="AC74" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30">
       <c r="A75" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B75" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C75" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D75" t="n">
         <v>0.29</v>
@@ -7038,16 +7488,22 @@
       <c r="AB75" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="76" spans="1:28">
+      <c r="AC75" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30">
       <c r="A76" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B76" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C76" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D76" t="n">
         <v>0.08</v>
@@ -7124,16 +7580,22 @@
       <c r="AB76" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="77" spans="1:28">
+      <c r="AC76" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30">
       <c r="A77" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B77" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C77" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D77" t="n">
         <v>0.27</v>
@@ -7210,16 +7672,22 @@
       <c r="AB77" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="78" spans="1:28">
+      <c r="AC77" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30">
       <c r="A78" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B78" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C78" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D78" t="n">
         <v>0.33</v>
@@ -7296,16 +7764,22 @@
       <c r="AB78" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="79" spans="1:28">
+      <c r="AC78" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30">
       <c r="A79" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B79" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C79" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D79" t="n">
         <v>0.04</v>
@@ -7382,16 +7856,22 @@
       <c r="AB79" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="80" spans="1:28">
+      <c r="AC79" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30">
       <c r="A80" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B80" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C80" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D80" t="n">
         <v>0.3</v>
@@ -7468,16 +7948,22 @@
       <c r="AB80" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="81" spans="1:28">
+      <c r="AC80" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:30">
       <c r="A81" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B81" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C81" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D81" t="n">
         <v>0.06</v>
@@ -7554,16 +8040,22 @@
       <c r="AB81" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="82" spans="1:28">
+      <c r="AC81" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:30">
       <c r="A82" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B82" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C82" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D82" t="n">
         <v>0.11</v>
@@ -7640,16 +8132,22 @@
       <c r="AB82" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="83" spans="1:28">
+      <c r="AC82" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30">
       <c r="A83" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B83" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C83" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D83" t="n">
         <v>0.32</v>
@@ -7726,16 +8224,22 @@
       <c r="AB83" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="84" spans="1:28">
+      <c r="AC83" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:30">
       <c r="A84" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B84" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C84" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D84" t="n">
         <v>0.07000000000000001</v>
@@ -7812,16 +8316,22 @@
       <c r="AB84" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="85" spans="1:28">
+      <c r="AC84" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:30">
       <c r="A85" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B85" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C85" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D85" t="n">
         <v>0.42</v>
@@ -7898,16 +8408,22 @@
       <c r="AB85" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="86" spans="1:28">
+      <c r="AC85" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:30">
       <c r="A86" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B86" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C86" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D86" t="n">
         <v>0.08</v>
@@ -7984,16 +8500,22 @@
       <c r="AB86" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="87" spans="1:28">
+      <c r="AC86" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30">
       <c r="A87" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B87" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C87" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D87" t="n">
         <v>0.14</v>
@@ -8070,16 +8592,22 @@
       <c r="AB87" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="88" spans="1:28">
+      <c r="AC87" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30">
       <c r="A88" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B88" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C88" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D88" t="n">
         <v>0.25</v>
@@ -8156,16 +8684,22 @@
       <c r="AB88" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="89" spans="1:28">
+      <c r="AC88" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30">
       <c r="A89" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B89" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C89" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D89" t="n">
         <v>0.03</v>
@@ -8242,16 +8776,22 @@
       <c r="AB89" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="90" spans="1:28">
+      <c r="AC89" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:30">
       <c r="A90" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B90" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C90" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D90" t="n">
         <v>0.44</v>
@@ -8328,16 +8868,22 @@
       <c r="AB90" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="91" spans="1:28">
+      <c r="AC90" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:30">
       <c r="A91" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B91" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C91" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D91" t="n">
         <v>0.14</v>
@@ -8414,16 +8960,22 @@
       <c r="AB91" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="92" spans="1:28">
+      <c r="AC91" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="92" spans="1:30">
       <c r="A92" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B92" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C92" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D92" t="n">
         <v>0.38</v>
@@ -8500,16 +9052,22 @@
       <c r="AB92" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="93" spans="1:28">
+      <c r="AC92" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="93" spans="1:30">
       <c r="A93" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B93" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C93" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D93" t="n">
         <v>0.35</v>
@@ -8586,16 +9144,22 @@
       <c r="AB93" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="94" spans="1:28">
+      <c r="AC93" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="94" spans="1:30">
       <c r="A94" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B94" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C94" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D94" t="n">
         <v>0.05</v>
@@ -8672,16 +9236,22 @@
       <c r="AB94" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="95" spans="1:28">
+      <c r="AC94" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:30">
       <c r="A95" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B95" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C95" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D95" t="n">
         <v>0.18</v>
@@ -8758,16 +9328,22 @@
       <c r="AB95" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="96" spans="1:28">
+      <c r="AC95" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:30">
       <c r="A96" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B96" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C96" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D96" t="n">
         <v>0.04</v>
@@ -8844,16 +9420,22 @@
       <c r="AB96" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="97" spans="1:28">
+      <c r="AC96" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:30">
       <c r="A97" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B97" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C97" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D97" t="n">
         <v>0.17</v>
@@ -8930,16 +9512,22 @@
       <c r="AB97" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="98" spans="1:28">
+      <c r="AC97" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:30">
       <c r="A98" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B98" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C98" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D98" t="n">
         <v>0.34</v>
@@ -9016,16 +9604,22 @@
       <c r="AB98" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="99" spans="1:28">
+      <c r="AC98" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:30">
       <c r="A99" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B99" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C99" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D99" t="n">
         <v>0.04</v>
@@ -9102,16 +9696,22 @@
       <c r="AB99" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="100" spans="1:28">
+      <c r="AC99" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:30">
       <c r="A100" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C100" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D100" t="n">
         <v>0.39</v>
@@ -9188,16 +9788,22 @@
       <c r="AB100" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="101" spans="1:28">
+      <c r="AC100" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="101" spans="1:30">
       <c r="A101" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B101" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C101" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D101" t="n">
         <v>0.06</v>
@@ -9274,16 +9880,22 @@
       <c r="AB101" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="102" spans="1:28">
+      <c r="AC101" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="102" spans="1:30">
       <c r="A102" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B102" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C102" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D102" t="n">
         <v>0.25</v>
@@ -9360,16 +9972,22 @@
       <c r="AB102" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="103" spans="1:28">
+      <c r="AC102" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:30">
       <c r="A103" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B103" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C103" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D103" t="n">
         <v>0.3</v>
@@ -9446,16 +10064,22 @@
       <c r="AB103" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="104" spans="1:28">
+      <c r="AC103" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:30">
       <c r="A104" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B104" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C104" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D104" t="n">
         <v>0.03</v>
@@ -9532,16 +10156,22 @@
       <c r="AB104" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="105" spans="1:28">
+      <c r="AC104" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="105" spans="1:30">
       <c r="A105" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B105" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C105" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D105" t="n">
         <v>0.39</v>
@@ -9618,16 +10248,22 @@
       <c r="AB105" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="106" spans="1:28">
+      <c r="AC105" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:30">
       <c r="A106" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B106" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C106" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D106" t="n">
         <v>0.03</v>
@@ -9704,16 +10340,22 @@
       <c r="AB106" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="107" spans="1:28">
+      <c r="AC106" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:30">
       <c r="A107" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B107" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C107" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D107" t="n">
         <v>0.43</v>
@@ -9790,16 +10432,22 @@
       <c r="AB107" t="n">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="108" spans="1:28">
+      <c r="AC107" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="108" spans="1:30">
       <c r="A108" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B108" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C108" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D108" t="n">
         <v>0.33</v>
@@ -9876,16 +10524,22 @@
       <c r="AB108" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="109" spans="1:28">
+      <c r="AC108" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="109" spans="1:30">
       <c r="A109" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B109" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C109" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D109" t="n">
         <v>0.06</v>
@@ -9962,16 +10616,22 @@
       <c r="AB109" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="110" spans="1:28">
+      <c r="AC109" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:30">
       <c r="A110" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B110" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C110" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D110" t="n">
         <v>0.16</v>
@@ -10048,16 +10708,22 @@
       <c r="AB110" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="111" spans="1:28">
+      <c r="AC110" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:30">
       <c r="A111" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B111" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C111" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D111" t="n">
         <v>0.02</v>
@@ -10134,10 +10800,16 @@
       <c r="AB111" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="112" spans="1:28">
+      <c r="AC111" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="112" spans="1:30">
       <c r="A112" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -10151,7 +10823,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA24"/>
+  <dimension ref="A1:AC24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10159,7 +10831,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:29">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10241,13 +10913,19 @@
       <c r="AA1" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" t="n">
         <v>2404</v>
@@ -10324,13 +11002,19 @@
       <c r="AA2" t="n">
         <v>1840</v>
       </c>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AB2" t="n">
+        <v>1829</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C3" t="n">
         <v>587</v>
@@ -10407,13 +11091,19 @@
       <c r="AA3" t="n">
         <v>420</v>
       </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AB3" t="n">
+        <v>419</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" t="n">
         <v>874</v>
@@ -10490,13 +11180,19 @@
       <c r="AA4" t="n">
         <v>653</v>
       </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AB4" t="n">
+        <v>640</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C5" t="n">
         <v>943</v>
@@ -10573,13 +11269,19 @@
       <c r="AA5" t="n">
         <v>767</v>
       </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AB5" t="n">
+        <v>770</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C6" t="n">
         <v>542</v>
@@ -10656,13 +11358,19 @@
       <c r="AA6" t="n">
         <v>356</v>
       </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AB6" t="n">
+        <v>362</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C7" t="n">
         <v>669</v>
@@ -10739,13 +11447,19 @@
       <c r="AA7" t="n">
         <v>639</v>
       </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AB7" t="n">
+        <v>639</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C8" t="n">
         <v>1193</v>
@@ -10822,13 +11536,19 @@
       <c r="AA8" t="n">
         <v>845</v>
       </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AB8" t="n">
+        <v>828</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C9" t="n">
         <v>10</v>
@@ -10905,13 +11625,19 @@
       <c r="AA9" t="n">
         <v>575</v>
       </c>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AB9" t="n">
+        <v>491</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C10" t="n">
         <v>81</v>
@@ -10988,13 +11714,19 @@
       <c r="AA10" t="n">
         <v>694</v>
       </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="AB10" t="n">
+        <v>653</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C11" t="n">
         <v>2313</v>
@@ -11071,13 +11803,19 @@
       <c r="AA11" t="n">
         <v>571</v>
       </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AB11" t="n">
+        <v>685</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C12" t="n">
         <v>1210</v>
@@ -11154,13 +11892,19 @@
       <c r="AA12" t="n">
         <v>910</v>
       </c>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="AB12" t="n">
+        <v>896</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C13" t="n">
         <v>1194</v>
@@ -11237,13 +11981,19 @@
       <c r="AA13" t="n">
         <v>930</v>
       </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AB13" t="n">
+        <v>933</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C14" t="n">
         <v>1316</v>
@@ -11320,13 +12070,19 @@
       <c r="AA14" t="n">
         <v>974</v>
       </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AB14" t="n">
+        <v>954</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C15" t="n">
         <v>519</v>
@@ -11403,13 +12159,19 @@
       <c r="AA15" t="n">
         <v>404</v>
       </c>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AB15" t="n">
+        <v>411</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C16" t="n">
         <v>279</v>
@@ -11486,13 +12248,19 @@
       <c r="AA16" t="n">
         <v>220</v>
       </c>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="AB16" t="n">
+        <v>224</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C17" t="n">
         <v>290</v>
@@ -11569,13 +12337,19 @@
       <c r="AA17" t="n">
         <v>242</v>
       </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="AB17" t="n">
+        <v>240</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C18" t="n">
         <v>307</v>
@@ -11652,13 +12426,19 @@
       <c r="AA18" t="n">
         <v>218</v>
       </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="AB18" t="n">
+        <v>214</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C19" t="n">
         <v>479</v>
@@ -11735,13 +12515,19 @@
       <c r="AA19" t="n">
         <v>348</v>
       </c>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="AB19" t="n">
+        <v>343</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C20" t="n">
         <v>423</v>
@@ -11818,13 +12604,19 @@
       <c r="AA20" t="n">
         <v>345</v>
       </c>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="AB20" t="n">
+        <v>339</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C21" t="n">
         <v>280</v>
@@ -11901,13 +12693,19 @@
       <c r="AA21" t="n">
         <v>202</v>
       </c>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="AB21" t="n">
+        <v>205</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C22" t="n">
         <v>395</v>
@@ -11984,13 +12782,19 @@
       <c r="AA22" t="n">
         <v>306</v>
       </c>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="AB22" t="n">
+        <v>296</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C23" t="n">
         <v>520</v>
@@ -12067,10 +12871,16 @@
       <c r="AA23" t="n">
         <v>421</v>
       </c>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="AB23" t="n">
+        <v>432</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B24" t="s"/>
       <c r="C24" t="s"/>
@@ -12098,6 +12908,8 @@
       <c r="Y24" t="s"/>
       <c r="Z24" t="s"/>
       <c r="AA24" t="s"/>
+      <c r="AB24" t="s"/>
+      <c r="AC24" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_10_kontakty_aktivity.xlsx
+++ b/ZBP_10_kontakty_aktivity.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
   <si>
     <t>trideni</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>4. 5. 2021</t>
+  </si>
+  <si>
+    <t>25. 5. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -209,10 +212,10 @@
     <t>Žena, 55 a více let</t>
   </si>
   <si>
-    <t>Život během pandemie, Kontakty vs. protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 11. 5. 2021</t>
+    <t>Život během pandemie, Kontakty vs. protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 1. 6. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Kontakty vs. protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 11. 5. 2021</t>
+    <t>Život během pandemie, Kontakty vs. protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 6. 2021</t>
   </si>
 </sst>
 </file>
@@ -587,7 +590,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD112"/>
+  <dimension ref="A1:AE112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,7 +598,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -686,16 +689,19 @@
       <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:30">
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
         <v>0.26</v>
@@ -778,16 +784,19 @@
       <c r="AD2" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="3" spans="1:30">
+      <c r="AE2" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
         <v>0.31</v>
@@ -870,16 +879,19 @@
       <c r="AD3" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="4" spans="1:30">
+      <c r="AE3" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
         <v>0.05</v>
@@ -957,21 +969,24 @@
         <v>0.16</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="AD4" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="5" spans="1:30">
+      <c r="AE4" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" t="n">
         <v>0.32</v>
@@ -1054,16 +1069,19 @@
       <c r="AD5" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="6" spans="1:30">
+      <c r="AE5" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" t="n">
         <v>0.06</v>
@@ -1141,21 +1159,24 @@
         <v>0.14</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="AD6" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:30">
+      <c r="AE6" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" t="n">
         <v>0.14</v>
@@ -1238,16 +1259,19 @@
       <c r="AD7" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="8" spans="1:30">
+      <c r="AE7" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" t="n">
         <v>0.33</v>
@@ -1330,16 +1354,19 @@
       <c r="AD8" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="9" spans="1:30">
+      <c r="AE8" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" t="n">
         <v>0.06</v>
@@ -1422,16 +1449,19 @@
       <c r="AD9" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="10" spans="1:30">
+      <c r="AE9" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" t="n">
         <v>0.41</v>
@@ -1514,16 +1544,19 @@
       <c r="AD10" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="11" spans="1:30">
+      <c r="AE10" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
       <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
         <v>37</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
       </c>
       <c r="D11" t="n">
         <v>0.06</v>
@@ -1606,16 +1639,19 @@
       <c r="AD11" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="12" spans="1:30">
+      <c r="AE11" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" t="n">
         <v>0.19</v>
@@ -1698,16 +1734,19 @@
       <c r="AD12" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="13" spans="1:30">
+      <c r="AE12" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" t="n">
         <v>0.27</v>
@@ -1790,16 +1829,19 @@
       <c r="AD13" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="14" spans="1:30">
+      <c r="AE13" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" t="n">
         <v>0.03</v>
@@ -1882,16 +1924,19 @@
       <c r="AD14" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="15" spans="1:30">
+      <c r="AE14" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" t="n">
         <v>0.42</v>
@@ -1974,16 +2019,19 @@
       <c r="AD15" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="16" spans="1:30">
+      <c r="AE15" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
       <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
         <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
       </c>
       <c r="D16" t="n">
         <v>0.09</v>
@@ -2066,16 +2114,19 @@
       <c r="AD16" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="17" spans="1:30">
+      <c r="AE16" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D17" t="n">
         <v>0.41</v>
@@ -2158,16 +2209,19 @@
       <c r="AD17" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="18" spans="1:30">
+      <c r="AE17" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D18" t="n">
         <v>0.34</v>
@@ -2250,16 +2304,19 @@
       <c r="AD18" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="19" spans="1:30">
+      <c r="AE18" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D19" t="n">
         <v>0.06</v>
@@ -2342,16 +2399,19 @@
       <c r="AD19" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="20" spans="1:30">
+      <c r="AE19" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D20" t="n">
         <v>0.17</v>
@@ -2434,16 +2494,19 @@
       <c r="AD20" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="21" spans="1:30">
+      <c r="AE20" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31">
       <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
         <v>37</v>
-      </c>
-      <c r="B21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" t="s">
-        <v>36</v>
       </c>
       <c r="D21" t="n">
         <v>0.02</v>
@@ -2526,16 +2589,19 @@
       <c r="AD21" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="22" spans="1:30">
+      <c r="AE21" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D22" t="n">
         <v>0.27</v>
@@ -2618,16 +2684,19 @@
       <c r="AD22" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="23" spans="1:30">
+      <c r="AE22" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D23" t="n">
         <v>0.3</v>
@@ -2710,16 +2779,19 @@
       <c r="AD23" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="24" spans="1:30">
+      <c r="AE23" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D24" t="n">
         <v>0.07000000000000001</v>
@@ -2802,16 +2874,19 @@
       <c r="AD24" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="25" spans="1:30">
+      <c r="AE24" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D25" t="n">
         <v>0.25</v>
@@ -2894,16 +2969,19 @@
       <c r="AD25" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="26" spans="1:30">
+      <c r="AE25" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D26" t="n">
         <v>0.11</v>
@@ -2986,16 +3064,19 @@
       <c r="AD26" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="27" spans="1:30">
+      <c r="AE26" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D27" t="n">
         <v>0.24</v>
@@ -3076,18 +3157,21 @@
         <v>0.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30">
+        <v>0.24</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D28" t="n">
         <v>0.3</v>
@@ -3165,21 +3249,24 @@
         <v>0.23</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="AD28" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="29" spans="1:30">
+      <c r="AE28" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D29" t="n">
         <v>0.05</v>
@@ -3262,16 +3349,19 @@
       <c r="AD29" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="30" spans="1:30">
+      <c r="AE29" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D30" t="n">
         <v>0.35</v>
@@ -3354,16 +3444,19 @@
       <c r="AD30" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="31" spans="1:30">
+      <c r="AE30" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D31" t="n">
         <v>0.06</v>
@@ -3441,21 +3534,24 @@
         <v>0.16</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30">
+        <v>0.17</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D32" t="n">
         <v>0.27</v>
@@ -3538,16 +3634,19 @@
       <c r="AD32" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="33" spans="1:30">
+      <c r="AE32" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D33" t="n">
         <v>0.33</v>
@@ -3630,16 +3729,19 @@
       <c r="AD33" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="34" spans="1:30">
+      <c r="AE33" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D34" t="n">
         <v>0.04</v>
@@ -3722,16 +3824,19 @@
       <c r="AD34" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="35" spans="1:30">
+      <c r="AE34" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D35" t="n">
         <v>0.33</v>
@@ -3814,16 +3919,19 @@
       <c r="AD35" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="36" spans="1:30">
+      <c r="AE35" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D36" t="n">
         <v>0.03</v>
@@ -3906,16 +4014,19 @@
       <c r="AD36" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="37" spans="1:30">
+      <c r="AE36" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D37" t="n">
         <v>0.03</v>
@@ -3998,16 +4109,19 @@
       <c r="AD37" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="38" spans="1:30">
+      <c r="AE37" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D38" t="n">
         <v>0.52</v>
@@ -4090,16 +4204,19 @@
       <c r="AD38" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="39" spans="1:30">
+      <c r="AE38" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D39" t="n">
         <v>0.03</v>
@@ -4182,16 +4299,19 @@
       <c r="AD39" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="40" spans="1:30">
+      <c r="AE39" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D40" t="n">
         <v>0.34</v>
@@ -4274,16 +4394,19 @@
       <c r="AD40" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="41" spans="1:30">
+      <c r="AE40" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D41" t="n">
         <v>0.08</v>
@@ -4366,16 +4489,19 @@
       <c r="AD41" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="42" spans="1:30">
+      <c r="AE41" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D42" t="n">
         <v>0.14</v>
@@ -4458,16 +4584,19 @@
       <c r="AD42" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="43" spans="1:30">
+      <c r="AE42" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D43" t="n">
         <v>0.46</v>
@@ -4550,16 +4679,19 @@
       <c r="AD43" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="44" spans="1:30">
+      <c r="AE43" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D44" t="n">
         <v>0.02</v>
@@ -4642,16 +4774,19 @@
       <c r="AD44" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="45" spans="1:30">
+      <c r="AE44" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D45" t="n">
         <v>0.29</v>
@@ -4734,16 +4869,19 @@
       <c r="AD45" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="46" spans="1:30">
+      <c r="AE45" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D46" t="n">
         <v>0.09</v>
@@ -4826,16 +4964,19 @@
       <c r="AD46" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="47" spans="1:30">
+      <c r="AE46" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D47" t="n">
         <v>0.27</v>
@@ -4918,16 +5059,19 @@
       <c r="AD47" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="48" spans="1:30">
+      <c r="AE47" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D48" t="n">
         <v>0.31</v>
@@ -5010,16 +5154,19 @@
       <c r="AD48" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="49" spans="1:30">
+      <c r="AE48" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D49" t="n">
         <v>0.05</v>
@@ -5102,16 +5249,19 @@
       <c r="AD49" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="50" spans="1:30">
+      <c r="AE49" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D50" t="n">
         <v>0.32</v>
@@ -5194,16 +5344,19 @@
       <c r="AD50" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="51" spans="1:30">
+      <c r="AE50" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D51" t="n">
         <v>0.05</v>
@@ -5286,16 +5439,19 @@
       <c r="AD51" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="52" spans="1:30">
+      <c r="AE51" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D52" t="n">
         <v>0.22</v>
@@ -5378,16 +5534,19 @@
       <c r="AD52" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="53" spans="1:30">
+      <c r="AE52" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D53" t="n">
         <v>0.3</v>
@@ -5470,16 +5629,19 @@
       <c r="AD53" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="54" spans="1:30">
+      <c r="AE53" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D54" t="n">
         <v>0.05</v>
@@ -5562,16 +5724,19 @@
       <c r="AD54" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="55" spans="1:30">
+      <c r="AE54" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D55" t="n">
         <v>0.34</v>
@@ -5654,16 +5819,19 @@
       <c r="AD55" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="56" spans="1:30">
+      <c r="AE55" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31">
       <c r="A56" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B56" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C56" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D56" t="n">
         <v>0.09</v>
@@ -5746,16 +5914,19 @@
       <c r="AD56" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="57" spans="1:30">
+      <c r="AE56" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31">
       <c r="A57" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B57" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D57" t="n">
         <v>0.31</v>
@@ -5838,16 +6009,19 @@
       <c r="AD57" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="58" spans="1:30">
+      <c r="AE57" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31">
       <c r="A58" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B58" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C58" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D58" t="n">
         <v>0.32</v>
@@ -5930,16 +6104,19 @@
       <c r="AD58" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="59" spans="1:30">
+      <c r="AE58" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31">
       <c r="A59" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B59" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D59" t="n">
         <v>0.05</v>
@@ -6022,16 +6199,19 @@
       <c r="AD59" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="60" spans="1:30">
+      <c r="AE59" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31">
       <c r="A60" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B60" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C60" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D60" t="n">
         <v>0.29</v>
@@ -6114,16 +6294,19 @@
       <c r="AD60" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="61" spans="1:30">
+      <c r="AE60" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31">
       <c r="A61" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B61" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C61" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D61" t="n">
         <v>0.03</v>
@@ -6206,16 +6389,19 @@
       <c r="AD61" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="62" spans="1:30">
+      <c r="AE61" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31">
       <c r="A62" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C62" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D62" t="n">
         <v>0.25</v>
@@ -6298,16 +6484,19 @@
       <c r="AD62" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="63" spans="1:30">
+      <c r="AE62" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31">
       <c r="A63" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C63" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D63" t="n">
         <v>0.31</v>
@@ -6390,16 +6579,19 @@
       <c r="AD63" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="64" spans="1:30">
+      <c r="AE63" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31">
       <c r="A64" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D64" t="n">
         <v>0.05</v>
@@ -6482,16 +6674,19 @@
       <c r="AD64" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="65" spans="1:30">
+      <c r="AE64" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31">
       <c r="A65" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C65" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D65" t="n">
         <v>0.32</v>
@@ -6574,16 +6769,19 @@
       <c r="AD65" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="66" spans="1:30">
+      <c r="AE65" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:31">
       <c r="A66" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C66" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D66" t="n">
         <v>0.07000000000000001</v>
@@ -6666,16 +6864,19 @@
       <c r="AD66" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="67" spans="1:30">
+      <c r="AE66" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:31">
       <c r="A67" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B67" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C67" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D67" t="n">
         <v>0.28</v>
@@ -6753,21 +6954,24 @@
         <v>0.35</v>
       </c>
       <c r="AC67" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="AD67" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="68" spans="1:30">
+      <c r="AE67" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:31">
       <c r="A68" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B68" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C68" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D68" t="n">
         <v>0.3</v>
@@ -6850,16 +7054,19 @@
       <c r="AD68" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="69" spans="1:30">
+      <c r="AE68" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:31">
       <c r="A69" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B69" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D69" t="n">
         <v>0.03</v>
@@ -6940,18 +7147,21 @@
         <v>0.17</v>
       </c>
       <c r="AD69" t="n">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="70" spans="1:30">
+        <v>0.18</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:31">
       <c r="A70" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B70" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C70" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D70" t="n">
         <v>0.33</v>
@@ -7034,16 +7244,19 @@
       <c r="AD70" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="71" spans="1:30">
+      <c r="AE70" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:31">
       <c r="A71" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B71" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C71" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D71" t="n">
         <v>0.06</v>
@@ -7121,21 +7334,24 @@
         <v>0.15</v>
       </c>
       <c r="AC71" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AD71" t="n">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="72" spans="1:30">
+        <v>0.18</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:31">
       <c r="A72" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B72" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C72" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D72" t="n">
         <v>0.29</v>
@@ -7218,16 +7434,19 @@
       <c r="AD72" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="73" spans="1:30">
+      <c r="AE72" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31">
       <c r="A73" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B73" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C73" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D73" t="n">
         <v>0.3</v>
@@ -7310,16 +7529,19 @@
       <c r="AD73" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="74" spans="1:30">
+      <c r="AE73" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:31">
       <c r="A74" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B74" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D74" t="n">
         <v>0.04</v>
@@ -7402,16 +7624,19 @@
       <c r="AD74" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="75" spans="1:30">
+      <c r="AE74" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31">
       <c r="A75" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B75" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D75" t="n">
         <v>0.29</v>
@@ -7492,18 +7717,21 @@
         <v>0.14</v>
       </c>
       <c r="AD75" t="n">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="76" spans="1:30">
+        <v>0.2</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:31">
       <c r="A76" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B76" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C76" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D76" t="n">
         <v>0.08</v>
@@ -7584,18 +7812,21 @@
         <v>0.15</v>
       </c>
       <c r="AD76" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:30">
+        <v>0.19</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:31">
       <c r="A77" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B77" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C77" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D77" t="n">
         <v>0.27</v>
@@ -7678,16 +7909,19 @@
       <c r="AD77" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="78" spans="1:30">
+      <c r="AE77" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:31">
       <c r="A78" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B78" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C78" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D78" t="n">
         <v>0.33</v>
@@ -7770,16 +8004,19 @@
       <c r="AD78" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="79" spans="1:30">
+      <c r="AE78" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:31">
       <c r="A79" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B79" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D79" t="n">
         <v>0.04</v>
@@ -7862,16 +8099,19 @@
       <c r="AD79" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="80" spans="1:30">
+      <c r="AE79" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:31">
       <c r="A80" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B80" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C80" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D80" t="n">
         <v>0.3</v>
@@ -7954,16 +8194,19 @@
       <c r="AD80" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="81" spans="1:30">
+      <c r="AE80" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:31">
       <c r="A81" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B81" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C81" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D81" t="n">
         <v>0.06</v>
@@ -8046,16 +8289,19 @@
       <c r="AD81" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="82" spans="1:30">
+      <c r="AE81" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="82" spans="1:31">
       <c r="A82" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B82" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D82" t="n">
         <v>0.11</v>
@@ -8138,16 +8384,19 @@
       <c r="AD82" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="83" spans="1:30">
+      <c r="AE82" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:31">
       <c r="A83" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B83" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C83" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D83" t="n">
         <v>0.32</v>
@@ -8230,16 +8479,19 @@
       <c r="AD83" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="84" spans="1:30">
+      <c r="AE83" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:31">
       <c r="A84" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B84" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D84" t="n">
         <v>0.07000000000000001</v>
@@ -8322,16 +8574,19 @@
       <c r="AD84" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="85" spans="1:30">
+      <c r="AE84" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="85" spans="1:31">
       <c r="A85" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B85" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D85" t="n">
         <v>0.42</v>
@@ -8414,16 +8669,19 @@
       <c r="AD85" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="86" spans="1:30">
+      <c r="AE85" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:31">
       <c r="A86" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B86" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C86" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D86" t="n">
         <v>0.08</v>
@@ -8506,16 +8764,19 @@
       <c r="AD86" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="87" spans="1:30">
+      <c r="AE86" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="87" spans="1:31">
       <c r="A87" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B87" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C87" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D87" t="n">
         <v>0.14</v>
@@ -8598,16 +8859,19 @@
       <c r="AD87" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="88" spans="1:30">
+      <c r="AE87" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:31">
       <c r="A88" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B88" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C88" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D88" t="n">
         <v>0.25</v>
@@ -8690,16 +8954,19 @@
       <c r="AD88" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="89" spans="1:30">
+      <c r="AE88" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:31">
       <c r="A89" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B89" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D89" t="n">
         <v>0.03</v>
@@ -8782,16 +9049,19 @@
       <c r="AD89" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="90" spans="1:30">
+      <c r="AE89" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:31">
       <c r="A90" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B90" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C90" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D90" t="n">
         <v>0.44</v>
@@ -8874,16 +9144,19 @@
       <c r="AD90" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="91" spans="1:30">
+      <c r="AE90" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:31">
       <c r="A91" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B91" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C91" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D91" t="n">
         <v>0.14</v>
@@ -8966,16 +9239,19 @@
       <c r="AD91" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="92" spans="1:30">
+      <c r="AE91" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="92" spans="1:31">
       <c r="A92" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B92" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C92" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D92" t="n">
         <v>0.38</v>
@@ -9058,16 +9334,19 @@
       <c r="AD92" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="93" spans="1:30">
+      <c r="AE92" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="93" spans="1:31">
       <c r="A93" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B93" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C93" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D93" t="n">
         <v>0.35</v>
@@ -9148,18 +9427,21 @@
         <v>0.29</v>
       </c>
       <c r="AD93" t="n">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="94" spans="1:30">
+        <v>0.26</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:31">
       <c r="A94" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B94" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D94" t="n">
         <v>0.05</v>
@@ -9242,16 +9524,19 @@
       <c r="AD94" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="95" spans="1:30">
+      <c r="AE94" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:31">
       <c r="A95" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B95" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C95" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D95" t="n">
         <v>0.18</v>
@@ -9334,16 +9619,19 @@
       <c r="AD95" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="96" spans="1:30">
+      <c r="AE95" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:31">
       <c r="A96" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B96" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C96" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D96" t="n">
         <v>0.04</v>
@@ -9424,18 +9712,21 @@
         <v>0.11</v>
       </c>
       <c r="AD96" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="97" spans="1:30">
+        <v>0.14</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:31">
       <c r="A97" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B97" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C97" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D97" t="n">
         <v>0.17</v>
@@ -9516,18 +9807,21 @@
         <v>0.25</v>
       </c>
       <c r="AD97" t="n">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="98" spans="1:30">
+        <v>0.17</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:31">
       <c r="A98" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B98" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C98" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D98" t="n">
         <v>0.34</v>
@@ -9610,16 +9904,19 @@
       <c r="AD98" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="99" spans="1:30">
+      <c r="AE98" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:31">
       <c r="A99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B99" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C99" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D99" t="n">
         <v>0.04</v>
@@ -9702,16 +9999,19 @@
       <c r="AD99" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="100" spans="1:30">
+      <c r="AE99" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:31">
       <c r="A100" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B100" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C100" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D100" t="n">
         <v>0.39</v>
@@ -9794,16 +10094,19 @@
       <c r="AD100" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="101" spans="1:30">
+      <c r="AE100" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:31">
       <c r="A101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B101" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C101" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D101" t="n">
         <v>0.06</v>
@@ -9884,18 +10187,21 @@
         <v>0.24</v>
       </c>
       <c r="AD101" t="n">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="102" spans="1:30">
+        <v>0.34</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:31">
       <c r="A102" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B102" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C102" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D102" t="n">
         <v>0.25</v>
@@ -9978,16 +10284,19 @@
       <c r="AD102" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="103" spans="1:30">
+      <c r="AE102" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:31">
       <c r="A103" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B103" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C103" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D103" t="n">
         <v>0.3</v>
@@ -10070,16 +10379,19 @@
       <c r="AD103" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="104" spans="1:30">
+      <c r="AE103" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:31">
       <c r="A104" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B104" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C104" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D104" t="n">
         <v>0.03</v>
@@ -10162,16 +10474,19 @@
       <c r="AD104" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="105" spans="1:30">
+      <c r="AE104" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="105" spans="1:31">
       <c r="A105" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B105" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C105" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D105" t="n">
         <v>0.39</v>
@@ -10254,16 +10569,19 @@
       <c r="AD105" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="106" spans="1:30">
+      <c r="AE105" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="106" spans="1:31">
       <c r="A106" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B106" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C106" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D106" t="n">
         <v>0.03</v>
@@ -10346,16 +10664,19 @@
       <c r="AD106" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="107" spans="1:30">
+      <c r="AE106" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="107" spans="1:31">
       <c r="A107" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B107" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D107" t="n">
         <v>0.43</v>
@@ -10438,16 +10759,19 @@
       <c r="AD107" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="108" spans="1:30">
+      <c r="AE107" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="108" spans="1:31">
       <c r="A108" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B108" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C108" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D108" t="n">
         <v>0.33</v>
@@ -10530,16 +10854,19 @@
       <c r="AD108" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="109" spans="1:30">
+      <c r="AE108" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="109" spans="1:31">
       <c r="A109" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B109" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C109" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D109" t="n">
         <v>0.06</v>
@@ -10620,18 +10947,21 @@
         <v>0.12</v>
       </c>
       <c r="AD109" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AE109" t="n">
         <v>0.12</v>
       </c>
     </row>
-    <row r="110" spans="1:30">
+    <row r="110" spans="1:31">
       <c r="A110" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B110" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C110" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D110" t="n">
         <v>0.16</v>
@@ -10714,16 +11044,19 @@
       <c r="AD110" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="111" spans="1:30">
+      <c r="AE110" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:31">
       <c r="A111" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B111" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C111" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D111" t="n">
         <v>0.02</v>
@@ -10804,12 +11137,15 @@
         <v>0.06</v>
       </c>
       <c r="AD111" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="112" spans="1:30">
+        <v>0.08</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:31">
       <c r="A112" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -10823,7 +11159,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC24"/>
+  <dimension ref="A1:AD24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10831,7 +11167,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10919,13 +11255,16 @@
       <c r="AC1" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:29">
+      <c r="AD1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="n">
         <v>2404</v>
@@ -11003,18 +11342,21 @@
         <v>1840</v>
       </c>
       <c r="AB2" t="n">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="AC2" t="n">
-        <v>1820</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29">
+        <v>1818</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" t="n">
         <v>587</v>
@@ -11095,15 +11437,18 @@
         <v>419</v>
       </c>
       <c r="AC3" t="n">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29">
+        <v>412</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" t="n">
         <v>874</v>
@@ -11181,18 +11526,21 @@
         <v>653</v>
       </c>
       <c r="AB4" t="n">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AC4" t="n">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29">
+        <v>652</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" t="n">
         <v>943</v>
@@ -11275,13 +11623,16 @@
       <c r="AC5" t="n">
         <v>754</v>
       </c>
-    </row>
-    <row r="6" spans="1:29">
+      <c r="AD5" t="n">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" t="n">
         <v>542</v>
@@ -11364,13 +11715,16 @@
       <c r="AC6" t="n">
         <v>422</v>
       </c>
-    </row>
-    <row r="7" spans="1:29">
+      <c r="AD6" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" t="n">
         <v>669</v>
@@ -11448,18 +11802,21 @@
         <v>639</v>
       </c>
       <c r="AB7" t="n">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AC7" t="n">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29">
+        <v>710</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" t="n">
         <v>1193</v>
@@ -11540,15 +11897,18 @@
         <v>828</v>
       </c>
       <c r="AC8" t="n">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29">
+        <v>686</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" t="n">
         <v>10</v>
@@ -11629,15 +11989,18 @@
         <v>491</v>
       </c>
       <c r="AC9" t="n">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29">
+        <v>447</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" t="n">
         <v>81</v>
@@ -11715,18 +12078,21 @@
         <v>694</v>
       </c>
       <c r="AB10" t="n">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AC10" t="n">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29">
+        <v>560</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11" t="n">
         <v>2313</v>
@@ -11809,13 +12175,16 @@
       <c r="AC11" t="n">
         <v>811</v>
       </c>
-    </row>
-    <row r="12" spans="1:29">
+      <c r="AD11" t="n">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C12" t="n">
         <v>1210</v>
@@ -11893,18 +12262,21 @@
         <v>910</v>
       </c>
       <c r="AB12" t="n">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="AC12" t="n">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29">
+        <v>891</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" t="n">
         <v>1194</v>
@@ -11985,15 +12357,18 @@
         <v>933</v>
       </c>
       <c r="AC13" t="n">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29">
+        <v>927</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" t="n">
         <v>1316</v>
@@ -12074,15 +12449,18 @@
         <v>954</v>
       </c>
       <c r="AC14" t="n">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29">
+        <v>944</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C15" t="n">
         <v>519</v>
@@ -12160,18 +12538,21 @@
         <v>404</v>
       </c>
       <c r="AB15" t="n">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AC15" t="n">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29">
+        <v>413</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C16" t="n">
         <v>279</v>
@@ -12254,13 +12635,16 @@
       <c r="AC16" t="n">
         <v>218</v>
       </c>
-    </row>
-    <row r="17" spans="1:29">
+      <c r="AD16" t="n">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C17" t="n">
         <v>290</v>
@@ -12343,13 +12727,16 @@
       <c r="AC17" t="n">
         <v>243</v>
       </c>
-    </row>
-    <row r="18" spans="1:29">
+      <c r="AD17" t="n">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C18" t="n">
         <v>307</v>
@@ -12432,13 +12819,16 @@
       <c r="AC18" t="n">
         <v>211</v>
       </c>
-    </row>
-    <row r="19" spans="1:29">
+      <c r="AD18" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C19" t="n">
         <v>479</v>
@@ -12516,18 +12906,21 @@
         <v>348</v>
       </c>
       <c r="AB19" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AC19" t="n">
         <v>344</v>
       </c>
-    </row>
-    <row r="20" spans="1:29">
+      <c r="AD19" t="n">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C20" t="n">
         <v>423</v>
@@ -12610,13 +13003,16 @@
       <c r="AC20" t="n">
         <v>336</v>
       </c>
-    </row>
-    <row r="21" spans="1:29">
+      <c r="AD20" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C21" t="n">
         <v>280</v>
@@ -12699,13 +13095,16 @@
       <c r="AC21" t="n">
         <v>201</v>
       </c>
-    </row>
-    <row r="22" spans="1:29">
+      <c r="AD21" t="n">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C22" t="n">
         <v>395</v>
@@ -12786,15 +13185,18 @@
         <v>296</v>
       </c>
       <c r="AC22" t="n">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29">
+        <v>308</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C23" t="n">
         <v>520</v>
@@ -12875,12 +13277,15 @@
         <v>432</v>
       </c>
       <c r="AC23" t="n">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29">
+        <v>418</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s"/>
       <c r="C24" t="s"/>
@@ -12910,6 +13315,7 @@
       <c r="AA24" t="s"/>
       <c r="AB24" t="s"/>
       <c r="AC24" t="s"/>
+      <c r="AD24" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_10_kontakty_aktivity.xlsx
+++ b/ZBP_10_kontakty_aktivity.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
   <si>
     <t>trideni</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>25. 5. 2021</t>
+  </si>
+  <si>
+    <t>22. 6. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -212,10 +215,10 @@
     <t>Žena, 55 a více let</t>
   </si>
   <si>
-    <t>Život během pandemie, Kontakty vs. protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 1. 6. 2021</t>
+    <t>Život během pandemie, Kontakty vs. protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 28. 6. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Kontakty vs. protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 6. 2021</t>
+    <t>Život během pandemie, Kontakty vs. protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 28. 6. 2021</t>
   </si>
 </sst>
 </file>
@@ -590,7 +593,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE112"/>
+  <dimension ref="A1:AF112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,7 +601,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:32">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -692,16 +695,19 @@
       <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:32">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
         <v>0.26</v>
@@ -787,16 +793,19 @@
       <c r="AE2" t="n">
         <v>0.22</v>
       </c>
+      <c r="AF2" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:32">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
         <v>0.31</v>
@@ -882,16 +891,19 @@
       <c r="AE3" t="n">
         <v>0.2</v>
       </c>
+      <c r="AF3" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:32">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" t="n">
         <v>0.05</v>
@@ -977,16 +989,19 @@
       <c r="AE4" t="n">
         <v>0.18</v>
       </c>
+      <c r="AF4" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:32">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" t="n">
         <v>0.32</v>
@@ -1072,16 +1087,19 @@
       <c r="AE5" t="n">
         <v>0.17</v>
       </c>
+      <c r="AF5" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:32">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" t="n">
         <v>0.06</v>
@@ -1167,16 +1185,19 @@
       <c r="AE6" t="n">
         <v>0.23</v>
       </c>
+      <c r="AF6" t="n">
+        <v>0.32</v>
+      </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:32">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" t="n">
         <v>0.14</v>
@@ -1262,16 +1283,19 @@
       <c r="AE7" t="n">
         <v>0.12</v>
       </c>
+      <c r="AF7" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:32">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" t="n">
         <v>0.33</v>
@@ -1357,16 +1381,19 @@
       <c r="AE8" t="n">
         <v>0.16</v>
       </c>
+      <c r="AF8" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:32">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" t="n">
         <v>0.06</v>
@@ -1452,16 +1479,19 @@
       <c r="AE9" t="n">
         <v>0.22</v>
       </c>
+      <c r="AF9" t="n">
+        <v>0.21</v>
+      </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:32">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" t="n">
         <v>0.41</v>
@@ -1547,16 +1577,19 @@
       <c r="AE10" t="n">
         <v>0.12</v>
       </c>
+      <c r="AF10" t="n">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:32">
       <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
         <v>38</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
       </c>
       <c r="D11" t="n">
         <v>0.06</v>
@@ -1642,16 +1675,19 @@
       <c r="AE11" t="n">
         <v>0.38</v>
       </c>
+      <c r="AF11" t="n">
+        <v>0.48</v>
+      </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:32">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" t="n">
         <v>0.19</v>
@@ -1737,16 +1773,19 @@
       <c r="AE12" t="n">
         <v>0.13</v>
       </c>
+      <c r="AF12" t="n">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:32">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" t="n">
         <v>0.27</v>
@@ -1832,16 +1871,19 @@
       <c r="AE13" t="n">
         <v>0.18</v>
       </c>
+      <c r="AF13" t="n">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:32">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" t="n">
         <v>0.03</v>
@@ -1927,16 +1969,19 @@
       <c r="AE14" t="n">
         <v>0.17</v>
       </c>
+      <c r="AF14" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:32">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D15" t="n">
         <v>0.42</v>
@@ -2022,16 +2067,19 @@
       <c r="AE15" t="n">
         <v>0.23</v>
       </c>
+      <c r="AF15" t="n">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:32">
       <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
         <v>38</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" t="s">
-        <v>37</v>
       </c>
       <c r="D16" t="n">
         <v>0.09</v>
@@ -2117,16 +2165,19 @@
       <c r="AE16" t="n">
         <v>0.29</v>
       </c>
+      <c r="AF16" t="n">
+        <v>0.38</v>
+      </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:32">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D17" t="n">
         <v>0.41</v>
@@ -2212,16 +2263,19 @@
       <c r="AE17" t="n">
         <v>0.34</v>
       </c>
+      <c r="AF17" t="n">
+        <v>0.28</v>
+      </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:32">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D18" t="n">
         <v>0.34</v>
@@ -2307,16 +2361,19 @@
       <c r="AE18" t="n">
         <v>0.23</v>
       </c>
+      <c r="AF18" t="n">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:32">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D19" t="n">
         <v>0.06</v>
@@ -2402,16 +2459,19 @@
       <c r="AE19" t="n">
         <v>0.16</v>
       </c>
+      <c r="AF19" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:32">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D20" t="n">
         <v>0.17</v>
@@ -2497,16 +2557,19 @@
       <c r="AE20" t="n">
         <v>0.14</v>
       </c>
+      <c r="AF20" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:32">
       <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
         <v>38</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" t="s">
-        <v>37</v>
       </c>
       <c r="D21" t="n">
         <v>0.02</v>
@@ -2592,16 +2655,19 @@
       <c r="AE21" t="n">
         <v>0.13</v>
       </c>
+      <c r="AF21" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:32">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D22" t="n">
         <v>0.27</v>
@@ -2687,16 +2753,19 @@
       <c r="AE22" t="n">
         <v>0.16</v>
       </c>
+      <c r="AF22" t="n">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:32">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D23" t="n">
         <v>0.3</v>
@@ -2782,16 +2851,19 @@
       <c r="AE23" t="n">
         <v>0.09</v>
       </c>
+      <c r="AF23" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:32">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D24" t="n">
         <v>0.07000000000000001</v>
@@ -2877,16 +2949,19 @@
       <c r="AE24" t="n">
         <v>0.22</v>
       </c>
+      <c r="AF24" t="n">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:32">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D25" t="n">
         <v>0.25</v>
@@ -2972,16 +3047,19 @@
       <c r="AE25" t="n">
         <v>0.11</v>
       </c>
+      <c r="AF25" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:32">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D26" t="n">
         <v>0.11</v>
@@ -3067,16 +3145,19 @@
       <c r="AE26" t="n">
         <v>0.42</v>
       </c>
+      <c r="AF26" t="n">
+        <v>0.49</v>
+      </c>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:32">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D27" t="n">
         <v>0.24</v>
@@ -3162,16 +3243,19 @@
       <c r="AE27" t="n">
         <v>0.22</v>
       </c>
+      <c r="AF27" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:32">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D28" t="n">
         <v>0.3</v>
@@ -3257,16 +3341,19 @@
       <c r="AE28" t="n">
         <v>0.22</v>
       </c>
+      <c r="AF28" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:32">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D29" t="n">
         <v>0.05</v>
@@ -3352,16 +3439,19 @@
       <c r="AE29" t="n">
         <v>0.19</v>
       </c>
+      <c r="AF29" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:32">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D30" t="n">
         <v>0.35</v>
@@ -3447,16 +3537,19 @@
       <c r="AE30" t="n">
         <v>0.17</v>
       </c>
+      <c r="AF30" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:32">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D31" t="n">
         <v>0.06</v>
@@ -3542,16 +3635,19 @@
       <c r="AE31" t="n">
         <v>0.2</v>
       </c>
+      <c r="AF31" t="n">
+        <v>0.31</v>
+      </c>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32" spans="1:32">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D32" t="n">
         <v>0.27</v>
@@ -3637,16 +3733,19 @@
       <c r="AE32" t="n">
         <v>0.26</v>
       </c>
+      <c r="AF32" t="n">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="33" spans="1:31">
+    <row r="33" spans="1:32">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D33" t="n">
         <v>0.33</v>
@@ -3732,16 +3831,19 @@
       <c r="AE33" t="n">
         <v>0.25</v>
       </c>
+      <c r="AF33" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="34" spans="1:31">
+    <row r="34" spans="1:32">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D34" t="n">
         <v>0.04</v>
@@ -3827,16 +3929,19 @@
       <c r="AE34" t="n">
         <v>0.12</v>
       </c>
+      <c r="AF34" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="35" spans="1:31">
+    <row r="35" spans="1:32">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D35" t="n">
         <v>0.33</v>
@@ -3922,16 +4027,19 @@
       <c r="AE35" t="n">
         <v>0.22</v>
       </c>
+      <c r="AF35" t="n">
+        <v>0.27</v>
+      </c>
     </row>
-    <row r="36" spans="1:31">
+    <row r="36" spans="1:32">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D36" t="n">
         <v>0.03</v>
@@ -4017,16 +4125,19 @@
       <c r="AE36" t="n">
         <v>0.15</v>
       </c>
+      <c r="AF36" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="37" spans="1:31">
+    <row r="37" spans="1:32">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D37" t="n">
         <v>0.03</v>
@@ -4112,16 +4223,19 @@
       <c r="AE37" t="n">
         <v>0.14</v>
       </c>
+      <c r="AF37" t="n">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="38" spans="1:31">
+    <row r="38" spans="1:32">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D38" t="n">
         <v>0.52</v>
@@ -4207,16 +4321,19 @@
       <c r="AE38" t="n">
         <v>0.15</v>
       </c>
+      <c r="AF38" t="n">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="39" spans="1:31">
+    <row r="39" spans="1:32">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D39" t="n">
         <v>0.03</v>
@@ -4302,16 +4419,19 @@
       <c r="AE39" t="n">
         <v>0.15</v>
       </c>
+      <c r="AF39" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="40" spans="1:31">
+    <row r="40" spans="1:32">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D40" t="n">
         <v>0.34</v>
@@ -4397,16 +4517,19 @@
       <c r="AE40" t="n">
         <v>0.22</v>
       </c>
+      <c r="AF40" t="n">
+        <v>0.23</v>
+      </c>
     </row>
-    <row r="41" spans="1:31">
+    <row r="41" spans="1:32">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D41" t="n">
         <v>0.08</v>
@@ -4492,16 +4615,19 @@
       <c r="AE41" t="n">
         <v>0.34</v>
       </c>
+      <c r="AF41" t="n">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="42" spans="1:31">
+    <row r="42" spans="1:32">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D42" t="n">
         <v>0.14</v>
@@ -4587,16 +4713,19 @@
       <c r="AE42" t="n">
         <v>0.21</v>
       </c>
+      <c r="AF42" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="43" spans="1:31">
+    <row r="43" spans="1:32">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D43" t="n">
         <v>0.46</v>
@@ -4682,16 +4811,19 @@
       <c r="AE43" t="n">
         <v>0.24</v>
       </c>
+      <c r="AF43" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="44" spans="1:31">
+    <row r="44" spans="1:32">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D44" t="n">
         <v>0.02</v>
@@ -4777,16 +4909,19 @@
       <c r="AE44" t="n">
         <v>0.16</v>
       </c>
+      <c r="AF44" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="45" spans="1:31">
+    <row r="45" spans="1:32">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D45" t="n">
         <v>0.29</v>
@@ -4872,16 +5007,19 @@
       <c r="AE45" t="n">
         <v>0.16</v>
       </c>
+      <c r="AF45" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="46" spans="1:31">
+    <row r="46" spans="1:32">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D46" t="n">
         <v>0.09</v>
@@ -4967,16 +5105,19 @@
       <c r="AE46" t="n">
         <v>0.23</v>
       </c>
+      <c r="AF46" t="n">
+        <v>0.31</v>
+      </c>
     </row>
-    <row r="47" spans="1:31">
+    <row r="47" spans="1:32">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D47" t="n">
         <v>0.27</v>
@@ -5062,16 +5203,19 @@
       <c r="AE47" t="n">
         <v>0.25</v>
       </c>
+      <c r="AF47" t="n">
+        <v>0.21</v>
+      </c>
     </row>
-    <row r="48" spans="1:31">
+    <row r="48" spans="1:32">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D48" t="n">
         <v>0.31</v>
@@ -5157,16 +5301,19 @@
       <c r="AE48" t="n">
         <v>0.19</v>
       </c>
+      <c r="AF48" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="49" spans="1:31">
+    <row r="49" spans="1:32">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D49" t="n">
         <v>0.05</v>
@@ -5252,16 +5399,19 @@
       <c r="AE49" t="n">
         <v>0.19</v>
       </c>
+      <c r="AF49" t="n">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="50" spans="1:31">
+    <row r="50" spans="1:32">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D50" t="n">
         <v>0.32</v>
@@ -5347,16 +5497,19 @@
       <c r="AE50" t="n">
         <v>0.15</v>
       </c>
+      <c r="AF50" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="51" spans="1:31">
+    <row r="51" spans="1:32">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D51" t="n">
         <v>0.05</v>
@@ -5442,16 +5595,19 @@
       <c r="AE51" t="n">
         <v>0.22</v>
       </c>
+      <c r="AF51" t="n">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="52" spans="1:31">
+    <row r="52" spans="1:32">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D52" t="n">
         <v>0.22</v>
@@ -5537,16 +5693,19 @@
       <c r="AE52" t="n">
         <v>0.19</v>
       </c>
+      <c r="AF52" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="53" spans="1:31">
+    <row r="53" spans="1:32">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D53" t="n">
         <v>0.3</v>
@@ -5632,16 +5791,19 @@
       <c r="AE53" t="n">
         <v>0.18</v>
       </c>
+      <c r="AF53" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="54" spans="1:31">
+    <row r="54" spans="1:32">
       <c r="A54" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D54" t="n">
         <v>0.05</v>
@@ -5727,16 +5889,19 @@
       <c r="AE54" t="n">
         <v>0.2</v>
       </c>
+      <c r="AF54" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="55" spans="1:31">
+    <row r="55" spans="1:32">
       <c r="A55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C55" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D55" t="n">
         <v>0.34</v>
@@ -5822,16 +5987,19 @@
       <c r="AE55" t="n">
         <v>0.17</v>
       </c>
+      <c r="AF55" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="56" spans="1:31">
+    <row r="56" spans="1:32">
       <c r="A56" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B56" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D56" t="n">
         <v>0.09</v>
@@ -5917,16 +6085,19 @@
       <c r="AE56" t="n">
         <v>0.26</v>
       </c>
+      <c r="AF56" t="n">
+        <v>0.36</v>
+      </c>
     </row>
-    <row r="57" spans="1:31">
+    <row r="57" spans="1:32">
       <c r="A57" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C57" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D57" t="n">
         <v>0.31</v>
@@ -6012,16 +6183,19 @@
       <c r="AE57" t="n">
         <v>0.24</v>
       </c>
+      <c r="AF57" t="n">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="58" spans="1:31">
+    <row r="58" spans="1:32">
       <c r="A58" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D58" t="n">
         <v>0.32</v>
@@ -6107,16 +6281,19 @@
       <c r="AE58" t="n">
         <v>0.21</v>
       </c>
+      <c r="AF58" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="59" spans="1:31">
+    <row r="59" spans="1:32">
       <c r="A59" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B59" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D59" t="n">
         <v>0.05</v>
@@ -6202,16 +6379,19 @@
       <c r="AE59" t="n">
         <v>0.15</v>
       </c>
+      <c r="AF59" t="n">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="60" spans="1:31">
+    <row r="60" spans="1:32">
       <c r="A60" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B60" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C60" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D60" t="n">
         <v>0.29</v>
@@ -6297,16 +6477,19 @@
       <c r="AE60" t="n">
         <v>0.17</v>
       </c>
+      <c r="AF60" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="61" spans="1:31">
+    <row r="61" spans="1:32">
       <c r="A61" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B61" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C61" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D61" t="n">
         <v>0.03</v>
@@ -6392,16 +6575,19 @@
       <c r="AE61" t="n">
         <v>0.23</v>
       </c>
+      <c r="AF61" t="n">
+        <v>0.28</v>
+      </c>
     </row>
-    <row r="62" spans="1:31">
+    <row r="62" spans="1:32">
       <c r="A62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C62" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D62" t="n">
         <v>0.25</v>
@@ -6487,16 +6673,19 @@
       <c r="AE62" t="n">
         <v>0.22</v>
       </c>
+      <c r="AF62" t="n">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="63" spans="1:31">
+    <row r="63" spans="1:32">
       <c r="A63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B63" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D63" t="n">
         <v>0.31</v>
@@ -6582,16 +6771,19 @@
       <c r="AE63" t="n">
         <v>0.18</v>
       </c>
+      <c r="AF63" t="n">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="64" spans="1:31">
+    <row r="64" spans="1:32">
       <c r="A64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B64" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D64" t="n">
         <v>0.05</v>
@@ -6677,16 +6869,19 @@
       <c r="AE64" t="n">
         <v>0.18</v>
       </c>
+      <c r="AF64" t="n">
+        <v>0.21</v>
+      </c>
     </row>
-    <row r="65" spans="1:31">
+    <row r="65" spans="1:32">
       <c r="A65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B65" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C65" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D65" t="n">
         <v>0.32</v>
@@ -6772,16 +6967,19 @@
       <c r="AE65" t="n">
         <v>0.17</v>
       </c>
+      <c r="AF65" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="66" spans="1:31">
+    <row r="66" spans="1:32">
       <c r="A66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B66" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C66" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D66" t="n">
         <v>0.07000000000000001</v>
@@ -6867,16 +7065,19 @@
       <c r="AE66" t="n">
         <v>0.25</v>
       </c>
+      <c r="AF66" t="n">
+        <v>0.32</v>
+      </c>
     </row>
-    <row r="67" spans="1:31">
+    <row r="67" spans="1:32">
       <c r="A67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B67" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C67" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D67" t="n">
         <v>0.28</v>
@@ -6962,16 +7163,19 @@
       <c r="AE67" t="n">
         <v>0.21</v>
       </c>
+      <c r="AF67" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="68" spans="1:31">
+    <row r="68" spans="1:32">
       <c r="A68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B68" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D68" t="n">
         <v>0.3</v>
@@ -7057,16 +7261,19 @@
       <c r="AE68" t="n">
         <v>0.22</v>
       </c>
+      <c r="AF68" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="69" spans="1:31">
+    <row r="69" spans="1:32">
       <c r="A69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B69" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C69" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D69" t="n">
         <v>0.03</v>
@@ -7152,16 +7359,19 @@
       <c r="AE69" t="n">
         <v>0.16</v>
       </c>
+      <c r="AF69" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="70" spans="1:31">
+    <row r="70" spans="1:32">
       <c r="A70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B70" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C70" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D70" t="n">
         <v>0.33</v>
@@ -7247,16 +7457,19 @@
       <c r="AE70" t="n">
         <v>0.16</v>
       </c>
+      <c r="AF70" t="n">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="71" spans="1:31">
+    <row r="71" spans="1:32">
       <c r="A71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B71" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C71" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D71" t="n">
         <v>0.06</v>
@@ -7342,16 +7555,19 @@
       <c r="AE71" t="n">
         <v>0.25</v>
       </c>
+      <c r="AF71" t="n">
+        <v>0.34</v>
+      </c>
     </row>
-    <row r="72" spans="1:31">
+    <row r="72" spans="1:32">
       <c r="A72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B72" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C72" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D72" t="n">
         <v>0.29</v>
@@ -7437,16 +7653,19 @@
       <c r="AE72" t="n">
         <v>0.2</v>
       </c>
+      <c r="AF72" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="73" spans="1:31">
+    <row r="73" spans="1:32">
       <c r="A73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B73" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D73" t="n">
         <v>0.3</v>
@@ -7532,16 +7751,19 @@
       <c r="AE73" t="n">
         <v>0.19</v>
       </c>
+      <c r="AF73" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="74" spans="1:31">
+    <row r="74" spans="1:32">
       <c r="A74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D74" t="n">
         <v>0.04</v>
@@ -7627,16 +7849,19 @@
       <c r="AE74" t="n">
         <v>0.16</v>
       </c>
+      <c r="AF74" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="75" spans="1:31">
+    <row r="75" spans="1:32">
       <c r="A75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B75" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C75" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D75" t="n">
         <v>0.29</v>
@@ -7722,16 +7947,19 @@
       <c r="AE75" t="n">
         <v>0.2</v>
       </c>
+      <c r="AF75" t="n">
+        <v>0.22</v>
+      </c>
     </row>
-    <row r="76" spans="1:31">
+    <row r="76" spans="1:32">
       <c r="A76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B76" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C76" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D76" t="n">
         <v>0.08</v>
@@ -7817,16 +8045,19 @@
       <c r="AE76" t="n">
         <v>0.25</v>
       </c>
+      <c r="AF76" t="n">
+        <v>0.31</v>
+      </c>
     </row>
-    <row r="77" spans="1:31">
+    <row r="77" spans="1:32">
       <c r="A77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B77" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C77" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D77" t="n">
         <v>0.27</v>
@@ -7912,16 +8143,19 @@
       <c r="AE77" t="n">
         <v>0.23</v>
       </c>
+      <c r="AF77" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="78" spans="1:31">
+    <row r="78" spans="1:32">
       <c r="A78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D78" t="n">
         <v>0.33</v>
@@ -8007,16 +8241,19 @@
       <c r="AE78" t="n">
         <v>0.21</v>
       </c>
+      <c r="AF78" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="79" spans="1:31">
+    <row r="79" spans="1:32">
       <c r="A79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B79" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D79" t="n">
         <v>0.04</v>
@@ -8102,16 +8339,19 @@
       <c r="AE79" t="n">
         <v>0.19</v>
       </c>
+      <c r="AF79" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="80" spans="1:31">
+    <row r="80" spans="1:32">
       <c r="A80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B80" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C80" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D80" t="n">
         <v>0.3</v>
@@ -8197,16 +8437,19 @@
       <c r="AE80" t="n">
         <v>0.16</v>
       </c>
+      <c r="AF80" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="81" spans="1:31">
+    <row r="81" spans="1:32">
       <c r="A81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B81" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C81" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D81" t="n">
         <v>0.06</v>
@@ -8292,16 +8535,19 @@
       <c r="AE81" t="n">
         <v>0.21</v>
       </c>
+      <c r="AF81" t="n">
+        <v>0.29</v>
+      </c>
     </row>
-    <row r="82" spans="1:31">
+    <row r="82" spans="1:32">
       <c r="A82" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B82" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C82" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D82" t="n">
         <v>0.11</v>
@@ -8387,16 +8633,19 @@
       <c r="AE82" t="n">
         <v>0.1</v>
       </c>
+      <c r="AF82" t="n">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="83" spans="1:31">
+    <row r="83" spans="1:32">
       <c r="A83" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B83" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D83" t="n">
         <v>0.32</v>
@@ -8482,16 +8731,19 @@
       <c r="AE83" t="n">
         <v>0.12</v>
       </c>
+      <c r="AF83" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="84" spans="1:31">
+    <row r="84" spans="1:32">
       <c r="A84" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B84" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C84" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D84" t="n">
         <v>0.07000000000000001</v>
@@ -8577,16 +8829,19 @@
       <c r="AE84" t="n">
         <v>0.28</v>
       </c>
+      <c r="AF84" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="85" spans="1:31">
+    <row r="85" spans="1:32">
       <c r="A85" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B85" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C85" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D85" t="n">
         <v>0.42</v>
@@ -8672,16 +8927,19 @@
       <c r="AE85" t="n">
         <v>0.11</v>
       </c>
+      <c r="AF85" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="86" spans="1:31">
+    <row r="86" spans="1:32">
       <c r="A86" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B86" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C86" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D86" t="n">
         <v>0.08</v>
@@ -8767,16 +9025,19 @@
       <c r="AE86" t="n">
         <v>0.39</v>
       </c>
+      <c r="AF86" t="n">
+        <v>0.48</v>
+      </c>
     </row>
-    <row r="87" spans="1:31">
+    <row r="87" spans="1:32">
       <c r="A87" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B87" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C87" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D87" t="n">
         <v>0.14</v>
@@ -8862,16 +9123,19 @@
       <c r="AE87" t="n">
         <v>0.12</v>
       </c>
+      <c r="AF87" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="88" spans="1:31">
+    <row r="88" spans="1:32">
       <c r="A88" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B88" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D88" t="n">
         <v>0.25</v>
@@ -8957,16 +9221,19 @@
       <c r="AE88" t="n">
         <v>0.15</v>
       </c>
+      <c r="AF88" t="n">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="89" spans="1:31">
+    <row r="89" spans="1:32">
       <c r="A89" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B89" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C89" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D89" t="n">
         <v>0.03</v>
@@ -9052,16 +9319,19 @@
       <c r="AE89" t="n">
         <v>0.15</v>
       </c>
+      <c r="AF89" t="n">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="90" spans="1:31">
+    <row r="90" spans="1:32">
       <c r="A90" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B90" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C90" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D90" t="n">
         <v>0.44</v>
@@ -9147,16 +9417,19 @@
       <c r="AE90" t="n">
         <v>0.24</v>
       </c>
+      <c r="AF90" t="n">
+        <v>0.21</v>
+      </c>
     </row>
-    <row r="91" spans="1:31">
+    <row r="91" spans="1:32">
       <c r="A91" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B91" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C91" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D91" t="n">
         <v>0.14</v>
@@ -9242,16 +9515,19 @@
       <c r="AE91" t="n">
         <v>0.34</v>
       </c>
+      <c r="AF91" t="n">
+        <v>0.43</v>
+      </c>
     </row>
-    <row r="92" spans="1:31">
+    <row r="92" spans="1:32">
       <c r="A92" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B92" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C92" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D92" t="n">
         <v>0.38</v>
@@ -9337,16 +9613,19 @@
       <c r="AE92" t="n">
         <v>0.31</v>
       </c>
+      <c r="AF92" t="n">
+        <v>0.26</v>
+      </c>
     </row>
-    <row r="93" spans="1:31">
+    <row r="93" spans="1:32">
       <c r="A93" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B93" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C93" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D93" t="n">
         <v>0.35</v>
@@ -9432,16 +9711,19 @@
       <c r="AE93" t="n">
         <v>0.24</v>
       </c>
+      <c r="AF93" t="n">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="94" spans="1:31">
+    <row r="94" spans="1:32">
       <c r="A94" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B94" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C94" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D94" t="n">
         <v>0.05</v>
@@ -9527,16 +9809,19 @@
       <c r="AE94" t="n">
         <v>0.2</v>
       </c>
+      <c r="AF94" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="95" spans="1:31">
+    <row r="95" spans="1:32">
       <c r="A95" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B95" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C95" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D95" t="n">
         <v>0.18</v>
@@ -9622,16 +9907,19 @@
       <c r="AE95" t="n">
         <v>0.13</v>
       </c>
+      <c r="AF95" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="96" spans="1:31">
+    <row r="96" spans="1:32">
       <c r="A96" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B96" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C96" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D96" t="n">
         <v>0.04</v>
@@ -9717,16 +10005,19 @@
       <c r="AE96" t="n">
         <v>0.12</v>
       </c>
+      <c r="AF96" t="n">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="97" spans="1:31">
+    <row r="97" spans="1:32">
       <c r="A97" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B97" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C97" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D97" t="n">
         <v>0.17</v>
@@ -9812,16 +10103,19 @@
       <c r="AE97" t="n">
         <v>0.13</v>
       </c>
+      <c r="AF97" t="n">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="98" spans="1:31">
+    <row r="98" spans="1:32">
       <c r="A98" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B98" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D98" t="n">
         <v>0.34</v>
@@ -9907,16 +10201,19 @@
       <c r="AE98" t="n">
         <v>0.19</v>
       </c>
+      <c r="AF98" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="99" spans="1:31">
+    <row r="99" spans="1:32">
       <c r="A99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B99" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C99" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D99" t="n">
         <v>0.04</v>
@@ -10002,16 +10299,19 @@
       <c r="AE99" t="n">
         <v>0.15</v>
       </c>
+      <c r="AF99" t="n">
+        <v>0.23</v>
+      </c>
     </row>
-    <row r="100" spans="1:31">
+    <row r="100" spans="1:32">
       <c r="A100" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B100" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C100" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D100" t="n">
         <v>0.39</v>
@@ -10097,16 +10397,19 @@
       <c r="AE100" t="n">
         <v>0.13</v>
       </c>
+      <c r="AF100" t="n">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="101" spans="1:31">
+    <row r="101" spans="1:32">
       <c r="A101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B101" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C101" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D101" t="n">
         <v>0.06</v>
@@ -10192,16 +10495,19 @@
       <c r="AE101" t="n">
         <v>0.4</v>
       </c>
+      <c r="AF101" t="n">
+        <v>0.48</v>
+      </c>
     </row>
-    <row r="102" spans="1:31">
+    <row r="102" spans="1:32">
       <c r="A102" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B102" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C102" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D102" t="n">
         <v>0.25</v>
@@ -10287,16 +10593,19 @@
       <c r="AE102" t="n">
         <v>0.14</v>
       </c>
+      <c r="AF102" t="n">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="103" spans="1:31">
+    <row r="103" spans="1:32">
       <c r="A103" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B103" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C103" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D103" t="n">
         <v>0.3</v>
@@ -10382,16 +10691,19 @@
       <c r="AE103" t="n">
         <v>0.2</v>
       </c>
+      <c r="AF103" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="104" spans="1:31">
+    <row r="104" spans="1:32">
       <c r="A104" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B104" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C104" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D104" t="n">
         <v>0.03</v>
@@ -10477,16 +10789,19 @@
       <c r="AE104" t="n">
         <v>0.18</v>
       </c>
+      <c r="AF104" t="n">
+        <v>0.23</v>
+      </c>
     </row>
-    <row r="105" spans="1:31">
+    <row r="105" spans="1:32">
       <c r="A105" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B105" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C105" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D105" t="n">
         <v>0.39</v>
@@ -10572,16 +10887,19 @@
       <c r="AE105" t="n">
         <v>0.21</v>
       </c>
+      <c r="AF105" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="106" spans="1:31">
+    <row r="106" spans="1:32">
       <c r="A106" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B106" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C106" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D106" t="n">
         <v>0.03</v>
@@ -10667,16 +10985,19 @@
       <c r="AE106" t="n">
         <v>0.27</v>
       </c>
+      <c r="AF106" t="n">
+        <v>0.35</v>
+      </c>
     </row>
-    <row r="107" spans="1:31">
+    <row r="107" spans="1:32">
       <c r="A107" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B107" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C107" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D107" t="n">
         <v>0.43</v>
@@ -10762,16 +11083,19 @@
       <c r="AE107" t="n">
         <v>0.37</v>
       </c>
+      <c r="AF107" t="n">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="108" spans="1:31">
+    <row r="108" spans="1:32">
       <c r="A108" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B108" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C108" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D108" t="n">
         <v>0.33</v>
@@ -10857,16 +11181,19 @@
       <c r="AE108" t="n">
         <v>0.23</v>
       </c>
+      <c r="AF108" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="109" spans="1:31">
+    <row r="109" spans="1:32">
       <c r="A109" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B109" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C109" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D109" t="n">
         <v>0.06</v>
@@ -10952,16 +11279,19 @@
       <c r="AE109" t="n">
         <v>0.12</v>
       </c>
+      <c r="AF109" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="110" spans="1:31">
+    <row r="110" spans="1:32">
       <c r="A110" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B110" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C110" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D110" t="n">
         <v>0.16</v>
@@ -11047,16 +11377,19 @@
       <c r="AE110" t="n">
         <v>0.15</v>
       </c>
+      <c r="AF110" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="111" spans="1:31">
+    <row r="111" spans="1:32">
       <c r="A111" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B111" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C111" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D111" t="n">
         <v>0.02</v>
@@ -11142,10 +11475,13 @@
       <c r="AE111" t="n">
         <v>0.13</v>
       </c>
+      <c r="AF111" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="112" spans="1:31">
+    <row r="112" spans="1:32">
       <c r="A112" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -11159,7 +11495,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD24"/>
+  <dimension ref="A1:AE24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11167,7 +11503,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:31">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -11258,13 +11594,16 @@
       <c r="AD1" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="AE1" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="n">
         <v>2404</v>
@@ -11350,13 +11689,16 @@
       <c r="AD2" t="n">
         <v>1735</v>
       </c>
+      <c r="AE2" t="n">
+        <v>1689</v>
+      </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" t="n">
         <v>587</v>
@@ -11442,13 +11784,16 @@
       <c r="AD3" t="n">
         <v>404</v>
       </c>
+      <c r="AE3" t="n">
+        <v>394</v>
+      </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" t="n">
         <v>874</v>
@@ -11534,13 +11879,16 @@
       <c r="AD4" t="n">
         <v>610</v>
       </c>
+      <c r="AE4" t="n">
+        <v>602</v>
+      </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" t="n">
         <v>943</v>
@@ -11626,13 +11974,16 @@
       <c r="AD5" t="n">
         <v>721</v>
       </c>
+      <c r="AE5" t="n">
+        <v>693</v>
+      </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" t="n">
         <v>542</v>
@@ -11718,13 +12069,16 @@
       <c r="AD6" t="n">
         <v>480</v>
       </c>
+      <c r="AE6" t="n">
+        <v>522</v>
+      </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" t="n">
         <v>669</v>
@@ -11810,13 +12164,16 @@
       <c r="AD7" t="n">
         <v>707</v>
       </c>
+      <c r="AE7" t="n">
+        <v>699</v>
+      </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:31">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" t="n">
         <v>1193</v>
@@ -11902,13 +12259,16 @@
       <c r="AD8" t="n">
         <v>548</v>
       </c>
+      <c r="AE8" t="n">
+        <v>468</v>
+      </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:31">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" t="n">
         <v>10</v>
@@ -11994,13 +12354,16 @@
       <c r="AD9" t="n">
         <v>390</v>
       </c>
+      <c r="AE9" t="n">
+        <v>338</v>
+      </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:31">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" t="n">
         <v>81</v>
@@ -12086,13 +12449,16 @@
       <c r="AD10" t="n">
         <v>484</v>
       </c>
+      <c r="AE10" t="n">
+        <v>386</v>
+      </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:31">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" t="n">
         <v>2313</v>
@@ -12178,13 +12544,16 @@
       <c r="AD11" t="n">
         <v>861</v>
       </c>
+      <c r="AE11" t="n">
+        <v>965</v>
+      </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:31">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C12" t="n">
         <v>1210</v>
@@ -12270,13 +12639,16 @@
       <c r="AD12" t="n">
         <v>863</v>
       </c>
+      <c r="AE12" t="n">
+        <v>847</v>
+      </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C13" t="n">
         <v>1194</v>
@@ -12362,13 +12734,16 @@
       <c r="AD13" t="n">
         <v>872</v>
       </c>
+      <c r="AE13" t="n">
+        <v>842</v>
+      </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:31">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C14" t="n">
         <v>1316</v>
@@ -12454,13 +12829,16 @@
       <c r="AD14" t="n">
         <v>890</v>
       </c>
+      <c r="AE14" t="n">
+        <v>879</v>
+      </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:31">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C15" t="n">
         <v>519</v>
@@ -12546,13 +12924,16 @@
       <c r="AD15" t="n">
         <v>404</v>
       </c>
+      <c r="AE15" t="n">
+        <v>386</v>
+      </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:31">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C16" t="n">
         <v>279</v>
@@ -12638,13 +13019,16 @@
       <c r="AD16" t="n">
         <v>205</v>
       </c>
+      <c r="AE16" t="n">
+        <v>197</v>
+      </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:31">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C17" t="n">
         <v>290</v>
@@ -12730,13 +13114,16 @@
       <c r="AD17" t="n">
         <v>236</v>
       </c>
+      <c r="AE17" t="n">
+        <v>227</v>
+      </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:31">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C18" t="n">
         <v>307</v>
@@ -12822,13 +13209,16 @@
       <c r="AD18" t="n">
         <v>210</v>
       </c>
+      <c r="AE18" t="n">
+        <v>209</v>
+      </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:31">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C19" t="n">
         <v>479</v>
@@ -12914,13 +13304,16 @@
       <c r="AD19" t="n">
         <v>328</v>
       </c>
+      <c r="AE19" t="n">
+        <v>331</v>
+      </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:31">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C20" t="n">
         <v>423</v>
@@ -13006,13 +13399,16 @@
       <c r="AD20" t="n">
         <v>325</v>
       </c>
+      <c r="AE20" t="n">
+        <v>307</v>
+      </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:31">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C21" t="n">
         <v>280</v>
@@ -13098,13 +13494,16 @@
       <c r="AD21" t="n">
         <v>194</v>
       </c>
+      <c r="AE21" t="n">
+        <v>185</v>
+      </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:31">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C22" t="n">
         <v>395</v>
@@ -13190,13 +13589,16 @@
       <c r="AD22" t="n">
         <v>282</v>
       </c>
+      <c r="AE22" t="n">
+        <v>270</v>
+      </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:31">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C23" t="n">
         <v>520</v>
@@ -13282,10 +13684,13 @@
       <c r="AD23" t="n">
         <v>396</v>
       </c>
+      <c r="AE23" t="n">
+        <v>387</v>
+      </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:31">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s"/>
       <c r="C24" t="s"/>
@@ -13316,6 +13721,7 @@
       <c r="AB24" t="s"/>
       <c r="AC24" t="s"/>
       <c r="AD24" t="s"/>
+      <c r="AE24" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_10_kontakty_aktivity.xlsx
+++ b/ZBP_10_kontakty_aktivity.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,215 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
-  <si>
-    <t>trideni</t>
-  </si>
-  <si>
-    <t>kategorie trideni</t>
-  </si>
-  <si>
-    <t>ukazatel</t>
-  </si>
-  <si>
-    <t>19. 3. 2020</t>
-  </si>
-  <si>
-    <t>1. 4. 2020</t>
-  </si>
-  <si>
-    <t>15. 4. 2020</t>
-  </si>
-  <si>
-    <t>28. 4. 2020</t>
-  </si>
-  <si>
-    <t>12. 5. 2020</t>
-  </si>
-  <si>
-    <t>26. 5. 2020</t>
-  </si>
-  <si>
-    <t>16. 6. 2020</t>
-  </si>
-  <si>
-    <t>30. 6. 2020</t>
-  </si>
-  <si>
-    <t>21. 7. 2020</t>
-  </si>
-  <si>
-    <t>11. 8. 2020</t>
-  </si>
-  <si>
-    <t>1. 9. 2020</t>
-  </si>
-  <si>
-    <t>15. 9. 2020</t>
-  </si>
-  <si>
-    <t>30. 9. 2020</t>
-  </si>
-  <si>
-    <t>13. 10. 2020</t>
-  </si>
-  <si>
-    <t>27. 10. 2020</t>
-  </si>
-  <si>
-    <t>10. 11. 2020</t>
-  </si>
-  <si>
-    <t>24. 11. 2020</t>
-  </si>
-  <si>
-    <t>8. 12. 2020</t>
-  </si>
-  <si>
-    <t>22. 12. 2020</t>
-  </si>
-  <si>
-    <t>5. 1. 2021</t>
-  </si>
-  <si>
-    <t>26. 1. 2021</t>
-  </si>
-  <si>
-    <t>16. 2. 2021</t>
-  </si>
-  <si>
-    <t>2. 3. 2021</t>
-  </si>
-  <si>
-    <t>16. 3. 2021</t>
-  </si>
-  <si>
-    <t>30. 3. 2021</t>
-  </si>
-  <si>
-    <t>13. 4. 2021</t>
-  </si>
-  <si>
-    <t>4. 5. 2021</t>
-  </si>
-  <si>
-    <t>25. 5. 2021</t>
-  </si>
-  <si>
-    <t>22. 6. 2021</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>Celkem</t>
-  </si>
-  <si>
-    <t>Izolovaní</t>
-  </si>
-  <si>
-    <t>Sociálně středně aktivní s větší ochranou</t>
-  </si>
-  <si>
-    <t>Sociálně středně aktivní s menší ochranou</t>
-  </si>
-  <si>
-    <t>Sociálně vysoce aktivní s větší ochranou</t>
-  </si>
-  <si>
-    <t>Sociálně vysoce aktivní s menší ochranou</t>
-  </si>
-  <si>
-    <t>Věk</t>
-  </si>
-  <si>
-    <t>18 až 34 let</t>
-  </si>
-  <si>
-    <t>35 až 54 let</t>
-  </si>
-  <si>
-    <t>55 a více let</t>
-  </si>
-  <si>
-    <t>Obavy ohledně koronaviru</t>
-  </si>
-  <si>
-    <t>Klidný</t>
-  </si>
-  <si>
-    <t>Částečné starosti</t>
-  </si>
-  <si>
-    <t>Velké starosti</t>
-  </si>
-  <si>
-    <t>Znalost nakaženého</t>
-  </si>
-  <si>
-    <t>Ano, v přímém či nepřímém kontaktu</t>
-  </si>
-  <si>
-    <t>Ano, ale nebyli v kontaktu</t>
-  </si>
-  <si>
-    <t>Nezná nakaženého</t>
-  </si>
-  <si>
-    <t>Pohlaví</t>
-  </si>
-  <si>
-    <t>Muž</t>
-  </si>
-  <si>
-    <t>Žena</t>
-  </si>
-  <si>
-    <t>Velikost místa bydliště</t>
-  </si>
-  <si>
-    <t>Méně než 20 000 obyvatel</t>
-  </si>
-  <si>
-    <t>20 000 až 99 999 obyvatel</t>
-  </si>
-  <si>
-    <t>100 000 a více obyvatel</t>
-  </si>
-  <si>
-    <t>Praha</t>
-  </si>
-  <si>
-    <t>Pohlaví a věk</t>
-  </si>
-  <si>
-    <t>Muž, 18–34 let</t>
-  </si>
-  <si>
-    <t>Muž, 35–54 let</t>
-  </si>
-  <si>
-    <t>Muž, 55 a více let</t>
-  </si>
-  <si>
-    <t>Žena, 18–34 let</t>
-  </si>
-  <si>
-    <t>Žena, 35–54 let</t>
-  </si>
-  <si>
-    <t>Žena, 55 a více let</t>
-  </si>
-  <si>
-    <t>Život během pandemie, Kontakty vs. protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 28. 6. 2021</t>
-  </si>
-  <si>
-    <t>Život během pandemie, Kontakty vs. protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 28. 6. 2021</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -282,25 +73,92 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -593,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF112"/>
+  <dimension ref="A1:AG112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,113 +459,188 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>trideni</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>kategorie trideni</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ukazatel</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>19. 3. 2020</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1. 4. 2020</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>15. 4. 2020</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>28. 4. 2020</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>12. 5. 2020</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>26. 5. 2020</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>16. 6. 2020</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>30. 6. 2020</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>21. 7. 2020</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>11. 8. 2020</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>1. 9. 2020</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>15. 9. 2020</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>30. 9. 2020</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>13. 10. 2020</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>27. 10. 2020</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>10. 11. 2020</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>24. 11. 2020</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>8. 12. 2020</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>22. 12. 2020</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>5. 1. 2021</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>26. 1. 2021</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>16. 2. 2021</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>2. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>16. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>30. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>13. 4. 2021</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>4. 5. 2021</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>25. 5. 2021</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>22. 6. 2021</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>20. 7. 2021</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:32">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Celkem</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Izolovaní</t>
+        </is>
       </c>
       <c r="D2" t="n">
         <v>0.26</v>
@@ -796,16 +729,25 @@
       <c r="AF2" t="n">
         <v>0.18</v>
       </c>
+      <c r="AG2" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="3" spans="1:32">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Celkem</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Sociálně středně aktivní s větší ochranou</t>
+        </is>
       </c>
       <c r="D3" t="n">
         <v>0.31</v>
@@ -894,16 +836,25 @@
       <c r="AF3" t="n">
         <v>0.14</v>
       </c>
+      <c r="AG3" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="4" spans="1:32">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Celkem</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Sociálně středně aktivní s menší ochranou</t>
+        </is>
       </c>
       <c r="D4" t="n">
         <v>0.05</v>
@@ -992,16 +943,25 @@
       <c r="AF4" t="n">
         <v>0.18</v>
       </c>
+      <c r="AG4" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="5" spans="1:32">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Celkem</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Sociálně vysoce aktivní s větší ochranou</t>
+        </is>
       </c>
       <c r="D5" t="n">
         <v>0.32</v>
@@ -1090,16 +1050,25 @@
       <c r="AF5" t="n">
         <v>0.18</v>
       </c>
+      <c r="AG5" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="6" spans="1:32">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Celkem</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Sociálně vysoce aktivní s menší ochranou</t>
+        </is>
       </c>
       <c r="D6" t="n">
         <v>0.06</v>
@@ -1188,16 +1157,25 @@
       <c r="AF6" t="n">
         <v>0.32</v>
       </c>
+      <c r="AG6" t="n">
+        <v>0.31</v>
+      </c>
     </row>
-    <row r="7" spans="1:32">
-      <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>18 až 34 let</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Izolovaní</t>
+        </is>
       </c>
       <c r="D7" t="n">
         <v>0.14</v>
@@ -1286,16 +1264,25 @@
       <c r="AF7" t="n">
         <v>0.1</v>
       </c>
+      <c r="AG7" t="n">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="8" spans="1:32">
-      <c r="A8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>18 až 34 let</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Sociálně středně aktivní s větší ochranou</t>
+        </is>
       </c>
       <c r="D8" t="n">
         <v>0.33</v>
@@ -1384,16 +1371,25 @@
       <c r="AF8" t="n">
         <v>0.08</v>
       </c>
+      <c r="AG8" t="n">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="9" spans="1:32">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>18 až 34 let</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Sociálně středně aktivní s menší ochranou</t>
+        </is>
       </c>
       <c r="D9" t="n">
         <v>0.06</v>
@@ -1482,16 +1478,25 @@
       <c r="AF9" t="n">
         <v>0.21</v>
       </c>
+      <c r="AG9" t="n">
+        <v>0.21</v>
+      </c>
     </row>
-    <row r="10" spans="1:32">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>18 až 34 let</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Sociálně vysoce aktivní s větší ochranou</t>
+        </is>
       </c>
       <c r="D10" t="n">
         <v>0.41</v>
@@ -1580,16 +1585,25 @@
       <c r="AF10" t="n">
         <v>0.13</v>
       </c>
+      <c r="AG10" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="11" spans="1:32">
-      <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>18 až 34 let</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Sociálně vysoce aktivní s menší ochranou</t>
+        </is>
       </c>
       <c r="D11" t="n">
         <v>0.06</v>
@@ -1678,16 +1692,25 @@
       <c r="AF11" t="n">
         <v>0.48</v>
       </c>
+      <c r="AG11" t="n">
+        <v>0.44</v>
+      </c>
     </row>
-    <row r="12" spans="1:32">
-      <c r="A12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>35 až 54 let</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Izolovaní</t>
+        </is>
       </c>
       <c r="D12" t="n">
         <v>0.19</v>
@@ -1776,16 +1799,25 @@
       <c r="AF12" t="n">
         <v>0.12</v>
       </c>
+      <c r="AG12" t="n">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="13" spans="1:32">
-      <c r="A13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>35 až 54 let</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Sociálně středně aktivní s větší ochranou</t>
+        </is>
       </c>
       <c r="D13" t="n">
         <v>0.27</v>
@@ -1874,16 +1906,25 @@
       <c r="AF13" t="n">
         <v>0.12</v>
       </c>
+      <c r="AG13" t="n">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="14" spans="1:32">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>35 až 54 let</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Sociálně středně aktivní s menší ochranou</t>
+        </is>
       </c>
       <c r="D14" t="n">
         <v>0.03</v>
@@ -1972,16 +2013,25 @@
       <c r="AF14" t="n">
         <v>0.18</v>
       </c>
+      <c r="AG14" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="15" spans="1:32">
-      <c r="A15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" t="s">
-        <v>37</v>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>35 až 54 let</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Sociálně vysoce aktivní s větší ochranou</t>
+        </is>
       </c>
       <c r="D15" t="n">
         <v>0.42</v>
@@ -2070,16 +2120,25 @@
       <c r="AF15" t="n">
         <v>0.2</v>
       </c>
+      <c r="AG15" t="n">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="16" spans="1:32">
-      <c r="A16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>35 až 54 let</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Sociálně vysoce aktivní s menší ochranou</t>
+        </is>
       </c>
       <c r="D16" t="n">
         <v>0.09</v>
@@ -2168,16 +2227,25 @@
       <c r="AF16" t="n">
         <v>0.38</v>
       </c>
+      <c r="AG16" t="n">
+        <v>0.38</v>
+      </c>
     </row>
-    <row r="17" spans="1:32">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>55 a více let</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Izolovaní</t>
+        </is>
       </c>
       <c r="D17" t="n">
         <v>0.41</v>
@@ -2266,16 +2334,25 @@
       <c r="AF17" t="n">
         <v>0.28</v>
       </c>
+      <c r="AG17" t="n">
+        <v>0.26</v>
+      </c>
     </row>
-    <row r="18" spans="1:32">
-      <c r="A18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>55 a více let</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Sociálně středně aktivní s větší ochranou</t>
+        </is>
       </c>
       <c r="D18" t="n">
         <v>0.34</v>
@@ -2364,16 +2441,25 @@
       <c r="AF18" t="n">
         <v>0.2</v>
       </c>
+      <c r="AG18" t="n">
+        <v>0.24</v>
+      </c>
     </row>
-    <row r="19" spans="1:32">
-      <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>55 a více let</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Sociálně středně aktivní s menší ochranou</t>
+        </is>
       </c>
       <c r="D19" t="n">
         <v>0.06</v>
@@ -2462,16 +2548,25 @@
       <c r="AF19" t="n">
         <v>0.17</v>
       </c>
+      <c r="AG19" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="20" spans="1:32">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" t="s">
-        <v>37</v>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>55 a více let</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Sociálně vysoce aktivní s větší ochranou</t>
+        </is>
       </c>
       <c r="D20" t="n">
         <v>0.17</v>
@@ -2560,16 +2655,25 @@
       <c r="AF20" t="n">
         <v>0.18</v>
       </c>
+      <c r="AG20" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="21" spans="1:32">
-      <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" t="s">
-        <v>38</v>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>55 a více let</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Sociálně vysoce aktivní s menší ochranou</t>
+        </is>
       </c>
       <c r="D21" t="n">
         <v>0.02</v>
@@ -2658,16 +2762,25 @@
       <c r="AF21" t="n">
         <v>0.17</v>
       </c>
+      <c r="AG21" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="22" spans="1:32">
-      <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" t="s">
-        <v>34</v>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Izolovaní</t>
+        </is>
       </c>
       <c r="D22" t="n">
         <v>0.27</v>
@@ -2756,16 +2869,25 @@
       <c r="AF22" t="n">
         <v>0.11</v>
       </c>
+      <c r="AG22" t="n">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="23" spans="1:32">
-      <c r="A23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" t="s">
-        <v>35</v>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Sociálně středně aktivní s větší ochranou</t>
+        </is>
       </c>
       <c r="D23" t="n">
         <v>0.3</v>
@@ -2854,16 +2976,25 @@
       <c r="AF23" t="n">
         <v>0.1</v>
       </c>
+      <c r="AG23" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="24" spans="1:32">
-      <c r="A24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" t="s">
-        <v>36</v>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Sociálně středně aktivní s menší ochranou</t>
+        </is>
       </c>
       <c r="D24" t="n">
         <v>0.07000000000000001</v>
@@ -2952,16 +3083,25 @@
       <c r="AF24" t="n">
         <v>0.2</v>
       </c>
+      <c r="AG24" t="n">
+        <v>0.21</v>
+      </c>
     </row>
-    <row r="25" spans="1:32">
-      <c r="A25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" t="s">
-        <v>37</v>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Sociálně vysoce aktivní s větší ochranou</t>
+        </is>
       </c>
       <c r="D25" t="n">
         <v>0.25</v>
@@ -3050,16 +3190,25 @@
       <c r="AF25" t="n">
         <v>0.1</v>
       </c>
+      <c r="AG25" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="26" spans="1:32">
-      <c r="A26" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" t="s">
-        <v>38</v>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Sociálně vysoce aktivní s menší ochranou</t>
+        </is>
       </c>
       <c r="D26" t="n">
         <v>0.11</v>
@@ -3148,16 +3297,25 @@
       <c r="AF26" t="n">
         <v>0.49</v>
       </c>
+      <c r="AG26" t="n">
+        <v>0.44</v>
+      </c>
     </row>
-    <row r="27" spans="1:32">
-      <c r="A27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" t="s">
-        <v>34</v>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Částečné starosti</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Izolovaní</t>
+        </is>
       </c>
       <c r="D27" t="n">
         <v>0.24</v>
@@ -3246,16 +3404,25 @@
       <c r="AF27" t="n">
         <v>0.18</v>
       </c>
+      <c r="AG27" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="28" spans="1:32">
-      <c r="A28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" t="s">
-        <v>35</v>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Částečné starosti</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Sociálně středně aktivní s větší ochranou</t>
+        </is>
       </c>
       <c r="D28" t="n">
         <v>0.3</v>
@@ -3344,16 +3511,25 @@
       <c r="AF28" t="n">
         <v>0.14</v>
       </c>
+      <c r="AG28" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="29" spans="1:32">
-      <c r="A29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" t="s">
-        <v>36</v>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Částečné starosti</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Sociálně středně aktivní s menší ochranou</t>
+        </is>
       </c>
       <c r="D29" t="n">
         <v>0.05</v>
@@ -3442,16 +3618,25 @@
       <c r="AF29" t="n">
         <v>0.19</v>
       </c>
+      <c r="AG29" t="n">
+        <v>0.22</v>
+      </c>
     </row>
-    <row r="30" spans="1:32">
-      <c r="A30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" t="s">
-        <v>37</v>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Částečné starosti</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Sociálně vysoce aktivní s větší ochranou</t>
+        </is>
       </c>
       <c r="D30" t="n">
         <v>0.35</v>
@@ -3540,16 +3725,25 @@
       <c r="AF30" t="n">
         <v>0.18</v>
       </c>
+      <c r="AG30" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="31" spans="1:32">
-      <c r="A31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" t="s">
-        <v>38</v>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Částečné starosti</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Sociálně vysoce aktivní s menší ochranou</t>
+        </is>
       </c>
       <c r="D31" t="n">
         <v>0.06</v>
@@ -3638,16 +3832,25 @@
       <c r="AF31" t="n">
         <v>0.31</v>
       </c>
+      <c r="AG31" t="n">
+        <v>0.31</v>
+      </c>
     </row>
-    <row r="32" spans="1:32">
-      <c r="A32" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" t="s">
-        <v>34</v>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Velké starosti</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Izolovaní</t>
+        </is>
       </c>
       <c r="D32" t="n">
         <v>0.27</v>
@@ -3736,16 +3939,25 @@
       <c r="AF32" t="n">
         <v>0.25</v>
       </c>
+      <c r="AG32" t="n">
+        <v>0.24</v>
+      </c>
     </row>
-    <row r="33" spans="1:32">
-      <c r="A33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" t="s">
-        <v>35</v>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Velké starosti</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Sociálně středně aktivní s větší ochranou</t>
+        </is>
       </c>
       <c r="D33" t="n">
         <v>0.33</v>
@@ -3834,16 +4046,25 @@
       <c r="AF33" t="n">
         <v>0.19</v>
       </c>
+      <c r="AG33" t="n">
+        <v>0.22</v>
+      </c>
     </row>
-    <row r="34" spans="1:32">
-      <c r="A34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" t="s">
-        <v>36</v>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Velké starosti</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Sociálně středně aktivní s menší ochranou</t>
+        </is>
       </c>
       <c r="D34" t="n">
         <v>0.04</v>
@@ -3932,16 +4153,25 @@
       <c r="AF34" t="n">
         <v>0.14</v>
       </c>
+      <c r="AG34" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="35" spans="1:32">
-      <c r="A35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" t="s">
-        <v>37</v>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Velké starosti</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Sociálně vysoce aktivní s větší ochranou</t>
+        </is>
       </c>
       <c r="D35" t="n">
         <v>0.33</v>
@@ -4030,16 +4260,25 @@
       <c r="AF35" t="n">
         <v>0.27</v>
       </c>
+      <c r="AG35" t="n">
+        <v>0.22</v>
+      </c>
     </row>
-    <row r="36" spans="1:32">
-      <c r="A36" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" t="s">
-        <v>38</v>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Velké starosti</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Sociálně vysoce aktivní s menší ochranou</t>
+        </is>
       </c>
       <c r="D36" t="n">
         <v>0.03</v>
@@ -4128,16 +4367,25 @@
       <c r="AF36" t="n">
         <v>0.15</v>
       </c>
+      <c r="AG36" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="37" spans="1:32">
-      <c r="A37" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" t="s">
-        <v>34</v>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Ano, v přímém či nepřímém kontaktu</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Izolovaní</t>
+        </is>
       </c>
       <c r="D37" t="n">
         <v>0.03</v>
@@ -4226,16 +4474,25 @@
       <c r="AF37" t="n">
         <v>0.11</v>
       </c>
+      <c r="AG37" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="38" spans="1:32">
-      <c r="A38" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" t="s">
-        <v>35</v>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Ano, v přímém či nepřímém kontaktu</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Sociálně středně aktivní s větší ochranou</t>
+        </is>
       </c>
       <c r="D38" t="n">
         <v>0.52</v>
@@ -4324,16 +4581,25 @@
       <c r="AF38" t="n">
         <v>0.12</v>
       </c>
+      <c r="AG38" t="n">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="39" spans="1:32">
-      <c r="A39" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" t="s">
-        <v>36</v>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Ano, v přímém či nepřímém kontaktu</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Sociálně středně aktivní s menší ochranou</t>
+        </is>
       </c>
       <c r="D39" t="n">
         <v>0.03</v>
@@ -4422,16 +4688,25 @@
       <c r="AF39" t="n">
         <v>0.14</v>
       </c>
+      <c r="AG39" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="40" spans="1:32">
-      <c r="A40" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" t="s">
-        <v>37</v>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Ano, v přímém či nepřímém kontaktu</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Sociálně vysoce aktivní s větší ochranou</t>
+        </is>
       </c>
       <c r="D40" t="n">
         <v>0.34</v>
@@ -4520,16 +4795,25 @@
       <c r="AF40" t="n">
         <v>0.23</v>
       </c>
+      <c r="AG40" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="41" spans="1:32">
-      <c r="A41" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" t="s">
-        <v>38</v>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Ano, v přímém či nepřímém kontaktu</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Sociálně vysoce aktivní s menší ochranou</t>
+        </is>
       </c>
       <c r="D41" t="n">
         <v>0.08</v>
@@ -4618,16 +4902,25 @@
       <c r="AF41" t="n">
         <v>0.4</v>
       </c>
+      <c r="AG41" t="n">
+        <v>0.45</v>
+      </c>
     </row>
-    <row r="42" spans="1:32">
-      <c r="A42" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" t="s">
-        <v>34</v>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Ano, ale nebyli v kontaktu</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Izolovaní</t>
+        </is>
       </c>
       <c r="D42" t="n">
         <v>0.14</v>
@@ -4716,16 +5009,25 @@
       <c r="AF42" t="n">
         <v>0.18</v>
       </c>
+      <c r="AG42" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="43" spans="1:32">
-      <c r="A43" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" t="s">
-        <v>35</v>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Ano, ale nebyli v kontaktu</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Sociálně středně aktivní s větší ochranou</t>
+        </is>
       </c>
       <c r="D43" t="n">
         <v>0.46</v>
@@ -4814,16 +5116,25 @@
       <c r="AF43" t="n">
         <v>0.15</v>
       </c>
+      <c r="AG43" t="n">
+        <v>0.21</v>
+      </c>
     </row>
-    <row r="44" spans="1:32">
-      <c r="A44" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" t="s">
-        <v>36</v>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Ano, ale nebyli v kontaktu</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Sociálně středně aktivní s menší ochranou</t>
+        </is>
       </c>
       <c r="D44" t="n">
         <v>0.02</v>
@@ -4912,16 +5223,25 @@
       <c r="AF44" t="n">
         <v>0.17</v>
       </c>
+      <c r="AG44" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="45" spans="1:32">
-      <c r="A45" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" t="s">
-        <v>37</v>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Ano, ale nebyli v kontaktu</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Sociálně vysoce aktivní s větší ochranou</t>
+        </is>
       </c>
       <c r="D45" t="n">
         <v>0.29</v>
@@ -5010,16 +5330,25 @@
       <c r="AF45" t="n">
         <v>0.19</v>
       </c>
+      <c r="AG45" t="n">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="46" spans="1:32">
-      <c r="A46" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" t="s">
-        <v>49</v>
-      </c>
-      <c r="C46" t="s">
-        <v>38</v>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Ano, ale nebyli v kontaktu</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Sociálně vysoce aktivní s menší ochranou</t>
+        </is>
       </c>
       <c r="D46" t="n">
         <v>0.09</v>
@@ -5108,16 +5437,25 @@
       <c r="AF46" t="n">
         <v>0.31</v>
       </c>
+      <c r="AG46" t="n">
+        <v>0.24</v>
+      </c>
     </row>
-    <row r="47" spans="1:32">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" t="s">
-        <v>50</v>
-      </c>
-      <c r="C47" t="s">
-        <v>34</v>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Nezná nakaženého</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Izolovaní</t>
+        </is>
       </c>
       <c r="D47" t="n">
         <v>0.27</v>
@@ -5206,16 +5544,25 @@
       <c r="AF47" t="n">
         <v>0.21</v>
       </c>
+      <c r="AG47" t="n">
+        <v>0.21</v>
+      </c>
     </row>
-    <row r="48" spans="1:32">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" t="s">
-        <v>35</v>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Nezná nakaženého</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Sociálně středně aktivní s větší ochranou</t>
+        </is>
       </c>
       <c r="D48" t="n">
         <v>0.31</v>
@@ -5304,16 +5651,25 @@
       <c r="AF48" t="n">
         <v>0.14</v>
       </c>
+      <c r="AG48" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="49" spans="1:32">
-      <c r="A49" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" t="s">
-        <v>36</v>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Nezná nakaženého</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Sociálně středně aktivní s menší ochranou</t>
+        </is>
       </c>
       <c r="D49" t="n">
         <v>0.05</v>
@@ -5402,16 +5758,25 @@
       <c r="AF49" t="n">
         <v>0.2</v>
       </c>
+      <c r="AG49" t="n">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="50" spans="1:32">
-      <c r="A50" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50" t="s">
-        <v>50</v>
-      </c>
-      <c r="C50" t="s">
-        <v>37</v>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Nezná nakaženého</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Sociálně vysoce aktivní s větší ochranou</t>
+        </is>
       </c>
       <c r="D50" t="n">
         <v>0.32</v>
@@ -5500,16 +5865,25 @@
       <c r="AF50" t="n">
         <v>0.15</v>
       </c>
+      <c r="AG50" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="51" spans="1:32">
-      <c r="A51" t="s">
-        <v>47</v>
-      </c>
-      <c r="B51" t="s">
-        <v>50</v>
-      </c>
-      <c r="C51" t="s">
-        <v>38</v>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Nezná nakaženého</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Sociálně vysoce aktivní s menší ochranou</t>
+        </is>
       </c>
       <c r="D51" t="n">
         <v>0.05</v>
@@ -5598,16 +5972,25 @@
       <c r="AF51" t="n">
         <v>0.3</v>
       </c>
+      <c r="AG51" t="n">
+        <v>0.29</v>
+      </c>
     </row>
-    <row r="52" spans="1:32">
-      <c r="A52" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>52</v>
-      </c>
-      <c r="C52" t="s">
-        <v>34</v>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Muž</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Izolovaní</t>
+        </is>
       </c>
       <c r="D52" t="n">
         <v>0.22</v>
@@ -5696,16 +6079,25 @@
       <c r="AF52" t="n">
         <v>0.16</v>
       </c>
+      <c r="AG52" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="53" spans="1:32">
-      <c r="A53" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
-        <v>52</v>
-      </c>
-      <c r="C53" t="s">
-        <v>35</v>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Muž</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Sociálně středně aktivní s větší ochranou</t>
+        </is>
       </c>
       <c r="D53" t="n">
         <v>0.3</v>
@@ -5794,16 +6186,25 @@
       <c r="AF53" t="n">
         <v>0.14</v>
       </c>
+      <c r="AG53" t="n">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="54" spans="1:32">
-      <c r="A54" t="s">
-        <v>51</v>
-      </c>
-      <c r="B54" t="s">
-        <v>52</v>
-      </c>
-      <c r="C54" t="s">
-        <v>36</v>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Muž</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Sociálně středně aktivní s menší ochranou</t>
+        </is>
       </c>
       <c r="D54" t="n">
         <v>0.05</v>
@@ -5892,16 +6293,25 @@
       <c r="AF54" t="n">
         <v>0.16</v>
       </c>
+      <c r="AG54" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="55" spans="1:32">
-      <c r="A55" t="s">
-        <v>51</v>
-      </c>
-      <c r="B55" t="s">
-        <v>52</v>
-      </c>
-      <c r="C55" t="s">
-        <v>37</v>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Muž</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Sociálně vysoce aktivní s větší ochranou</t>
+        </is>
       </c>
       <c r="D55" t="n">
         <v>0.34</v>
@@ -5990,16 +6400,25 @@
       <c r="AF55" t="n">
         <v>0.18</v>
       </c>
+      <c r="AG55" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="56" spans="1:32">
-      <c r="A56" t="s">
-        <v>51</v>
-      </c>
-      <c r="B56" t="s">
-        <v>52</v>
-      </c>
-      <c r="C56" t="s">
-        <v>38</v>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Muž</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Sociálně vysoce aktivní s menší ochranou</t>
+        </is>
       </c>
       <c r="D56" t="n">
         <v>0.09</v>
@@ -6088,16 +6507,25 @@
       <c r="AF56" t="n">
         <v>0.36</v>
       </c>
+      <c r="AG56" t="n">
+        <v>0.32</v>
+      </c>
     </row>
-    <row r="57" spans="1:32">
-      <c r="A57" t="s">
-        <v>51</v>
-      </c>
-      <c r="B57" t="s">
-        <v>53</v>
-      </c>
-      <c r="C57" t="s">
-        <v>34</v>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Žena</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Izolovaní</t>
+        </is>
       </c>
       <c r="D57" t="n">
         <v>0.31</v>
@@ -6186,16 +6614,25 @@
       <c r="AF57" t="n">
         <v>0.2</v>
       </c>
+      <c r="AG57" t="n">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="58" spans="1:32">
-      <c r="A58" t="s">
-        <v>51</v>
-      </c>
-      <c r="B58" t="s">
-        <v>53</v>
-      </c>
-      <c r="C58" t="s">
-        <v>35</v>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Žena</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Sociálně středně aktivní s větší ochranou</t>
+        </is>
       </c>
       <c r="D58" t="n">
         <v>0.32</v>
@@ -6284,16 +6721,25 @@
       <c r="AF58" t="n">
         <v>0.14</v>
       </c>
+      <c r="AG58" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="59" spans="1:32">
-      <c r="A59" t="s">
-        <v>51</v>
-      </c>
-      <c r="B59" t="s">
-        <v>53</v>
-      </c>
-      <c r="C59" t="s">
-        <v>36</v>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Žena</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Sociálně středně aktivní s menší ochranou</t>
+        </is>
       </c>
       <c r="D59" t="n">
         <v>0.05</v>
@@ -6382,16 +6828,25 @@
       <c r="AF59" t="n">
         <v>0.2</v>
       </c>
+      <c r="AG59" t="n">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="60" spans="1:32">
-      <c r="A60" t="s">
-        <v>51</v>
-      </c>
-      <c r="B60" t="s">
-        <v>53</v>
-      </c>
-      <c r="C60" t="s">
-        <v>37</v>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Žena</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Sociálně vysoce aktivní s větší ochranou</t>
+        </is>
       </c>
       <c r="D60" t="n">
         <v>0.29</v>
@@ -6480,16 +6935,25 @@
       <c r="AF60" t="n">
         <v>0.18</v>
       </c>
+      <c r="AG60" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="61" spans="1:32">
-      <c r="A61" t="s">
-        <v>51</v>
-      </c>
-      <c r="B61" t="s">
-        <v>53</v>
-      </c>
-      <c r="C61" t="s">
-        <v>38</v>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Žena</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Sociálně vysoce aktivní s menší ochranou</t>
+        </is>
       </c>
       <c r="D61" t="n">
         <v>0.03</v>
@@ -6578,16 +7042,25 @@
       <c r="AF61" t="n">
         <v>0.28</v>
       </c>
+      <c r="AG61" t="n">
+        <v>0.28</v>
+      </c>
     </row>
-    <row r="62" spans="1:32">
-      <c r="A62" t="s">
-        <v>54</v>
-      </c>
-      <c r="B62" t="s">
-        <v>55</v>
-      </c>
-      <c r="C62" t="s">
-        <v>34</v>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Méně než 20 000 obyvatel</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Izolovaní</t>
+        </is>
       </c>
       <c r="D62" t="n">
         <v>0.25</v>
@@ -6676,16 +7149,25 @@
       <c r="AF62" t="n">
         <v>0.2</v>
       </c>
+      <c r="AG62" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="63" spans="1:32">
-      <c r="A63" t="s">
-        <v>54</v>
-      </c>
-      <c r="B63" t="s">
-        <v>55</v>
-      </c>
-      <c r="C63" t="s">
-        <v>35</v>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Méně než 20 000 obyvatel</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Sociálně středně aktivní s větší ochranou</t>
+        </is>
       </c>
       <c r="D63" t="n">
         <v>0.31</v>
@@ -6774,16 +7256,25 @@
       <c r="AF63" t="n">
         <v>0.12</v>
       </c>
+      <c r="AG63" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="64" spans="1:32">
-      <c r="A64" t="s">
-        <v>54</v>
-      </c>
-      <c r="B64" t="s">
-        <v>55</v>
-      </c>
-      <c r="C64" t="s">
-        <v>36</v>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Méně než 20 000 obyvatel</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Sociálně středně aktivní s menší ochranou</t>
+        </is>
       </c>
       <c r="D64" t="n">
         <v>0.05</v>
@@ -6872,16 +7363,25 @@
       <c r="AF64" t="n">
         <v>0.21</v>
       </c>
+      <c r="AG64" t="n">
+        <v>0.22</v>
+      </c>
     </row>
-    <row r="65" spans="1:32">
-      <c r="A65" t="s">
-        <v>54</v>
-      </c>
-      <c r="B65" t="s">
-        <v>55</v>
-      </c>
-      <c r="C65" t="s">
-        <v>37</v>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Méně než 20 000 obyvatel</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Sociálně vysoce aktivní s větší ochranou</t>
+        </is>
       </c>
       <c r="D65" t="n">
         <v>0.32</v>
@@ -6970,16 +7470,25 @@
       <c r="AF65" t="n">
         <v>0.15</v>
       </c>
+      <c r="AG65" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="66" spans="1:32">
-      <c r="A66" t="s">
-        <v>54</v>
-      </c>
-      <c r="B66" t="s">
-        <v>55</v>
-      </c>
-      <c r="C66" t="s">
-        <v>38</v>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Méně než 20 000 obyvatel</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Sociálně vysoce aktivní s menší ochranou</t>
+        </is>
       </c>
       <c r="D66" t="n">
         <v>0.07000000000000001</v>
@@ -7068,16 +7577,25 @@
       <c r="AF66" t="n">
         <v>0.32</v>
       </c>
+      <c r="AG66" t="n">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="67" spans="1:32">
-      <c r="A67" t="s">
-        <v>54</v>
-      </c>
-      <c r="B67" t="s">
-        <v>56</v>
-      </c>
-      <c r="C67" t="s">
-        <v>34</v>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>20 000 až 99 999 obyvatel</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Izolovaní</t>
+        </is>
       </c>
       <c r="D67" t="n">
         <v>0.28</v>
@@ -7166,16 +7684,25 @@
       <c r="AF67" t="n">
         <v>0.15</v>
       </c>
+      <c r="AG67" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="68" spans="1:32">
-      <c r="A68" t="s">
-        <v>54</v>
-      </c>
-      <c r="B68" t="s">
-        <v>56</v>
-      </c>
-      <c r="C68" t="s">
-        <v>35</v>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>20 000 až 99 999 obyvatel</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Sociálně středně aktivní s větší ochranou</t>
+        </is>
       </c>
       <c r="D68" t="n">
         <v>0.3</v>
@@ -7264,16 +7791,25 @@
       <c r="AF68" t="n">
         <v>0.17</v>
       </c>
+      <c r="AG68" t="n">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="69" spans="1:32">
-      <c r="A69" t="s">
-        <v>54</v>
-      </c>
-      <c r="B69" t="s">
-        <v>56</v>
-      </c>
-      <c r="C69" t="s">
-        <v>36</v>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>20 000 až 99 999 obyvatel</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Sociálně středně aktivní s menší ochranou</t>
+        </is>
       </c>
       <c r="D69" t="n">
         <v>0.03</v>
@@ -7362,16 +7898,25 @@
       <c r="AF69" t="n">
         <v>0.14</v>
       </c>
+      <c r="AG69" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="70" spans="1:32">
-      <c r="A70" t="s">
-        <v>54</v>
-      </c>
-      <c r="B70" t="s">
-        <v>56</v>
-      </c>
-      <c r="C70" t="s">
-        <v>37</v>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>20 000 až 99 999 obyvatel</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Sociálně vysoce aktivní s větší ochranou</t>
+        </is>
       </c>
       <c r="D70" t="n">
         <v>0.33</v>
@@ -7460,16 +8005,25 @@
       <c r="AF70" t="n">
         <v>0.2</v>
       </c>
+      <c r="AG70" t="n">
+        <v>0.21</v>
+      </c>
     </row>
-    <row r="71" spans="1:32">
-      <c r="A71" t="s">
-        <v>54</v>
-      </c>
-      <c r="B71" t="s">
-        <v>56</v>
-      </c>
-      <c r="C71" t="s">
-        <v>38</v>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>20 000 až 99 999 obyvatel</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Sociálně vysoce aktivní s menší ochranou</t>
+        </is>
       </c>
       <c r="D71" t="n">
         <v>0.06</v>
@@ -7558,16 +8112,25 @@
       <c r="AF71" t="n">
         <v>0.34</v>
       </c>
+      <c r="AG71" t="n">
+        <v>0.35</v>
+      </c>
     </row>
-    <row r="72" spans="1:32">
-      <c r="A72" t="s">
-        <v>54</v>
-      </c>
-      <c r="B72" t="s">
-        <v>57</v>
-      </c>
-      <c r="C72" t="s">
-        <v>34</v>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>100 000 a více obyvatel</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Izolovaní</t>
+        </is>
       </c>
       <c r="D72" t="n">
         <v>0.29</v>
@@ -7656,16 +8219,25 @@
       <c r="AF72" t="n">
         <v>0.17</v>
       </c>
+      <c r="AG72" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="73" spans="1:32">
-      <c r="A73" t="s">
-        <v>54</v>
-      </c>
-      <c r="B73" t="s">
-        <v>57</v>
-      </c>
-      <c r="C73" t="s">
-        <v>35</v>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>100 000 a více obyvatel</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Sociálně středně aktivní s větší ochranou</t>
+        </is>
       </c>
       <c r="D73" t="n">
         <v>0.3</v>
@@ -7754,16 +8326,25 @@
       <c r="AF73" t="n">
         <v>0.14</v>
       </c>
+      <c r="AG73" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="74" spans="1:32">
-      <c r="A74" t="s">
-        <v>54</v>
-      </c>
-      <c r="B74" t="s">
-        <v>57</v>
-      </c>
-      <c r="C74" t="s">
-        <v>36</v>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>100 000 a více obyvatel</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Sociálně středně aktivní s menší ochranou</t>
+        </is>
       </c>
       <c r="D74" t="n">
         <v>0.04</v>
@@ -7852,16 +8433,25 @@
       <c r="AF74" t="n">
         <v>0.16</v>
       </c>
+      <c r="AG74" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="75" spans="1:32">
-      <c r="A75" t="s">
-        <v>54</v>
-      </c>
-      <c r="B75" t="s">
-        <v>57</v>
-      </c>
-      <c r="C75" t="s">
-        <v>37</v>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>100 000 a více obyvatel</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Sociálně vysoce aktivní s větší ochranou</t>
+        </is>
       </c>
       <c r="D75" t="n">
         <v>0.29</v>
@@ -7950,16 +8540,25 @@
       <c r="AF75" t="n">
         <v>0.22</v>
       </c>
+      <c r="AG75" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="76" spans="1:32">
-      <c r="A76" t="s">
-        <v>54</v>
-      </c>
-      <c r="B76" t="s">
-        <v>57</v>
-      </c>
-      <c r="C76" t="s">
-        <v>38</v>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>100 000 a více obyvatel</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Sociálně vysoce aktivní s menší ochranou</t>
+        </is>
       </c>
       <c r="D76" t="n">
         <v>0.08</v>
@@ -8048,16 +8647,25 @@
       <c r="AF76" t="n">
         <v>0.31</v>
       </c>
+      <c r="AG76" t="n">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="77" spans="1:32">
-      <c r="A77" t="s">
-        <v>54</v>
-      </c>
-      <c r="B77" t="s">
-        <v>58</v>
-      </c>
-      <c r="C77" t="s">
-        <v>34</v>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Izolovaní</t>
+        </is>
       </c>
       <c r="D77" t="n">
         <v>0.27</v>
@@ -8146,16 +8754,25 @@
       <c r="AF77" t="n">
         <v>0.18</v>
       </c>
+      <c r="AG77" t="n">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="78" spans="1:32">
-      <c r="A78" t="s">
-        <v>54</v>
-      </c>
-      <c r="B78" t="s">
-        <v>58</v>
-      </c>
-      <c r="C78" t="s">
-        <v>35</v>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Sociálně středně aktivní s větší ochranou</t>
+        </is>
       </c>
       <c r="D78" t="n">
         <v>0.33</v>
@@ -8244,16 +8861,25 @@
       <c r="AF78" t="n">
         <v>0.17</v>
       </c>
+      <c r="AG78" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="79" spans="1:32">
-      <c r="A79" t="s">
-        <v>54</v>
-      </c>
-      <c r="B79" t="s">
-        <v>58</v>
-      </c>
-      <c r="C79" t="s">
-        <v>36</v>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Sociálně středně aktivní s menší ochranou</t>
+        </is>
       </c>
       <c r="D79" t="n">
         <v>0.04</v>
@@ -8342,16 +8968,25 @@
       <c r="AF79" t="n">
         <v>0.17</v>
       </c>
+      <c r="AG79" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="80" spans="1:32">
-      <c r="A80" t="s">
-        <v>54</v>
-      </c>
-      <c r="B80" t="s">
-        <v>58</v>
-      </c>
-      <c r="C80" t="s">
-        <v>37</v>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Sociálně vysoce aktivní s větší ochranou</t>
+        </is>
       </c>
       <c r="D80" t="n">
         <v>0.3</v>
@@ -8440,16 +9075,25 @@
       <c r="AF80" t="n">
         <v>0.19</v>
       </c>
+      <c r="AG80" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="81" spans="1:32">
-      <c r="A81" t="s">
-        <v>54</v>
-      </c>
-      <c r="B81" t="s">
-        <v>58</v>
-      </c>
-      <c r="C81" t="s">
-        <v>38</v>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Sociálně vysoce aktivní s menší ochranou</t>
+        </is>
       </c>
       <c r="D81" t="n">
         <v>0.06</v>
@@ -8538,16 +9182,25 @@
       <c r="AF81" t="n">
         <v>0.29</v>
       </c>
+      <c r="AG81" t="n">
+        <v>0.24</v>
+      </c>
     </row>
-    <row r="82" spans="1:32">
-      <c r="A82" t="s">
-        <v>59</v>
-      </c>
-      <c r="B82" t="s">
-        <v>60</v>
-      </c>
-      <c r="C82" t="s">
-        <v>34</v>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Muž, 18–34 let</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Izolovaní</t>
+        </is>
       </c>
       <c r="D82" t="n">
         <v>0.11</v>
@@ -8636,16 +9289,25 @@
       <c r="AF82" t="n">
         <v>0.11</v>
       </c>
+      <c r="AG82" t="n">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="83" spans="1:32">
-      <c r="A83" t="s">
-        <v>59</v>
-      </c>
-      <c r="B83" t="s">
-        <v>60</v>
-      </c>
-      <c r="C83" t="s">
-        <v>35</v>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Muž, 18–34 let</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Sociálně středně aktivní s větší ochranou</t>
+        </is>
       </c>
       <c r="D83" t="n">
         <v>0.32</v>
@@ -8734,16 +9396,25 @@
       <c r="AF83" t="n">
         <v>0.08</v>
       </c>
+      <c r="AG83" t="n">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="84" spans="1:32">
-      <c r="A84" t="s">
-        <v>59</v>
-      </c>
-      <c r="B84" t="s">
-        <v>60</v>
-      </c>
-      <c r="C84" t="s">
-        <v>36</v>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Muž, 18–34 let</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Sociálně středně aktivní s menší ochranou</t>
+        </is>
       </c>
       <c r="D84" t="n">
         <v>0.07000000000000001</v>
@@ -8832,16 +9503,25 @@
       <c r="AF84" t="n">
         <v>0.19</v>
       </c>
+      <c r="AG84" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="85" spans="1:32">
-      <c r="A85" t="s">
-        <v>59</v>
-      </c>
-      <c r="B85" t="s">
-        <v>60</v>
-      </c>
-      <c r="C85" t="s">
-        <v>37</v>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Muž, 18–34 let</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Sociálně vysoce aktivní s větší ochranou</t>
+        </is>
       </c>
       <c r="D85" t="n">
         <v>0.42</v>
@@ -8930,16 +9610,25 @@
       <c r="AF85" t="n">
         <v>0.14</v>
       </c>
+      <c r="AG85" t="n">
+        <v>0.23</v>
+      </c>
     </row>
-    <row r="86" spans="1:32">
-      <c r="A86" t="s">
-        <v>59</v>
-      </c>
-      <c r="B86" t="s">
-        <v>60</v>
-      </c>
-      <c r="C86" t="s">
-        <v>38</v>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Muž, 18–34 let</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Sociálně vysoce aktivní s menší ochranou</t>
+        </is>
       </c>
       <c r="D86" t="n">
         <v>0.08</v>
@@ -9028,16 +9717,25 @@
       <c r="AF86" t="n">
         <v>0.48</v>
       </c>
+      <c r="AG86" t="n">
+        <v>0.45</v>
+      </c>
     </row>
-    <row r="87" spans="1:32">
-      <c r="A87" t="s">
-        <v>59</v>
-      </c>
-      <c r="B87" t="s">
-        <v>61</v>
-      </c>
-      <c r="C87" t="s">
-        <v>34</v>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Muž, 35–54 let</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Izolovaní</t>
+        </is>
       </c>
       <c r="D87" t="n">
         <v>0.14</v>
@@ -9126,16 +9824,25 @@
       <c r="AF87" t="n">
         <v>0.1</v>
       </c>
+      <c r="AG87" t="n">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="88" spans="1:32">
-      <c r="A88" t="s">
-        <v>59</v>
-      </c>
-      <c r="B88" t="s">
-        <v>61</v>
-      </c>
-      <c r="C88" t="s">
-        <v>35</v>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Muž, 35–54 let</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Sociálně středně aktivní s větší ochranou</t>
+        </is>
       </c>
       <c r="D88" t="n">
         <v>0.25</v>
@@ -9224,16 +9931,25 @@
       <c r="AF88" t="n">
         <v>0.13</v>
       </c>
+      <c r="AG88" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="89" spans="1:32">
-      <c r="A89" t="s">
-        <v>59</v>
-      </c>
-      <c r="B89" t="s">
-        <v>61</v>
-      </c>
-      <c r="C89" t="s">
-        <v>36</v>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Muž, 35–54 let</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Sociálně středně aktivní s menší ochranou</t>
+        </is>
       </c>
       <c r="D89" t="n">
         <v>0.03</v>
@@ -9322,16 +10038,25 @@
       <c r="AF89" t="n">
         <v>0.13</v>
       </c>
+      <c r="AG89" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="90" spans="1:32">
-      <c r="A90" t="s">
-        <v>59</v>
-      </c>
-      <c r="B90" t="s">
-        <v>61</v>
-      </c>
-      <c r="C90" t="s">
-        <v>37</v>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Muž, 35–54 let</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Sociálně vysoce aktivní s větší ochranou</t>
+        </is>
       </c>
       <c r="D90" t="n">
         <v>0.44</v>
@@ -9420,16 +10145,25 @@
       <c r="AF90" t="n">
         <v>0.21</v>
       </c>
+      <c r="AG90" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="91" spans="1:32">
-      <c r="A91" t="s">
-        <v>59</v>
-      </c>
-      <c r="B91" t="s">
-        <v>61</v>
-      </c>
-      <c r="C91" t="s">
-        <v>38</v>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Muž, 35–54 let</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Sociálně vysoce aktivní s menší ochranou</t>
+        </is>
       </c>
       <c r="D91" t="n">
         <v>0.14</v>
@@ -9518,16 +10252,25 @@
       <c r="AF91" t="n">
         <v>0.43</v>
       </c>
+      <c r="AG91" t="n">
+        <v>0.41</v>
+      </c>
     </row>
-    <row r="92" spans="1:32">
-      <c r="A92" t="s">
-        <v>59</v>
-      </c>
-      <c r="B92" t="s">
-        <v>62</v>
-      </c>
-      <c r="C92" t="s">
-        <v>34</v>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Muž, 55 a více let</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Izolovaní</t>
+        </is>
       </c>
       <c r="D92" t="n">
         <v>0.38</v>
@@ -9616,16 +10359,25 @@
       <c r="AF92" t="n">
         <v>0.26</v>
       </c>
+      <c r="AG92" t="n">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="93" spans="1:32">
-      <c r="A93" t="s">
-        <v>59</v>
-      </c>
-      <c r="B93" t="s">
-        <v>62</v>
-      </c>
-      <c r="C93" t="s">
-        <v>35</v>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Muž, 55 a více let</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Sociálně středně aktivní s větší ochranou</t>
+        </is>
       </c>
       <c r="D93" t="n">
         <v>0.35</v>
@@ -9714,16 +10466,25 @@
       <c r="AF93" t="n">
         <v>0.2</v>
       </c>
+      <c r="AG93" t="n">
+        <v>0.23</v>
+      </c>
     </row>
-    <row r="94" spans="1:32">
-      <c r="A94" t="s">
-        <v>59</v>
-      </c>
-      <c r="B94" t="s">
-        <v>62</v>
-      </c>
-      <c r="C94" t="s">
-        <v>36</v>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Muž, 55 a více let</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Sociálně středně aktivní s menší ochranou</t>
+        </is>
       </c>
       <c r="D94" t="n">
         <v>0.05</v>
@@ -9812,16 +10573,25 @@
       <c r="AF94" t="n">
         <v>0.17</v>
       </c>
+      <c r="AG94" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="95" spans="1:32">
-      <c r="A95" t="s">
-        <v>59</v>
-      </c>
-      <c r="B95" t="s">
-        <v>62</v>
-      </c>
-      <c r="C95" t="s">
-        <v>37</v>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Muž, 55 a více let</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Sociálně vysoce aktivní s větší ochranou</t>
+        </is>
       </c>
       <c r="D95" t="n">
         <v>0.18</v>
@@ -9910,16 +10680,25 @@
       <c r="AF95" t="n">
         <v>0.17</v>
       </c>
+      <c r="AG95" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="96" spans="1:32">
-      <c r="A96" t="s">
-        <v>59</v>
-      </c>
-      <c r="B96" t="s">
-        <v>62</v>
-      </c>
-      <c r="C96" t="s">
-        <v>38</v>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Muž, 55 a více let</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Sociálně vysoce aktivní s menší ochranou</t>
+        </is>
       </c>
       <c r="D96" t="n">
         <v>0.04</v>
@@ -10008,16 +10787,25 @@
       <c r="AF96" t="n">
         <v>0.2</v>
       </c>
+      <c r="AG96" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="97" spans="1:32">
-      <c r="A97" t="s">
-        <v>59</v>
-      </c>
-      <c r="B97" t="s">
-        <v>63</v>
-      </c>
-      <c r="C97" t="s">
-        <v>34</v>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Žena, 18–34 let</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Izolovaní</t>
+        </is>
       </c>
       <c r="D97" t="n">
         <v>0.17</v>
@@ -10106,16 +10894,25 @@
       <c r="AF97" t="n">
         <v>0.09</v>
       </c>
+      <c r="AG97" t="n">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="98" spans="1:32">
-      <c r="A98" t="s">
-        <v>59</v>
-      </c>
-      <c r="B98" t="s">
-        <v>63</v>
-      </c>
-      <c r="C98" t="s">
-        <v>35</v>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Žena, 18–34 let</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Sociálně středně aktivní s větší ochranou</t>
+        </is>
       </c>
       <c r="D98" t="n">
         <v>0.34</v>
@@ -10204,16 +11001,25 @@
       <c r="AF98" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AG98" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="99" spans="1:32">
-      <c r="A99" t="s">
-        <v>59</v>
-      </c>
-      <c r="B99" t="s">
-        <v>63</v>
-      </c>
-      <c r="C99" t="s">
-        <v>36</v>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Žena, 18–34 let</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Sociálně středně aktivní s menší ochranou</t>
+        </is>
       </c>
       <c r="D99" t="n">
         <v>0.04</v>
@@ -10302,16 +11108,25 @@
       <c r="AF99" t="n">
         <v>0.23</v>
       </c>
+      <c r="AG99" t="n">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="100" spans="1:32">
-      <c r="A100" t="s">
-        <v>59</v>
-      </c>
-      <c r="B100" t="s">
-        <v>63</v>
-      </c>
-      <c r="C100" t="s">
-        <v>37</v>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Žena, 18–34 let</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Sociálně vysoce aktivní s větší ochranou</t>
+        </is>
       </c>
       <c r="D100" t="n">
         <v>0.39</v>
@@ -10400,16 +11215,25 @@
       <c r="AF100" t="n">
         <v>0.13</v>
       </c>
+      <c r="AG100" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="101" spans="1:32">
-      <c r="A101" t="s">
-        <v>59</v>
-      </c>
-      <c r="B101" t="s">
-        <v>63</v>
-      </c>
-      <c r="C101" t="s">
-        <v>38</v>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Žena, 18–34 let</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Sociálně vysoce aktivní s menší ochranou</t>
+        </is>
       </c>
       <c r="D101" t="n">
         <v>0.06</v>
@@ -10498,16 +11322,25 @@
       <c r="AF101" t="n">
         <v>0.48</v>
       </c>
+      <c r="AG101" t="n">
+        <v>0.43</v>
+      </c>
     </row>
-    <row r="102" spans="1:32">
-      <c r="A102" t="s">
-        <v>59</v>
-      </c>
-      <c r="B102" t="s">
-        <v>64</v>
-      </c>
-      <c r="C102" t="s">
-        <v>34</v>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Žena, 35–54 let</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Izolovaní</t>
+        </is>
       </c>
       <c r="D102" t="n">
         <v>0.25</v>
@@ -10596,16 +11429,25 @@
       <c r="AF102" t="n">
         <v>0.13</v>
       </c>
+      <c r="AG102" t="n">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="103" spans="1:32">
-      <c r="A103" t="s">
-        <v>59</v>
-      </c>
-      <c r="B103" t="s">
-        <v>64</v>
-      </c>
-      <c r="C103" t="s">
-        <v>35</v>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Žena, 35–54 let</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Sociálně středně aktivní s větší ochranou</t>
+        </is>
       </c>
       <c r="D103" t="n">
         <v>0.3</v>
@@ -10694,16 +11536,25 @@
       <c r="AF103" t="n">
         <v>0.1</v>
       </c>
+      <c r="AG103" t="n">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="104" spans="1:32">
-      <c r="A104" t="s">
-        <v>59</v>
-      </c>
-      <c r="B104" t="s">
-        <v>64</v>
-      </c>
-      <c r="C104" t="s">
-        <v>36</v>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Žena, 35–54 let</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Sociálně středně aktivní s menší ochranou</t>
+        </is>
       </c>
       <c r="D104" t="n">
         <v>0.03</v>
@@ -10792,16 +11643,25 @@
       <c r="AF104" t="n">
         <v>0.23</v>
       </c>
+      <c r="AG104" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="105" spans="1:32">
-      <c r="A105" t="s">
-        <v>59</v>
-      </c>
-      <c r="B105" t="s">
-        <v>64</v>
-      </c>
-      <c r="C105" t="s">
-        <v>37</v>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Žena, 35–54 let</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Sociálně vysoce aktivní s větší ochranou</t>
+        </is>
       </c>
       <c r="D105" t="n">
         <v>0.39</v>
@@ -10890,16 +11750,25 @@
       <c r="AF105" t="n">
         <v>0.19</v>
       </c>
+      <c r="AG105" t="n">
+        <v>0.22</v>
+      </c>
     </row>
-    <row r="106" spans="1:32">
-      <c r="A106" t="s">
-        <v>59</v>
-      </c>
-      <c r="B106" t="s">
-        <v>64</v>
-      </c>
-      <c r="C106" t="s">
-        <v>38</v>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Žena, 35–54 let</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Sociálně vysoce aktivní s menší ochranou</t>
+        </is>
       </c>
       <c r="D106" t="n">
         <v>0.03</v>
@@ -10988,16 +11857,25 @@
       <c r="AF106" t="n">
         <v>0.35</v>
       </c>
+      <c r="AG106" t="n">
+        <v>0.36</v>
+      </c>
     </row>
-    <row r="107" spans="1:32">
-      <c r="A107" t="s">
-        <v>59</v>
-      </c>
-      <c r="B107" t="s">
-        <v>65</v>
-      </c>
-      <c r="C107" t="s">
-        <v>34</v>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Žena, 55 a více let</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Izolovaní</t>
+        </is>
       </c>
       <c r="D107" t="n">
         <v>0.43</v>
@@ -11086,16 +11964,25 @@
       <c r="AF107" t="n">
         <v>0.3</v>
       </c>
+      <c r="AG107" t="n">
+        <v>0.28</v>
+      </c>
     </row>
-    <row r="108" spans="1:32">
-      <c r="A108" t="s">
-        <v>59</v>
-      </c>
-      <c r="B108" t="s">
-        <v>65</v>
-      </c>
-      <c r="C108" t="s">
-        <v>35</v>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Žena, 55 a více let</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Sociálně středně aktivní s větší ochranou</t>
+        </is>
       </c>
       <c r="D108" t="n">
         <v>0.33</v>
@@ -11184,16 +12071,25 @@
       <c r="AF108" t="n">
         <v>0.19</v>
       </c>
+      <c r="AG108" t="n">
+        <v>0.24</v>
+      </c>
     </row>
-    <row r="109" spans="1:32">
-      <c r="A109" t="s">
-        <v>59</v>
-      </c>
-      <c r="B109" t="s">
-        <v>65</v>
-      </c>
-      <c r="C109" t="s">
-        <v>36</v>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Žena, 55 a více let</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Sociálně středně aktivní s menší ochranou</t>
+        </is>
       </c>
       <c r="D109" t="n">
         <v>0.06</v>
@@ -11282,16 +12178,25 @@
       <c r="AF109" t="n">
         <v>0.17</v>
       </c>
+      <c r="AG109" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="110" spans="1:32">
-      <c r="A110" t="s">
-        <v>59</v>
-      </c>
-      <c r="B110" t="s">
-        <v>65</v>
-      </c>
-      <c r="C110" t="s">
-        <v>37</v>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Žena, 55 a více let</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Sociálně vysoce aktivní s větší ochranou</t>
+        </is>
       </c>
       <c r="D110" t="n">
         <v>0.16</v>
@@ -11380,16 +12285,25 @@
       <c r="AF110" t="n">
         <v>0.19</v>
       </c>
+      <c r="AG110" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="111" spans="1:32">
-      <c r="A111" t="s">
-        <v>59</v>
-      </c>
-      <c r="B111" t="s">
-        <v>65</v>
-      </c>
-      <c r="C111" t="s">
-        <v>38</v>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Žena, 55 a více let</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Sociálně vysoce aktivní s menší ochranou</t>
+        </is>
       </c>
       <c r="D111" t="n">
         <v>0.02</v>
@@ -11478,14 +12392,19 @@
       <c r="AF111" t="n">
         <v>0.15</v>
       </c>
+      <c r="AG111" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="112" spans="1:32">
-      <c r="A112" t="s">
-        <v>66</v>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Život během pandemie, Kontakty vs. protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 27. 7. 2021</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -11495,7 +12414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE24"/>
+  <dimension ref="A1:AF24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11503,107 +12422,178 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>31</v>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>trideni</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>kategorie trideni</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>19. 3. 2020</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>1. 4. 2020</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>15. 4. 2020</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>28. 4. 2020</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>12. 5. 2020</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>26. 5. 2020</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>16. 6. 2020</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>30. 6. 2020</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>21. 7. 2020</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>11. 8. 2020</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>1. 9. 2020</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>15. 9. 2020</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>30. 9. 2020</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>13. 10. 2020</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>27. 10. 2020</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>10. 11. 2020</t>
+        </is>
+      </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>24. 11. 2020</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>8. 12. 2020</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>22. 12. 2020</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>5. 1. 2021</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>26. 1. 2021</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>16. 2. 2021</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>2. 3. 2021</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>16. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>30. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>13. 4. 2021</t>
+        </is>
+      </c>
+      <c r="AC1" s="2" t="inlineStr">
+        <is>
+          <t>4. 5. 2021</t>
+        </is>
+      </c>
+      <c r="AD1" s="2" t="inlineStr">
+        <is>
+          <t>25. 5. 2021</t>
+        </is>
+      </c>
+      <c r="AE1" s="2" t="inlineStr">
+        <is>
+          <t>22. 6. 2021</t>
+        </is>
+      </c>
+      <c r="AF1" s="2" t="inlineStr">
+        <is>
+          <t>20. 7. 2021</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:31">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Celkem</t>
+        </is>
       </c>
       <c r="C2" t="n">
         <v>2404</v>
@@ -11692,13 +12682,20 @@
       <c r="AE2" t="n">
         <v>1689</v>
       </c>
+      <c r="AF2" t="n">
+        <v>1526</v>
+      </c>
     </row>
-    <row r="3" spans="1:31">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>18 až 34 let</t>
+        </is>
       </c>
       <c r="C3" t="n">
         <v>587</v>
@@ -11787,13 +12784,20 @@
       <c r="AE3" t="n">
         <v>394</v>
       </c>
+      <c r="AF3" t="n">
+        <v>349</v>
+      </c>
     </row>
-    <row r="4" spans="1:31">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" t="s">
-        <v>41</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>35 až 54 let</t>
+        </is>
       </c>
       <c r="C4" t="n">
         <v>874</v>
@@ -11882,13 +12886,20 @@
       <c r="AE4" t="n">
         <v>602</v>
       </c>
+      <c r="AF4" t="n">
+        <v>527</v>
+      </c>
     </row>
-    <row r="5" spans="1:31">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>55 a více let</t>
+        </is>
       </c>
       <c r="C5" t="n">
         <v>943</v>
@@ -11977,13 +12988,20 @@
       <c r="AE5" t="n">
         <v>693</v>
       </c>
+      <c r="AF5" t="n">
+        <v>650</v>
+      </c>
     </row>
-    <row r="6" spans="1:31">
-      <c r="A6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" t="s">
-        <v>44</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
       </c>
       <c r="C6" t="n">
         <v>542</v>
@@ -12072,13 +13090,20 @@
       <c r="AE6" t="n">
         <v>522</v>
       </c>
+      <c r="AF6" t="n">
+        <v>406</v>
+      </c>
     </row>
-    <row r="7" spans="1:31">
-      <c r="A7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" t="s">
-        <v>45</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Částečné starosti</t>
+        </is>
       </c>
       <c r="C7" t="n">
         <v>669</v>
@@ -12167,13 +13192,20 @@
       <c r="AE7" t="n">
         <v>699</v>
       </c>
+      <c r="AF7" t="n">
+        <v>636</v>
+      </c>
     </row>
-    <row r="8" spans="1:31">
-      <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" t="s">
-        <v>46</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Velké starosti</t>
+        </is>
       </c>
       <c r="C8" t="n">
         <v>1193</v>
@@ -12262,13 +13294,20 @@
       <c r="AE8" t="n">
         <v>468</v>
       </c>
+      <c r="AF8" t="n">
+        <v>484</v>
+      </c>
     </row>
-    <row r="9" spans="1:31">
-      <c r="A9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" t="s">
-        <v>48</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ano, v přímém či nepřímém kontaktu</t>
+        </is>
       </c>
       <c r="C9" t="n">
         <v>10</v>
@@ -12357,13 +13396,20 @@
       <c r="AE9" t="n">
         <v>338</v>
       </c>
+      <c r="AF9" t="n">
+        <v>272</v>
+      </c>
     </row>
-    <row r="10" spans="1:31">
-      <c r="A10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" t="s">
-        <v>49</v>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ano, ale nebyli v kontaktu</t>
+        </is>
       </c>
       <c r="C10" t="n">
         <v>81</v>
@@ -12452,13 +13498,20 @@
       <c r="AE10" t="n">
         <v>386</v>
       </c>
+      <c r="AF10" t="n">
+        <v>318</v>
+      </c>
     </row>
-    <row r="11" spans="1:31">
-      <c r="A11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" t="s">
-        <v>50</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Nezná nakaženého</t>
+        </is>
       </c>
       <c r="C11" t="n">
         <v>2313</v>
@@ -12547,13 +13600,20 @@
       <c r="AE11" t="n">
         <v>965</v>
       </c>
+      <c r="AF11" t="n">
+        <v>936</v>
+      </c>
     </row>
-    <row r="12" spans="1:31">
-      <c r="A12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" t="s">
-        <v>52</v>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Muž</t>
+        </is>
       </c>
       <c r="C12" t="n">
         <v>1210</v>
@@ -12642,13 +13702,20 @@
       <c r="AE12" t="n">
         <v>847</v>
       </c>
+      <c r="AF12" t="n">
+        <v>760</v>
+      </c>
     </row>
-    <row r="13" spans="1:31">
-      <c r="A13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" t="s">
-        <v>53</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Žena</t>
+        </is>
       </c>
       <c r="C13" t="n">
         <v>1194</v>
@@ -12737,13 +13804,20 @@
       <c r="AE13" t="n">
         <v>842</v>
       </c>
+      <c r="AF13" t="n">
+        <v>766</v>
+      </c>
     </row>
-    <row r="14" spans="1:31">
-      <c r="A14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" t="s">
-        <v>55</v>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Méně než 20 000 obyvatel</t>
+        </is>
       </c>
       <c r="C14" t="n">
         <v>1316</v>
@@ -12832,13 +13906,20 @@
       <c r="AE14" t="n">
         <v>879</v>
       </c>
+      <c r="AF14" t="n">
+        <v>787</v>
+      </c>
     </row>
-    <row r="15" spans="1:31">
-      <c r="A15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" t="s">
-        <v>56</v>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>20 000 až 99 999 obyvatel</t>
+        </is>
       </c>
       <c r="C15" t="n">
         <v>519</v>
@@ -12927,13 +14008,20 @@
       <c r="AE15" t="n">
         <v>386</v>
       </c>
+      <c r="AF15" t="n">
+        <v>354</v>
+      </c>
     </row>
-    <row r="16" spans="1:31">
-      <c r="A16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" t="s">
-        <v>57</v>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>100 000 a více obyvatel</t>
+        </is>
       </c>
       <c r="C16" t="n">
         <v>279</v>
@@ -13022,13 +14110,20 @@
       <c r="AE16" t="n">
         <v>197</v>
       </c>
+      <c r="AF16" t="n">
+        <v>183</v>
+      </c>
     </row>
-    <row r="17" spans="1:31">
-      <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" t="s">
-        <v>58</v>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
       </c>
       <c r="C17" t="n">
         <v>290</v>
@@ -13117,13 +14212,20 @@
       <c r="AE17" t="n">
         <v>227</v>
       </c>
+      <c r="AF17" t="n">
+        <v>202</v>
+      </c>
     </row>
-    <row r="18" spans="1:31">
-      <c r="A18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" t="s">
-        <v>60</v>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Muž, 18–34 let</t>
+        </is>
       </c>
       <c r="C18" t="n">
         <v>307</v>
@@ -13212,13 +14314,20 @@
       <c r="AE18" t="n">
         <v>209</v>
       </c>
+      <c r="AF18" t="n">
+        <v>184</v>
+      </c>
     </row>
-    <row r="19" spans="1:31">
-      <c r="A19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" t="s">
-        <v>61</v>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Muž, 35–54 let</t>
+        </is>
       </c>
       <c r="C19" t="n">
         <v>479</v>
@@ -13307,13 +14416,20 @@
       <c r="AE19" t="n">
         <v>331</v>
       </c>
+      <c r="AF19" t="n">
+        <v>287</v>
+      </c>
     </row>
-    <row r="20" spans="1:31">
-      <c r="A20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" t="s">
-        <v>62</v>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Muž, 55 a více let</t>
+        </is>
       </c>
       <c r="C20" t="n">
         <v>423</v>
@@ -13402,13 +14518,20 @@
       <c r="AE20" t="n">
         <v>307</v>
       </c>
+      <c r="AF20" t="n">
+        <v>289</v>
+      </c>
     </row>
-    <row r="21" spans="1:31">
-      <c r="A21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" t="s">
-        <v>63</v>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Žena, 18–34 let</t>
+        </is>
       </c>
       <c r="C21" t="n">
         <v>280</v>
@@ -13497,13 +14620,20 @@
       <c r="AE21" t="n">
         <v>185</v>
       </c>
+      <c r="AF21" t="n">
+        <v>165</v>
+      </c>
     </row>
-    <row r="22" spans="1:31">
-      <c r="A22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" t="s">
-        <v>64</v>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Žena, 35–54 let</t>
+        </is>
       </c>
       <c r="C22" t="n">
         <v>395</v>
@@ -13592,13 +14722,20 @@
       <c r="AE22" t="n">
         <v>270</v>
       </c>
+      <c r="AF22" t="n">
+        <v>240</v>
+      </c>
     </row>
-    <row r="23" spans="1:31">
-      <c r="A23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" t="s">
-        <v>65</v>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Žena, 55 a více let</t>
+        </is>
       </c>
       <c r="C23" t="n">
         <v>520</v>
@@ -13687,43 +14824,49 @@
       <c r="AE23" t="n">
         <v>387</v>
       </c>
+      <c r="AF23" t="n">
+        <v>361</v>
+      </c>
     </row>
-    <row r="24" spans="1:31">
-      <c r="A24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
-      <c r="D24" t="s"/>
-      <c r="E24" t="s"/>
-      <c r="F24" t="s"/>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s"/>
-      <c r="J24" t="s"/>
-      <c r="K24" t="s"/>
-      <c r="L24" t="s"/>
-      <c r="M24" t="s"/>
-      <c r="N24" t="s"/>
-      <c r="O24" t="s"/>
-      <c r="P24" t="s"/>
-      <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
-      <c r="S24" t="s"/>
-      <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
-      <c r="V24" t="s"/>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
-      <c r="Y24" t="s"/>
-      <c r="Z24" t="s"/>
-      <c r="AA24" t="s"/>
-      <c r="AB24" t="s"/>
-      <c r="AC24" t="s"/>
-      <c r="AD24" t="s"/>
-      <c r="AE24" t="s"/>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Život během pandemie, Kontakty vs. protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 27. 7. 2021</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/ZBP_10_kontakty_aktivity.xlsx
+++ b/ZBP_10_kontakty_aktivity.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG112"/>
+  <dimension ref="A1:AH112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,6 +625,11 @@
           <t>20. 7. 2021</t>
         </is>
       </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>24. 8. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -732,6 +737,9 @@
       <c r="AG2" t="n">
         <v>0.18</v>
       </c>
+      <c r="AH2" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -839,6 +847,9 @@
       <c r="AG3" t="n">
         <v>0.15</v>
       </c>
+      <c r="AH3" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -946,6 +957,9 @@
       <c r="AG4" t="n">
         <v>0.19</v>
       </c>
+      <c r="AH4" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1053,6 +1067,9 @@
       <c r="AG5" t="n">
         <v>0.17</v>
       </c>
+      <c r="AH5" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1160,6 +1177,9 @@
       <c r="AG6" t="n">
         <v>0.31</v>
       </c>
+      <c r="AH6" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1267,6 +1287,9 @@
       <c r="AG7" t="n">
         <v>0.12</v>
       </c>
+      <c r="AH7" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1374,6 +1397,9 @@
       <c r="AG8" t="n">
         <v>0.04</v>
       </c>
+      <c r="AH8" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1481,6 +1507,9 @@
       <c r="AG9" t="n">
         <v>0.21</v>
       </c>
+      <c r="AH9" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1588,6 +1617,9 @@
       <c r="AG10" t="n">
         <v>0.19</v>
       </c>
+      <c r="AH10" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1695,6 +1727,9 @@
       <c r="AG11" t="n">
         <v>0.44</v>
       </c>
+      <c r="AH11" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1802,6 +1837,9 @@
       <c r="AG12" t="n">
         <v>0.13</v>
       </c>
+      <c r="AH12" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1909,6 +1947,9 @@
       <c r="AG13" t="n">
         <v>0.11</v>
       </c>
+      <c r="AH13" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2016,6 +2057,9 @@
       <c r="AG14" t="n">
         <v>0.18</v>
       </c>
+      <c r="AH14" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2123,6 +2167,9 @@
       <c r="AG15" t="n">
         <v>0.2</v>
       </c>
+      <c r="AH15" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2230,6 +2277,9 @@
       <c r="AG16" t="n">
         <v>0.38</v>
       </c>
+      <c r="AH16" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2337,6 +2387,9 @@
       <c r="AG17" t="n">
         <v>0.26</v>
       </c>
+      <c r="AH17" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2444,6 +2497,9 @@
       <c r="AG18" t="n">
         <v>0.24</v>
       </c>
+      <c r="AH18" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2551,6 +2607,9 @@
       <c r="AG19" t="n">
         <v>0.19</v>
       </c>
+      <c r="AH19" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2658,6 +2717,9 @@
       <c r="AG20" t="n">
         <v>0.15</v>
       </c>
+      <c r="AH20" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2765,6 +2827,9 @@
       <c r="AG21" t="n">
         <v>0.16</v>
       </c>
+      <c r="AH21" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2872,6 +2937,9 @@
       <c r="AG22" t="n">
         <v>0.13</v>
       </c>
+      <c r="AH22" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2979,6 +3047,9 @@
       <c r="AG23" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AH23" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3086,6 +3157,9 @@
       <c r="AG24" t="n">
         <v>0.21</v>
       </c>
+      <c r="AH24" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3193,6 +3267,9 @@
       <c r="AG25" t="n">
         <v>0.15</v>
       </c>
+      <c r="AH25" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3300,6 +3377,9 @@
       <c r="AG26" t="n">
         <v>0.44</v>
       </c>
+      <c r="AH26" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3407,6 +3487,9 @@
       <c r="AG27" t="n">
         <v>0.18</v>
       </c>
+      <c r="AH27" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3514,6 +3597,9 @@
       <c r="AG28" t="n">
         <v>0.14</v>
       </c>
+      <c r="AH28" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3621,6 +3707,9 @@
       <c r="AG29" t="n">
         <v>0.22</v>
       </c>
+      <c r="AH29" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3728,6 +3817,9 @@
       <c r="AG30" t="n">
         <v>0.15</v>
       </c>
+      <c r="AH30" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3835,6 +3927,9 @@
       <c r="AG31" t="n">
         <v>0.31</v>
       </c>
+      <c r="AH31" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3942,6 +4037,9 @@
       <c r="AG32" t="n">
         <v>0.24</v>
       </c>
+      <c r="AH32" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4049,6 +4147,9 @@
       <c r="AG33" t="n">
         <v>0.22</v>
       </c>
+      <c r="AH33" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4156,6 +4257,9 @@
       <c r="AG34" t="n">
         <v>0.14</v>
       </c>
+      <c r="AH34" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4263,6 +4367,9 @@
       <c r="AG35" t="n">
         <v>0.22</v>
       </c>
+      <c r="AH35" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4370,6 +4477,9 @@
       <c r="AG36" t="n">
         <v>0.18</v>
       </c>
+      <c r="AH36" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4477,6 +4587,9 @@
       <c r="AG37" t="n">
         <v>0.1</v>
       </c>
+      <c r="AH37" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4584,6 +4697,9 @@
       <c r="AG38" t="n">
         <v>0.09</v>
       </c>
+      <c r="AH38" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4691,6 +4807,9 @@
       <c r="AG39" t="n">
         <v>0.17</v>
       </c>
+      <c r="AH39" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4798,6 +4917,9 @@
       <c r="AG40" t="n">
         <v>0.19</v>
       </c>
+      <c r="AH40" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4905,6 +5027,9 @@
       <c r="AG41" t="n">
         <v>0.45</v>
       </c>
+      <c r="AH41" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5012,6 +5137,9 @@
       <c r="AG42" t="n">
         <v>0.18</v>
       </c>
+      <c r="AH42" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5119,6 +5247,9 @@
       <c r="AG43" t="n">
         <v>0.21</v>
       </c>
+      <c r="AH43" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5226,6 +5357,9 @@
       <c r="AG44" t="n">
         <v>0.17</v>
       </c>
+      <c r="AH44" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5333,6 +5467,9 @@
       <c r="AG45" t="n">
         <v>0.2</v>
       </c>
+      <c r="AH45" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5440,6 +5577,9 @@
       <c r="AG46" t="n">
         <v>0.24</v>
       </c>
+      <c r="AH46" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5547,6 +5687,9 @@
       <c r="AG47" t="n">
         <v>0.21</v>
       </c>
+      <c r="AH47" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5654,6 +5797,9 @@
       <c r="AG48" t="n">
         <v>0.14</v>
       </c>
+      <c r="AH48" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5761,6 +5907,9 @@
       <c r="AG49" t="n">
         <v>0.2</v>
       </c>
+      <c r="AH49" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5868,6 +6017,9 @@
       <c r="AG50" t="n">
         <v>0.16</v>
       </c>
+      <c r="AH50" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5975,6 +6127,9 @@
       <c r="AG51" t="n">
         <v>0.29</v>
       </c>
+      <c r="AH51" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6082,6 +6237,9 @@
       <c r="AG52" t="n">
         <v>0.17</v>
       </c>
+      <c r="AH52" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6189,6 +6347,9 @@
       <c r="AG53" t="n">
         <v>0.13</v>
       </c>
+      <c r="AH53" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6296,6 +6457,9 @@
       <c r="AG54" t="n">
         <v>0.19</v>
       </c>
+      <c r="AH54" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6403,6 +6567,9 @@
       <c r="AG55" t="n">
         <v>0.19</v>
       </c>
+      <c r="AH55" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6510,6 +6677,9 @@
       <c r="AG56" t="n">
         <v>0.32</v>
       </c>
+      <c r="AH56" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6617,6 +6787,9 @@
       <c r="AG57" t="n">
         <v>0.2</v>
       </c>
+      <c r="AH57" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6724,6 +6897,9 @@
       <c r="AG58" t="n">
         <v>0.16</v>
       </c>
+      <c r="AH58" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6831,6 +7007,9 @@
       <c r="AG59" t="n">
         <v>0.2</v>
       </c>
+      <c r="AH59" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6938,6 +7117,9 @@
       <c r="AG60" t="n">
         <v>0.16</v>
       </c>
+      <c r="AH60" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7045,6 +7227,9 @@
       <c r="AG61" t="n">
         <v>0.28</v>
       </c>
+      <c r="AH61" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7152,6 +7337,9 @@
       <c r="AG62" t="n">
         <v>0.18</v>
       </c>
+      <c r="AH62" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7259,6 +7447,9 @@
       <c r="AG63" t="n">
         <v>0.15</v>
       </c>
+      <c r="AH63" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7366,6 +7557,9 @@
       <c r="AG64" t="n">
         <v>0.22</v>
       </c>
+      <c r="AH64" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7473,6 +7667,9 @@
       <c r="AG65" t="n">
         <v>0.15</v>
       </c>
+      <c r="AH65" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7580,6 +7777,9 @@
       <c r="AG66" t="n">
         <v>0.3</v>
       </c>
+      <c r="AH66" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7687,6 +7887,9 @@
       <c r="AG67" t="n">
         <v>0.18</v>
       </c>
+      <c r="AH67" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -7794,6 +7997,9 @@
       <c r="AG68" t="n">
         <v>0.12</v>
       </c>
+      <c r="AH68" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7901,6 +8107,9 @@
       <c r="AG69" t="n">
         <v>0.14</v>
       </c>
+      <c r="AH69" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8008,6 +8217,9 @@
       <c r="AG70" t="n">
         <v>0.21</v>
       </c>
+      <c r="AH70" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8115,6 +8327,9 @@
       <c r="AG71" t="n">
         <v>0.35</v>
       </c>
+      <c r="AH71" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8222,6 +8437,9 @@
       <c r="AG72" t="n">
         <v>0.16</v>
       </c>
+      <c r="AH72" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8329,6 +8547,9 @@
       <c r="AG73" t="n">
         <v>0.16</v>
       </c>
+      <c r="AH73" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -8436,6 +8657,9 @@
       <c r="AG74" t="n">
         <v>0.16</v>
       </c>
+      <c r="AH74" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -8543,6 +8767,9 @@
       <c r="AG75" t="n">
         <v>0.19</v>
       </c>
+      <c r="AH75" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -8650,6 +8877,9 @@
       <c r="AG76" t="n">
         <v>0.33</v>
       </c>
+      <c r="AH76" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -8757,6 +8987,9 @@
       <c r="AG77" t="n">
         <v>0.2</v>
       </c>
+      <c r="AH77" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -8864,6 +9097,9 @@
       <c r="AG78" t="n">
         <v>0.18</v>
       </c>
+      <c r="AH78" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -8971,6 +9207,9 @@
       <c r="AG79" t="n">
         <v>0.19</v>
       </c>
+      <c r="AH79" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -9078,6 +9317,9 @@
       <c r="AG80" t="n">
         <v>0.19</v>
       </c>
+      <c r="AH80" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -9185,6 +9427,9 @@
       <c r="AG81" t="n">
         <v>0.24</v>
       </c>
+      <c r="AH81" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -9292,6 +9537,9 @@
       <c r="AG82" t="n">
         <v>0.12</v>
       </c>
+      <c r="AH82" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -9399,6 +9647,9 @@
       <c r="AG83" t="n">
         <v>0.02</v>
       </c>
+      <c r="AH83" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -9506,6 +9757,9 @@
       <c r="AG84" t="n">
         <v>0.18</v>
       </c>
+      <c r="AH84" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -9613,6 +9867,9 @@
       <c r="AG85" t="n">
         <v>0.23</v>
       </c>
+      <c r="AH85" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -9720,6 +9977,9 @@
       <c r="AG86" t="n">
         <v>0.45</v>
       </c>
+      <c r="AH86" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -9827,6 +10087,9 @@
       <c r="AG87" t="n">
         <v>0.12</v>
       </c>
+      <c r="AH87" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -9934,6 +10197,9 @@
       <c r="AG88" t="n">
         <v>0.1</v>
       </c>
+      <c r="AH88" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -10041,6 +10307,9 @@
       <c r="AG89" t="n">
         <v>0.19</v>
       </c>
+      <c r="AH89" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -10148,6 +10417,9 @@
       <c r="AG90" t="n">
         <v>0.18</v>
       </c>
+      <c r="AH90" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -10255,6 +10527,9 @@
       <c r="AG91" t="n">
         <v>0.41</v>
       </c>
+      <c r="AH91" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -10362,6 +10637,9 @@
       <c r="AG92" t="n">
         <v>0.25</v>
       </c>
+      <c r="AH92" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -10469,6 +10747,9 @@
       <c r="AG93" t="n">
         <v>0.23</v>
       </c>
+      <c r="AH93" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -10576,6 +10857,9 @@
       <c r="AG94" t="n">
         <v>0.19</v>
       </c>
+      <c r="AH94" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -10683,6 +10967,9 @@
       <c r="AG95" t="n">
         <v>0.16</v>
       </c>
+      <c r="AH95" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -10790,6 +11077,9 @@
       <c r="AG96" t="n">
         <v>0.17</v>
       </c>
+      <c r="AH96" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -10897,6 +11187,9 @@
       <c r="AG97" t="n">
         <v>0.12</v>
       </c>
+      <c r="AH97" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -11004,6 +11297,9 @@
       <c r="AG98" t="n">
         <v>0.06</v>
       </c>
+      <c r="AH98" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -11111,6 +11407,9 @@
       <c r="AG99" t="n">
         <v>0.25</v>
       </c>
+      <c r="AH99" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -11218,6 +11517,9 @@
       <c r="AG100" t="n">
         <v>0.14</v>
       </c>
+      <c r="AH100" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -11325,6 +11627,9 @@
       <c r="AG101" t="n">
         <v>0.43</v>
       </c>
+      <c r="AH101" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -11432,6 +11737,9 @@
       <c r="AG102" t="n">
         <v>0.13</v>
       </c>
+      <c r="AH102" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -11539,6 +11847,9 @@
       <c r="AG103" t="n">
         <v>0.11</v>
       </c>
+      <c r="AH103" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -11646,6 +11957,9 @@
       <c r="AG104" t="n">
         <v>0.18</v>
       </c>
+      <c r="AH104" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -11753,6 +12067,9 @@
       <c r="AG105" t="n">
         <v>0.22</v>
       </c>
+      <c r="AH105" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -11860,6 +12177,9 @@
       <c r="AG106" t="n">
         <v>0.36</v>
       </c>
+      <c r="AH106" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -11967,6 +12287,9 @@
       <c r="AG107" t="n">
         <v>0.28</v>
       </c>
+      <c r="AH107" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -12074,6 +12397,9 @@
       <c r="AG108" t="n">
         <v>0.24</v>
       </c>
+      <c r="AH108" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -12181,6 +12507,9 @@
       <c r="AG109" t="n">
         <v>0.18</v>
       </c>
+      <c r="AH109" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -12288,6 +12617,9 @@
       <c r="AG110" t="n">
         <v>0.14</v>
       </c>
+      <c r="AH110" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -12395,11 +12727,14 @@
       <c r="AG111" t="n">
         <v>0.16</v>
       </c>
+      <c r="AH111" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Život během pandemie, Kontakty vs. protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 27. 7. 2021</t>
+          <t>Život během pandemie, Kontakty vs. protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 1. 9. 2021</t>
         </is>
       </c>
     </row>
@@ -12414,7 +12749,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF24"/>
+  <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12583,6 +12918,11 @@
           <t>20. 7. 2021</t>
         </is>
       </c>
+      <c r="AG1" s="2" t="inlineStr">
+        <is>
+          <t>24. 8. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -12685,6 +13025,9 @@
       <c r="AF2" t="n">
         <v>1526</v>
       </c>
+      <c r="AG2" t="n">
+        <v>1638</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -12787,6 +13130,9 @@
       <c r="AF3" t="n">
         <v>349</v>
       </c>
+      <c r="AG3" t="n">
+        <v>374</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -12889,6 +13235,9 @@
       <c r="AF4" t="n">
         <v>527</v>
       </c>
+      <c r="AG4" t="n">
+        <v>584</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -12991,6 +13340,9 @@
       <c r="AF5" t="n">
         <v>650</v>
       </c>
+      <c r="AG5" t="n">
+        <v>680</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -13093,6 +13445,9 @@
       <c r="AF6" t="n">
         <v>406</v>
       </c>
+      <c r="AG6" t="n">
+        <v>463</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -13195,6 +13550,9 @@
       <c r="AF7" t="n">
         <v>636</v>
       </c>
+      <c r="AG7" t="n">
+        <v>708</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -13297,6 +13655,9 @@
       <c r="AF8" t="n">
         <v>484</v>
       </c>
+      <c r="AG8" t="n">
+        <v>464</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -13399,6 +13760,9 @@
       <c r="AF9" t="n">
         <v>272</v>
       </c>
+      <c r="AG9" t="n">
+        <v>267</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -13501,6 +13865,9 @@
       <c r="AF10" t="n">
         <v>318</v>
       </c>
+      <c r="AG10" t="n">
+        <v>316</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -13603,6 +13970,9 @@
       <c r="AF11" t="n">
         <v>936</v>
       </c>
+      <c r="AG11" t="n">
+        <v>1055</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -13705,6 +14075,9 @@
       <c r="AF12" t="n">
         <v>760</v>
       </c>
+      <c r="AG12" t="n">
+        <v>827</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -13807,6 +14180,9 @@
       <c r="AF13" t="n">
         <v>766</v>
       </c>
+      <c r="AG13" t="n">
+        <v>811</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -13909,6 +14285,9 @@
       <c r="AF14" t="n">
         <v>787</v>
       </c>
+      <c r="AG14" t="n">
+        <v>839</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -14011,6 +14390,9 @@
       <c r="AF15" t="n">
         <v>354</v>
       </c>
+      <c r="AG15" t="n">
+        <v>388</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -14113,6 +14495,9 @@
       <c r="AF16" t="n">
         <v>183</v>
       </c>
+      <c r="AG16" t="n">
+        <v>193</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -14215,6 +14600,9 @@
       <c r="AF17" t="n">
         <v>202</v>
       </c>
+      <c r="AG17" t="n">
+        <v>218</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -14317,6 +14705,9 @@
       <c r="AF18" t="n">
         <v>184</v>
       </c>
+      <c r="AG18" t="n">
+        <v>199</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14419,6 +14810,9 @@
       <c r="AF19" t="n">
         <v>287</v>
       </c>
+      <c r="AG19" t="n">
+        <v>323</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14521,6 +14915,9 @@
       <c r="AF20" t="n">
         <v>289</v>
       </c>
+      <c r="AG20" t="n">
+        <v>306</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14623,6 +15020,9 @@
       <c r="AF21" t="n">
         <v>165</v>
       </c>
+      <c r="AG21" t="n">
+        <v>175</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14725,6 +15125,9 @@
       <c r="AF22" t="n">
         <v>240</v>
       </c>
+      <c r="AG22" t="n">
+        <v>262</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -14827,11 +15230,14 @@
       <c r="AF23" t="n">
         <v>361</v>
       </c>
+      <c r="AG23" t="n">
+        <v>373</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Život během pandemie, Kontakty vs. protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 27. 7. 2021</t>
+          <t>Život během pandemie, Kontakty vs. protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 9. 2021</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -14865,6 +15271,7 @@
       <c r="AD24" t="inlineStr"/>
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_10_kontakty_aktivity.xlsx
+++ b/ZBP_10_kontakty_aktivity.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH112"/>
+  <dimension ref="A1:AI112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,6 +630,11 @@
           <t>24. 8. 2021</t>
         </is>
       </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>28. 9. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -740,6 +745,9 @@
       <c r="AH2" t="n">
         <v>0.16</v>
       </c>
+      <c r="AI2" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -850,6 +858,9 @@
       <c r="AH3" t="n">
         <v>0.16</v>
       </c>
+      <c r="AI3" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -960,6 +971,9 @@
       <c r="AH4" t="n">
         <v>0.22</v>
       </c>
+      <c r="AI4" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1070,6 +1084,9 @@
       <c r="AH5" t="n">
         <v>0.15</v>
       </c>
+      <c r="AI5" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1180,6 +1197,9 @@
       <c r="AH6" t="n">
         <v>0.31</v>
       </c>
+      <c r="AI6" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1290,6 +1310,9 @@
       <c r="AH7" t="n">
         <v>0.15</v>
       </c>
+      <c r="AI7" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1400,6 +1423,9 @@
       <c r="AH8" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AI8" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1510,6 +1536,9 @@
       <c r="AH9" t="n">
         <v>0.23</v>
       </c>
+      <c r="AI9" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1620,6 +1649,9 @@
       <c r="AH10" t="n">
         <v>0.14</v>
       </c>
+      <c r="AI10" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1730,6 +1762,9 @@
       <c r="AH11" t="n">
         <v>0.41</v>
       </c>
+      <c r="AI11" t="n">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1840,6 +1875,9 @@
       <c r="AH12" t="n">
         <v>0.11</v>
       </c>
+      <c r="AI12" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1950,6 +1988,9 @@
       <c r="AH13" t="n">
         <v>0.13</v>
       </c>
+      <c r="AI13" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2060,6 +2101,9 @@
       <c r="AH14" t="n">
         <v>0.21</v>
       </c>
+      <c r="AI14" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2170,6 +2214,9 @@
       <c r="AH15" t="n">
         <v>0.17</v>
       </c>
+      <c r="AI15" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2280,6 +2327,9 @@
       <c r="AH16" t="n">
         <v>0.38</v>
       </c>
+      <c r="AI16" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2390,6 +2440,9 @@
       <c r="AH17" t="n">
         <v>0.21</v>
       </c>
+      <c r="AI17" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2500,6 +2553,9 @@
       <c r="AH18" t="n">
         <v>0.23</v>
       </c>
+      <c r="AI18" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2610,6 +2666,9 @@
       <c r="AH19" t="n">
         <v>0.21</v>
       </c>
+      <c r="AI19" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2720,6 +2779,9 @@
       <c r="AH20" t="n">
         <v>0.15</v>
       </c>
+      <c r="AI20" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2830,6 +2892,9 @@
       <c r="AH21" t="n">
         <v>0.2</v>
       </c>
+      <c r="AI21" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2940,6 +3005,9 @@
       <c r="AH22" t="n">
         <v>0.1</v>
       </c>
+      <c r="AI22" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3050,6 +3118,9 @@
       <c r="AH23" t="n">
         <v>0.11</v>
       </c>
+      <c r="AI23" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3160,6 +3231,9 @@
       <c r="AH24" t="n">
         <v>0.27</v>
       </c>
+      <c r="AI24" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3270,6 +3344,9 @@
       <c r="AH25" t="n">
         <v>0.11</v>
       </c>
+      <c r="AI25" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3380,6 +3457,9 @@
       <c r="AH26" t="n">
         <v>0.41</v>
       </c>
+      <c r="AI26" t="n">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3490,6 +3570,9 @@
       <c r="AH27" t="n">
         <v>0.19</v>
       </c>
+      <c r="AI27" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3600,6 +3683,9 @@
       <c r="AH28" t="n">
         <v>0.14</v>
       </c>
+      <c r="AI28" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3710,6 +3796,9 @@
       <c r="AH29" t="n">
         <v>0.22</v>
       </c>
+      <c r="AI29" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3820,6 +3909,9 @@
       <c r="AH30" t="n">
         <v>0.13</v>
       </c>
+      <c r="AI30" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3930,6 +4022,9 @@
       <c r="AH31" t="n">
         <v>0.32</v>
       </c>
+      <c r="AI31" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4040,6 +4135,9 @@
       <c r="AH32" t="n">
         <v>0.18</v>
       </c>
+      <c r="AI32" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4150,6 +4248,9 @@
       <c r="AH33" t="n">
         <v>0.24</v>
       </c>
+      <c r="AI33" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4260,6 +4361,9 @@
       <c r="AH34" t="n">
         <v>0.16</v>
       </c>
+      <c r="AI34" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4370,6 +4474,9 @@
       <c r="AH35" t="n">
         <v>0.22</v>
       </c>
+      <c r="AI35" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4480,6 +4587,9 @@
       <c r="AH36" t="n">
         <v>0.2</v>
       </c>
+      <c r="AI36" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4590,6 +4700,9 @@
       <c r="AH37" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AI37" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4700,6 +4813,9 @@
       <c r="AH38" t="n">
         <v>0.13</v>
       </c>
+      <c r="AI38" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4810,6 +4926,9 @@
       <c r="AH39" t="n">
         <v>0.23</v>
       </c>
+      <c r="AI39" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4920,6 +5039,9 @@
       <c r="AH40" t="n">
         <v>0.15</v>
       </c>
+      <c r="AI40" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5030,6 +5152,9 @@
       <c r="AH41" t="n">
         <v>0.42</v>
       </c>
+      <c r="AI41" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5140,6 +5265,9 @@
       <c r="AH42" t="n">
         <v>0.14</v>
       </c>
+      <c r="AI42" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5250,6 +5378,9 @@
       <c r="AH43" t="n">
         <v>0.19</v>
       </c>
+      <c r="AI43" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5360,6 +5491,9 @@
       <c r="AH44" t="n">
         <v>0.19</v>
       </c>
+      <c r="AI44" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5470,6 +5604,9 @@
       <c r="AH45" t="n">
         <v>0.19</v>
       </c>
+      <c r="AI45" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5580,6 +5717,9 @@
       <c r="AH46" t="n">
         <v>0.29</v>
       </c>
+      <c r="AI46" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5690,6 +5830,9 @@
       <c r="AH47" t="n">
         <v>0.19</v>
       </c>
+      <c r="AI47" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5800,6 +5943,9 @@
       <c r="AH48" t="n">
         <v>0.15</v>
       </c>
+      <c r="AI48" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5910,6 +6056,9 @@
       <c r="AH49" t="n">
         <v>0.22</v>
       </c>
+      <c r="AI49" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6020,6 +6169,9 @@
       <c r="AH50" t="n">
         <v>0.14</v>
       </c>
+      <c r="AI50" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6130,6 +6282,9 @@
       <c r="AH51" t="n">
         <v>0.3</v>
       </c>
+      <c r="AI51" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6240,6 +6395,9 @@
       <c r="AH52" t="n">
         <v>0.15</v>
       </c>
+      <c r="AI52" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6350,6 +6508,9 @@
       <c r="AH53" t="n">
         <v>0.12</v>
       </c>
+      <c r="AI53" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6460,6 +6621,9 @@
       <c r="AH54" t="n">
         <v>0.21</v>
       </c>
+      <c r="AI54" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6570,6 +6734,9 @@
       <c r="AH55" t="n">
         <v>0.17</v>
       </c>
+      <c r="AI55" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6680,6 +6847,9 @@
       <c r="AH56" t="n">
         <v>0.35</v>
       </c>
+      <c r="AI56" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6790,6 +6960,9 @@
       <c r="AH57" t="n">
         <v>0.17</v>
       </c>
+      <c r="AI57" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6900,6 +7073,9 @@
       <c r="AH58" t="n">
         <v>0.19</v>
       </c>
+      <c r="AI58" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7010,6 +7186,9 @@
       <c r="AH59" t="n">
         <v>0.22</v>
       </c>
+      <c r="AI59" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7120,6 +7299,9 @@
       <c r="AH60" t="n">
         <v>0.13</v>
       </c>
+      <c r="AI60" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7230,6 +7412,9 @@
       <c r="AH61" t="n">
         <v>0.29</v>
       </c>
+      <c r="AI61" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7340,6 +7525,9 @@
       <c r="AH62" t="n">
         <v>0.15</v>
       </c>
+      <c r="AI62" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7450,6 +7638,9 @@
       <c r="AH63" t="n">
         <v>0.15</v>
       </c>
+      <c r="AI63" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7560,6 +7751,9 @@
       <c r="AH64" t="n">
         <v>0.26</v>
       </c>
+      <c r="AI64" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7670,6 +7864,9 @@
       <c r="AH65" t="n">
         <v>0.12</v>
       </c>
+      <c r="AI65" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7780,6 +7977,9 @@
       <c r="AH66" t="n">
         <v>0.32</v>
       </c>
+      <c r="AI66" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7890,6 +8090,9 @@
       <c r="AH67" t="n">
         <v>0.17</v>
       </c>
+      <c r="AI67" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8000,6 +8203,9 @@
       <c r="AH68" t="n">
         <v>0.16</v>
       </c>
+      <c r="AI68" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8110,6 +8316,9 @@
       <c r="AH69" t="n">
         <v>0.17</v>
       </c>
+      <c r="AI69" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8220,6 +8429,9 @@
       <c r="AH70" t="n">
         <v>0.17</v>
       </c>
+      <c r="AI70" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8330,6 +8542,9 @@
       <c r="AH71" t="n">
         <v>0.33</v>
       </c>
+      <c r="AI71" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8440,6 +8655,9 @@
       <c r="AH72" t="n">
         <v>0.14</v>
       </c>
+      <c r="AI72" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8550,6 +8768,9 @@
       <c r="AH73" t="n">
         <v>0.18</v>
       </c>
+      <c r="AI73" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -8660,6 +8881,9 @@
       <c r="AH74" t="n">
         <v>0.17</v>
       </c>
+      <c r="AI74" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -8770,6 +8994,9 @@
       <c r="AH75" t="n">
         <v>0.22</v>
       </c>
+      <c r="AI75" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -8880,6 +9107,9 @@
       <c r="AH76" t="n">
         <v>0.29</v>
       </c>
+      <c r="AI76" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -8990,6 +9220,9 @@
       <c r="AH77" t="n">
         <v>0.19</v>
       </c>
+      <c r="AI77" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -9100,6 +9333,9 @@
       <c r="AH78" t="n">
         <v>0.17</v>
       </c>
+      <c r="AI78" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -9210,6 +9446,9 @@
       <c r="AH79" t="n">
         <v>0.18</v>
       </c>
+      <c r="AI79" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -9320,6 +9559,9 @@
       <c r="AH80" t="n">
         <v>0.19</v>
       </c>
+      <c r="AI80" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -9430,6 +9672,9 @@
       <c r="AH81" t="n">
         <v>0.27</v>
       </c>
+      <c r="AI81" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -9540,6 +9785,9 @@
       <c r="AH82" t="n">
         <v>0.18</v>
       </c>
+      <c r="AI82" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -9650,6 +9898,9 @@
       <c r="AH83" t="n">
         <v>0.03</v>
       </c>
+      <c r="AI83" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -9760,6 +10011,9 @@
       <c r="AH84" t="n">
         <v>0.25</v>
       </c>
+      <c r="AI84" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -9870,6 +10124,9 @@
       <c r="AH85" t="n">
         <v>0.16</v>
       </c>
+      <c r="AI85" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -9980,6 +10237,9 @@
       <c r="AH86" t="n">
         <v>0.38</v>
       </c>
+      <c r="AI86" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -10090,6 +10350,9 @@
       <c r="AH87" t="n">
         <v>0.1</v>
       </c>
+      <c r="AI87" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -10200,6 +10463,9 @@
       <c r="AH88" t="n">
         <v>0.08</v>
       </c>
+      <c r="AI88" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -10310,6 +10576,9 @@
       <c r="AH89" t="n">
         <v>0.2</v>
       </c>
+      <c r="AI89" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -10420,6 +10689,9 @@
       <c r="AH90" t="n">
         <v>0.19</v>
       </c>
+      <c r="AI90" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -10530,6 +10802,9 @@
       <c r="AH91" t="n">
         <v>0.43</v>
       </c>
+      <c r="AI91" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -10640,6 +10915,9 @@
       <c r="AH92" t="n">
         <v>0.18</v>
       </c>
+      <c r="AI92" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -10750,6 +11028,9 @@
       <c r="AH93" t="n">
         <v>0.23</v>
       </c>
+      <c r="AI93" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -10860,6 +11141,9 @@
       <c r="AH94" t="n">
         <v>0.2</v>
       </c>
+      <c r="AI94" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -10970,6 +11254,9 @@
       <c r="AH95" t="n">
         <v>0.16</v>
       </c>
+      <c r="AI95" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -11080,6 +11367,9 @@
       <c r="AH96" t="n">
         <v>0.23</v>
       </c>
+      <c r="AI96" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -11190,6 +11480,9 @@
       <c r="AH97" t="n">
         <v>0.12</v>
       </c>
+      <c r="AI97" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -11300,6 +11593,9 @@
       <c r="AH98" t="n">
         <v>0.1</v>
       </c>
+      <c r="AI98" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -11410,6 +11706,9 @@
       <c r="AH99" t="n">
         <v>0.21</v>
       </c>
+      <c r="AI99" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -11520,6 +11819,9 @@
       <c r="AH100" t="n">
         <v>0.11</v>
       </c>
+      <c r="AI100" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -11630,6 +11932,9 @@
       <c r="AH101" t="n">
         <v>0.46</v>
       </c>
+      <c r="AI101" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -11740,6 +12045,9 @@
       <c r="AH102" t="n">
         <v>0.12</v>
       </c>
+      <c r="AI102" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -11850,6 +12158,9 @@
       <c r="AH103" t="n">
         <v>0.18</v>
       </c>
+      <c r="AI103" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -11960,6 +12271,9 @@
       <c r="AH104" t="n">
         <v>0.22</v>
       </c>
+      <c r="AI104" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -12070,6 +12384,9 @@
       <c r="AH105" t="n">
         <v>0.13</v>
       </c>
+      <c r="AI105" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -12180,6 +12497,9 @@
       <c r="AH106" t="n">
         <v>0.35</v>
       </c>
+      <c r="AI106" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -12290,6 +12610,9 @@
       <c r="AH107" t="n">
         <v>0.24</v>
       </c>
+      <c r="AI107" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -12400,6 +12723,9 @@
       <c r="AH108" t="n">
         <v>0.24</v>
       </c>
+      <c r="AI108" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -12510,6 +12836,9 @@
       <c r="AH109" t="n">
         <v>0.22</v>
       </c>
+      <c r="AI109" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -12620,6 +12949,9 @@
       <c r="AH110" t="n">
         <v>0.14</v>
       </c>
+      <c r="AI110" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -12730,11 +13062,14 @@
       <c r="AH111" t="n">
         <v>0.16</v>
       </c>
+      <c r="AI111" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Život během pandemie, Kontakty vs. protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 1. 9. 2021</t>
+          <t>Život během pandemie, Kontakty vs. protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 6. 10. 2021</t>
         </is>
       </c>
     </row>
@@ -12749,7 +13084,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG24"/>
+  <dimension ref="A1:AH24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12923,6 +13258,11 @@
           <t>24. 8. 2021</t>
         </is>
       </c>
+      <c r="AH1" s="2" t="inlineStr">
+        <is>
+          <t>28. 9. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -13028,6 +13368,9 @@
       <c r="AG2" t="n">
         <v>1638</v>
       </c>
+      <c r="AH2" t="n">
+        <v>1583</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -13133,6 +13476,9 @@
       <c r="AG3" t="n">
         <v>374</v>
       </c>
+      <c r="AH3" t="n">
+        <v>366</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -13238,6 +13584,9 @@
       <c r="AG4" t="n">
         <v>584</v>
       </c>
+      <c r="AH4" t="n">
+        <v>558</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -13343,6 +13692,9 @@
       <c r="AG5" t="n">
         <v>680</v>
       </c>
+      <c r="AH5" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -13448,6 +13800,9 @@
       <c r="AG6" t="n">
         <v>463</v>
       </c>
+      <c r="AH6" t="n">
+        <v>482</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -13553,6 +13908,9 @@
       <c r="AG7" t="n">
         <v>708</v>
       </c>
+      <c r="AH7" t="n">
+        <v>667</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -13658,6 +14016,9 @@
       <c r="AG8" t="n">
         <v>464</v>
       </c>
+      <c r="AH8" t="n">
+        <v>434</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -13763,6 +14124,9 @@
       <c r="AG9" t="n">
         <v>267</v>
       </c>
+      <c r="AH9" t="n">
+        <v>281</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -13868,6 +14232,9 @@
       <c r="AG10" t="n">
         <v>316</v>
       </c>
+      <c r="AH10" t="n">
+        <v>288</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -13973,6 +14340,9 @@
       <c r="AG11" t="n">
         <v>1055</v>
       </c>
+      <c r="AH11" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -14078,6 +14448,9 @@
       <c r="AG12" t="n">
         <v>827</v>
       </c>
+      <c r="AH12" t="n">
+        <v>794</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -14183,6 +14556,9 @@
       <c r="AG13" t="n">
         <v>811</v>
       </c>
+      <c r="AH13" t="n">
+        <v>789</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -14288,6 +14664,9 @@
       <c r="AG14" t="n">
         <v>839</v>
       </c>
+      <c r="AH14" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -14393,6 +14772,9 @@
       <c r="AG15" t="n">
         <v>388</v>
       </c>
+      <c r="AH15" t="n">
+        <v>367</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -14498,6 +14880,9 @@
       <c r="AG16" t="n">
         <v>193</v>
       </c>
+      <c r="AH16" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -14603,6 +14988,9 @@
       <c r="AG17" t="n">
         <v>218</v>
       </c>
+      <c r="AH17" t="n">
+        <v>204</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -14708,6 +15096,9 @@
       <c r="AG18" t="n">
         <v>199</v>
       </c>
+      <c r="AH18" t="n">
+        <v>195</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14813,6 +15204,9 @@
       <c r="AG19" t="n">
         <v>323</v>
       </c>
+      <c r="AH19" t="n">
+        <v>302</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14918,6 +15312,9 @@
       <c r="AG20" t="n">
         <v>306</v>
       </c>
+      <c r="AH20" t="n">
+        <v>298</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15023,6 +15420,9 @@
       <c r="AG21" t="n">
         <v>175</v>
       </c>
+      <c r="AH21" t="n">
+        <v>171</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15128,6 +15528,9 @@
       <c r="AG22" t="n">
         <v>262</v>
       </c>
+      <c r="AH22" t="n">
+        <v>256</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15233,11 +15636,14 @@
       <c r="AG23" t="n">
         <v>373</v>
       </c>
+      <c r="AH23" t="n">
+        <v>361</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Život během pandemie, Kontakty vs. protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 9. 2021</t>
+          <t>Život během pandemie, Kontakty vs. protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 6. 10. 2021</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -15272,6 +15678,7 @@
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_10_kontakty_aktivity.xlsx
+++ b/ZBP_10_kontakty_aktivity.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI112"/>
+  <dimension ref="A1:AJ112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,6 +635,11 @@
           <t>28. 9. 2021</t>
         </is>
       </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>12. 10. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -748,6 +753,9 @@
       <c r="AI2" t="n">
         <v>0.15</v>
       </c>
+      <c r="AJ2" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -861,6 +869,9 @@
       <c r="AI3" t="n">
         <v>0.14</v>
       </c>
+      <c r="AJ3" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -974,6 +985,9 @@
       <c r="AI4" t="n">
         <v>0.17</v>
       </c>
+      <c r="AJ4" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1087,6 +1101,9 @@
       <c r="AI5" t="n">
         <v>0.18</v>
       </c>
+      <c r="AJ5" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1200,6 +1217,9 @@
       <c r="AI6" t="n">
         <v>0.36</v>
       </c>
+      <c r="AJ6" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1313,6 +1333,9 @@
       <c r="AI7" t="n">
         <v>0.1</v>
       </c>
+      <c r="AJ7" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1426,6 +1449,9 @@
       <c r="AI8" t="n">
         <v>0.06</v>
       </c>
+      <c r="AJ8" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1539,6 +1565,9 @@
       <c r="AI9" t="n">
         <v>0.17</v>
       </c>
+      <c r="AJ9" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1652,6 +1681,9 @@
       <c r="AI10" t="n">
         <v>0.16</v>
       </c>
+      <c r="AJ10" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1765,6 +1797,9 @@
       <c r="AI11" t="n">
         <v>0.51</v>
       </c>
+      <c r="AJ11" t="n">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1878,6 +1913,9 @@
       <c r="AI12" t="n">
         <v>0.08</v>
       </c>
+      <c r="AJ12" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1991,6 +2029,9 @@
       <c r="AI13" t="n">
         <v>0.1</v>
       </c>
+      <c r="AJ13" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2104,6 +2145,9 @@
       <c r="AI14" t="n">
         <v>0.18</v>
       </c>
+      <c r="AJ14" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2217,6 +2261,9 @@
       <c r="AI15" t="n">
         <v>0.18</v>
       </c>
+      <c r="AJ15" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2330,6 +2377,9 @@
       <c r="AI16" t="n">
         <v>0.46</v>
       </c>
+      <c r="AJ16" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2443,6 +2493,9 @@
       <c r="AI17" t="n">
         <v>0.24</v>
       </c>
+      <c r="AJ17" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2556,6 +2609,9 @@
       <c r="AI18" t="n">
         <v>0.22</v>
       </c>
+      <c r="AJ18" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2669,6 +2725,9 @@
       <c r="AI19" t="n">
         <v>0.15</v>
       </c>
+      <c r="AJ19" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2782,6 +2841,9 @@
       <c r="AI20" t="n">
         <v>0.18</v>
       </c>
+      <c r="AJ20" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2895,6 +2957,9 @@
       <c r="AI21" t="n">
         <v>0.21</v>
       </c>
+      <c r="AJ21" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3008,6 +3073,9 @@
       <c r="AI22" t="n">
         <v>0.12</v>
       </c>
+      <c r="AJ22" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3121,6 +3189,9 @@
       <c r="AI23" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AJ23" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3234,6 +3305,9 @@
       <c r="AI24" t="n">
         <v>0.16</v>
       </c>
+      <c r="AJ24" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3347,6 +3421,9 @@
       <c r="AI25" t="n">
         <v>0.14</v>
       </c>
+      <c r="AJ25" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3460,6 +3537,9 @@
       <c r="AI26" t="n">
         <v>0.51</v>
       </c>
+      <c r="AJ26" t="n">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3573,6 +3653,9 @@
       <c r="AI27" t="n">
         <v>0.17</v>
       </c>
+      <c r="AJ27" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3686,6 +3769,9 @@
       <c r="AI28" t="n">
         <v>0.15</v>
       </c>
+      <c r="AJ28" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3799,6 +3885,9 @@
       <c r="AI29" t="n">
         <v>0.18</v>
       </c>
+      <c r="AJ29" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3912,6 +4001,9 @@
       <c r="AI30" t="n">
         <v>0.15</v>
       </c>
+      <c r="AJ30" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4025,6 +4117,9 @@
       <c r="AI31" t="n">
         <v>0.35</v>
       </c>
+      <c r="AJ31" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4138,6 +4233,9 @@
       <c r="AI32" t="n">
         <v>0.16</v>
       </c>
+      <c r="AJ32" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4251,6 +4349,9 @@
       <c r="AI33" t="n">
         <v>0.19</v>
       </c>
+      <c r="AJ33" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4364,6 +4465,9 @@
       <c r="AI34" t="n">
         <v>0.16</v>
       </c>
+      <c r="AJ34" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4477,6 +4581,9 @@
       <c r="AI35" t="n">
         <v>0.26</v>
       </c>
+      <c r="AJ35" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4590,6 +4697,9 @@
       <c r="AI36" t="n">
         <v>0.23</v>
       </c>
+      <c r="AJ36" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4703,6 +4813,9 @@
       <c r="AI37" t="n">
         <v>0.1</v>
       </c>
+      <c r="AJ37" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4816,6 +4929,9 @@
       <c r="AI38" t="n">
         <v>0.11</v>
       </c>
+      <c r="AJ38" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4929,6 +5045,9 @@
       <c r="AI39" t="n">
         <v>0.17</v>
       </c>
+      <c r="AJ39" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5042,6 +5161,9 @@
       <c r="AI40" t="n">
         <v>0.2</v>
       </c>
+      <c r="AJ40" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5155,6 +5277,9 @@
       <c r="AI41" t="n">
         <v>0.42</v>
       </c>
+      <c r="AJ41" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5268,6 +5393,9 @@
       <c r="AI42" t="n">
         <v>0.13</v>
       </c>
+      <c r="AJ42" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5381,6 +5509,9 @@
       <c r="AI43" t="n">
         <v>0.14</v>
       </c>
+      <c r="AJ43" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5494,6 +5625,9 @@
       <c r="AI44" t="n">
         <v>0.18</v>
       </c>
+      <c r="AJ44" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5607,6 +5741,9 @@
       <c r="AI45" t="n">
         <v>0.24</v>
       </c>
+      <c r="AJ45" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5720,6 +5857,9 @@
       <c r="AI46" t="n">
         <v>0.31</v>
       </c>
+      <c r="AJ46" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5833,6 +5973,9 @@
       <c r="AI47" t="n">
         <v>0.17</v>
       </c>
+      <c r="AJ47" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5946,6 +6089,9 @@
       <c r="AI48" t="n">
         <v>0.14</v>
       </c>
+      <c r="AJ48" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6059,6 +6205,9 @@
       <c r="AI49" t="n">
         <v>0.16</v>
       </c>
+      <c r="AJ49" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6172,6 +6321,9 @@
       <c r="AI50" t="n">
         <v>0.15</v>
       </c>
+      <c r="AJ50" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6285,6 +6437,9 @@
       <c r="AI51" t="n">
         <v>0.38</v>
       </c>
+      <c r="AJ51" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6398,6 +6553,9 @@
       <c r="AI52" t="n">
         <v>0.14</v>
       </c>
+      <c r="AJ52" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6511,6 +6669,9 @@
       <c r="AI53" t="n">
         <v>0.11</v>
       </c>
+      <c r="AJ53" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6624,6 +6785,9 @@
       <c r="AI54" t="n">
         <v>0.17</v>
       </c>
+      <c r="AJ54" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6737,6 +6901,9 @@
       <c r="AI55" t="n">
         <v>0.19</v>
       </c>
+      <c r="AJ55" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6850,6 +7017,9 @@
       <c r="AI56" t="n">
         <v>0.39</v>
       </c>
+      <c r="AJ56" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6963,6 +7133,9 @@
       <c r="AI57" t="n">
         <v>0.16</v>
       </c>
+      <c r="AJ57" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7076,6 +7249,9 @@
       <c r="AI58" t="n">
         <v>0.17</v>
       </c>
+      <c r="AJ58" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7189,6 +7365,9 @@
       <c r="AI59" t="n">
         <v>0.17</v>
       </c>
+      <c r="AJ59" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7302,6 +7481,9 @@
       <c r="AI60" t="n">
         <v>0.16</v>
       </c>
+      <c r="AJ60" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7415,6 +7597,9 @@
       <c r="AI61" t="n">
         <v>0.34</v>
       </c>
+      <c r="AJ61" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7528,6 +7713,9 @@
       <c r="AI62" t="n">
         <v>0.17</v>
       </c>
+      <c r="AJ62" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7641,6 +7829,9 @@
       <c r="AI63" t="n">
         <v>0.13</v>
       </c>
+      <c r="AJ63" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7754,6 +7945,9 @@
       <c r="AI64" t="n">
         <v>0.18</v>
       </c>
+      <c r="AJ64" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7867,6 +8061,9 @@
       <c r="AI65" t="n">
         <v>0.17</v>
       </c>
+      <c r="AJ65" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7980,6 +8177,9 @@
       <c r="AI66" t="n">
         <v>0.35</v>
       </c>
+      <c r="AJ66" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8093,6 +8293,9 @@
       <c r="AI67" t="n">
         <v>0.12</v>
       </c>
+      <c r="AJ67" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8206,6 +8409,9 @@
       <c r="AI68" t="n">
         <v>0.14</v>
       </c>
+      <c r="AJ68" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8319,6 +8525,9 @@
       <c r="AI69" t="n">
         <v>0.16</v>
       </c>
+      <c r="AJ69" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8432,6 +8641,9 @@
       <c r="AI70" t="n">
         <v>0.17</v>
       </c>
+      <c r="AJ70" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8545,6 +8757,9 @@
       <c r="AI71" t="n">
         <v>0.41</v>
       </c>
+      <c r="AJ71" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8658,6 +8873,9 @@
       <c r="AI72" t="n">
         <v>0.13</v>
       </c>
+      <c r="AJ72" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8771,6 +8989,9 @@
       <c r="AI73" t="n">
         <v>0.13</v>
       </c>
+      <c r="AJ73" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -8884,6 +9105,9 @@
       <c r="AI74" t="n">
         <v>0.16</v>
       </c>
+      <c r="AJ74" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -8997,6 +9221,9 @@
       <c r="AI75" t="n">
         <v>0.19</v>
       </c>
+      <c r="AJ75" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -9110,6 +9337,9 @@
       <c r="AI76" t="n">
         <v>0.39</v>
       </c>
+      <c r="AJ76" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -9223,6 +9453,9 @@
       <c r="AI77" t="n">
         <v>0.14</v>
       </c>
+      <c r="AJ77" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -9336,6 +9569,9 @@
       <c r="AI78" t="n">
         <v>0.16</v>
       </c>
+      <c r="AJ78" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -9449,6 +9685,9 @@
       <c r="AI79" t="n">
         <v>0.14</v>
       </c>
+      <c r="AJ79" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -9562,6 +9801,9 @@
       <c r="AI80" t="n">
         <v>0.21</v>
       </c>
+      <c r="AJ80" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -9675,6 +9917,9 @@
       <c r="AI81" t="n">
         <v>0.35</v>
       </c>
+      <c r="AJ81" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -9788,6 +10033,9 @@
       <c r="AI82" t="n">
         <v>0.08</v>
       </c>
+      <c r="AJ82" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -9901,6 +10149,9 @@
       <c r="AI83" t="n">
         <v>0.04</v>
       </c>
+      <c r="AJ83" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -10014,6 +10265,9 @@
       <c r="AI84" t="n">
         <v>0.16</v>
       </c>
+      <c r="AJ84" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -10127,6 +10381,9 @@
       <c r="AI85" t="n">
         <v>0.17</v>
       </c>
+      <c r="AJ85" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -10240,6 +10497,9 @@
       <c r="AI86" t="n">
         <v>0.55</v>
       </c>
+      <c r="AJ86" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -10353,6 +10613,9 @@
       <c r="AI87" t="n">
         <v>0.06</v>
       </c>
+      <c r="AJ87" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -10466,6 +10729,9 @@
       <c r="AI88" t="n">
         <v>0.06</v>
       </c>
+      <c r="AJ88" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -10579,6 +10845,9 @@
       <c r="AI89" t="n">
         <v>0.2</v>
       </c>
+      <c r="AJ89" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -10692,6 +10961,9 @@
       <c r="AI90" t="n">
         <v>0.22</v>
       </c>
+      <c r="AJ90" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -10805,6 +11077,9 @@
       <c r="AI91" t="n">
         <v>0.46</v>
       </c>
+      <c r="AJ91" t="n">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -10918,6 +11193,9 @@
       <c r="AI92" t="n">
         <v>0.24</v>
       </c>
+      <c r="AJ92" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -11031,6 +11309,9 @@
       <c r="AI93" t="n">
         <v>0.2</v>
       </c>
+      <c r="AJ93" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -11144,6 +11425,9 @@
       <c r="AI94" t="n">
         <v>0.14</v>
       </c>
+      <c r="AJ94" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -11257,6 +11541,9 @@
       <c r="AI95" t="n">
         <v>0.17</v>
       </c>
+      <c r="AJ95" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -11370,6 +11657,9 @@
       <c r="AI96" t="n">
         <v>0.25</v>
       </c>
+      <c r="AJ96" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -11483,6 +11773,9 @@
       <c r="AI97" t="n">
         <v>0.11</v>
       </c>
+      <c r="AJ97" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -11596,6 +11889,9 @@
       <c r="AI98" t="n">
         <v>0.09</v>
       </c>
+      <c r="AJ98" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -11709,6 +12005,9 @@
       <c r="AI99" t="n">
         <v>0.19</v>
       </c>
+      <c r="AJ99" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -11822,6 +12121,9 @@
       <c r="AI100" t="n">
         <v>0.15</v>
       </c>
+      <c r="AJ100" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -11935,6 +12237,9 @@
       <c r="AI101" t="n">
         <v>0.46</v>
       </c>
+      <c r="AJ101" t="n">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -12048,6 +12353,9 @@
       <c r="AI102" t="n">
         <v>0.1</v>
       </c>
+      <c r="AJ102" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -12161,6 +12469,9 @@
       <c r="AI103" t="n">
         <v>0.14</v>
       </c>
+      <c r="AJ103" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -12274,6 +12585,9 @@
       <c r="AI104" t="n">
         <v>0.15</v>
       </c>
+      <c r="AJ104" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -12387,6 +12701,9 @@
       <c r="AI105" t="n">
         <v>0.14</v>
       </c>
+      <c r="AJ105" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -12500,6 +12817,9 @@
       <c r="AI106" t="n">
         <v>0.47</v>
       </c>
+      <c r="AJ106" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -12613,6 +12933,9 @@
       <c r="AI107" t="n">
         <v>0.23</v>
       </c>
+      <c r="AJ107" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -12726,6 +13049,9 @@
       <c r="AI108" t="n">
         <v>0.23</v>
       </c>
+      <c r="AJ108" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -12839,6 +13165,9 @@
       <c r="AI109" t="n">
         <v>0.17</v>
       </c>
+      <c r="AJ109" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -12952,6 +13281,9 @@
       <c r="AI110" t="n">
         <v>0.18</v>
       </c>
+      <c r="AJ110" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -13065,11 +13397,14 @@
       <c r="AI111" t="n">
         <v>0.19</v>
       </c>
+      <c r="AJ111" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Život během pandemie, Kontakty vs. protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 6. 10. 2021</t>
+          <t>Život během pandemie, Kontakty vs. protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 20. 10. 2021</t>
         </is>
       </c>
     </row>
@@ -13084,7 +13419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH24"/>
+  <dimension ref="A1:AI24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13263,6 +13598,11 @@
           <t>28. 9. 2021</t>
         </is>
       </c>
+      <c r="AI1" s="2" t="inlineStr">
+        <is>
+          <t>12. 10. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -13371,6 +13711,9 @@
       <c r="AH2" t="n">
         <v>1583</v>
       </c>
+      <c r="AI2" t="n">
+        <v>1574</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -13479,6 +13822,9 @@
       <c r="AH3" t="n">
         <v>366</v>
       </c>
+      <c r="AI3" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -13587,6 +13933,9 @@
       <c r="AH4" t="n">
         <v>558</v>
       </c>
+      <c r="AI4" t="n">
+        <v>554</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -13695,6 +14044,9 @@
       <c r="AH5" t="n">
         <v>659</v>
       </c>
+      <c r="AI5" t="n">
+        <v>658</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -13803,6 +14155,9 @@
       <c r="AH6" t="n">
         <v>482</v>
       </c>
+      <c r="AI6" t="n">
+        <v>460</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -13911,6 +14266,9 @@
       <c r="AH7" t="n">
         <v>667</v>
       </c>
+      <c r="AI7" t="n">
+        <v>681</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -14019,6 +14377,9 @@
       <c r="AH8" t="n">
         <v>434</v>
       </c>
+      <c r="AI8" t="n">
+        <v>433</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -14127,6 +14488,9 @@
       <c r="AH9" t="n">
         <v>281</v>
       </c>
+      <c r="AI9" t="n">
+        <v>253</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -14235,6 +14599,9 @@
       <c r="AH10" t="n">
         <v>288</v>
       </c>
+      <c r="AI10" t="n">
+        <v>277</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -14343,6 +14710,9 @@
       <c r="AH11" t="n">
         <v>1014</v>
       </c>
+      <c r="AI11" t="n">
+        <v>1044</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -14451,6 +14821,9 @@
       <c r="AH12" t="n">
         <v>794</v>
       </c>
+      <c r="AI12" t="n">
+        <v>790</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -14559,6 +14932,9 @@
       <c r="AH13" t="n">
         <v>789</v>
       </c>
+      <c r="AI13" t="n">
+        <v>784</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -14667,6 +15043,9 @@
       <c r="AH14" t="n">
         <v>821</v>
       </c>
+      <c r="AI14" t="n">
+        <v>803</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -14775,6 +15154,9 @@
       <c r="AH15" t="n">
         <v>367</v>
       </c>
+      <c r="AI15" t="n">
+        <v>363</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -14883,6 +15265,9 @@
       <c r="AH16" t="n">
         <v>191</v>
       </c>
+      <c r="AI16" t="n">
+        <v>192</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -14991,6 +15376,9 @@
       <c r="AH17" t="n">
         <v>204</v>
       </c>
+      <c r="AI17" t="n">
+        <v>216</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -15099,6 +15487,9 @@
       <c r="AH18" t="n">
         <v>195</v>
       </c>
+      <c r="AI18" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -15207,6 +15598,9 @@
       <c r="AH19" t="n">
         <v>302</v>
       </c>
+      <c r="AI19" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15315,6 +15709,9 @@
       <c r="AH20" t="n">
         <v>298</v>
       </c>
+      <c r="AI20" t="n">
+        <v>303</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15423,6 +15820,9 @@
       <c r="AH21" t="n">
         <v>171</v>
       </c>
+      <c r="AI21" t="n">
+        <v>175</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15531,6 +15931,9 @@
       <c r="AH22" t="n">
         <v>256</v>
       </c>
+      <c r="AI22" t="n">
+        <v>254</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15639,11 +16042,14 @@
       <c r="AH23" t="n">
         <v>361</v>
       </c>
+      <c r="AI23" t="n">
+        <v>354</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Život během pandemie, Kontakty vs. protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 6. 10. 2021</t>
+          <t>Život během pandemie, Kontakty vs. protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 20. 10. 2021</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -15679,6 +16085,7 @@
       <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="inlineStr"/>
       <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_10_kontakty_aktivity.xlsx
+++ b/ZBP_10_kontakty_aktivity.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM142"/>
+  <dimension ref="A1:AN142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -655,6 +655,11 @@
           <t>28. 12. 2021</t>
         </is>
       </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>25. 1. 2022</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -780,6 +785,9 @@
       <c r="AM2" t="n">
         <v>0.18</v>
       </c>
+      <c r="AN2" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -905,6 +913,9 @@
       <c r="AM3" t="n">
         <v>0.15</v>
       </c>
+      <c r="AN3" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1030,6 +1041,9 @@
       <c r="AM4" t="n">
         <v>0.22</v>
       </c>
+      <c r="AN4" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1155,6 +1169,9 @@
       <c r="AM5" t="n">
         <v>0.16</v>
       </c>
+      <c r="AN5" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1280,6 +1297,9 @@
       <c r="AM6" t="n">
         <v>0.29</v>
       </c>
+      <c r="AN6" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1405,6 +1425,9 @@
       <c r="AM7" t="n">
         <v>0.22</v>
       </c>
+      <c r="AN7" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1530,6 +1553,9 @@
       <c r="AM8" t="n">
         <v>0.09</v>
       </c>
+      <c r="AN8" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1655,6 +1681,9 @@
       <c r="AM9" t="n">
         <v>0.24</v>
       </c>
+      <c r="AN9" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1780,6 +1809,9 @@
       <c r="AM10" t="n">
         <v>0.06</v>
       </c>
+      <c r="AN10" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1905,6 +1937,9 @@
       <c r="AM11" t="n">
         <v>0.39</v>
       </c>
+      <c r="AN11" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1970,6 +2005,9 @@
       <c r="AM12" t="n">
         <v>0.17</v>
       </c>
+      <c r="AN12" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2035,6 +2073,9 @@
       <c r="AM13" t="n">
         <v>0.16</v>
       </c>
+      <c r="AN13" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2100,6 +2141,9 @@
       <c r="AM14" t="n">
         <v>0.21</v>
       </c>
+      <c r="AN14" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2165,6 +2209,9 @@
       <c r="AM15" t="n">
         <v>0.18</v>
       </c>
+      <c r="AN15" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2230,6 +2277,9 @@
       <c r="AM16" t="n">
         <v>0.28</v>
       </c>
+      <c r="AN16" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2355,6 +2405,9 @@
       <c r="AM17" t="n">
         <v>0.17</v>
       </c>
+      <c r="AN17" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2480,6 +2533,9 @@
       <c r="AM18" t="n">
         <v>0.08</v>
       </c>
+      <c r="AN18" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2605,6 +2661,9 @@
       <c r="AM19" t="n">
         <v>0.23</v>
       </c>
+      <c r="AN19" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2730,6 +2789,9 @@
       <c r="AM20" t="n">
         <v>0.08</v>
       </c>
+      <c r="AN20" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2855,6 +2917,9 @@
       <c r="AM21" t="n">
         <v>0.44</v>
       </c>
+      <c r="AN21" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2920,6 +2985,9 @@
       <c r="AM22" t="n">
         <v>0.13</v>
       </c>
+      <c r="AN22" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2985,6 +3053,9 @@
       <c r="AM23" t="n">
         <v>0.09</v>
       </c>
+      <c r="AN23" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3050,6 +3121,9 @@
       <c r="AM24" t="n">
         <v>0.22</v>
       </c>
+      <c r="AN24" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3115,6 +3189,9 @@
       <c r="AM25" t="n">
         <v>0.19</v>
       </c>
+      <c r="AN25" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3180,6 +3257,9 @@
       <c r="AM26" t="n">
         <v>0.37</v>
       </c>
+      <c r="AN26" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3305,6 +3385,9 @@
       <c r="AM27" t="n">
         <v>0.33</v>
       </c>
+      <c r="AN27" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3430,6 +3513,9 @@
       <c r="AM28" t="n">
         <v>0.13</v>
       </c>
+      <c r="AN28" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3555,6 +3641,9 @@
       <c r="AM29" t="n">
         <v>0.27</v>
       </c>
+      <c r="AN29" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3680,6 +3769,9 @@
       <c r="AM30" t="n">
         <v>0.02</v>
       </c>
+      <c r="AN30" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3805,6 +3897,9 @@
       <c r="AM31" t="n">
         <v>0.25</v>
       </c>
+      <c r="AN31" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3870,6 +3965,9 @@
       <c r="AM32" t="n">
         <v>0.23</v>
       </c>
+      <c r="AN32" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3935,6 +4033,9 @@
       <c r="AM33" t="n">
         <v>0.25</v>
       </c>
+      <c r="AN33" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4000,6 +4101,9 @@
       <c r="AM34" t="n">
         <v>0.21</v>
       </c>
+      <c r="AN34" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4065,6 +4169,9 @@
       <c r="AM35" t="n">
         <v>0.18</v>
       </c>
+      <c r="AN35" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4130,6 +4237,9 @@
       <c r="AM36" t="n">
         <v>0.13</v>
       </c>
+      <c r="AN36" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4255,6 +4365,9 @@
       <c r="AM37" t="n">
         <v>0.12</v>
       </c>
+      <c r="AN37" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4380,6 +4493,9 @@
       <c r="AM38" t="n">
         <v>0.05</v>
       </c>
+      <c r="AN38" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4505,6 +4621,9 @@
       <c r="AM39" t="n">
         <v>0.22</v>
       </c>
+      <c r="AN39" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4630,6 +4749,9 @@
       <c r="AM40" t="n">
         <v>0.12</v>
       </c>
+      <c r="AN40" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4755,6 +4877,9 @@
       <c r="AM41" t="n">
         <v>0.49</v>
       </c>
+      <c r="AN41" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4880,6 +5005,9 @@
       <c r="AM42" t="n">
         <v>0.14</v>
       </c>
+      <c r="AN42" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5005,6 +5133,9 @@
       <c r="AM43" t="n">
         <v>0.11</v>
       </c>
+      <c r="AN43" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5130,6 +5261,9 @@
       <c r="AM44" t="n">
         <v>0.22</v>
       </c>
+      <c r="AN44" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5255,6 +5389,9 @@
       <c r="AM45" t="n">
         <v>0.19</v>
       </c>
+      <c r="AN45" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5380,6 +5517,9 @@
       <c r="AM46" t="n">
         <v>0.34</v>
       </c>
+      <c r="AN46" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5505,6 +5645,9 @@
       <c r="AM47" t="n">
         <v>0.25</v>
       </c>
+      <c r="AN47" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5630,6 +5773,9 @@
       <c r="AM48" t="n">
         <v>0.23</v>
       </c>
+      <c r="AN48" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5755,6 +5901,9 @@
       <c r="AM49" t="n">
         <v>0.22</v>
       </c>
+      <c r="AN49" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5880,6 +6029,9 @@
       <c r="AM50" t="n">
         <v>0.15</v>
       </c>
+      <c r="AN50" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6005,6 +6157,9 @@
       <c r="AM51" t="n">
         <v>0.15</v>
       </c>
+      <c r="AN51" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6130,6 +6285,9 @@
       <c r="AM52" t="n">
         <v>0.11</v>
       </c>
+      <c r="AN52" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6255,6 +6413,9 @@
       <c r="AM53" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AN53" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6380,6 +6541,9 @@
       <c r="AM54" t="n">
         <v>0.3</v>
       </c>
+      <c r="AN54" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6505,6 +6669,9 @@
       <c r="AM55" t="n">
         <v>0.06</v>
       </c>
+      <c r="AN55" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6630,6 +6797,9 @@
       <c r="AM56" t="n">
         <v>0.46</v>
       </c>
+      <c r="AN56" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6755,6 +6925,9 @@
       <c r="AM57" t="n">
         <v>0.21</v>
       </c>
+      <c r="AN57" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6880,6 +7053,9 @@
       <c r="AM58" t="n">
         <v>0.14</v>
       </c>
+      <c r="AN58" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7005,6 +7181,9 @@
       <c r="AM59" t="n">
         <v>0.21</v>
       </c>
+      <c r="AN59" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7130,6 +7309,9 @@
       <c r="AM60" t="n">
         <v>0.16</v>
       </c>
+      <c r="AN60" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7255,6 +7437,9 @@
       <c r="AM61" t="n">
         <v>0.28</v>
       </c>
+      <c r="AN61" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7380,6 +7565,9 @@
       <c r="AM62" t="n">
         <v>0.2</v>
       </c>
+      <c r="AN62" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7505,6 +7693,9 @@
       <c r="AM63" t="n">
         <v>0.21</v>
       </c>
+      <c r="AN63" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7630,6 +7821,9 @@
       <c r="AM64" t="n">
         <v>0.17</v>
       </c>
+      <c r="AN64" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7755,6 +7949,9 @@
       <c r="AM65" t="n">
         <v>0.23</v>
       </c>
+      <c r="AN65" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7880,6 +8077,9 @@
       <c r="AM66" t="n">
         <v>0.19</v>
       </c>
+      <c r="AN66" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8005,6 +8205,9 @@
       <c r="AM67" t="n">
         <v>0.12</v>
       </c>
+      <c r="AN67" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8130,6 +8333,9 @@
       <c r="AM68" t="n">
         <v>0.13</v>
       </c>
+      <c r="AN68" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8255,6 +8461,9 @@
       <c r="AM69" t="n">
         <v>0.2</v>
       </c>
+      <c r="AN69" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8380,6 +8589,9 @@
       <c r="AM70" t="n">
         <v>0.17</v>
       </c>
+      <c r="AN70" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8505,6 +8717,9 @@
       <c r="AM71" t="n">
         <v>0.38</v>
       </c>
+      <c r="AN71" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8630,6 +8845,9 @@
       <c r="AM72" t="n">
         <v>0.2</v>
       </c>
+      <c r="AN72" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8755,6 +8973,9 @@
       <c r="AM73" t="n">
         <v>0.19</v>
       </c>
+      <c r="AN73" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -8880,6 +9101,9 @@
       <c r="AM74" t="n">
         <v>0.22</v>
       </c>
+      <c r="AN74" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -9005,6 +9229,9 @@
       <c r="AM75" t="n">
         <v>0.19</v>
       </c>
+      <c r="AN75" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -9130,6 +9357,9 @@
       <c r="AM76" t="n">
         <v>0.2</v>
       </c>
+      <c r="AN76" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -9255,6 +9485,9 @@
       <c r="AM77" t="n">
         <v>0.22</v>
       </c>
+      <c r="AN77" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -9380,6 +9613,9 @@
       <c r="AM78" t="n">
         <v>0.14</v>
       </c>
+      <c r="AN78" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -9505,6 +9741,9 @@
       <c r="AM79" t="n">
         <v>0.23</v>
       </c>
+      <c r="AN79" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -9630,6 +9869,9 @@
       <c r="AM80" t="n">
         <v>0.13</v>
       </c>
+      <c r="AN80" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -9755,6 +9997,9 @@
       <c r="AM81" t="n">
         <v>0.28</v>
       </c>
+      <c r="AN81" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -9880,6 +10125,9 @@
       <c r="AM82" t="n">
         <v>0.19</v>
       </c>
+      <c r="AN82" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -10005,6 +10253,9 @@
       <c r="AM83" t="n">
         <v>0.12</v>
       </c>
+      <c r="AN83" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -10130,6 +10381,9 @@
       <c r="AM84" t="n">
         <v>0.23</v>
       </c>
+      <c r="AN84" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -10255,6 +10509,9 @@
       <c r="AM85" t="n">
         <v>0.16</v>
       </c>
+      <c r="AN85" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -10380,6 +10637,9 @@
       <c r="AM86" t="n">
         <v>0.3</v>
       </c>
+      <c r="AN86" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -10505,6 +10765,9 @@
       <c r="AM87" t="n">
         <v>0.18</v>
       </c>
+      <c r="AN87" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -10630,6 +10893,9 @@
       <c r="AM88" t="n">
         <v>0.18</v>
       </c>
+      <c r="AN88" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -10755,6 +11021,9 @@
       <c r="AM89" t="n">
         <v>0.21</v>
       </c>
+      <c r="AN89" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -10880,6 +11149,9 @@
       <c r="AM90" t="n">
         <v>0.16</v>
       </c>
+      <c r="AN90" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -11005,6 +11277,9 @@
       <c r="AM91" t="n">
         <v>0.27</v>
       </c>
+      <c r="AN91" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -11130,6 +11405,9 @@
       <c r="AM92" t="n">
         <v>0.19</v>
       </c>
+      <c r="AN92" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -11255,6 +11533,9 @@
       <c r="AM93" t="n">
         <v>0.15</v>
       </c>
+      <c r="AN93" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -11380,6 +11661,9 @@
       <c r="AM94" t="n">
         <v>0.24</v>
       </c>
+      <c r="AN94" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -11505,6 +11789,9 @@
       <c r="AM95" t="n">
         <v>0.13</v>
       </c>
+      <c r="AN95" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -11630,6 +11917,9 @@
       <c r="AM96" t="n">
         <v>0.29</v>
       </c>
+      <c r="AN96" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -11755,6 +12045,9 @@
       <c r="AM97" t="n">
         <v>0.15</v>
       </c>
+      <c r="AN97" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -11880,6 +12173,9 @@
       <c r="AM98" t="n">
         <v>0.12</v>
       </c>
+      <c r="AN98" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -12005,6 +12301,9 @@
       <c r="AM99" t="n">
         <v>0.19</v>
       </c>
+      <c r="AN99" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -12130,6 +12429,9 @@
       <c r="AM100" t="n">
         <v>0.24</v>
       </c>
+      <c r="AN100" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -12255,6 +12557,9 @@
       <c r="AM101" t="n">
         <v>0.3</v>
       </c>
+      <c r="AN101" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -12380,6 +12685,9 @@
       <c r="AM102" t="n">
         <v>0.19</v>
       </c>
+      <c r="AN102" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -12505,6 +12813,9 @@
       <c r="AM103" t="n">
         <v>0.18</v>
       </c>
+      <c r="AN103" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -12630,6 +12941,9 @@
       <c r="AM104" t="n">
         <v>0.2</v>
       </c>
+      <c r="AN104" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -12755,6 +13069,9 @@
       <c r="AM105" t="n">
         <v>0.1</v>
       </c>
+      <c r="AN105" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -12880,6 +13197,9 @@
       <c r="AM106" t="n">
         <v>0.33</v>
       </c>
+      <c r="AN106" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -13005,6 +13325,9 @@
       <c r="AM107" t="n">
         <v>0.18</v>
       </c>
+      <c r="AN107" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -13130,6 +13453,9 @@
       <c r="AM108" t="n">
         <v>0.17</v>
       </c>
+      <c r="AN108" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -13255,6 +13581,9 @@
       <c r="AM109" t="n">
         <v>0.21</v>
       </c>
+      <c r="AN109" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -13380,6 +13709,9 @@
       <c r="AM110" t="n">
         <v>0.2</v>
       </c>
+      <c r="AN110" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -13505,6 +13837,9 @@
       <c r="AM111" t="n">
         <v>0.24</v>
       </c>
+      <c r="AN111" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -13630,6 +13965,9 @@
       <c r="AM112" t="n">
         <v>0.14</v>
       </c>
+      <c r="AN112" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -13755,6 +14093,9 @@
       <c r="AM113" t="n">
         <v>0.005</v>
       </c>
+      <c r="AN113" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -13880,6 +14221,9 @@
       <c r="AM114" t="n">
         <v>0.25</v>
       </c>
+      <c r="AN114" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -14005,6 +14349,9 @@
       <c r="AM115" t="n">
         <v>0.15</v>
       </c>
+      <c r="AN115" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -14130,6 +14477,9 @@
       <c r="AM116" t="n">
         <v>0.455</v>
       </c>
+      <c r="AN116" t="n">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -14255,6 +14605,9 @@
       <c r="AM117" t="n">
         <v>0.16</v>
       </c>
+      <c r="AN117" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -14380,6 +14733,9 @@
       <c r="AM118" t="n">
         <v>0.09</v>
       </c>
+      <c r="AN118" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -14505,6 +14861,9 @@
       <c r="AM119" t="n">
         <v>0.21</v>
       </c>
+      <c r="AN119" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -14630,6 +14989,9 @@
       <c r="AM120" t="n">
         <v>0.2</v>
       </c>
+      <c r="AN120" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -14755,6 +15117,9 @@
       <c r="AM121" t="n">
         <v>0.34</v>
       </c>
+      <c r="AN121" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -14880,6 +15245,9 @@
       <c r="AM122" t="n">
         <v>0.24</v>
       </c>
+      <c r="AN122" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -15005,6 +15373,9 @@
       <c r="AM123" t="n">
         <v>0.22</v>
       </c>
+      <c r="AN123" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -15130,6 +15501,9 @@
       <c r="AM124" t="n">
         <v>0.25</v>
       </c>
+      <c r="AN124" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -15255,6 +15629,9 @@
       <c r="AM125" t="n">
         <v>0.12</v>
       </c>
+      <c r="AN125" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -15380,6 +15757,9 @@
       <c r="AM126" t="n">
         <v>0.17</v>
       </c>
+      <c r="AN126" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -15505,6 +15885,9 @@
       <c r="AM127" t="n">
         <v>0.1</v>
       </c>
+      <c r="AN127" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -15630,6 +16013,9 @@
       <c r="AM128" t="n">
         <v>0.1</v>
       </c>
+      <c r="AN128" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -15755,6 +16141,9 @@
       <c r="AM129" t="n">
         <v>0.18</v>
       </c>
+      <c r="AN129" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -15880,6 +16269,9 @@
       <c r="AM130" t="n">
         <v>0.09</v>
       </c>
+      <c r="AN130" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -16005,6 +16397,9 @@
       <c r="AM131" t="n">
         <v>0.53</v>
       </c>
+      <c r="AN131" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -16130,6 +16525,9 @@
       <c r="AM132" t="n">
         <v>0.12</v>
       </c>
+      <c r="AN132" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -16255,6 +16653,9 @@
       <c r="AM133" t="n">
         <v>0.14</v>
       </c>
+      <c r="AN133" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -16380,6 +16781,9 @@
       <c r="AM134" t="n">
         <v>0.24</v>
       </c>
+      <c r="AN134" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -16505,6 +16909,9 @@
       <c r="AM135" t="n">
         <v>0.18</v>
       </c>
+      <c r="AN135" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -16630,6 +17037,9 @@
       <c r="AM136" t="n">
         <v>0.32</v>
       </c>
+      <c r="AN136" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -16755,6 +17165,9 @@
       <c r="AM137" t="n">
         <v>0.25</v>
       </c>
+      <c r="AN137" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -16880,6 +17293,9 @@
       <c r="AM138" t="n">
         <v>0.24</v>
       </c>
+      <c r="AN138" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -17005,6 +17421,9 @@
       <c r="AM139" t="n">
         <v>0.19</v>
       </c>
+      <c r="AN139" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -17130,6 +17549,9 @@
       <c r="AM140" t="n">
         <v>0.18</v>
       </c>
+      <c r="AN140" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -17255,11 +17677,14 @@
       <c r="AM141" t="n">
         <v>0.14</v>
       </c>
+      <c r="AN141" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Život během pandemie, Kontakty vs. protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 6. 1. 2022</t>
+          <t>Život během pandemie, Kontakty vs. protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 1. 2. 2022</t>
         </is>
       </c>
     </row>
@@ -17274,7 +17699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL30"/>
+  <dimension ref="A1:AM30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17473,6 +17898,11 @@
           <t>28. 12. 2021</t>
         </is>
       </c>
+      <c r="AM1" s="2" t="inlineStr">
+        <is>
+          <t>25. 1. 2022</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -17593,6 +18023,9 @@
       <c r="AL2" t="n">
         <v>1526</v>
       </c>
+      <c r="AM2" t="n">
+        <v>1583</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -17711,6 +18144,9 @@
         <v>329</v>
       </c>
       <c r="AL3" t="n">
+        <v>326</v>
+      </c>
+      <c r="AM3" t="n">
         <v>326</v>
       </c>
     </row>
@@ -17793,6 +18229,9 @@
       <c r="AL4" t="n">
         <v>1200</v>
       </c>
+      <c r="AM4" t="n">
+        <v>1257</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -17912,6 +18351,9 @@
       </c>
       <c r="AL5" t="n">
         <v>229</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>230</v>
       </c>
     </row>
     <row r="6">
@@ -17993,6 +18435,9 @@
       <c r="AL6" t="n">
         <v>649</v>
       </c>
+      <c r="AM6" t="n">
+        <v>684</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -18112,6 +18557,9 @@
       </c>
       <c r="AL7" t="n">
         <v>97</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="8">
@@ -18193,6 +18641,9 @@
       <c r="AL8" t="n">
         <v>551</v>
       </c>
+      <c r="AM8" t="n">
+        <v>573</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -18313,6 +18764,9 @@
       <c r="AL9" t="n">
         <v>358</v>
       </c>
+      <c r="AM9" t="n">
+        <v>360</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -18433,6 +18887,9 @@
       <c r="AL10" t="n">
         <v>537</v>
       </c>
+      <c r="AM10" t="n">
+        <v>572</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -18553,6 +19010,9 @@
       <c r="AL11" t="n">
         <v>631</v>
       </c>
+      <c r="AM11" t="n">
+        <v>651</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -18673,6 +19133,9 @@
       <c r="AL12" t="n">
         <v>373</v>
       </c>
+      <c r="AM12" t="n">
+        <v>449</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -18793,6 +19256,9 @@
       <c r="AL13" t="n">
         <v>606</v>
       </c>
+      <c r="AM13" t="n">
+        <v>629</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -18913,6 +19379,9 @@
       <c r="AL14" t="n">
         <v>547</v>
       </c>
+      <c r="AM14" t="n">
+        <v>505</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -19033,6 +19502,9 @@
       <c r="AL15" t="n">
         <v>516</v>
       </c>
+      <c r="AM15" t="n">
+        <v>602</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -19153,6 +19625,9 @@
       <c r="AL16" t="n">
         <v>396</v>
       </c>
+      <c r="AM16" t="n">
+        <v>467</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -19273,6 +19748,9 @@
       <c r="AL17" t="n">
         <v>614</v>
       </c>
+      <c r="AM17" t="n">
+        <v>514</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -19393,6 +19871,9 @@
       <c r="AL18" t="n">
         <v>754</v>
       </c>
+      <c r="AM18" t="n">
+        <v>777</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -19513,6 +19994,9 @@
       <c r="AL19" t="n">
         <v>772</v>
       </c>
+      <c r="AM19" t="n">
+        <v>806</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -19633,6 +20117,9 @@
       <c r="AL20" t="n">
         <v>794</v>
       </c>
+      <c r="AM20" t="n">
+        <v>827</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -19753,6 +20240,9 @@
       <c r="AL21" t="n">
         <v>351</v>
       </c>
+      <c r="AM21" t="n">
+        <v>359</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -19873,6 +20363,9 @@
       <c r="AL22" t="n">
         <v>182</v>
       </c>
+      <c r="AM22" t="n">
+        <v>189</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -19993,6 +20486,9 @@
       <c r="AL23" t="n">
         <v>199</v>
       </c>
+      <c r="AM23" t="n">
+        <v>208</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -20113,6 +20609,9 @@
       <c r="AL24" t="n">
         <v>175</v>
       </c>
+      <c r="AM24" t="n">
+        <v>181</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -20233,6 +20732,9 @@
       <c r="AL25" t="n">
         <v>294</v>
       </c>
+      <c r="AM25" t="n">
+        <v>303</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -20353,6 +20855,9 @@
       <c r="AL26" t="n">
         <v>285</v>
       </c>
+      <c r="AM26" t="n">
+        <v>293</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20473,6 +20978,9 @@
       <c r="AL27" t="n">
         <v>183</v>
       </c>
+      <c r="AM27" t="n">
+        <v>179</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20593,6 +21101,9 @@
       <c r="AL28" t="n">
         <v>243</v>
       </c>
+      <c r="AM28" t="n">
+        <v>270</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20713,11 +21224,14 @@
       <c r="AL29" t="n">
         <v>346</v>
       </c>
+      <c r="AM29" t="n">
+        <v>357</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Život během pandemie, Kontakty vs. protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 6. 1. 2022</t>
+          <t>Život během pandemie, Kontakty vs. protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 2. 2022</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -20757,6 +21271,7 @@
       <c r="AJ30" t="inlineStr"/>
       <c r="AK30" t="inlineStr"/>
       <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_10_kontakty_aktivity.xlsx
+++ b/ZBP_10_kontakty_aktivity.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN142"/>
+  <dimension ref="A1:AO142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -660,6 +660,11 @@
           <t>25. 1. 2022</t>
         </is>
       </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>22. 2. 2022</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -788,6 +793,9 @@
       <c r="AN2" t="n">
         <v>0.21</v>
       </c>
+      <c r="AO2" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -916,6 +924,9 @@
       <c r="AN3" t="n">
         <v>0.16</v>
       </c>
+      <c r="AO3" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1042,7 +1053,10 @@
         <v>0.22</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="5">
@@ -1172,6 +1186,9 @@
       <c r="AN5" t="n">
         <v>0.15</v>
       </c>
+      <c r="AO5" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1298,7 +1315,10 @@
         <v>0.29</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="7">
@@ -1428,6 +1448,9 @@
       <c r="AN7" t="n">
         <v>0.21</v>
       </c>
+      <c r="AO7" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1556,6 +1579,9 @@
       <c r="AN8" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AO8" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1684,6 +1710,9 @@
       <c r="AN9" t="n">
         <v>0.23</v>
       </c>
+      <c r="AO9" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1810,7 +1839,10 @@
         <v>0.06</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -1938,7 +1970,10 @@
         <v>0.39</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="12">
@@ -2008,6 +2043,9 @@
       <c r="AN12" t="n">
         <v>0.21</v>
       </c>
+      <c r="AO12" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2074,7 +2112,10 @@
         <v>0.16</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="14">
@@ -2144,6 +2185,9 @@
       <c r="AN14" t="n">
         <v>0.16</v>
       </c>
+      <c r="AO14" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2212,6 +2256,9 @@
       <c r="AN15" t="n">
         <v>0.16</v>
       </c>
+      <c r="AO15" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2278,7 +2325,10 @@
         <v>0.28</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="17">
@@ -2408,6 +2458,9 @@
       <c r="AN17" t="n">
         <v>0.15</v>
       </c>
+      <c r="AO17" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2536,6 +2589,9 @@
       <c r="AN18" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AO18" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2662,7 +2718,10 @@
         <v>0.23</v>
       </c>
       <c r="AN19" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="20">
@@ -2792,6 +2851,9 @@
       <c r="AN20" t="n">
         <v>0.12</v>
       </c>
+      <c r="AO20" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2918,7 +2980,10 @@
         <v>0.44</v>
       </c>
       <c r="AN21" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="22">
@@ -2986,7 +3051,10 @@
         <v>0.13</v>
       </c>
       <c r="AN22" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="23">
@@ -3056,6 +3124,9 @@
       <c r="AN23" t="n">
         <v>0.14</v>
       </c>
+      <c r="AO23" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3124,6 +3195,9 @@
       <c r="AN24" t="n">
         <v>0.18</v>
       </c>
+      <c r="AO24" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3192,6 +3266,9 @@
       <c r="AN25" t="n">
         <v>0.16</v>
       </c>
+      <c r="AO25" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3258,7 +3335,10 @@
         <v>0.37</v>
       </c>
       <c r="AN26" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="27">
@@ -3386,7 +3466,10 @@
         <v>0.33</v>
       </c>
       <c r="AN27" t="n">
-        <v>0.34</v>
+        <v>0.36</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="28">
@@ -3516,6 +3599,9 @@
       <c r="AN28" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AO28" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3642,7 +3728,10 @@
         <v>0.27</v>
       </c>
       <c r="AN29" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="30">
@@ -3770,6 +3859,9 @@
         <v>0.02</v>
       </c>
       <c r="AN30" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AO30" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -3898,7 +3990,10 @@
         <v>0.25</v>
       </c>
       <c r="AN31" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="32">
@@ -3966,7 +4061,10 @@
         <v>0.23</v>
       </c>
       <c r="AN32" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="33">
@@ -4034,7 +4132,10 @@
         <v>0.25</v>
       </c>
       <c r="AN33" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="34">
@@ -4102,7 +4203,10 @@
         <v>0.21</v>
       </c>
       <c r="AN34" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="35">
@@ -4172,6 +4276,9 @@
       <c r="AN35" t="n">
         <v>0.16</v>
       </c>
+      <c r="AO35" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4238,7 +4345,10 @@
         <v>0.13</v>
       </c>
       <c r="AN36" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="37">
@@ -4368,6 +4478,9 @@
       <c r="AN37" t="n">
         <v>0.11</v>
       </c>
+      <c r="AO37" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4496,6 +4609,9 @@
       <c r="AN38" t="n">
         <v>0.09</v>
       </c>
+      <c r="AO38" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4622,6 +4738,9 @@
         <v>0.22</v>
       </c>
       <c r="AN39" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AO39" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -4752,6 +4871,9 @@
       <c r="AN40" t="n">
         <v>0.11</v>
       </c>
+      <c r="AO40" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4878,7 +5000,10 @@
         <v>0.49</v>
       </c>
       <c r="AN41" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0.53</v>
       </c>
     </row>
     <row r="42">
@@ -5008,6 +5133,9 @@
       <c r="AN42" t="n">
         <v>0.16</v>
       </c>
+      <c r="AO42" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5136,6 +5264,9 @@
       <c r="AN43" t="n">
         <v>0.15</v>
       </c>
+      <c r="AO43" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5262,7 +5393,10 @@
         <v>0.22</v>
       </c>
       <c r="AN44" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="45">
@@ -5392,6 +5526,9 @@
       <c r="AN45" t="n">
         <v>0.17</v>
       </c>
+      <c r="AO45" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5518,7 +5655,10 @@
         <v>0.34</v>
       </c>
       <c r="AN46" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>0.37</v>
       </c>
     </row>
     <row r="47">
@@ -5648,6 +5788,9 @@
       <c r="AN47" t="n">
         <v>0.31</v>
       </c>
+      <c r="AO47" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5774,7 +5917,10 @@
         <v>0.23</v>
       </c>
       <c r="AN48" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="49">
@@ -5902,7 +6048,10 @@
         <v>0.22</v>
       </c>
       <c r="AN49" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="50">
@@ -6032,6 +6181,9 @@
       <c r="AN50" t="n">
         <v>0.15</v>
       </c>
+      <c r="AO50" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6158,6 +6310,9 @@
         <v>0.15</v>
       </c>
       <c r="AN51" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AO51" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -6288,6 +6443,9 @@
       <c r="AN52" t="n">
         <v>0.15</v>
       </c>
+      <c r="AO52" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6416,6 +6574,9 @@
       <c r="AN53" t="n">
         <v>0.11</v>
       </c>
+      <c r="AO53" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6544,6 +6705,9 @@
       <c r="AN54" t="n">
         <v>0.19</v>
       </c>
+      <c r="AO54" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6672,6 +6836,9 @@
       <c r="AN55" t="n">
         <v>0.11</v>
       </c>
+      <c r="AO55" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6800,6 +6967,9 @@
       <c r="AN56" t="n">
         <v>0.44</v>
       </c>
+      <c r="AO56" t="n">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6926,7 +7096,10 @@
         <v>0.21</v>
       </c>
       <c r="AN57" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="58">
@@ -7056,6 +7229,9 @@
       <c r="AN58" t="n">
         <v>0.16</v>
       </c>
+      <c r="AO58" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7182,6 +7358,9 @@
         <v>0.21</v>
       </c>
       <c r="AN59" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AO59" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -7310,7 +7489,10 @@
         <v>0.16</v>
       </c>
       <c r="AN60" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="61">
@@ -7438,7 +7620,10 @@
         <v>0.28</v>
       </c>
       <c r="AN61" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="62">
@@ -7568,6 +7753,9 @@
       <c r="AN62" t="n">
         <v>0.25</v>
       </c>
+      <c r="AO62" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7696,6 +7884,9 @@
       <c r="AN63" t="n">
         <v>0.21</v>
       </c>
+      <c r="AO63" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7824,6 +8015,9 @@
       <c r="AN64" t="n">
         <v>0.11</v>
       </c>
+      <c r="AO64" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7952,6 +8146,9 @@
       <c r="AN65" t="n">
         <v>0.22</v>
       </c>
+      <c r="AO65" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8080,6 +8277,9 @@
       <c r="AN66" t="n">
         <v>0.21</v>
       </c>
+      <c r="AO66" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8208,6 +8408,9 @@
       <c r="AN67" t="n">
         <v>0.15</v>
       </c>
+      <c r="AO67" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8336,6 +8539,9 @@
       <c r="AN68" t="n">
         <v>0.13</v>
       </c>
+      <c r="AO68" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8462,7 +8668,10 @@
         <v>0.2</v>
       </c>
       <c r="AN69" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="70">
@@ -8592,6 +8801,9 @@
       <c r="AN70" t="n">
         <v>0.18</v>
       </c>
+      <c r="AO70" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8718,7 +8930,10 @@
         <v>0.38</v>
       </c>
       <c r="AN71" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="72">
@@ -8848,6 +9063,9 @@
       <c r="AN72" t="n">
         <v>0.2</v>
       </c>
+      <c r="AO72" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8976,6 +9194,9 @@
       <c r="AN73" t="n">
         <v>0.2</v>
       </c>
+      <c r="AO73" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -9102,7 +9323,10 @@
         <v>0.22</v>
       </c>
       <c r="AN74" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="75">
@@ -9230,7 +9454,10 @@
         <v>0.19</v>
       </c>
       <c r="AN75" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="76">
@@ -9360,6 +9587,9 @@
       <c r="AN76" t="n">
         <v>0.29</v>
       </c>
+      <c r="AO76" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -9488,6 +9718,9 @@
       <c r="AN77" t="n">
         <v>0.29</v>
       </c>
+      <c r="AO77" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -9616,6 +9849,9 @@
       <c r="AN78" t="n">
         <v>0.16</v>
       </c>
+      <c r="AO78" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -9744,6 +9980,9 @@
       <c r="AN79" t="n">
         <v>0.19</v>
       </c>
+      <c r="AO79" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -9872,6 +10111,9 @@
       <c r="AN80" t="n">
         <v>0.11</v>
       </c>
+      <c r="AO80" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -10000,6 +10242,9 @@
       <c r="AN81" t="n">
         <v>0.25</v>
       </c>
+      <c r="AO81" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -10128,6 +10373,9 @@
       <c r="AN82" t="n">
         <v>0.17</v>
       </c>
+      <c r="AO82" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -10256,6 +10504,9 @@
       <c r="AN83" t="n">
         <v>0.16</v>
       </c>
+      <c r="AO83" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -10382,7 +10633,10 @@
         <v>0.23</v>
       </c>
       <c r="AN84" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="85">
@@ -10512,6 +10766,9 @@
       <c r="AN85" t="n">
         <v>0.15</v>
       </c>
+      <c r="AO85" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -10638,7 +10895,10 @@
         <v>0.3</v>
       </c>
       <c r="AN86" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="87">
@@ -10766,7 +11026,10 @@
         <v>0.18</v>
       </c>
       <c r="AN87" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="88">
@@ -10896,6 +11159,9 @@
       <c r="AN88" t="n">
         <v>0.16</v>
       </c>
+      <c r="AO88" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -11024,6 +11290,9 @@
       <c r="AN89" t="n">
         <v>0.17</v>
       </c>
+      <c r="AO89" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -11152,6 +11421,9 @@
       <c r="AN90" t="n">
         <v>0.15</v>
       </c>
+      <c r="AO90" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -11278,7 +11550,10 @@
         <v>0.27</v>
       </c>
       <c r="AN91" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="92">
@@ -11408,6 +11683,9 @@
       <c r="AN92" t="n">
         <v>0.19</v>
       </c>
+      <c r="AO92" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -11534,7 +11812,10 @@
         <v>0.15</v>
       </c>
       <c r="AN93" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="94">
@@ -11664,6 +11945,9 @@
       <c r="AN94" t="n">
         <v>0.19</v>
       </c>
+      <c r="AO94" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -11792,6 +12076,9 @@
       <c r="AN95" t="n">
         <v>0.12</v>
       </c>
+      <c r="AO95" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -11918,6 +12205,9 @@
         <v>0.29</v>
       </c>
       <c r="AN96" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AO96" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -12048,6 +12338,9 @@
       <c r="AN97" t="n">
         <v>0.22</v>
       </c>
+      <c r="AO97" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -12174,7 +12467,10 @@
         <v>0.12</v>
       </c>
       <c r="AN98" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="99">
@@ -12302,7 +12598,10 @@
         <v>0.19</v>
       </c>
       <c r="AN99" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
+      </c>
+      <c r="AO99" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="100">
@@ -12430,7 +12729,10 @@
         <v>0.24</v>
       </c>
       <c r="AN100" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="101">
@@ -12558,7 +12860,10 @@
         <v>0.3</v>
       </c>
       <c r="AN101" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="102">
@@ -12688,6 +12993,9 @@
       <c r="AN102" t="n">
         <v>0.26</v>
       </c>
+      <c r="AO102" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -12816,6 +13124,9 @@
       <c r="AN103" t="n">
         <v>0.13</v>
       </c>
+      <c r="AO103" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -12944,6 +13255,9 @@
       <c r="AN104" t="n">
         <v>0.14</v>
       </c>
+      <c r="AO104" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -13072,6 +13386,9 @@
       <c r="AN105" t="n">
         <v>0.2</v>
       </c>
+      <c r="AO105" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -13200,6 +13517,9 @@
       <c r="AN106" t="n">
         <v>0.27</v>
       </c>
+      <c r="AO106" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -13326,7 +13646,10 @@
         <v>0.18</v>
       </c>
       <c r="AN107" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="108">
@@ -13456,6 +13779,9 @@
       <c r="AN108" t="n">
         <v>0.13</v>
       </c>
+      <c r="AO108" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -13584,6 +13910,9 @@
       <c r="AN109" t="n">
         <v>0.16</v>
       </c>
+      <c r="AO109" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -13712,6 +14041,9 @@
       <c r="AN110" t="n">
         <v>0.17</v>
       </c>
+      <c r="AO110" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -13838,7 +14170,10 @@
         <v>0.24</v>
       </c>
       <c r="AN111" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="112">
@@ -13966,7 +14301,10 @@
         <v>0.14</v>
       </c>
       <c r="AN112" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="113">
@@ -14096,6 +14434,9 @@
       <c r="AN113" t="n">
         <v>0.06</v>
       </c>
+      <c r="AO113" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -14222,7 +14563,10 @@
         <v>0.25</v>
       </c>
       <c r="AN114" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
+      </c>
+      <c r="AO114" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="115">
@@ -14352,6 +14696,9 @@
       <c r="AN115" t="n">
         <v>0.12</v>
       </c>
+      <c r="AO115" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -14480,6 +14827,9 @@
       <c r="AN116" t="n">
         <v>0.48</v>
       </c>
+      <c r="AO116" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -14608,6 +14958,9 @@
       <c r="AN117" t="n">
         <v>0.15</v>
       </c>
+      <c r="AO117" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -14734,7 +15087,10 @@
         <v>0.09</v>
       </c>
       <c r="AN118" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
+      </c>
+      <c r="AO118" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="119">
@@ -14864,6 +15220,9 @@
       <c r="AN119" t="n">
         <v>0.16</v>
       </c>
+      <c r="AO119" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -14990,7 +15349,10 @@
         <v>0.2</v>
       </c>
       <c r="AN120" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
+      </c>
+      <c r="AO120" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="121">
@@ -15120,6 +15482,9 @@
       <c r="AN121" t="n">
         <v>0.38</v>
       </c>
+      <c r="AO121" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -15248,6 +15613,9 @@
       <c r="AN122" t="n">
         <v>0.23</v>
       </c>
+      <c r="AO122" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -15376,6 +15744,9 @@
       <c r="AN123" t="n">
         <v>0.22</v>
       </c>
+      <c r="AO123" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -15502,7 +15873,10 @@
         <v>0.25</v>
       </c>
       <c r="AN124" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
+      </c>
+      <c r="AO124" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="125">
@@ -15632,6 +16006,9 @@
       <c r="AN125" t="n">
         <v>0.17</v>
       </c>
+      <c r="AO125" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -15758,6 +16135,9 @@
         <v>0.17</v>
       </c>
       <c r="AN126" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AO126" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -15888,6 +16268,9 @@
       <c r="AN127" t="n">
         <v>0.11</v>
       </c>
+      <c r="AO127" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -16016,6 +16399,9 @@
       <c r="AN128" t="n">
         <v>0.12</v>
       </c>
+      <c r="AO128" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -16144,6 +16530,9 @@
       <c r="AN129" t="n">
         <v>0.21</v>
       </c>
+      <c r="AO129" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -16272,6 +16661,9 @@
       <c r="AN130" t="n">
         <v>0.1</v>
       </c>
+      <c r="AO130" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -16400,6 +16792,9 @@
       <c r="AN131" t="n">
         <v>0.46</v>
       </c>
+      <c r="AO131" t="n">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -16526,7 +16921,10 @@
         <v>0.12</v>
       </c>
       <c r="AN132" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
+      </c>
+      <c r="AO132" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="133">
@@ -16654,7 +17052,10 @@
         <v>0.14</v>
       </c>
       <c r="AN133" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
+      </c>
+      <c r="AO133" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="134">
@@ -16782,7 +17183,10 @@
         <v>0.24</v>
       </c>
       <c r="AN134" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
+      </c>
+      <c r="AO134" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="135">
@@ -16910,7 +17314,10 @@
         <v>0.18</v>
       </c>
       <c r="AN135" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
+      </c>
+      <c r="AO135" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="136">
@@ -17038,7 +17445,10 @@
         <v>0.32</v>
       </c>
       <c r="AN136" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
+      </c>
+      <c r="AO136" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="137">
@@ -17166,7 +17576,10 @@
         <v>0.25</v>
       </c>
       <c r="AN137" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
+      </c>
+      <c r="AO137" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="138">
@@ -17296,6 +17709,9 @@
       <c r="AN138" t="n">
         <v>0.21</v>
       </c>
+      <c r="AO138" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -17424,6 +17840,9 @@
       <c r="AN139" t="n">
         <v>0.14</v>
       </c>
+      <c r="AO139" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -17552,6 +17971,9 @@
       <c r="AN140" t="n">
         <v>0.14</v>
       </c>
+      <c r="AO140" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -17678,13 +18100,16 @@
         <v>0.14</v>
       </c>
       <c r="AN141" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
+      </c>
+      <c r="AO141" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Život během pandemie, Kontakty vs. protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 1. 2. 2022</t>
+          <t>Život během pandemie, Kontakty vs. protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 2. 3. 2022</t>
         </is>
       </c>
     </row>
@@ -17699,7 +18124,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM30"/>
+  <dimension ref="A1:AN30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17903,6 +18328,11 @@
           <t>25. 1. 2022</t>
         </is>
       </c>
+      <c r="AN1" s="2" t="inlineStr">
+        <is>
+          <t>22. 2. 2022</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -18024,7 +18454,10 @@
         <v>1526</v>
       </c>
       <c r="AM2" t="n">
-        <v>1583</v>
+        <v>1614</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1525</v>
       </c>
     </row>
     <row r="3">
@@ -18147,7 +18580,10 @@
         <v>326</v>
       </c>
       <c r="AM3" t="n">
-        <v>326</v>
+        <v>333</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>298</v>
       </c>
     </row>
     <row r="4">
@@ -18230,7 +18666,10 @@
         <v>1200</v>
       </c>
       <c r="AM4" t="n">
-        <v>1257</v>
+        <v>1281</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>1227</v>
       </c>
     </row>
     <row r="5">
@@ -18353,7 +18792,10 @@
         <v>229</v>
       </c>
       <c r="AM5" t="n">
-        <v>230</v>
+        <v>232</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>215</v>
       </c>
     </row>
     <row r="6">
@@ -18436,7 +18878,10 @@
         <v>649</v>
       </c>
       <c r="AM6" t="n">
-        <v>684</v>
+        <v>699</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>672</v>
       </c>
     </row>
     <row r="7">
@@ -18559,7 +19004,10 @@
         <v>97</v>
       </c>
       <c r="AM7" t="n">
-        <v>96</v>
+        <v>102</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="8">
@@ -18642,7 +19090,10 @@
         <v>551</v>
       </c>
       <c r="AM8" t="n">
-        <v>573</v>
+        <v>581</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>556</v>
       </c>
     </row>
     <row r="9">
@@ -18765,6 +19216,9 @@
         <v>358</v>
       </c>
       <c r="AM9" t="n">
+        <v>366</v>
+      </c>
+      <c r="AN9" t="n">
         <v>360</v>
       </c>
     </row>
@@ -18888,7 +19342,10 @@
         <v>537</v>
       </c>
       <c r="AM10" t="n">
-        <v>572</v>
+        <v>584</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>545</v>
       </c>
     </row>
     <row r="11">
@@ -19011,7 +19468,10 @@
         <v>631</v>
       </c>
       <c r="AM11" t="n">
-        <v>651</v>
+        <v>664</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>620</v>
       </c>
     </row>
     <row r="12">
@@ -19134,7 +19594,10 @@
         <v>373</v>
       </c>
       <c r="AM12" t="n">
-        <v>449</v>
+        <v>452</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>512</v>
       </c>
     </row>
     <row r="13">
@@ -19257,7 +19720,10 @@
         <v>606</v>
       </c>
       <c r="AM13" t="n">
-        <v>629</v>
+        <v>643</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>630</v>
       </c>
     </row>
     <row r="14">
@@ -19380,7 +19846,10 @@
         <v>547</v>
       </c>
       <c r="AM14" t="n">
-        <v>505</v>
+        <v>519</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>383</v>
       </c>
     </row>
     <row r="15">
@@ -19503,7 +19972,10 @@
         <v>516</v>
       </c>
       <c r="AM15" t="n">
-        <v>602</v>
+        <v>617</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>592</v>
       </c>
     </row>
     <row r="16">
@@ -19626,7 +20098,10 @@
         <v>396</v>
       </c>
       <c r="AM16" t="n">
-        <v>467</v>
+        <v>469</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>379</v>
       </c>
     </row>
     <row r="17">
@@ -19749,7 +20224,10 @@
         <v>614</v>
       </c>
       <c r="AM17" t="n">
-        <v>514</v>
+        <v>528</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>554</v>
       </c>
     </row>
     <row r="18">
@@ -19872,7 +20350,10 @@
         <v>754</v>
       </c>
       <c r="AM18" t="n">
-        <v>777</v>
+        <v>789</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>754</v>
       </c>
     </row>
     <row r="19">
@@ -19995,7 +20476,10 @@
         <v>772</v>
       </c>
       <c r="AM19" t="n">
-        <v>806</v>
+        <v>825</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>771</v>
       </c>
     </row>
     <row r="20">
@@ -20118,7 +20602,10 @@
         <v>794</v>
       </c>
       <c r="AM20" t="n">
-        <v>827</v>
+        <v>849</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>789</v>
       </c>
     </row>
     <row r="21">
@@ -20241,7 +20728,10 @@
         <v>351</v>
       </c>
       <c r="AM21" t="n">
-        <v>359</v>
+        <v>360</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>354</v>
       </c>
     </row>
     <row r="22">
@@ -20364,7 +20854,10 @@
         <v>182</v>
       </c>
       <c r="AM22" t="n">
-        <v>189</v>
+        <v>192</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>182</v>
       </c>
     </row>
     <row r="23">
@@ -20487,7 +20980,10 @@
         <v>199</v>
       </c>
       <c r="AM23" t="n">
-        <v>208</v>
+        <v>213</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="24">
@@ -20610,7 +21106,10 @@
         <v>175</v>
       </c>
       <c r="AM24" t="n">
-        <v>181</v>
+        <v>185</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>185</v>
       </c>
     </row>
     <row r="25">
@@ -20733,7 +21232,10 @@
         <v>294</v>
       </c>
       <c r="AM25" t="n">
-        <v>303</v>
+        <v>304</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>284</v>
       </c>
     </row>
     <row r="26">
@@ -20856,7 +21358,10 @@
         <v>285</v>
       </c>
       <c r="AM26" t="n">
-        <v>293</v>
+        <v>300</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>285</v>
       </c>
     </row>
     <row r="27">
@@ -20979,7 +21484,10 @@
         <v>183</v>
       </c>
       <c r="AM27" t="n">
-        <v>179</v>
+        <v>182</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>175</v>
       </c>
     </row>
     <row r="28">
@@ -21102,7 +21610,10 @@
         <v>243</v>
       </c>
       <c r="AM28" t="n">
-        <v>270</v>
+        <v>279</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>261</v>
       </c>
     </row>
     <row r="29">
@@ -21225,13 +21736,16 @@
         <v>346</v>
       </c>
       <c r="AM29" t="n">
-        <v>357</v>
+        <v>364</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>335</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Život během pandemie, Kontakty vs. protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 2. 2022</t>
+          <t>Život během pandemie, Kontakty vs. protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 2. 3. 2022</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -21272,6 +21786,7 @@
       <c r="AK30" t="inlineStr"/>
       <c r="AL30" t="inlineStr"/>
       <c r="AM30" t="inlineStr"/>
+      <c r="AN30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
